--- a/기사데이터/토스/엑셀파일/news(토스, 2022.11.16~2022.11.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.11.16~2022.11.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.11.28.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>대출 문턱 높인 시중은행…중·저신용자 몰리는 인터넷은행</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003243060?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   .    시중은행의 대출 문턱이 점점 더 높아지면서 돈 빌리기 어려워진 중·저신용자들이 인터넷전문은행으로 시선을 돌리고 있다. 이에 카카오뱅크와 케이뱅크, 토스뱅크는 올해 중·저신용자 대출 비중 목표 달성에 근접해가는 모습이다.  27일 금융권에 따르면 한국은행 금융통화위원회가 지난 24일 기준금리를 0.25%포인트 인상하면서 대출 문턱이 한 차례 더 높아질 예정이다.     한국은행의 '2022년 3분기 가계신용(잠정)' 통계에 따르면 9월 말 기준 가계대출 잔액은 1756조8000억원을 기록했다. 이는 2분기 말 1757조1000억원 대비 3000억원 줄어든 수치다.     금융권은 이번 기준금리 인상 폭만큼 대출금리가 오른다고 가정했을 때, 대출자 1인당 연간 이자 부담이 약 16만5000원 수준이 늘어난다고 계산한다. 지난해 8월 이후 9차례 기준금리가 인상(2.75%p)된 것을 계산하면, 차주 1인당 평균 연이자 부담 증가액은 약 180만원 정도로 추산된다.     대출 금리도 높은데, 은행들은 리스크 관리 필요성이 높아지면서 상대적으로 부실 위험이 큰 금융 소비자의 대출 문턱을 높이고 있는 분위기다. 2금융권 역시 금리 인상으로 조달 비용 부담이 커지면서 대출 심사 기준을 높여 중·저신용자들이 갈 곳을 잃게 됐다는 목소리가 나온다.      카카오뱅크 판교 오피스      케이뱅크 사옥      토스     이런 가운데 이들을 흡수한 곳은 1금융권인 인터넷은행이었다.       카카오뱅크는 올해에만 2조1147억원 규모의 중·저신용자에게 무보증 신용대출을 공급했다. 이는 전년 연간 공급 규모(1조7000억원)를 이미 넘긴 수치다.     카카오뱅크 관계자는 "카카오뱅크는 지난 10월 중신용 대출 상품의 금리를 최대 0.5%포인트 인하하는 등 중·저신용 고객의 금융 비용 부담 완화했다"고 말했다.     케이뱅크는 올해 3분기까지 누적 중·저신용자 대출 규모가 1조5992억원으로 집계됐다. 이는 지난해 연간 공급한 대출 7510억원의 2배가 넘는 규모다.       특히 은행연합회 대출금리 비교에 공시된 대출금리 현황(7~9월 취급 기준)에 따르면, 케이뱅크의 중·저신용자 대출은 대부분의 신용점수 구간에서 인터넷은행 중 금리가 가장 낮았다.     케이뱅크 관계자는 "케이뱅크에서 대출을 실행한 중·저신용 고객들은 낮은 금리 혜택을 봤다"고 설명했다.     이에 따라 인터넷은행들은 올해 중·저신용자 대출 목표치에 근접한 성적표를 내놨다. 케이뱅크의 올해 3분기 말 기준 중저신용 대출 비중은 24.7%, 카카오뱅크는 24%로 목표치는 25%에 모두 근접했다. 또 토스뱅크의 경우 지난 19일 기준 중·저신용자 대출 비중이 40.1%를 기록하며, 올해 목표 비중인 42%에 얼마 남지 않은 수치를 내놨다. 올해 1월 대출 영업을 정상화한 토스뱅크의 중저신용 대출 규모는 총 2조7000억원이다.     금융권 관계자는 "신용등급이 낮은 금융 소비자에게 1금융권은 물론이고 카드·보험까지 리스크 관리를 위해 대출 심사를 깐깐히 하고 있는 분위기"라며 "중·저신용자 대출 확대가 인터넷은행의 설립 취지인 만큼 제 역할을 해내고 있는 것 같다"고 말했다.     권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.11.19.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Z세대 모셔라…근무시간까지 바꾸는 금융업계</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011545917?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>기사내용 요약현대카드, 월 최대 40% 재택근무 가능신한카드, '1시간 휴가제도' 운영 중토스, 크리스마스 이브~연말 전사 휴가카카오페이, 호칭·복장 통해 수평문화 애써네이버, 휴가 두 배로 주고 결재도 본인이[서울=뉴시스]현대카드는 지난 6월 서울 강남역 인근에 거점오피스인 '디지털 오피스'를 오픈해 근무지를 유연하게 했다. 현대카드 직원은 여의도 본사 대신 거점오피스로 출근을 갈음할 수 있다.(사진=현대카드 제공)2022.11.18 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = #인천에 사는 금융사 직원 A씨는 월요일은 집 근처에서 가까운 사무실로 출근해 업무를 시작한다. 일주일에 2번은 서울 본사로 출근하고, 나머지는 가까운 사무실로 출근한다.#또 다른 금융사 직원 B씨는 금요일 오전 10시 출근과 함께 오늘 하루 근무할 자리를 키오스크 앞에서 선택하고 자리에 앉는다. 곧 있을 회의에 참석하기 위해 사내 카페를 찾아 커피를 주문하고 잠시 창 밖을 바라보며 티타임을 즐긴다.코로나19 팬데믹 기간의 긴 공백을 깨고 많은 금융사들이 신입사원 모집에 한창이다. 최근 신입사원이라는 이름으로 기업에 발을 내딛는 이들은 바로 1996년부터 2012년 사이에 태어난 'Z(제너레이션)'세대다. 이들 Z세대는 앞선 밀레니얼(M세대·1980년대~1990년대 초 태생)들과도 다르다며 선을 긋는 남다른 세대다. 인터넷이 없던 세상을 아예 경험해 본 적이 없으며 부모에 의해 어린 시절부터 소셜미디어(SNS)에 얼굴을 올렸던 이들은 태생적으로 온라인과 비대면이 익숙한, 전에 없던 새로운 세대다.이들에게 '평생직장'이란 낯선 개념이며, 2~3년 내 이직을 하지 못하면 자신의 가치를 증명하지 못한다 여긴다. 금융사들은 이들을 모셔 와 자사로부터 이탈을 막기 위해 사내 문화를 바꾸는 데 한창 열을 올리고 있다.  현대카드는 올해 5월 국내 금융권 최초로 '상시 재택근무'를 도입했다. 부서별 업무 특성·상황별로 재택근무율을 정해두고, 직원이 원하는 날짜에 자유롭게 재택근무를 할 수 있다. 월 근무일수 20일 중 최대 40%까지 재택근무를 할 수 있다. 6월에는 서울 강남역 인근에 거점오피스인 '디지털 오피스'를 오픈해 근무지를 유연하게 했다.또 현대카드는 오전 10시부터 오후 4시까지의 코어타임(core time)을 제외하고 자유롭게 출퇴근할 수 있는 '플렉스타임(Flex Time)'을 운영하고 있다. 또 점심시간 역시 자유롭게 쓸 수 있는 '플렉스런치(Flex Lunch)'를 도입해 개개인의 시간을 존중하는 문화를 사내에 정착했다. 신한카드 역시 '모든 팀원이 한 장소에 모여 근무해야 한다'는 고정관념에서 벗어나기 위해 '스마트워크플레이스(SWP)' 제도를 도입했다. 'SWP'는 지방에서도 장소 제약없이 본사 업무 수행이 가능하도록 한 지역 거점오피스이다. 장거리 출퇴근으로 인한 스트레스와 원격지 근무로 가족과 떨어져 지내야 하는 불편함을 해소했다는 평가를 받는다. SWP는 현재 전국적으로 총 5곳을 운영 중이다.또 신한카드는 한 층 전체를 자유롭게 쓸 수 있도록 지정 좌석을 없앤 자율 좌석제를 운영 중이다. 또 휴가를 시간 단위로 쪼갠 '1시간 휴가제도'를 신설해 젊은 사원들에게 큰 호응을 얻고 있다. [서울=뉴시스]토스는 사내 카페인 '커피 사일로(Coffee Silo)'를 무료로 운영하고 있다. 아침엔 식사용 샌드위치도 제공한다. 사내 편의점도 운영하는데, 다양한 종류의 스낵부터 칫솔·치약, 머리끈, 양말·스타킹 등 생필품까지 무료로 제공한다.(사진=토스 제공)2022.11.18 photo@newsis.com *재판매 및 DB 금지전자금융업자인 핀테크(온라인플랫폼사)들은 더 유연한 근무환경을 제공한다. 토스는 원하는 곳, 원하는 시간대를 선택해 일할 수 있다. 유연한 근무 환경이 일과 삶의 균형에 도움이 된다는 생각에서다. 매주 금요일엔 오후 2시에 퇴근하는 '얼리 프라이데이' 제도를 운영하고 있다. 크리스마스 이브부터 연말까지는 전사가 휴식할 수 있는 '겨울방학'이 존재한다. 카카오페이는 합리적인 근무문화를 위해 올 7월부터 포괄임금제를 폐지하고 일하는 문화를 바텀업 방식(Bottom-up)으로 정립하겠다고 밝혀 Z세대에게 큰 호응을 받았다. 또 속칭 '꼰대문화'를 지양하고 수평적 논의 문화를 지향하기 위해 서로 직급과 존칭을 뗀 '영어 호칭'을 사용한다. 복장의 자율화를 독려하기 위해 자체 후드집업과 티셔츠를 제작해 배포하기도 했다. 네이버는 업계 최초로 주5일 근무제, 10시 출근, 리프레시휴가, 책임근무제, OCC 등을 도입한 것으로 유명하다. 지난 7월부턴 주 5일 원격근무를 하는 R타입과 주 3일 이상 회사로 출근하는 O타입 2가지 근무형태 중 하나를 고를 수 있는 '커넥티드워크' 제도를 도입했다. 리프레시 휴가는 일에 집중한 만큼 편하게 쉴 수 있도록 기본 연차 외 유급 휴가(15일) 추가 제공하는 제도다. 또 '본인전결화 제도'를 통해 휴가, 출장, 외근, 업무기기 신청을 직원 스스로 결정하고 선택하게 했다. 이를 통해 결재의 대부분을 조직장이 승인하는 번거로운 과정을 줄였다는 자평이다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.11.28.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>너무 중앙화된 업비트…어느새 쥔 블록체인 프로젝트 '생사여탈권'</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000041599?sid=105</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>사진 왼쪽부터 빗썸(빗썸코리아) 이재원 대표, 코인원 차명훈 대표, 고팍스(스트리미) 이준행 대표, 코빗 김재홍 최고전략책임자, 업비트(두나무) 이석우 대표.(사진=디지털자산 거래소 공동협의체)블록체인의 본질은 중앙집권적인 금융시스템을 탈피해 개인들이 서로 믿고 거래할 수 있는 '탈중앙화'에 있지만, 현재 업비트가 영향을 준 일련의 사건들을 살펴보면 그 본질과 거리가 멀어지고 있다는 지적이 나온다. 블록체인 프로젝트들은 상호 독립적인 관계보다는 업비트의 정책과 동조할 수밖에 없는 관계가 굳어지고 있다.28일 업계에 따르면 업비트가 프로젝트에 가진 영향력을 알 수 있는 사례로 '앱토스(Aptos)' 토크노믹스 유출 사건이 거론된다. 메타(페이스북)의 블록체인 프로젝트 '디엠' 개발진들이 창업해 결성한 앱토스는 지난 10월 17일 자체 메인넷을 출시하고 동명의 토큰을 같은달 19일 업비트를 비롯해 바이낸스, FTX, 후오비 등 세계 각 거래소에 상장했다.그런데 앱토스 측은 상장 전날인 18일까지도 토큰 발행량 및 유통량을 결정하는 '토크노믹스(토큰 경제)'를 공개하지 않은 상태였다. 이를 두고 앱토스의 디스코드(Discord) 방에선 "토크노믹스 없이 우리가 앱토스 가치를 어떻게 아나", "토크노믹스 어딨나? (아직 발표되지 않았다는 답을 듣고) 내일 상장하는데 미쳤네" 등 참여자들의 성토가 이어졌다.이윽고 참여자들의 의문이 해소됐다. 한 참여자가 "내가 어디서 봤는데 13.48%는 투자가(벤처캐피탈), 19%는 핵심 기여자, 51.02%는 커뮤니티, 16.5%는 재단이래. ICO나 에어드랍 없이 51.02%를 어떻게 배분한다는 건지는 모르겠어. 커뮤니티와 재단은 10년간 베스팅(일종의 락업 장치) 기간이 있고 투자자랑 핵심 기여자는 1년 잠그고 4년 베스팅한대"라고 외치면서다.여기서의 '어디서'는 한국의 업비트였다. 업비트는 10월 18일 국내 거래소 중 처음으로 앱토스 상장 소식을 발표하면서 이러한 내용이 담긴 '디지털자산 보고서'를 공개했다. 앱토스 개발진들의 공식적인 공개 허용 의사가 있었는지 알려지지 않은 상황이었다. 트위터 등에서 크립토 유저들은 "업비트로부터 유출됐다(Leaked)"는 코멘트와 함께 업비트 보고서 내용을 공유했다.보고서에 따르면 TGE(토큰생성이벤트) 시점에 발행되는 앱토스 토큰은 총 10억개인데, 최초 유통량은 커뮤니티에 할당된 물량 중 베스팅이 없는 일부 물량이다. 개인 투자자보다는 재단 측에 더 유리하다고 볼 수 있는 내용이다. 커뮤니티 물량이 과반을 넘지만 앱토스 재단 41.02%과 앱토스 랩스 10% 등 모두 재단 측 물량이었다. 즉 이는 모두 재단 수익으로 환입될 것으로 보인다.재단 측으로서는 선제적으로 밝히고 싶지 않은 내용을 '깐' 업비트 운영사 두나무 측에 문제를 제기할 만도 하지만 이는 간단하게 봉합됐다. 두나무가 "합의 하에 공개한 것"이라고 밝히면서다. 토크노믹스 내용이 알려지고 앱토스 최초 토큰 물량이 1억8000만개에서 1억3000만개로 수정된 것에 대해서도 두나무는 "합의 하에 수정한 것"이라 말한다.디스코드 참여자들은 "왜 업비트만 토크노믹스(계획)를 가지고 있냐", "업비트가 유출한 토크노믹스가 우리가 가질 수 있는 최선인 거 같다"며 당혹스럽다는 반응을 보였다. 합의하에 공개했다고 한다면, 생태계 유지와 밀접하게 연관된 디스코드 참여자들의 '민심'을 악화시킬만한 일을 한 셈인데 매끄럽지 않은 해명이라는 평가가 나온다. 블록체인 역사상 특정 거래소를 통해서만, 커뮤니티 구성원들이 인지하지 못한 시점에, 토크노믹스를 공개한 사례는 전해진 바 없다.앱토스 재단이 업비트 측에 문제를 제기함으로써 얻을 수 있는 실익이 많지 않았다. 앱토스 재단은 옛 동료인 샤리 글레이저가 제기한 10억달러 규모 소송에 대비해야 한다. 많은 거래소에서 자신들의 물량이 유통되도록 해야 한다. 업비트가 개인 투자자들에게 정보의 물꼬를 트는 역할을 했지만, 한편으로는 블록체인 프로젝트의 물량 유통 등 핵심 정책이 거래소라는 외력(外力)으로 영향받는다는 것을 방증하는 사례라는 분석이다.앱토스 재단이 업비트와의 '공생' 사례라면, 최근 위메이드의 가상자산 '위믹스' 상장폐지는 그와 반대된다고 볼 수 있다. 지난 24일 업비트·빗썸·코인원·코빗·고팍스로 구성된 디지털자산 거래소 공동협의체(DAXA, 닥사)는 위믹스의 거래지원을 종료하기로 결정했다.DAXA는 유통량 위반을 위믹스 상폐 사유로 꼽았다. 위메이드는 10월 말까지의 위믹스 예상 유통량을 DAXA에 2억4596만개로 제출했지만 코인마켓캡에서 확인된 유통량은 3억1842만개였다. 디파이(탈중앙화금융)에 담보로 잡힌 위믹스에 대해 위메이드는 미유통량으로, DAXA는 유통량으로 인식했다. 업계 통념으로는 지갑을 떠난 가상자산은 유통량으로 보는 게 맞으나, 유통량에 대해 명문화된 정의는 내려지지 않았다.이에 장현국 위메이드 대표는 지난 25일 기자간담회를 열고 "업비트의 슈퍼 갑질"이라며 "업비트에 '당신들이 정의하는 유통량이 무엇이냐'고 기준과 가이드라인을 달라고 요청했지만 지금까지 준 적이 없다"고 강도높게 반발했다. 위믹스 유통계획을 제출한 거래소는 업비트 단 한 곳인데, 상장폐지는 업비트가 주도한 결과라는 논지다.그러자 DAXA는 28일 공식 입장을 내고 "위믹스와 관련해 이를 공동 대응 사안으로 판단해 유의종목 지정 후 2차례에 걸친 소명기간 연장을 통해 약 29일 동안 총 16차례의 소명을 거쳤다"며 "결국 거래지원을 종료하는 것이 시장 신뢰와 투자자 보호를 위해 타당하다는 각 회원사의 일치된 결론에 따라 이번 결정이 이뤄졌다"고 반박했다.이를 두고 DAXA가 소비자 보호를 위한 조치를 했다는 평가도 나오지만, '유통량'을 무기로 블록체인 프로젝트들의 생사(生死)여탈권을 가진 것으로도 볼 수 있다는 시각도 제기된다. 당초 앱토스는 세계 각 거래소에 유통량 미공시 토큰으로 상장하려고 했다. 유통계획 공개가 상장의 필수조건은 아니다. 만약 업비트가 유통량 공시를 소비자 보호의 필수조건으로 여겼다면, 앱토스의 상장도 보수적으로 했어야 한다는 비판이 나온다.업비트를 비롯한 DAXA가 이렇게 '생사여탈권'을 가질 수 있게 한 주체는 여당인 국민의힘이다. 한국인 권도형에 의해 만들어진 테라·루나가 올 5월 폭락하며 세계적 파장을 일으키자 국힘은 가상자산특별위원회 간담회를 열고 가상자산거래소들을 불러모아 왜 미리 몰랐냐고 질타했다. 이렇게 결성된 자율규제 조직이 닥사다. &lt;블로터&gt;는 닥사 결성 당시 5대 원화마켓거래소(업비트, 빗썸, 코인원, 코빗, 고팍스)의 이익집단화될 가능성이 있다고 지적했었다.이에 대해 윤창현 국민의힘 의원은 5대 거래소 위주로만 갈 수는 없다고 했었다. 그러나 현재도 닥사에서 코인마켓거래소를 편입하기 위한 동향은 나타나지 않고 있다. 향후 제2, 제3의 위믹스 사태가 일어날 경우 닥사와 위메이드의 법적공방화와 같은 사례가 일어날 가능성도 크다. 당정이 면밀한 고려 없이 대형 거래소 위주의 규제 프레임을 구성하면서, 블록체인 생태계가 원화마켓 거래소 위주로 중앙화하는 부작용이 심화하고 있다는 분석이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>원티드랩, 내년 1월 코엑스서 'HR 2023 하이파이브' 콘퍼런스</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013599736?sid=102</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>하이파이브 콘퍼런스[원티드랩 제공. 재판매 및 DB 금지](서울=연합뉴스) 임성호 기자 = 인적자원 관리 기술(HR테크) 기업 원티드랩은 내년 1월 27일 서울 강남구 코엑스에서 '원티드 콘: HR 2023 하이파이브' 콘퍼런스를 연다고 24일 밝혔다.    행사는 HR 담당자들이 코로나19를 계기로 채용, 보상 등 HR 분야에서 일어난 여러 변화와 국내외 유수 기업의 대응 전략을 공유하는 자리라고 원티드랩은 설명했다.    HR패러다임 시프트, 비욘드HR, 글로벌HR, 그로잉HR 등 총 4개 트랙, 24개 발표 세션으로 구성했다. SK, LG, IBM코리아, 마이크로소프트 등 국내외 대기업을 비롯해 우아한형제들(배달의민족 운영사), 비바리퍼블리카(토스 운영사), 야놀자 등 주요 스타트업의 임직원이 연사로 참여한다.     티켓은 콘퍼런스 공식 홈페이지에서 살 수 있으며, 오는 1월 4일까지 얼리버드 한정 특가 판매가 진행된다. 구매자에게 원티드랩이 발간하는 HR 잡지 '앤워커스 2023'을 증정한다.    원티드랩 관계자는 "'일'을 둘러싼 변화가 빨라지는 요즘, 어느 때보다 고민이 많을 HR 담당자를 위해 콘퍼런스를 마련했다"면서 "코로나19 이후 지난 3년간 바뀐 HR 패러다임을 짚어보고 내년 HR 트렌드를 예측하며 다양한 인사이트를 얻을 수 있을 것"이라고 말했다.    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.11.22.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>"스타트업 창업자 82% '올해 투자시장 작년보다 위축'"</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013591926?sid=004</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>스타트업얼라이언스·오픈서베이 설문…"경기침체·금리인상·자금시장 경색 탓"'스타트업 트렌드 리포트 2022' 표지[스타트업얼라이언스 제공. 재판매 및 DB 금지](서울=연합뉴스) 임은진 기자 = 스타트업 창업자 10명 가운데 8명은 올해 스타트업 투자 시장이 지난해보다 위축된 것으로 평가하는 것으로 나타났다.    22일 스타트업얼라이언스와 오픈서베이가 설문 조사해 발표한 '스타트업 트렌드 리포트 2022'에 따르면 창업자 82%가 지난해 대비 올해 투자 시장 분위기에 대한 질문에 이같이 답했다. 조사는 9월 19∼23일 창업자 200명을 포함해 900명을 상대로 진행됐다.     이들은 경기 침체와 금리 인상, 자금 시장 경색 등을 투자 유치가 어려워진 주된 이유로 꼽았다.    그러면서 올해 스타트업 생태계 분위기가 100점 만점에 54점에 불과하다고 평가했다.     이에 따라 창업자의 절반 정도(49%)는 투자 유치 계획 일정을 앞당기거나 미룬 것으로 조사됐다.    또 창업자들은 투자 혹한기 대비 전략(복수 응답)으로 기업 비용 절감(52%), 흑자 사업에 집중(48%), 투자 유치 계획 조정(43%), 매출 다각화(41%) 등을 꼽았다.    창업자의 77%는 내년 스타트업 투자 시장 분위기가 올해와 별반 차이가 없거나(40%) 더 악화(37%)할 것으로 내다봤다.    이들은 스타트업 생태계 발전을 위해 투자 활성화(35%)가 가장 시급하다고 지적했고, 규제 완화(18%), 인수합병 및 기업공개 활성화 지원(14%) 등도 필요하다고 강조했다.    이번 조사에 응한 스타트업과 대기업 재직자들은 스타트업 가운데 가장 빠르게 성장하는 기업으로 비바리퍼블리카의 토스(23%)를 꼽았다. 배달의민족(9%)과 당근마켓(8%)도 성장 속도가 빠른 기업으로 꼽혔다.    아울러 응답자들은 카카오(28%)와 네이버(25%)가 스타트업을 많이 지원한다고 답했다.    리포트 발표에 이어 열린 스타트업 생태계 동향 관련 패널 토론왼쪽부터 장현지 구글스타트업캠퍼스 스타트업 파트너 매니저, 이진석 한국벤처투자(KVIC) 벤처금융연구센터장, 이용관 블루포인트파트너스 대표, 김천지 토스 컬처 에반젤리스트, 이기대 강원창조경제혁신센터장(모더레이터) [토스 제공. 재판매 및 DB 금지]    engine@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.11.22.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>[뉴스'까'페] 생소한 '발행어음·회사채'에 MZ도 열광...2시간 만에 '완판' 배경은?</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000311579?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>발행어음과 회사채. 평소 주식 투자에 관심을 가지셨던 분들도 다소 개념이 생소할 수 있는 금융투자상품이죠. 그런데 최근 재테크에 관심이 많은 40, 50대는 물론이고, 금융투자 자체가 익숙치 않은 20, 30대도 투자에 적극적으로 뛰어들고 있습니다. 어떤 이유인지 알아봤습니다. 토뱅 통해서만 가입 '연 6.54%' 회사채…2시간 만에 완판 [토스뱅크 목돈굴리기 화면 갈무리. (자료=토스뱅크 앱)]오늘(22일) 토스뱅크에 따르면, 토스 모바일 앱의 '목돈굴리기' 탭에서 어제(21일) 판매를 안내하기 시작한 삼성카드 회사채는 100억원 규모의 준비 물량이 2시간 만에 완판됐습니다. 회사채 투자는 회사에서 발행한 채권에 투자하고 만기 시 원금에 이자를 더해 돌려받는 금융상품입니다. 최소 10만원부터 한도 제한없이 구매가 가능합니다. 토스뱅크는 한국투자증권과 제휴를 맺고, 한국투자증권이 판매 중인 회사채 상품들을 소개해 주고 있습니다. 삼성카드 회사채의 경우 9개월 만기 '연 6.54%'의 높은 수익률이 흥행 돌풍으로 이어졌습니다.더욱이 한국투자증권이 토스뱅크 전용으로만 판매 채널을 개설한 특판 상품 성격을 띄고 있어 수요가 더 몰렸습니다.  목돈 굴리기 상품의 완판은 이번이 처음이 아닙니다. 앞서 지난 8월10일 서비스 시작과 함께 가장 먼저 선보인 한국투자증권 발행어음도 출시 4일 만에 준비 물량 2000억원이 모두 팔렸습니다. 발행어음은 증권사가 자금을 조달하기 위해 자체 신용을 바탕으로 발행하는 1년 이내 단기 금융상품입니다. 자기자본 4조원 이상인 한국투자, 미래에셋, NH투자, KB증권 등 4곳의 초대형 증권사만 현재 발행하고 있습니다. 만기시 약정받은 수익률을 돌려 받을 수 있고, 100만원부터 한도 제한 없이 구매할 수 있습니다. 이 상품 역시 '연 4.5%'의 높은 수익률을 앞세워 당시 흥행에 성공했습니다. 현재는 금리 상승 속에 최고 연 5.7%로 수익률을 높여 판매를 이어가고 있는데, 7000억원 넘게 팔렸습니다.접근성·가입 편의성↑…2030세대 '40%' 육박[토스뱅크 목돈굴리기 화면 갈무리. (자료=토스뱅크 앱)]]이처럼 목돈 굴리기 상품들이 인기를 끈 배경에는 우선 높은 수익률이 꼽힙니다. 주식과 가상자산 등 투자시장이 부진한 가운데, 상대적으로 안정적인 수익을 기대할 수 있기 때문입니다. 시중은행의 1년 만기 정기예금과 정기적금이 각종 우대조건을 붙여 5%대 이자를 주고 있는 반면에, 목돈 굴리기 투자상품들은 별다른 조건을 달지 않고 더 높은 수익률을 제시하고 있습니다.여기에 인뱅의 플랫폼이 결합하면서 접근성과 가입 편의성도 높아졌습니다. 인뱅의 모바일 앱에서 증권사와 연계된 계좌를 만들고 투자할 금액과 기간만 선택하면, 간편하게 가입이 가능합니다.   토스뱅크는 또 기존 평일 오전 9시부터 오후 11시까지였던 발행어음의 구매 시간을 24시간으로 확대하고, 구매 가능일도 평일에서 주말까지 늘렸습니다.  게다가 기존 증권사에서 어렵고 낯설게 느껴졌던 투자상품들이 일상에서 자주 쓰여 친숙한 인뱅의 UX·UI(사용자 경험)에 녹아들면서 심리적 거리감도 가까워졌다는 분석입니다. 위정현 중앙대 경영학부 교수는 "2030세대는 물론, 높게는 40대까지도 기존 증권사를 통한 투자는 익숙하지 않은 세대"라며 "오히려 이들은 인터넷은행에 더 친숙한 측면이 있어서, 인터넷은행이 새로운 금융상품을 제공하거나 권유하면 심리적으로 더 편하게 접근할 수 있는 특성이 있다"고 말했습니다. 실제 토스뱅크를 통해 채권과 발행어음을 구입한 연령층을 살펴보면, 40대가 28%로 비중이 가장 높았습니다.50대가 25.5%로 뒤를 이었고, 30대가 20.2%, 20대도 16.6%로 고른 분포를 보였습니다. 토스뱅크 관계자는 "주식이 아닌 투자상품에 30대 이하 비중이 40%에 달하는 건 이례적인 수요로 보인다"고 밝혔습니다. '저축' 아닌 '투자'…"원금 손실 가능성 유념해야"  다만 '저축성' 상품이 아닌 '투자성' 상품이라는 점은 유념할 필요가 있습니다. 다시 말해 투자에 따른 손실 위험을 안고 있는 겁니다. 황세운 자본시장연구원 연구위원은 "회사채나 발행어음 같은 경우 발행회사의 부도가 나면 투자자들은 원금을 손실로 잃게 되는 위험성을 가진 상품이라는 점을 반드시 이해하고 투자해야 한다"고 말했습니다. 발행사의 부도나 파산이 발생할 경우 원금 전액을 잃을 수도 있습니다. 또 금융사가 파산하더라도 5000만원까지 보호되는 예·적금과 달리, 예금자보호법의 적용대상이 아닌 점도 주의해야 합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>토스뱅크, 중저신용자 대출 비중 40% 돌파</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013588993?sid=004</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>[토스뱅크 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 오주현 기자 = 토스뱅크는 가계대출 중 중저신용자(KCB 850점 이하·잔액 기준) 비중이 지난 19일(40.1%) 기준 40%를 넘었다고 21일 밝혔다.     대출 잔액이 지속해서 성장하는 가운데, 중저신용자 대출 비중이 올해 1분기(31.4%)보다 8.7%포인트(p) 늘며 제1금융권 가운데 처음으로 40%를 넘어선 것이다.    올해 1월 대출 영업을 정상화한 토스뱅크는 이달 19일까지 총 8조원(가계·기업대출 포함)의 대출을 시장에 공급했다.     이 가운데 중저신용 고객을 위한 가계 대출 규모는 총 2조7천억원(잔액 기준)이었다.    중저신용 고객 1인당 평균 대출 금액은 3천6만원으로 집계됐다.    지난 9월 토스뱅크가 신용보증재단과 함께 선보인 '사장님 대환대출' 서비스는 2개월 만에 대출잔액이 300억원을 넘어섰다.    토스뱅크로 대환을 선택한 대출 가운데 82.4%는 저축은행, 카드사, 캐피탈사 등 제2·3금융권으로부터 이동한 대출이었다.    코로나19로 인해 영업에 어려움을 겪는 소상공인, 자영업자들의 고정금리 대출 수요가 몰린 것으로 토스뱅크는 분석했다.     안정성 지표는 건전한 수준을 유지했다.    10월 말 기준 고정이하여신비율은 0.32%로, 3분기 4대 시중은행 평균 수준으로 나타났다.    토스뱅크 관계자는 "출범부터 꾸준히 고객들과 약속해 온 '포용금융'을 은행의 건전성을 유지하면서도 숫자로 증명해 나가려 한다"며 "중저신용 대출 비중에는 포함되지 않더라도 개인사업자 대출 등 시장의 여러 자금 수요와 금융 사각지대를 들여다보고 제 역할을 하는 신뢰의 은행으로 자리매김하겠다"고 밝혔다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.11.23.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>서학개미 날벼락…내년부터 美원자재 ETF '세금폭탄'</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001067396?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>내년부터 미국 정부가 정한 원유·가스·부동산 분야 ETF·ETN·주식 등을 팔면 매도액의 10%를 세금으로 물어야 한다.증권업계에 따르면 미국 정부는 국세청(IRS)의 조세법 'Section 1446(f)' 규정을 통해 미국 증시에 상장된 200여개의 종목들을 세금 부과 목록인 PTP(Publicly Traded Partnership)로 지정했다.한화투자증권, 키움증권, 토스증권 등은 지난 22일 고객들에게 이 같은 내용을 공지했다. 이들 증권사는 "세금 납부를 원하지 않을 경우 해당 종목을 12월 30일 이전까지 매도하는 방안을 검토해달라"고 밝혔다.PTP는 원유·가스·금·은 등 천연자원이나 부동산·인프라 분야에 파트너십 형태로 투자하는 상품을 뜻한다. 미국의 주요 원자재 관련 상장지수펀드(ETF)나 유한책임회사(LP) 형태로 상장돼 있는 인프라·에너지 기업이 주로 포함된다.문제는 PTP에 서학개미들이 많이 거래하는 ETF들이 대거 들어갔다는 점이다. 특히 이번 세금은 양도 차익이 아니라 매도 대금이 기준이어서 손해를 보고 주식을 팔더라도 10%의 세금을 물어야 한다.증권업계는 이번 미국 정부의 정책을 원자재 관련 상품에 대한 단기 트레이딩을 막기 위한 것으로 보고 있다. 그간 원자재의 높은 가격 변동성을 이용해 단기 차익을 노렸던 투자자가 많았던 만큼, 내년부터 외국인 투자자들이 손익과 관계없이 매도할 때마다 세금을 부과해 관련 거래를 사실상 틀어막겠다는 의도로 풀이된다.예탁결제원에 따르면 200여개 종목 중 국내 투자자가 투자한 상품은 100여개, 금액 기준으로는 1억 6천만 달러(약 2천167억원) 수준이다.국내 증권사 관계자들은 "현재로선 세금을 피할 뾰족한 방법이 없다"며 "상당수 서학개미가 오는 연말까지 '손절'에 나서지 않으면 세금 폭탄을 맞게 될 것으로 보인다"고 말했다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.11.17.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>핀다 “2금융에서 1금융으로 갈아타는 대출 생태계 만들겠어요” [고금리 시대 빛나는 대출비교 서비스③]</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000034460?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>[인터뷰] 이혜민 핀다 대표금리 오를수록 대출비교 수요 높아져핀다 대출환승 고객들, 5.8%p 금리 절약     지난 16일 대출비교 플랫폼 업체 '핀다(Finda)' 이혜민 대표가  서울 강남구 핀다 본사에서 [이코노미스트]와 인터뷰했다. [신인섭 기자]    2년 전 주담대와 신용대출을 받은 대다수 대출자의 상환이자는 최근 2배 가까이 올랐다. 내 집을 마련했어도 ‘사실상 은행에 월세를 내고 있다’는 한탄이 곳곳에서 터지고 있다. 대환대출을 통해 이자를 한 푼이라도 아끼려는 수요가 늘어날 수밖에 없는 현실이다.    이런 수요에 이미 빠르게 대응해 등장한 핀테크가 바로 ‘핀다’다. 지난 2015년 설립된 핀다는 2019년 금융위원회 혁신금융서비스에 대출비교 플랫폼 1호로 선정돼 앱 서비스를 시작했다. 2021년 핀다의 대출금액은 2조4599억원을 기록하며 전년(3854억원)보다 538%나 성장했다. 금리가 꾸준히 오른 올해의 경우, 누적 대출중개 건수가 지난해보다 3배가량 늘었다.    하지만 국내에선 여전히 유리한 금리 조건을 찾아 대출을 갈아타는 개념이 생소하다. 지난 16일 본사에서 〈이코노미스트〉와 만난 이혜민 핀다 대표는 “한국 사람들은 대출은 한 번 받으면 끝까지 가져가는 것이란 인식이 강하다”며 아쉬움을 토로했다. 때문에 이 대표는 대출도 ‘학습’이 중요하다고 강조했다. 더 현명하게 대출을 갈아타기 위해서 핀다와 함께 시작해보자는 그의 목소리를 들어봤다.     Q : 기준금리 3%의 고금리 시대다. 이용 고객이 많이 늘었는가.  A : 올해만 여섯 차례 금리 인상이 이어졌고, 한 번에 0.5%포인트(p)를 올리는 ‘빅스텝’도 두 번이나 있었다. 금리 변동이 극심할수록 사용자들이 비교하고자 하는 수요는 더욱 커지는 상황이다. 실제로 올해 3분기에만 한도조회 건수가 153만건을 넘어서, 전년 동기 대비 195%나 증가했다.    Q : 지금 같은 금리 인상기에 대출 부담을 줄이는 전략은.  A : 우리나라는 대출 시장이 엄청나게 발달돼 있다. 특히 3개 이상의 각각 다른 금융기관의 대출을 보유하고 있는 이른바 다중채무자는 500만명에 육박한다. 이렇듯 다중채무는 상당히 일반적인 사례라 볼 수 있는 데 반해, 어떻게 하면 더 나은 대출로 교환할 수 있을지에 대해서는 학습이 덜 돼 있어 안타깝다. 아무래도 개인이 관련 정보를 모두 알기 어려운 게 현실이다. 핀다가 그 역할을 대신하는 것이다. 특히 마이데이터로 대환 가능성을 진단해주고, 여윳돈이 생겼을 때 어떤 대출부터 갚아야 유리할지까지 추천해주기 때문에 대출 부담 고민을 크게 덜 수 있다.    Q : 실제 핀다 고객은 대환으로 얼마나 금리 부담을 줄이는가.  A : 올해 5월부터 ‘대출 환승 이벤트’를 도입한 바 있다. 대부업체를 제외한 금융사에서 10% 이상 금리의 대출을 갖고 있는 신용점수 600점 이상의 고객이 대상이었는데, 1차 환승 이벤트에는 2만여 명이 몰렸다. 참여 자격을 충족한 이들 중 14% 정도는 평균 5.8%p의 금리를 낮춰서 대출을 갈아탔다.     이혜민 핀다 대표. [신인섭 기자]     Q : 토스나 카카오페이 등 빅테크도 대출비교를 하고 있다. 핀다만의 차별점은 무엇인가.  A : 핀다는 완벽한 가치 중립 플랫폼으로서 정확도 높은 대출비교 서비스라는 점을 강조하고 싶다. 핀다 엔진이 고객 인증서를 토대로 건강보험공단 납부 내역을 스크래핑한 후, 각 금융회사의 신용평가시스템(CSS)에 즉각 접속한다. 때문에 최종 결과에 가까운 승인 값을 가져올 수 있는 것이다. 정확도를 높이기 위한 추가 프로젝트는 지속적으로 진행하고 있다. 또 자체적인 금융기관을 보유하지 않고 있어 객관적이고 중립적이라는 점도 강점이라고 생각한다.    Q : 시중은행이 상품이 많이 없어 ‘팥 없는 찐빵’이라는 지적도 나온다.  A : 시중은행 제휴가 덜 돼 있는 건 사실이다. 하지만 1금융권이라는 더 넓은 범주에서 봤을 때 지방은행과 외국계, 인터넷은행의 금리 경쟁력이 우수하다. 이미 핀다에는 제주은행을 제외한 모든 지방은행과 토스뱅크, SC제일은행 등이 입점해 있다. 물론 주요 은행들 입점을 위해 노력은 꾸준히 하고 있다. 현재 하나은행과 제휴해 신용대출 상품을 제공하고 있으며, 다른 시중은행 한 군데도 연말 출시를 목표로 준비하고 있다. 다른 은행과도 데이터기반의 신규 상품을 개발하는 등 꾸준히 제휴 논의를 이어가는 중이다.    Q : 네이버파이낸셜도 대출비교 서비스 진출을 밝혔는데.  A : 네이버가 큰 기업이기 때문에 더 주목을 받을 것으로 예상된다. 하지만 대출비교 시장은 이미 경쟁자가 너무 많다. 그래서 경쟁 자체가 새롭지는 않으며, 단순히 다른 회사의 시장 점유율을 뺏어 오는 게 우리의 목표는 아니다. 오히려 여러 서비스를 이용해보고 가장 합리적인 선택의 결과로 핀다가 선택되게끔 하는 게 바람직하다고 본다.     이혜민 핀다 대표. [신인섭 기자]     Q : 내년 5월 온라인 대환대출이 가능해진다. 핀다의 대응은.  A : ‘대환시장’이란 게 없는 셈이던 국내에서 필요한 서비스가 나타났다. 대환을 통하면 차주의 신용도 좋아질 뿐더러 2금융에서 1금융으로 갈아탈 수 있는 건강한 대출 생태계를 만들 수 있다. 또 그렇게 만들고자 하는 게 핀다의 목표다. 앞으로 금융당국 차원에서 태스크포스(TF)가 만들어질 전망인데, 1차적으로 참여할 예정이다. 과거에도 대환대출 인프라 관련 논의와 간담회에서 관련 의견을 가장 적극적으로 낸 곳이 핀다다. 이번에도 구성이 되면 참여해 적극적으로 온라인 대환대출 서비스를 리딩하고 싶다.    Q : 내년도 최우선 목표 및 과제는 무엇인가.  A : 내년에는 금리나 대출 시장이 더욱 불안정할 전망이다. 따라서 핀다가 활용할 수 있는 다양한 데이터를 통해 상환과 대환 시장을 확대해 나가는 게 필수라 생각한다. 특히 고객의 상환의지와 능력 지수 측정 등 핀다에서만 분석·도입할 수 있는 대안신용평가 모델링 작업도 신용평가(CB)사와 함께 만들어가고 있으니 기대 바란다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.11.19.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>삼성·현대카드 빠진 '반쪽' 오픈페이...핀테크 대항마 될 수 있을까?</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002290859?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>신한·KB국민·롯데·하나·BC·우리·NH농협 7곳 연합마지막 테스트 과정 거쳐 서비스 출시 일정 조율 중업계 2·3위 삼성·현대카드 미참여로 '반쪽 서비스' 지적우리카드, 마지막 업체로 ‘오픈페이’ 참여 결정 ◆…자료사진:연합뉴스     빅테크(대형IT기업)의 간편결제 서비스에 대응하기 위한 카드사들의 공동 간편결제 시스템 '오픈페이' 서비스 출시가 임박했다. 다만 일부 카드사들이 오픈페이에 불참한 가운데 출시 방식과 시기를 놓고 카드사마다 입장 차이가 좁혀지지 않아 빅테크 서비스보다 우위에 설 수 있을지 우려섞인 목소리가 나온다.   19일 카드업계에 따르면 신한·KB국민·롯데·하나·BC·NH농협 등이 전업 카드사 6곳과 은행계 카드사인 NH농협카드 1곳 등 총 7곳이 연합해 오픈페이 서비스를 준비 중이다. 각 카드사는 마지막 테스트 과정을 거쳐 서비스 출시 일정을 최종 조율하고 있는 것으로 전해졌다.   오픈페이는 금융사 별로 앱을 설치할 필요없이 한 앱으로 다른 카드사의 카드를 등록해 결제할 수 있는 간편결제 서비스다. 은행권이 서비스 중인 ‘오픈뱅킹'과 유사한 방식으로 각 카드사가 구축한 시스템을 여신금융협회가 중개하는 구조다.   한국은행에 따르면 올해 상반기 모바일기기 등을 통한 결제는 하루 평균 1조3000원으로, 1년 전보다 12.6% 증가했다. 이중 카드 기반 간편결제 서비스를 이용하는 비중은 45.1%로 1년 전(41.4%)보다 4.1%포인트 늘었다.    ◆…자료:한국은행 제공     특히 네이버페이와 카카오페이, 토스 등 핀테크 기업이 제공하는 간편결제 서비스 이용 비중은 2020년 60.8%에서 2021년 상반기 63.0%, 올 상반기 66.0%로 가파른 상승세를 보이면서 카드사(34%)를 압도해 핀테크가 모바일 결제시장을 주도하는 것으로 나타났다.   이에 경쟁에 밀리고 있는 카드업계가 주도권 탈환을 목표로 간편결제 시장에 도전장을 내밀고 있지만 출발부터 삐걱대는 모양새다.   지난달 출시를 목표로 했던 KB국민카드와 하나카드는 개시 시기 조율과 시스템 보완 등을 이유로 출시 시점을 미루고 있다. 당초 준비된 회사부터 순차적으로 서비스를 오픈하기로 의견을 모았으나 각 카드사의 이해관계가 달라 아직 구체적인 일정 조율이 확정되지 않은 상태다.   또 ‘삼성페이'를 운영중인 삼성카드, 애플페이 국내 도입을 준비 중인 현대카드가 참여를 보류하면서 반쪽짜리 서비스라는 평가도 나온다. 타사 상품을 한 앱에서 사용할 수 있도록 하는 게 주요 골자인 만큼 소비자의 선택 폭이 제한될 수 있다는 지적이다.   고객 유출을 우려해 참여 여부를 고심했던 우리카드는 최근 '오픈페이' 마지막 업체로 참여 의사를 밝혔다.   한편 최근 열린 여신금융협회 ‘모바일실무협의체’의 오픈페이 전문 분과에 현대카드가 참여해 관심을 모았다. 오픈페이에 참여하기 위해서는 카드사들이 ‘모바일실무협의체’에 의무적으로 가입해야 한다. 현대카드는 전문분과에 참석하는 게 오픈페이 참여를 의미하는 건 아니라며 선을 긋는 모습이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>NH농협, 5대 은행중 10월 예대금리차 최대…3개월 연속 1위</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013590291?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>하나·신한·우리·KB국민 순…5대 은행 0.67∼1.56%인터넷은행 중에선 토스뱅크가 5.37%p로 가장 커  대출금리 상승세 지속[연합뉴스 자료사진](서울=연합뉴스) 박대한 기자 = 지난달 5대 시중은행 가운데 예대금리차(대출금리-예금금리)가 가장 컸던 곳은 NH농협은행으로 조사됐다.    지나친 '이자 장사'를 막자는 취지로 앞서 7월부터 19개 은행의 월별 예대금리차 공시가 시작됐는데, 예대금리차가 상대적으로 크다는 것은 일단 산술적으로 대출·예금 금리 격차에 따른 마진이 많다는 뜻이다.    21일 오후 3시 은행연합회 소비자포털에 공시된 '예대금리차 비교' 통계에 따르면 10월 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 뺀 NH농협은행의 가계 예대금리차(가계대출금리-저축성수신금리)는 1.56%포인트(p)로 집계됐다.    은행권이 7월 첫 공시 이후 저소득·저신용 서민 대상의 정책금융상품의 금리가 높아 이를 많이 취급할수록 예대금리차가 커지는 왜곡 현상을 지적하자, 8월 통계부터 일부 정책금융상품을 제외한 예대금리차가 따로 공개되고 있다.    NH농협에 이어 하나은행(0.94%p), 신한은행(0.89%p), 우리은행(0.77%p), KB국민은행(0.67%p) 순으로 가계 예대금리차가 컸다.    NH농협은행은 8월(1.73%p)과 9월(1.85%p) 이어 석 달 연속 5대 은행 중 예대금리차 1위를 기록했다.    NH농협은행 관계자는 "저원가성 수신 금리로 인해 예대금리차가 크게 보이는 것"이라며 "실제 10월 정책서민금융 제외 가계대출금리는 농협이 연 4.85%로 5대 은행 중 KB국민(연 4.82%)을 제외하면 가장 낮다"고 설명했다.    인터넷은행 중에서는 토스뱅크의 가계 예대금리차(5.37%p)가 가장 컸고, 케이뱅크(1.57%p)와 카카오뱅크(1.11%p)가 뒤를 이었다.    토스뱅크는 상대적으로 대출 금리가 높은 중저신용자 및 개인사업자 위주의 포용적 금융을 목표로 하는 데다, 연 2%대 요구불예금(수시입출금 통장)이 수신금리에 미반영돼 예대금리차가 크게 나타났다고 설명했다.    지방은행, 외국계은행을 포함해 공시에 참여한 19개 은행 가운데 가계 예대금리차가 가장 큰 곳은 토스은행과 전북은행(5.37%p)이었고, 가장 작은 은행은 IBK기업은행(0.58%p)이었다.    기업 대출까지 포함한 전체 은행의 예대금리차(대출금리-저축성수신금리) 통계에서도 5대 은행 가운데 NH농협은행이 1.54%p로 가장 컸다.    이어 KB국민은행(1.21%p), 신한은행(1.11%p), 하나은행(1.11%p), 우리은행(1.03%p) 등으로 나타났다.    pdhis959@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.11.22.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>모바일 넘어 PC로 가는 토스증권…웹거래시스템 개발 착수</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006474283?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>웹기반 제품 개발 시도, 토스 계열사 최초2023년 말 WTS 출시 목표로 개발자 모집 나서(서울=뉴스1) 공준호 기자 = 토스증권이 내년 말까지 별도의 프로그램 설치 없이 PC 웹환경에서 구동가능한 웹거래시스템(WTS, Web Trading System)을 개발한다는 목표를 세우고 인력구성에 나섰다. 토스 모든 계열사를 통틀어 웹기반의 제품 개발을 시도하는 것은 이번이 처음이다. 토스증권은 전체 투자인구의 20% 이상이 사용하고 있는 웹 환경에서의 투자경험을 혁신한다는 목표를 세웠다.22일 금융투자업계에 따르면 최근 토스증권은 프론트 개발자, 프로덕트 디자이너, 프로덕트 오너 등 웹거래시스템 개발을 위한 인력모집에 나섰다. 토스증권 관계자는 “모바일보다 PC 환경에서 다양한 기능과 정보를 활용해 매매를 하는 고객의 니즈를 충족시키기 위해 웹거래시스템을 구축하기로 했다”며 “대략적으로 내년 말 출시를 목표로 하고 있다”고 말했다. 웹거래시스템이 구축되면 토스증권 이용자들은 PC 웹에 최적화된 시스템을 통해 별도 프로그램 설치 없이 주식매매를 할 수 있게 된다.토스증권은 모바일 환경에서 투자경험을 재정의하고 혁신해왔던 것처럼 웹 환경의 투자 시스템을 사용하는 유저들이 겪고 있는 문제를 해결하고, 새로운 기회를 포착해 제품화한다는 구상을 세웠다. 현재 토스증권은 모바일앱 기능의 일부를 웹에서 제공하는 '모바일 웹뷰'를 지원하고 있지만 웹에 최적화된 기능을 제공하는 웹거래시스템은 제공하지 않아 사실상 모바일 이용고객이 대부분을 차지하고 있다.지난해 3월 출범한 토스증권은 모바일 중심의 거래지원으로 출시 1년만에 420만명의 고객과 230만명의 월간활성이용자(MAU)를 확보하면서 가파른 성장세를 보여왔다. 2021년 12월부터는 미국주식 거래중개 서비스를 개시하면서 올해 6월 기준 점유율 10%를 돌파하기도 했다. 웹거래시스템은 HTS나 MTS에 접속하지 않고도 주식거래가 가능해 투자자의 접근성이 높은 편이다. 증권사 앱의 과부하로 인한 불편도 일부 완화되는 효과도 볼 수 있다. 키움증권, 하나증권, 신한투자증권, 대신증권, 삼성증권, 한국투자증권 등 기존 증권사 가운데 일부도 웹거래시스템을 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.11.22.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>소진공, 주요 협업 과제 이끌 2030 '혁신이끄미' 출범</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011549462?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>기사내용 요약혁신문화 선도 위한 시범 운영…4~5급으로 구성[서울=뉴시스]소상공인시장진흥공단 제1기 '혁신이끄미'가 지난 18일 정례회의에서 의견을 나누고 있다. (사진=소진공 제공) 2022.11.22. photo@newsis.com[서울=뉴시스] 이창환 기자 = 혁신콘텐츠 공모전소상공인시장진흥공단(소진공)은 대외 협력을 통한 혁신 과제를 추진하기 위해 '제1기 SEMAS 혁신이끄미'를 출범한다고 22일 밝혔다. 혁신이끄미는 소진공 내 혁신 문화를 선도하기 위해 올해 시범적으로 운영하는 제도로, 혁신에 대한 관심도가 높고 근무태도가 우수한 20·30대 4~5급 실무자급 총 14명으로 구성됐다. 이들은 혁신 우수 기업의 선진 조직문화를 학습하고, 소상공인 금융·스마트마켓 지원, 전통시장 활성화 등 주요 사업과 연계한 협업 과제를 발굴해나갈 예정이다.앞서 선진 조직문화 학습과 관련 소진공은 지난 18일 정부 혁신 활동 우수 부처인 농림축산식품부의 혁신 어벤져스 단장(윤근영 주무관)을 초청, 우수 사례를 공유하기도 했다.오는 30일에는 토스(toss)에 방문해 혁신적인 조직문화를 체험하고, 시너지 창출을 위한 협업 아이디어를 중점 토론할 예정이다.     아울러 소진공은 '혁신 콘텐츠 공모전 개최' 등 고객 관점의 업무 개선과 대외 협력으로 국민이 체감하는 성과를 창출하기 위해 조직 혁신에 박차를 가하고 있다.  박성효 소진공 이사장은 "우리 젊은 직원들이 새로운 시각을 통해 불합리한 관행을 타파하고 조직문화를 개선해, 국민이 체감할 수 있는 서비스를 창출해내기를 기대한다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.11.28.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>LG CNS “AI가 토스·오픽 시험점수 예측해드려요”</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005051751?sid=105</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>AI영어학습 앱, ‘버터타임’ 개편741개 영어콘텐츠 무료 제공영어회화 실력에 따라 맞춤학습170개 기업 임직원 영어교육 활용 LG CNS 임직원들이 AI 튜터앱 ‘버터타임’을 소개하는 모습. [사진 제공 = LG CNS]LG CNS가 영어회화 인공지능(AI) 튜터 앱 브랜드명을 ‘미션 잉글리시’에서 ‘버터타임'으로 개편하고 콘텐츠 강화에 나선다고 28일 밝혔다.버터타임은 수만 개 영어 문장을 학습한 AI와 영어학습을 진행할 수 있는 앱이다. 앱을 내려받으면 741가지 영어회화 콘텐츠를 누구나 무료로 이용할 수 있다. 특히 유명 영어 강사의 베스트셀러 교재 콘텐츠가 포함됐다. △이지 잉글리시(김태연 저) △5분 영어회화(박윤진 저) △스펜서쌤의 미국 영어(스펜서 맥케나 저) 등 37권에 이르는 영어 교재 콘텐츠가 앱에 탑재됐다.버터타임은 AI 기술로 토익스피킹, 오픽과 같은 공인영어시험 점수도 예측한다. AI가 발음, 발화 속도, 정답 유사도 등을 분석해 사용자의 회화 실력을 측정한다. 버터타임에서 제공하는 학습 콘텐츠를 많이 풀수록 예측 점수의 정확도가 높아진다.버터타임은 사용자의 영어회화 실력에 따라 맞춤 학습을 제공한다. 사용자가 답변을 주저하거나, 틀린 답변 시 ‘힌트 알고리즘’이 상황에 맞는 적절한 가이드를 제시한다.LG CNS의 AI 튜터 서비스는 LG 계열사를 비롯해 유통, 금융, 건설 등 분야 약 170개 기업이 임직원 영어 교육에 활용하고 있다. LG CNS는 AI 튜터 서비스로 한국영어교육학회(KATE)의 영어 교육 인증을 받았다. AI 기반 영어교육 프로그램이 KATE 인증을 받은 건 LG CNS가 국내 최초다.윤미정 LG CNS B2X서비스담당(상무)는 “버터타임은 AI, 데이터 분석을 포함한 디지털전환(DX) 신기술을 집약해 사용자의 영어 학습 효율을 극대화한 앱”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>낮은 금리로 갈아타는 대환대출 플랫폼, 이견 좁히고 내년 5월 나올까</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000869659?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>지난해 출시되려다가 무산됐던 대환대출 플랫폼이 내년 5월 출시된다./사진=이미지투데이 금리가 가파르게 상승하면서 대출자들의 이자 부담이 커지자 금융당국이 기존 대출보다 유리한 조건의 신규 대출로 쉽게 이동할 수 있는 '대환대출'(대출 갈아타기) 플랫폼을 내년 5월 출시한다.당초 대환대출 플랫폼은 지난해 9월말 출시될 예정이었지만 기존 금융사들과 핀테크 업체 간의 이견으로 출시가 연기돼왔던 만큼 이번에도 금융당국의 계획대로 출범할 수 있을지 관심이 쏠린다.16일 금융권에 따르면 금융위원회는 개인대출을 대상으로 은행, 저축은행, 여전사가 참여하는 대환대출 플랫폼을 내년 5월 개시할 계획이다.대환대출 플랫폼은 소비자가 여러 대출상품을 한눈에 비교하고 금융기관 방문 없이 기존 대출을 보다 유리한 조건의 대출로 비대면·원스톱으로 이동할 수 있도록 지원하는 서비스를 말한다.대환대출 플랫폼이란 하나의 플랫폼에서 은행, 저축은행, 캐피탈 등 여러 금융기관 대출상품을 비교하고 낮은 금리로 갈아탈 수 있게 하는 비대면 원스톱(One-stop) 플랫폼을 말한다.금융 소비자들은 이 서비스를 통해 금융사를 직접 방문하지 않아도 하나의 플랫폼에서 금융사들의 금리 수준을 비교한 뒤 금리가 가장 낮은 대출로 갈아탈 수 있다.금융결제원이 구축하는 플랫폼에 토스나 카카오페이 등 핀테크 업체가 운영 중인 대출금리 비교 서비스를 연계하는 방식으로 진행된다.━대환대출 플랫폼, 지난해 도입 무산됐던 이유는… 이번엔 다를까━금융위는 당초 지난해 9월말 대환대출 플랫폼을 출범할 계획이었지만 KB국민, 신한, 하나, 우리, NH농협 등 주요 은행들은 대환대출 플랫폼 참여를 미루고 독자 대환대출 플랫폼을 만들겠다는 입장을 보이면서 결국 도입이 무산된 바 있다.카카오페이, 네이버파이낸셜, 토스 등 핀테크 중심의 대환대출 플랫폼에 참여할 경우 수수료가 발생하고 이들에 종속될 우려가 크다는 게 이유였다.하지만 한국은행이 오는 24일 사상 첫 6회 연속 기준금리 인상에 나서고 변동형 주택담보대출(주담대)의 준거 금리인 신규취급액 코픽스(COFIX·자금조달비용지수)가 10월 기준 3.98%로 역대 최고치를 찍으면서 대출자들의 이자 부담이 커지자 대환대출 플랫폼 도입 논의가 재점화된 것이다.하지만 이번에도 일각에선 핀테크 업체와 전통 금융사 간의 이견을 좁히기엔 쉽지 않을 것이라는 관측이 나온다.이번에 금융위는 기존 금융사도 비교·추천체계 검증 등 대출 비교 플랫폼 운영 방향을 협의해 겸영 업무로 영위할 수 있도록 기존 금융사 앱(창구)을 통해서도 대출 이동시스템을 이용할 수 있도록 하는 등 개선된 방안을 내놨다.우선 핀테크 업체들은 이전과 같이 대환대출 플랫폼을 반기는 분위기다.비대면 대환대출이 본격화되면 핀테크 업체들은 대환대출을 통한 중개수수료 등을 받을 수 있어 성장 가능성이 커진다.한 핀테크 업계 관계자는 "기대출 보유자들도 신규 고객이 될 수 있어 수익원을 늘릴 기회"라며 "금융당국 계획에 맞춰 대환대출 플랫폼을 준비할 것"이라고 말했다.하지만 은행권에선 여전히 볼멘소리가 나온다.한 시중은행 관계자는 "대환대출 플랫폼 의존도가 높아지면 핀테크에 대한 중개수수료 부담이 늘어날 수밖에 없고 고객 락인효과가 사라져 은행들은 자칫 금리 경쟁 속에 치킨게임으로 치달을 수도 있다"고 우려했다.은행 등 금융사들은 대환대출 플랫폼을 운영하는 핀테크 업체에 대출 상품을 공급하는 하청 업체로 전락할 것이라는 우려도 여전하다.이에 따라 기존 금융사의 핀테크 종속 우려, 중개 수수료 부담 증가, 금리인하 경쟁 심화 등 업권간 이해관계가 첨예하게 맞부딪히고 있어 금융위가 내년 5월 대환대출 플랫폼 출범까지 적지 않은 진통을 겪을 것으로 금융권은 예상하고 있다.한 금융권 관계자는 "카드사와 저축은행의 고객 이탈이 심해질 것으로 예상되는 부작용도 예상되지만 장기적인 관점에선 플랫폼 사업의 성장 측면에선 긍정적일 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>토스뱅크, 10개월 만에 중·저신용 대출비중 40% 돌파</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004820206?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>[연초 대출영업 재개 후 8조 공급개인사업자대출 은행권 2위실적]토스뱅크의 중·저신용자 대출 비중이 40%를 돌파했다. 올초 대출 영업 재개 10개월 만에 대출 잔액은 8조원을 넘겨 지난해말보다 16배 규모로 커졌다.   토스뱅크는 가계대출 가운데 중저신용 대출비중(KCB 850점 이하, 잔액 기준)이 지난 19일 기준 40.1%로 나타났다고 21일 밝혔다. 지난 1분기(31.4%)보다 8.7%포인트(p) 늘어난 것이다. 은행권에서 중저신용 대출 비중이 40%를 넘긴 건 토스뱅크가 처음이다.  지난해 10월 출범 후 가계부채 총량관리로 대출 영업을 중단했다 지난 1월 영업을 정상화한 토스뱅크는 지금까지 8조원(가계·기업대출 포함)을 시장에 공급했다. 지난해말 여신 잔액 5315억원에서 급성장했다. 이중 중저신용 가계대출 규모은 2조7000억원이다. 지난 1년 간 토스뱅크는 자체 신용평가모형에 따라 중저신용 고객 4명 중 1명 이상(25.7%)을 고신용자로 재평가했다. 신용점수 475점(과거 KCB 기준 8등급)까지 대출이 이뤄졌고, 이들은 성실 상환 등으로 신용점수 상향 효과를 누리기도 했다. 토스뱅크 중저신용 고객 1인당 평균 대출액은 3006만원이다. 원리금 납부기간을 최장 10년 연장하는 '매달 내는 돈 낮추기' 서비스로 고객들은 월평균 원리금이 35만 원 가량 줄어든 것으로 나타났다. 토스뱅크 관계자는 "인터넷전문은행의 설립 취지를 가장 충실히 이행했고 금융소외계층을 가장 적극적으로 포용했다"고 자평했다.  기업대출인 개인사업자 중저신용 대출 비중 48.3%로 가계대출보다 더 높았다. 지난 9월 토스뱅크가 신용보증기금과 함께 선보인 '사장님 대환대출' 서비스는 2개월 만에 대출 잔액 300억 원을 넘어섰다. 은행권에서 두 번째로 큰 규모다.토스뱅크로 대환한 대출 중 82.4%는 저축은행, 카드사, 캐피탈사 등 제2·3금융권으로부터의 이동이었다. 코로나19로 인해 영업에 어려움을 겪는 소상공인, 자영업자들의 고정금리 대출 수요가 몰린 덕분으로 토스뱅크는 분석했다. 그런데도 건전성 지표는 상대적으로 양호했다. 지난달 말 기준 고정이하여신비율은 0.32%로 4대 시중은행 평균 수준이었다. 토스뱅크 관계자는 "출범때부터 약속한 '포용금융'을 은행의 건전성을 유지하면서 숫자로 증명해 나가려 한다"며 "중저신용 대출 비중에는 포함되지 않더라도 개인사업자 대출 등 시장의 여러 자금 수요와 금융 사각지대를 들여다보고 제 역할을 하는 신뢰의 은행으로 자리매김하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.11.29.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>[DD 퇴근길] 누가 더 빠를까…내년 네이버 vs 쿠팡 배송 ‘빅매치’</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002137774?sid=105</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>디지털데일리가 퇴근 즈음해서 읽을 수 있는 [DD퇴근길] 코너를 마련했습니다. 혹시 오늘 디지털데일리 기사를 놓치지는 않으셨나요? 퇴근 앞두고 저희가 요약 정리한 주요 기사를 가벼운 마음으로 읽어주시기 바랍니다. 전체 기사는 ‘디지털데일리 기사 하단의 관련뉴스(아웃링크)’에서 확인할 수 있습니다.     물류 경쟁력을 확보한 네이버와 쿠팡이 내년 본격적으로 배송 전면전을 펼치게 됩니다. 물류·정보기술(IT) 인프라에 투자해 온 양사는 단순히 ‘빠른배송’을 넘어 고객이 가장 궁금해하는 도착 예정일을 정확히 제공한다는 방침입니다.    우선 네이버는 다음달 14일부터 ‘네이버도착보장’ 서비스를 시작합니다. 네이버도착보장은 주문 데이터, 물류사 재고, 택배사 배송 등 다양한 데이터를 분석해 사용자에게 정확한 상품 도착일을 보장합니다. 네이버가 도착보장 서비스에 시동을 걸면서 이커머스 업계 네이버·쿠팡 양사 경쟁구도는 한층 치열해질 전망이네요.    먼저 고객에게 ‘도착보장’ 알림을 제공했던 건 쿠팡입니다. 급하게 상품을 구매해야 하는 소비자에게 쿠팡 선호도가 높았던 이유는 빠른배송 뿐 아니라 언제 상품이 도착하는지 정보를 제공했기 때문이죠.    업계 관계자는 “상품 자체가 무료배송이어야 ‘도착보장’ 태그를 달 수 있는 게 현재 네이버 정책”이라며 “대기업과 달리 개인 판매자들에게 진입장벽이 될 수 있지만, 네이버가 수수료를 받지 않는 데다 상품 중 일부만 도착보장에 등록할 수 있어 관심도는 높은 편”이라고 말했습다.   가상자산 업계, 붕괴 ‘도미노’…FTX이어 블록파이 ‘파산’   가상자산은 신기루였을까요. 28일(현지시각) 미국 비트코인매거진에 따르면 블록파이는 이날 파산법 11조에 의거 파산 신청을 했습니다. 블록파이는 2017년 설립한 가상자산 대부업체입니다. 작년 기업가치 48억달러(약 6조3900억원)를 인정 받기도 했습니다.    그러나 올해 들어 가상자산 급락으로 유동성 위기에 빠졌습니다. 가상자산 거품과 함께 기업가치도 날아간 것입니다. 비트코인매거진은 “블록파이 채권자는 10만명이 넘으며 최대 100억달러(약 13조3100억원) 부채를 보유하고 있다”라며 “서류상 회사 보유 현금은 2억5690만달러(약 3400억원)”라고 보도했습니다.   “네이버 가격비교와 달라”…에누리 ‘가격구독’ 차별점은?   에누리닷컴과 다나와 등을 인수한 코리아센터는 많은 서비스를 하나로 묶는 ‘최저가 가격구독 모델’을 출시합니다. 소비자가 원하는 상품을 구독하면 에누리 13억개 쇼핑데이터에서 최저가를 실시간으로 확보해 고객에게 전달하는 서비스입니다. 현재 국내 가격비교 시장 점유율은 네이버가 70% 이상을 차지하며 압도적 1위를 차지하고 있습니다.    이날 김기록 코리아센터 대표는 “가격비교 시장에선 에누리·다나와가 용을 써도 네이버를 이길 수 없다. 즉 30% 이상 점유율을 높이기 굉장히 어렵다는 의미”라며 “눈에 보이는 상품 구독이 아닌 가격이라는 무형의 것을 구독하는 모델을 새롭게 개척해 이곳에서 점유율 과반 이상을 차지하는 게 목표”라고 강조했습니다. 에누리·다나와는 플랫폼 내 경쟁을 일으키기보다 데이터 연결을 통해 공정하게 비교할 수 있는 플랫폼으로 역할을 한다는 데 방점을 뒀죠.   토스, 내년 알뜰폰 서비스 출시…‘서비스 완성도·상생’ 다 잡는다   토스 운영사 비바리퍼블리카가 이르면 내년 1월부터 알뜰폰 사업을 시작합니다. 앞서 토스는 중소 알뜰폰 사업자인 머천드코리아의 지분 100%를 인수한 바 있습니다. 알뜰폰 브랜드명은  ‘토스모바일’이며 안정적 서비스 제공을 위해 데이터센터(IDC) 이중화 작업도 거친다는 방침이입니다. 토스는 지난 7월부터 토스 이용자를 대상으로 사전 선호도 조사를 진행해 왔는데요. 중소 알뜰폰 업체의 사업영역을 침범하지 않는 선에서 이용자가 선호하는 소수의 요금제만을 출시할 바침입니다.   지금까지 알려진 바로는 이미 앱에서 제공 중인 기능들과 시너지 효과를 낼 수 있는 알뜰폰 서비스를 기획 중인데요. 토스의 자체 요금제 선호도조사 항목을 보면 ▲월 2만5000원(10GB) ▲월 2만원(5GB) ▲월 3만원(25GB) ▲월 3만5000원(50GB) ▲월 4만5000원(100GB) ▲월 6만9000원(무제한) 등으로 통화·문자는 무제한에 데이터를 모두 소진하면 5Mbps 속도로 이용 가능한 내용입니다. 데이터를 적게 쓰면 환급해주는 혜택도 있습니다.    네이버1784 찾은 사우디 장관…로봇‧첨단기술 놀라워라   네이버가 초대형 친환경 도시 프로젝트 ‘네옴시티’ 사업 수주전에 뛰어든 가운데, 29일 마제드 알 호가일 사우디 자치행정주택부 장관 일행이 로봇 친화형 빌딩 네이버1784를 방문했습니다. 이번 방문에는 장관을 비롯해 알리 라지히차관 등 총 23명이 참여했습니다. 이달 초 네이버가 국토교통부 등 국내기업들과 ‘원팀코리아’로 사우디를 방문한 것이 계기가 돼 성사된 방문입니다.   이날 장관은 로봇 전용 인프라 ‘로보포트’에 탑승한 자율주행로봇 ‘루키’를 살펴보고, 디지털트윈 기반 증강현실(AR) 기술을 통해 1784를 둘러봤습니다. 로봇팔 앰비덱스와 악수하고 껴안기도 했는데요. 사우디 자치행정주택부가 고민하는 교통, 치안, 위생관리 등 도시문제 및 주택‧건물 관리 등을 디지털 기술을 통해 어떻게 해결할 수 있는지에 대한 논의도 진행했습니다. 이는 향후 사우디 네옴시티에도 적용될 수 있는 부분이어서 향방이 주목됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.11.30.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>토스뱅크, 3분기 476억원 순손실…충당금적립전이익은 ‘흑자전환’</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000035274?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>3분기 충당금적립전이익은 185억원 흑자누적 당기순손실 1719억원 기록…80%가 충당금전입액여신 및 고객 확대로 가파른 성장세 유지     홍민택 토스뱅크 대표 [연합뉴스]    토스뱅크가 3분기 누적 당기순손실 1719억원을 기록했다. 이중 충당금전입액은 1334억원으로 순손실의 80%를 차지했다. 3분기에도 순손실을 기록했지만 충당금적립 전 이익은 사상 첫 흑자를 기록했다.      30일 토스뱅크가 발표한 3분기 실적에 따르면 토스뱅크의 3분기 당기순손실액은 476억원으로, 2분기의 589억원 순손실보다 적자 폭이 감소했다. 토스뱅크는 이에 대해 여신부문 성장으로 이뤄낸 성과라고 평가했다.     토스뱅크는 “충당금적립 전 이익은 3분기 185억원 흑자”라며 “2분기 적자에서 3분기에 들어와 창사 이래 첫 흑자전환”이라고 밝혔다. 3분기 누적 순손실액은 1719억원을 기록했다.      순이자손익은 1162억원으로 1000억원을 돌파했다. 순이자마진(NIM)은 3분기 0.54%로 2분기 0.12% 대비 4.5배 상승했다.      3분기 여신 잔액은 7조1000억원으로 2분기보다 66% 증가했다. 3분기 말 고객 수 476만명, 10월 말 기준으로 504만명 기록하며 빠른 성장을 유지했다.      자본건전성도 강화했다. 3분기 국제결제은행(BIS) 자기자본비율은 11.35%로 2분기보다 0.83% 상승했다. 주주들의 신뢰와 지원을 바탕으로 최근 1000억원 증자에도 성공해 현재 자본금은 총 1조4500억원이다.      3분기 중저신용자 가계대출 비중 39%를 기록했다. 순수수료손익은 409억원 적자를 기록했지만 토스뱅크는 모든 수수료를 토스뱅크가 부담하겠다는 고객과의 약속을 지켜나가고 있다고 밝혔다.      토스뱅크 관계자는 “녹록지 않은 대외환경에도 불구하고 500만 고객과 주주들의 성원으로 출범 1년여 만에 유의미한 성과를 만들 수 있었다”며 “앞으로도 고객 중심의 혁신과 중저신용자 포용에 더욱 박차를 가하며 모두를 위한 제1금융권 은행으로서의 신뢰를 쌓아나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.11.28.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>인류 최대 알파세대...‘새로운 맘코노미’가 온다</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002071111?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>해외금융사, 이미 시장 선점 경쟁2010~2024년 출생 골드 키즈2025년 22억명 인구 비중 25% 전망美, 용돈관리·직불카드 서비스까지‘그린라이트’ 3조원대 유니콘 대열에국내은행 대부분 금융교육 위주간편결제·주식 등 영역 확대 필요2010년~2024년에 태어난 ‘알파(α)세대’가 인류 역사상 가장 큰 규모의 세대가 될 예정이다. 금융회사를 비롯해 기업들은 이들 세대를 잠재 고객으로 보고, 이미 시장 선점을 위한 경쟁에 나서고 있다. 알파세대의 특징에 맞게 디지털 기반의 창조와 참여의 재미가 가미된 마케팅을 펼치는가 하면, 이미 해외 금융회사들은 이들을 위한 금융서비스를 제공하며 미래 주고객 층 확보에 경쟁을 벌이고 있다.▶인류 역사상 가장 규모가 큰 ‘알파세대’= 2010~2024년 출생자를 의미하는 알파세대는 호주의 맥크린들연구소에서 처음 정의했다. 연구소의 정의에 따르면 알파세대는 매주 280만명씩 태어나고, 이들 세대의 출생신고를 모두 마치는 2025년 22억명(전세계 인구 중 25%)에 이르면서 베이비부머 세대의 규모를 추월할 것으로 전망된다.포브스는 알파세대를 겨냥한 육아, 서비스, 앱 경제규모를 약 55조원으로 추산하며 ‘새로운 맘 이코노미(The new MoM Economy)’라고 정의했다. 국내는 저출산으로 한국의 알파세대 비중이 11% 수준이며, 소수이기에 부모의 소비활동에 미치는 영향력이 오히려 더 크게 작용할 것으로 예상된다.김지현 하나금융경영연구소 연구위원은 “알파세대는 부모와 양가 조부모를 합친 ‘6 pocket(8개의 주머니)’에서 삼촌, 이모까지 더해 총 8명이 한 아이에게 전폭적인 지원을 아끼지 않는다는 뜻으로 쓰이는 ‘8 pocket(8개의 주머니)’을 가진 골드 키즈로 인식되는 경향이 있다”고 설명했다.▶기업들 알파세대로 타깃을 확장 추세=이에 성인 소비자를 대상으로 사업을 하던 기업들도 알파세대로 타깃을 확장하는 추세가 완연하다. 교육과 기술을 결합한 에듀테크를 시작으로 부모의 양육과 교육, 놀이를 보조하거나 대체하는 서비스가 늘면서 급성장했고, 온라인 클래스와 메타버스 고도화가 진행 중이다.특히 밀레니얼세대 부모들은 양육과 교육의 외주화에 적극적이어서 육아를 위해 유로 디지털서비스를 쓰는데 심리적 저항이 크지 않은 점도 키즈 에듀테크 시장을 견인하는 요인으로 작용하고 있다.네이버는 주니어네이버(쥬니버)를 운영, 오디오 기반 동요와 동화 콘텐츠를 제공하며 아이들이 직접 이야기를 이끌어갈 수 있는 상호작용하는 콘텐츠를 통해 아이의 선택에 따라 동화내용이 다르게 전개돼 흥미를 끌면서 창의력 발달을 지원한다.유튜브와 넷플릭스는 키즈 전용 영상 서비스를 출시했으며, 국내는 LGU+와 SK브로드밴드, KT는 각각 ‘아이들나라’와 ‘잼’, ‘키즈랜드’를 제공하며 키즈 콘텐츠를 쏟아내고 있다. ‘마인크래프트’와 ‘로블록스’는 신세대 게임으로, 정해진 프로그램이 없고 이용자가 자유롭게 무언가를 만들 수 있으며, 게임 속에서 다른 게임이나 콘텐츠 제작이 가능하다.유통, 숙박업계에도 알파세대를 잡기 위한 경쟁이 치열하다.패션전문 편집숍 ‘무신사’는 ‘무신사 키즈’를 런칭하고 어린이 고객에게 상황별 스타일 제안이나 신규 브랜드 소개 등을 제공한다. 숙박 예약 업체인 ‘야놀자’는 키즈 여가시장의 프리미엄 트렌드에 발맞춰 키즈 카테코리 ‘아이야놀자’를 런칭했다.▶저축, 투자, 결제 등 알파세대 전용 금융서비스 출시=해외 은행들은 용돈관리, 저축습관 형성을 위한 서비스를 제공하고, 직불카드 발급부터 목표기반 투자, 결제, 금융교육 등의 서비스를 제공한다.싱가포르개발은행(DBS)은 160여개 학교와 제휴를 맺고 학생들에게 학교내에서 저축, 결제 등 금융거래가 가능한 웨어러블 기기를 공급해 스마트한 금융습관 형성을 장려하고 있다.미국 인터넷은행인 캐피털원(CapitalOne)은 14세 이하 고객을 대상으로 법적보호자와 공동계좌 형태로 예금계좌와 직불카드를 발행하고, 부모는 앱을 통해 용돈지급과 목표 보상이 가능하는 서비스를 제공하고 있다.핀테크사는 유료 구독서비스를 실시하고, 전통은행보다 더 다양한 금융서비스를 제공하며, 기업 자체 규모도 빠르게 키워 유니콘 기업으로 성장하고 있다.비지키드(BusyKid)는 5세 이상 어린이 대상 월 19.99달러로 용돈관리, 주식투자, 기부, 지출승인, 내역 관리, QR코드 기반 송금, 비자카드 등을 제공한다. 활동 우수자 중에서 ‘Best of Best’를 선정해 100달러의 보너스 지급 및 대시보드 공개 등으로 지속적인 금융활동 동기 부여를 하고 있다.그린라이트(Greenlight)는 어린이용 모바일 직불카드, 용돈벌기, 주식과 ETF 투자, 1% 캐시백 등의 서비스를 제공하고 있다. 기업 가치가 3조원대로 인정받고 유니콘 기업의 대열에 올라섰다.뱅카루(Bankaroo)는 7세 이상 어린이 전용 가상은행으로, 부모가 가상의 자금을 자녀 계좌에 설정하면 아이들은 현금 관리, 예산 수립, 비용기록, 저축 등으로 배지를 수령하도록 해 놀이 요소를 더해 인기몰이를 하고 있다.▶국내는 교육 위주로 걸음마 단계... 금융서비스·마케팅 확대 필요=카카오뱅크의 카뱅미니 성공 이후 국내 시중은행들은 직불카드부터 주식, 금융지식 교육, 전용 금융 앱 등 키즈 대상 금융서비스를 출시하고 있다. 그러나 국내 은행은 메타버스 또는 게임형 금융교육 제공의 비중이 높은 편이다.KB국민은행은 ‘로블록스’ 내 ‘KB금융타운’ 베타버전을 제작해 가상영업점에서 대출받아 내집을 마련하고 상환 및 아이템 취득으로 신용등급 지키기 미션 등을 제공한다.신한은행은 초등학생 4~6학년 대상 ‘신한 SOLverse 메타금융스토리’를 오픈하고 아바타로 소통 및 금융지식 퀴즈 등을 진행해 게임으로 금융지식을 습득할 수 있도록 하고 있다.NH농협은행은 메타버스 내 독도를 구현한 ‘NH독도버스’를 런칭해 독도주민증 발급 및 토지 구매, 건물 신축, 낚시·농사 등의 활동에 포인트 지급해 농협 앱에서 사용할 수 있도록 하고 있다.대부분의 은행은 14세 이상을 대상으로 금융 상품을 제공하고 있는 반면 핀테크는 직접적으로 알파세대를 대상으로 한 금융서비스를 확대하고 있다.미성년자 직불카드 발급 대상이 카카오뱅크 ‘카뱅미니’ 14세~18세 , 신한 카드 ‘밈’ 14세~18세, KB국민 ‘리브넥스트’ 14~18세로 Z세대 타깃 상품으로 구성된다.하나은행의 ‘아이부자앱’은 연령 제한이 없고, 금융교육, 용돈 이체, 충전식 선불카드, 주식투자 간접체험 등 자산관리에 초점을 맞추고 부모도 이용 가능한 가족앱으로 설계됐다.토스뱅크는 카드 이용 연령을 7세로 낮추며 알파세대를 대상으로 마케팅을 하고 있고, 핀테크 레몬트리는 금융교육영역을 향후 간편결제, 소액 주식투자 서비스로 확장할 계획이다.김 연구위원은 “국내 은행은 알파세대 전용 서비스로 대부분 교육의 비중이 높아 금융상품과 서비스 확대가 필요하다”고 조언했다.이태형 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>토스, 데이터보호 준법 자문위 출범</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013578613?sid=105</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>토스 데이터보호 준법 자문위원회[비바리퍼블리카 제공. 재판매 및 DB 금지](서울=연합뉴스) 오규진 기자 = 모바일 금융 플랫폼 '토스'를 운영하는 비바리퍼블리카는 외부 전문가로 구성된 '데이터보호 준법 자문위원회'를 발족한다고 16일 밝혔다.    위원회는 비바리퍼블리카의 데이터 보호 전략·정책, 준법 감시 활동을 반기마다 검토한 뒤 대표이사·개인정보보호책임자(CPO)에게 의견을 제시할 예정이다.    권헌영 고려대 정보보호대학원 교수가 위원장을 맡았으며, 같은 대학원 김승주 교수, 김철준 법무법인 광장 고문이 자문위원으로 참여한다.    신용석 토스 CPO는 "매월 국민 1천400만 명이 사용하는 금융 플랫폼으로 성장하면서, 외부 시선으로 데이터 보호 체계의 투명성을 점검하고 개선할 필요가 있다는 공감대가 있었다"며 출범 취지를 설명했다.    acdc@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.11.25.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>3분기 인터넷은행 중저신용 대출 비중↑…연말 목표치 달성할듯</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013602299?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>카카오·케이뱅크 20% 중반…토스뱅크 40% 육박인터넷 뱅킹[연합뉴스TV 캡처]    (서울=연합뉴스) 오주현 기자 = 카카오· 케이·토스뱅크 등 인터넷전문은행 3사의 3분기 중저신용자 대상 신용대출 비중이 일제히 상승하며 연말 목표치 달성이 임박한 것으로 나타났다.    25일 은행연합회가 공시한 각 인터넷전문은행의 '중저신용자 대상 신용대출 비중(잔액 기준)'을 살펴보면 9월 말 기준 카카오뱅크는 23.2%, 케이뱅크는 24.7%, 토스뱅크는 39.0%로 집계됐다.    지난 6월 말과 비교하면 카카오뱅크는 1.0%포인트(p), 케이뱅크는 0.7%p, 토스뱅크는 2.7%p 비중이 확대됐다.[은행연합회 홈페이지 캡처. 재판매 및 DB 금지]    올해 말까지 각 인터넷 은행이 설정한 비중 목표치는 카카오·케이뱅크가 25%, 토스뱅크는 42%였는데, 3사 모두 이 수치에 근접한 것이다.    카카오뱅크가 올해 들어 지난달까지 무보증 신용대출 규모는 2조1천147억 원으로, 작년 한 해 동안 공급한 1조7천억원을 이미 넘어섰다.    이에 따라 지난달 말 기준 무보증 중저신용대출 잔액은 3조789억 원으로, 현재 기준 중저신용자 대출비중은 24%를 넘어섰다.    케이뱅크는 올해 3분기까지 중저신용 대출을 1조6천억원 공급했다고 밝혔다.     이는 지난해 1년간 공급한 대출 규모(7천510억원)의 2배가 넘는 수치다.    3분기 기준으로는 5천502억원의 중저신용 대출을 새로 공급했다.    토스뱅크는 출범 이후 최근까지 중저신용 고객을 위한 가계대출을 2조7천억원(잔액 기준) 규모로 공급했다.     이에 따라 이달 19일 기준으로는 중저신용자 대출 비중이 40.1%를 기록했다.[그래픽] 인터넷전문은행 중저신용자 신용대출 비중 추이(서울=연합뉴스) 원형민 기자 = circlemin@yna.co.kr    페이스북 tuney.kr/LeYN1 트위터 @yonhap_graphics    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>국민비서 구삐, 우리은행·하나은행 등 4대 금융사 앱에서 제공</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003061539?sid=105</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>국민 10명 중 약 3명이 이용하는 국민비서 '구삐'의 생활형 행정정보 알림서비스를 보다 다양한 민간 모바일 앱을 통해 이용할 수 있게 된다.행정안전부는 우리은행, 우리카드, 하나은행, 하나카드 등 4개 금융사와 국민비서 서비스 제공·이용 활성화를 위한 업무협약(MOU)을 체결한다.국민비서 '구삐'의 서비스 앱 채널이 현행 네이버, 토스 등 8개에서 4개의 금융사 앱이 추가됨으로써, 총 12개로 늘어난다.현행 채널은 네이버앱, 카카오톡, 토스, 케이비(KB)스타뱅킹, 케이비 페이(KB Pay), 신한 쏠(SOL), 신한플레이(pLay), 페이코(PAYCO)다. 여기에 우리WON뱅킹(우리은행), 우리WON카드(우리카드), 하나원큐(하나은행), 1QPay(하나카드)가 추가된다.5월 국민은행·카드, 신한은행·카드 등에 이어, 우리은행·카드, 하나은행·카드가 추가돼 4대 시중 금융사 대표 모바일 앱이 모두 연계되게 된다.국민비서 '구삐'는 국민생활에 꼭 필요한 교통·건강·교육 등 생활형 행정정보를 국민이 자주 이용하는 민간 앱 등을 통해 제공하는 서비스다. 지난해 3월 서비스 이후 올해 10월 13일에 가입자 1,500만 명을 돌파해 대표적 행정서비스로 자리매김하고 있다.한창섭 행정안전부 차관은 “국민비서는 정부와 민간이 서로 협력해 공공서비스를 제공하는 디지털플랫폼정부의 대표적인 사례”라며 “국민이 자주 사용하는 앱을 통해 보다 편리하게 공공서비스를 이용할 수 있도록 민간과 지속 협력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.11.25.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>카카오·토스, 디지털 뱅킹 역량 전통은행 앞질렀다</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003757855?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>금융권에 ‘디지털’ 바람이 거세게 부는 가운데, 은행에서 이뤄지는 모든 고객 여정에서 디지털화 수준이 2년 전 조사 때에 비해 꾸준히 증가했으며 특히 계좌 및 상품 관리, 카드 관리, 계좌개설 부문은 2020년 이후 가장 높은 디지털화 수준을 기록한 것으로 나타났다. 아울러 국내 인터넷 전문은행으로 분류되는 카카오뱅크·토스뱅크가 국내 전통은행들보다 디지털 뱅킹 역량이 뛰어난 것으로 나타났다.      한국딜로이트그룹은 딜로이트글로벌이 지난 9월 전세계 41개국, 304개 은행을 대상으로 실시한 디지털뱅킹 트렌드 설문조사 결과를 다룬 ‘2022년 글로벌 디지털뱅킹 성숙도 조사’ 보고서를 국문 번역해 발간했다.        딜로이트는 설문조사에 참여한 은행을 디지털화 수준에 따라 △디지털 분야의 뒤처진 수용자(Digital latecomers) △디지털 분야의 수용자(Digital adopters) △디지털 분야의 영리한 추종자(Digital smart followers) △디지털 챔피언(Digital Champion)' 등 4개 그룹으로 분류했다. 이 중 ‘디지털 챔피언’ 그룹은 디지털 역량 상위 약 10%에 해당하는 30개 은행으로 업계 디지털 핵심 트렌드를 주도하고 있었으며 고객의 오래된 습관도 바꾸고 있었다고 딜로이트는 평가했다. 아울러 인터넷전문은행을 포함한 ‘도전자 은행(challenger bank)’이 디지털 챔피언 그룹 중에서 19%를 차지했다.     딜로이트 조사에 따르면 ‘디지털 챔피언’ 그룹 은행은 타 은행 대비 자기자본이익률(ROE) 및 총자산이익률(ROA)이 각각 1.5%포인트, 0.1%포인트 높았다. 순수수료 이익 비율도 2019년 기준 28%에서 지난해 기준 31%로 집계됐다. 같은 기간 타 은행은 24%에서 25%로 사실상 제자리걸음했다. ‘디지털 챔피언’ 그룹은 고객 관계를 확장하는 부분에서도 타 은행을 압도했다. 에코시스템 및 계좌통합 부분에서 타 은행 대비 2.9배나 높은 경쟁우위를 확보하고 있었다. 방카슈랑스 및 ‘비욘드 뱅킹’(기존 은행 업무를 넘어서 새로운 가치를 제공하는 서비스)' 경쟁력은 2.7배, 투자서비스 부분도 2.5배에 달했다.      아울러 보고서는 은행업계 디지털 트렌드의 중요한 핵심 중 하나로 챌린저 은행의 부상을 꼽았다. 이들 챌린저 은행의 무려 65%가 모바일 채널로만 서비스를 제공하는 등, 타 은행 대비 압도적인 디지털 로드맵을 보여주는 것으로 확인됐다. 한편 모바일 채널의 디지털 성숙도는 인터넷 뱅킹 채널보다 더 빠르게 증가했으며, 정보 수집, 카드 관리, 계좌 개설 영역 등에서 모바일 채널의 디지털화 수준이 2020년 이후 최대 증가폭을 보인 것으로 나타났다.     보고서는 국내 금융권의 디지털 움직임도 짚었다. 국내에서는 카카오뱅크와 토스 뱅크등이 챌린저 은행으로 평가받는다. 포브스코리아가 지난 3월 디지털뱅킹을 이용하는 국내 소비자 1000명을 대상으로 실시한 설문조사 결과 카카오뱅크와 토스뱅크가 디지털뱅킹 역량 1, 2위를 차지했다. 전통은행에서는 신한은행이 3위로 가장 높았다.     딜로이트는 “무엇보다 20대와 30대 등 젊은층은 앱 구동 속도 및 이체 수수료 면제가 디지털뱅킹 만족도를 크게 좌우한다”며 “여기에 착안한 카카오뱅크와 토스뱅크가 한국 디지털 은행업계의 쌍두마차로 거듭나고 있다”고 설명했다. 장형수 한국 딜로이트 그룹 금융산업통합서비스그룹 고객산업 리더는 “은행업계의 디지털 전환은 시대적 소명이 되고 있으며 특히 챌린저 은행이 판을 주도하고 있다”면서 “디지털뱅킹 서비스 만족도에 따라 현재 고객들은 오랫동안 본인이 거래하던 주거래은행을 벗어나 새로운 디지털 챔피언의 문을 두드리는 것도 서슴지 않고 있으며, 앞으로도 디지털뱅킹이 고객 접점 및 수익 측면에서도 중요한 경쟁우위 요소로 자리잡을 것으로 보고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>"산은 벤처투자 올 6300억 사상 최대…혹한기 시장 '안전판' 역할 할것"</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004122945?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>[서경 인베스트 포럼]-신혜숙 산은 벤처기술금융실장창업서 스케일업까지 단계 지원신혜숙 KDB산업은행 벤처기술금융실장이 16일 서울 장충동 신라호텔에서 열린 ‘제8회 서경 인베스트포럼’에서 산은의 민간 주도 벤처 투자 활성화 방안에 대해 주제 발표를 하고 있다. 권욱 기자[서울경제] 최근 금리 급등과 경기 위축 우려에 벤처 투자 업계의 유동성이 급격히 감소하고 있지만 산업은행이 벤처 투자를 꾸준히 늘리며 역대 가장 많은 자금을 집행할 것으로 추산됐다. 정책금융기관인 산은이 정부의 벤처 투자 예산이 줄고 있지만 구원투수 역할을 톡톡히 하고 있는 것이다.신혜숙 KDB산업은행 벤처기술금융실장은 16일 서울 장충동 신라호텔에서 열린 ‘서경 인베스트포럼’에서 ‘산은의 민간 주도 벤처 투자 활성화 방안’을 설명하면서 “산은이 올해 벤처 업계에 직접 투자한 금액이 6300억 원 수준으로 예상된다”고 밝혔다. 산은의 직접 벤처 투자 규모는 2020년 3688억 원에서 지난해 5753억 원으로 증가했는데 올해도 500억 원 넘게 확대한 것이다.신 실장은 “1998년부터 스타트업 투자를 시작해 누적 투자액이 3조 5000억 원에 달한다”며 “그간 투자한 총 기업 수도 1220여 개에 이른다”고 말했다. 그러면서 “시장 친화적 펀드 조성을 통해 스타트업 성장의 마중물 역할을 계속 해나갈 것”이라며 “펀드를 통한 간접투자 액수는 2010년 이후 지금까지 42조 6000억 원에 달한다”고 덧붙였다.그는 이어 “산은은 스타트업의 단계별 혁신 성장 로드맵을 그려 놓고 투자금을 집행한다”고 소개했다. 초기 창업 단계부터 기업 가치를 키워가는 ‘스케일업’ 단계 기업까지 모두 지원하기 위해 다양한 프로그램을 가동하고 있는 것이다. 신 실장은 “2016년 투자 유치 플랫폼인 ‘넥스트 라운드’가 출범했고 2020년 기업 성장의 전(全) 단계를 지원하는 벤처금융본부를 설립했다”며 “지난해 미국 실리콘밸리에 현지 법인을 설립해 국내 벤처 기업의 해외 진출도 지원하고 있다”고 강조했다.신혜숙 KDB산업은행 벤처기술금융실장그는 산업은행의 벤처 투자 특징으로 △미래 차세대 스타트업 육성 △스케일업 지원 △기술 스타트업 관리 등 세 가지를 꼽았다. 미래를 이끌 차세대 스타트업으로 인공지능(AI) 반도체와 우주산업, 차세대 모빌리티 등을 선정해 향후 투자를 더욱 확대해 나갈 것임을 피력했다.신 실장은 “올 9월 코스닥 입성에 성공한 AI 반도체 오픈엣지테크놀로지(394280), 다음 달 브라질에서 국내 민간 기업 최초 위성 시험 발사가 예정된 이노스페이스는 미래 차세대 분야 스타트업 투자의 대표적 성과”라며 “토스와 리디 등에 투자해 유니콘으로 키워낸 것은 스케일업 지원의 결실”이라고 설명했다.신 실장은 또 “테크 스타트업 발굴을 위해 국내 5개 과학기술 특성화 대학과 협업을 강화하고 있고, 총 19개 스타트업에 490억 원의 투자금을 집행했다”고 설명했다. 산업은행은 한국과학기술원(KAIST)과 광주과학기술원(GIST), 대구경북과학기술원(DGIST), 울산과학기술원(UNIST), 포항공과대(POSTECH) 등 5개 대학과 산학협력 프로그램을 가동하고 있다.그는 “하반기부터 시작된 벤처 혹한기에서 산은이 능동적으로 어떤 역할을 하며 산업 생태계에 활력을 불어넣을지 모색 중”이라며 “시장의 안전판 역할을 하면서도 신산업 성장이 지속하도록 산은의 보유 역량을 다양하게 투입할 것”이라고 약속했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>토스, 데이터보호 준법 자문위원회 출범</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005368302?sid=105</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>고객 데이터 처리 법령 준수 여부 감시[이데일리 임유경 기자] 모바일 금융 플랫폼 토스를 운영하는 비바리퍼블리카(이하 토스)는 외부 전문가 3인으로 구성된 ‘데이터보호 준법 자문위원회’를 출범한다고 16일 밝혔다. 자문위원회는 고려대 정보보호대학원 권헌영 교수(위원장), 동 대학원 김승주 교수, 법무법인 광장 김철준 고문이 참여한다. 향후 지속적으로 확대할 계획이다.위원회는 앞으로 토스가 보유한 고객 데이터에 대한 처리가 관련 법령을 잘 준수하고 있는지 독립적으로 확인하고 감시하며, 안전한 데이터 거버넌스 체계를 구축하기 위한 자문 역할을 수행한다.(왼쪽부터) 이승건 토스 대표, 김승주 교수, 권헌영 교수, 김철준 고문, 신용석 토스 CPO위원회는, 회사의 데이터 보호 전략 및 정책, 준법 감시 활동을 반기마다 보고 받고, 개인 정보처리 민감도가 높은 사안에 대해서는 대표이사 및 개인정보보호책임자(CPO)에게 의견을 제시하게 된다. 토스는 위원회의 의견을 적극적으로 수용하고, 관련 결과를 홈페이지에 공개할 예정이다. 신용석 토스 개인정보보호책임자(CPO)는 “매월 국민 1400만 명이 사용하는 금융 플랫폼으로 성장하면서, 외부의 시선을 통해 더욱 적극적으로 고객 데이터 보호체계의 투명성을 점검 받고 개선해 나갈 필요가 있다는 내부 공감대가 있었다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.11.17.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>토스, 계열사 합동 IT 재난 대응 훈련 개최</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011541796?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 남정현 기자 = 비바리퍼블리카(토스)가 장애나 재해 등 재난상황에서 위기 대응력을 높이기 위한 비상대응 훈련을 개최했다고 17일 밝혔다. 이번 비상대응·재난복구 훈련에는 토스 외에도 토스뱅크, 토스증권, 토스씨엑스 총 4개사가 함께했다. 디도스 공격으로 토스 서버의 대고객 서비스 장애, 대고객 서비스와 연계기관 서비스 장애 두 가지 경우를 가정해 대응훈련을 실시했다. 토스의 원앱 위기관리 TF, 장애대응 TF는 각 계열사에서 총 138명이 부문별로 참여해 상황발생 탐지 후 회의소집, 재해복구, 서비스 원복, 대외 고지 등 전 과정에 이르는 실제 프로세스를 신속하게 수행했다. 토스는 이번 훈련을 통해 계열사들의 위기대응, 재해복구 체계의 유효성을 검증하고 실전 재난 대응역량을 확인할 수 있었다. 토스는 안정적인 서비스 제공을 위해 데이터센터(IDC)를 주센터와 DR(데이터복구)센터간 액티브-액티브 형태로 운영해 왔다. 또 2018년부터 IDC 이중화를 도입해 현재 수도권 내 총 3개 IDC를 운영하고 있으며 추가 1개 IDC도 오픈을 앞두고 있다. '액티브-액티브 방식'은 유사 시 백업 센터를 통해 복구 과정을 거치는 '액티브-스탠바이 방식'에 비해 더 빠르게 대응 할 수 있는 것이 장점이다. 데이터센터 내 주요 전산 자원을 평소 동일하게 보유하고 있어 지진, 화재 등 비상상황 뿐 아니라 오류, 해킹 등이 발생해도 페일오버(업무 이관)을 통해 서비스 중단을 최소화할 수 있기도 하다.장세인 토스 CISO는 "앞으로도 전자금융서비스망 장애 재난 상황을 고려한 다양한 시나리오를 개발해 정기적으로 비상대응과 재해복구 훈련을 실시하겠다"며 "어떤 재난 상황에도 토스 사용자가 안심하고 쓸 수 있도록 위기 대응력을 제고해 나갈 것"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>[게시판] 토스뱅크 '체크카드 주식 캐시백' 프로모션 진행</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013597738?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>[토스뱅크 제공. 재판매 및 DB 금지]    ▲ 토스뱅크는 24일부터 내년 2월까지 '체크카드 주식 캐시백' 프로모션을 진행한다고 밝혔다. 프로모션 참여 고객은 토스뱅크 체크카드로 국내외 모든 가맹점에서 5천원 이상 결제할 때마다 100원 상당의 '해외주식 및 ETF'를 즉시 지급받는다. 전월 실적 조건 제한이 체크카드 신규 발급 고객도 프로모션 혜택을 받을 수 있다. 지급된 주식은 고객의 토스증권 계좌를 통해 확인할 수 있다. (서울=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>국민비서 채널 확대…우리·하나銀 등 4대 금융사 앱과 모두 연계</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006479165?sid=102</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>국민·신한銀 이어 우리·하나銀과 업무협약봉사활동 신청 알림 등 7종 서비스 추가도행정안전부 청사 전경. ⓒ News1 허고운 기자(서울=뉴스1) 정연주 기자 = 국민 10명 중 3명이 이용하는 국민비서 '구삐'의 생활형 행정정보 알림서비스를 보다 다양한 민간 모바일 앱을 통해 이용할 수 있게 된다.24일 행정안전부는 오는 25일 우리은행, 우리카드, 하나은행, 하나카드 등 4개 금융사와 국민비서 서비스 제공과 이용 활성화를 위한 업무협약(MOU)을 체결한다고 밝혔다.이번 협약을 통해 4개의 금융사 앱이 추가되면서 국민비서 '구삐'의 서비스 앱 채널이 현행 네이버, 토스 등 8개에서 12개로 늘어난다.지난 5월 국민은행·카드, 신한은행·카드 등에 이어 우리은행·카드, 하나은행·카드 등이 추가돼 4대 시중 금융사의 대표 모바일 앱이 모두 연계됐다.국민비서 '구삐'는 국민생활에 꼭 필요한 교통·건강·교육 등의 생활형 행정정보를 국민들이 자주 이용하는 민간 앱 등을 통해 제공하는 서비스다.지난해 3월 서비스 이후 올해 10월13일 가입자 1500만명(전체 인구의 29%)을 돌파해 정부의 대표적 행정서비스로 자리매김하고 있다.행안부는 그동안 국민들이 보다 다양한 채널을 통해 국민비서 '구삐'를 이용할 수 있도록 민간 모바일 앱과의 연계를 지속적으로 모색해왔다.이번 업무협약을 계기로 행안부와 우리은행, 우리카드, 하나은행, 하나카드 등 4개 금융사는 국민비서 서비스의 이용 활성화와 공공서비스의 이용 편의성 향상을 위해 적극적으로 협력할 계획이다.한편, 국민비서 '구삐'는 백신접종 예약, 교통 범칙금 안내 등 기존의 27종 알림서비스에 이어 지난 9일부터 7종의 신규서비스를 추가해 총 34종으로 알림서비스 종수를 확대했다.추가된 알림서비스는 △국가공무원 공개경쟁채용시험에 응시한 수험생에게 합격정보 알림 △1365자원봉사포털을 통한 봉사활동 신청·실적 알림 △자동차365 이용자 대상 차량 명의변경·보상(리콜)내역 등 알림 △고용·산재보험 의무적용 대상인 예술인 및 노무제공자(특수형태근로종사자) 대상 피보험자격 신고사실 통지 등이다.한창섭 행안부 차관은 "국민비서는 정부와 민간이 서로 협력해 공공서비스를 제공하는 디지털플랫폼정부의 대표적인 사례"라며 "앞으로도 국민이 자주 사용하는 앱을 통해 보다 편리하게 공공서비스를 이용할 수 있도록 민간과 지속적으로 협력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.11.30.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>“후불결제, 카드랑 똑같이 규제”…전금법 개정안에 카드사 입김 논란</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005378226?sid=105</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>후불결제에 여전법 준용해 규제윤한홍 의원 발의 전금법 개정안에 관련 조항여신금융협회 의견 반영돼 논란핀테크 업계 "후불결제 발목잡기·과잉 규제"[이데일리 임유경 기자] 정부와 여당이 추진하는 전자금융거래법(전금법) 개정안에 한도가 30만원인 후불결제 서비스를 신용카드와 동일하게 규제하도록 한 조항이 포함돼, 과잉규제 우려가 제기된다. 이 조항을 마련하면서 카드사가 회원인 ‘여신금융협회’ 의견을 반영한 것으로 확인돼, 간편결제 업체를 견제하려는 카드사 입김이 들어간 것 아니냐는 지적도 나온다.30일 국회와 업계에 따르면 지난달 윤한홍 국민의힘 의원이 대표 발의한 전금법 개정안의 통과가 유력시되는 분위기다. 지난 23일 열린 정무위원회 법안심사소위에서 먼저 문제가 불거진 선불업자(선불전자지급수단발행·관리 업자)의 가맹점 직계약 조항을 수정해, 대표 가맹점을 둘 수 있도록 의견이 모이면서다. 간편결제업체가 모든 가맹점과 일일이 직접 가맹 계약을 맺는 것이 현실적으로 어렵다는 의견이 받아들여졌다.후불결제, 신용카드와 동일 규제 받나문제는 후불결제가 신용카드와 동일한 규제를 받는다는 내용이 담긴 ‘후불결제 관련 조항(제35조2 제3호)’은 이날 다뤄지지 않았다는 점이다. 해당 조항에 따르면 후불결제 업무에 대해 전금법 개정안에 특별한 규정이 없는 경우 ‘여신전문금융업법(여전법)’의 신용카드업에 관한 규정을 준용해야 한다.후불결제는 소비자들이 미리 충전한 선불금이 부족한 경우, 30만원 한도에서 후불로 결제할 수 있게 한 서비스다. 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스)가 금융위원회 혁신금융 서비스로 지정받아 ‘부가조건’을 준수하며 운영 중이다.후불결제 서비스는 휴대폰 소액결제 한도(100만원)의 3분의 1도 되지 않고, 할부나 카드론, 리볼빙 등의 여신사업을 통한 이자 수익도 낼 수 없게 제한된다. 그런데도 신용카드사에 적용되는 대부분의 규제를 디지털 금융에도 그대로 적용하는 것은 금융혁신을 저해하는 과잉 규제라는 지적이 나온다.일례로 여전법에선 사업자는 사용자가 미사용한 한도에 대해서도 충당금을 적립해야 한다. 카드사의 경우 미사용 한도가 언제든 리볼빙, 현금 서비스 등 대출성 상품으로 바뀔 수가 있기 때문에 미사용 한도라도 적립하도록 했다. 카드사는 대출성 상품을 운영하며 수익을 내기 때문에 이런 규제를 적용 받더라도 여력이 충분하기도 하다.하지만 후불결제 서비스는 할부나 리볼빙이 불가하고, 한도도 제한적인데 똑같은 규제를 받는다면 사업을 확장하기가 부담스러운 상황이다. “사업 자체를 포기할 수 있을 정도로 심각한 문제”라는 게 업계 목소리다.정무위원회 법안소위 심사자료 발췌여신금융협회, 법안 마련 시 의견전달…“후불결제에 여전법 적용해야”후불결제 서비스 확산에 발목을 잡을 수 있는 규제를 카드사들이 주축이 된 여신금융협회 의견을 청취해 포함했다는 점도 논란이다. 카드사들은 향후 후불결제 한도가 커질 경우 신용카드업과 경쟁할 수 있다고 보고 견제해 왔다.본지가 확인한 법안소위 심사자료에 따르면 여신금융협회는 ①후불결제서비스가 사실상 여신업 성격을 지닌다는 점에서 신용카드업계와의 이해관계 충돌 소지가 있고, ②신용도에 관계없이 사용 가능하다는 점에서 저신용자의 연체 및 다중채무문제를 야기할 수 있다는 우려가 있으며, ③후불결제업무의 기능이 신용카드업과 동일하므로, 이미 후불결제에 대한 규제체계가 확립된 여전법에서 일괄적으로 규율하는 것이 타당하다는 의견을 제시했다.여신금융협회가 전달한 의견의 사실관계도 따져볼 필요가 있다. 핀테크 업계는 후불결제 서비스는 여신업의 성격을 띠지 않는다고 반박한다. 실제 후불결제 업체는 할부나 카드론, 리볼빙 등의 여신사업을 할 수 없다. 또 저신용자의 연체 및 다중채무문제를 야기할 수 있다는 우려에도 한도가 30만원으로 적어 소액을 연체해도 연체율이 커 보이는 착시현상이 있고, 금융당국이 ‘후불결제 연체정보 공유’를 허용해 주면 연체율과 다중채무 관리가 가능하다고 보고 있다.후불결제 기능이 신용카드업과 동일하다는 여신금융협회 의견에도 반박한다. 신용카드업은 여신전문금융업으로서 기본적으로 외부에서 차입(회사채, ABS 등 발행)된 자금을 다시 회원에게 카드한도, 대출 등 여신으로 제공함으로써 사업이 실행되는 구조지만, 후불결제는 핀테크업체들이 차입이 아닌 자기자본을 바탕으로 해당 범위 내에서 서비스를 제공하기 때문에 전혀 다르다는 입장이다.다른 핀테크 업체 관계자는 “후불결제업에 대한 강력한 규제를 주장하는 이익단체인 여신금융협회의 의견만 일방적으로 반영해 법안을 준비했다는 것 자체가 심각한 문제”라고 꼬집었다. 이어 “그 내용도 신용카드와 후불결제가 동일 기능이 아닌데, 동일규제 잣대를 들이대 완전히 틀렸다”고 지적했다.전문가들은 신산업인 핀테크 분야에 과도한 규제가 될 수 있다고 우려한다. 김대종 세종대 경영학부 교수는 “여전법은 신용카드업에 관련된 것인데 간편결제 업체에 적용하는 것은 맞지 않다”며 “4차산업혁명으로 핀테크를 포함해 신산업이 빠르게 성장하고 있지만 법은 그 속도를 따라가지 못하고 있다”고 지적했다. 또 “국민의 생명과 안전에 관련된 것이 아니면 가능하면 규제를 해지하고, 문제가 생기면 해당 업체에 책임을 지도록 하는 것이 미래 산업 발전에 도움이 되는 방식”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1000억 유증 결정...신규 주주에 하나카드 합류</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005374088?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>출범 후 6번째 유상증자 진행자본금 1조4500억원 확보[이데일리 전선형 기자] 토스뱅크가 1000억원 규모의 유상증자를 진행한다. 출범 후 여섯 번째다. 토스뱅크는 지난 23일 이사회를 열고 총 1000억 원 규모의 유상증자를 추진하기로 결의했다고 24일 밝혔다. 증자 후 토스뱅크의 총 납입 자본금은 1조4500억 원으로 늘어난다. 그만큼 자본안정성이 한층 강화된다는 의미다. 출범 당시 2500억 원이었던 자본금 규모는 여섯 차례의 증자 과정에서 11개월 만에 1조2000억 원의 신규 자본금을 확충하는 결과로 이어졌다. 토스뱅크는 출범 당시 5년간 1조원의 추가 증자 계획을 밝힌 바 있지만, 빠른 여수신 성장세와 함께 적기 자본 확충을 이어오고 있다. 신규 발행하는 주식은 보통주 2000만 주다. 주당 발행가는 5000원이다. 증자방식은 제3자 배정으로, 기존, 신규 주주가 증자에 참여했다. 자본금 납입일은 이달 29일이다. 특히 토스뱅크는 이번 증자를 통해 하나카드를 신규 주주로 맞이하게 됐다. 총 195만617주(약 98억 원 규모)를 배정받는 하나카드는 토스뱅크의 기존 주주사인 하나은행이 속한 하나금융그룹의 계열사다. 현재 토스뱅크의 체크카드(토스뱅크카드) 업무를 대행하며 전략적 파트너로도 협업하고 있으며, 향후 카드 비즈니스 등 다양한 사업 전략을 발굴할 예정이다.현재 주요 주주로는 비바리퍼블리카, 이랜드월드, 하나은행, 중소기업중앙회, 한화투자증권, SC제일은행 등이 참여하고 있다. 토스뱅크 관계자는 “중저신용 고객 포용, 사용자 중심의 서비스 혁신 등 시장의 호응 속에 이뤄진 빠른 성장세는 주주사들의 높은 관심과 지원이 있었기에 가능했음을 잘 알고 있다”며 “급변하는 글로벌 환경 속에서도 자본안정성을 강화하고, 보다 혁신적인 서비스로 고객 경험을 바꿀 수 있도록 동력을 확보해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.11.27.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>우리·하나은행 앱에서도 `국민비서` 알림 서비스</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002769008?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>박성호(오른쪽) 하나은행장, 권길주(왼쪽) 하나카드 사장, 한창섭 행정안전부 차관이 기념촬영을 하고 있다. 하나은행 제공    국민비서 '구삐'의 생활형 행정정보 알림 서비스를 우리은행 등 4개 금융사 모바일 앱에서도 이용할 수 있게 된다.27일 금융권에 따르면 우리은행, 우리카드, 하나은행, 하나카드 등 4개 금융사는 지난 25일 서울 중구 한국지능정보사회진흥원 사무소에서 행정안전부와 '국민비서 서비스 제공 및 활성화'를 위한 업무협약(MOU)을 체결했다.'구삐'는 각종 생활밀착형 행정정보를 모바일 앱에서 편리하게 알림받을 수 있는 서비스다. 현재 백신접종 예약 알림, 경찰청 고지서 등 34종의 생활형 행정정보에 대해 알림을 제공하고 있다.우리은행·하나은행 등은 이번 협약으로 행안부가 국민비서에서 서비스하는 34종의 생활밀착형 정보를 모바일뱅킹·카드 앱에서 제공한다.이들 금융사는 향후 행정안전부와 지속 협력해 행정정보 알림 종류를 추가하고 국민비서 상담 서비스까지 확대할 계획이다.우리은행과 우리카드는 '국민비서 알림 서비스'의 신규 출시를 기념해 다음달 30일까지 최대 10만 꿀머니를 지급하는 이벤트도 진행한다.한편 이번 협약으로 국민비서 구삐의 서비스 앱 채널이 현행 네이버, 카카오톡, 토스, KB스타뱅킹, 신한 쏠(SOL) 등 8개에서 총 12개로 늘어난다. 특히 지난 5월 국민은행·카드, 신한은행·카드 등에 이어 우리은행·카드, 하나은행·카드가 추가되면서 4대 시중 금융사의 대표 모바일 앱이 모두 연계됐다.옥일진(오른쪽) 우리은행 부행장, 한창섭(가운데) 행정안전부 차관, 김정기 우리카드 사장이 협약식을 마치고 기념촬영을 하고 있다. 우리은행 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.11.27.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>'실업자' 호날두는 한턱 쏘고, 케인은 '키스 위로' 받아</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000709752?sid=104</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>포르투갈 선수들,  호날두 덕에 고급 레스토랑 회식'미국과 무승부' 비난받은 잉글랜드, 관중석 가족 재회포르투갈의 크리스티아누 호날두(왼쪽)가 24일 카타르 도하의 974스타디움에서 열린 2022 카타르 월드컵 조별리그 H조 1차전 가나와의 경기 후반 17분 페널티킥으로 선제골을 넣은 후 동료와 기뻐하고 있다. 포르투갈은 이날 가나를 3-2로 물리쳤다. AP 뉴시스2022 카타르 월드컵 조별리그가 한창인 가운데 축구 스타들의 일거수일투족이 집중 조명되고 있다. 포르투갈 대표팀 주장인 크리스티아누 호날두(37)는 선수단을 위해 '통 큰' 저녁식사를 대접해 눈길을 끌었다. 현재 소속팀 없이 '실업자' 상태인 그는 가나와의 첫 조별리그 경기에서 승리한 뒤 선수단을 고급 레스토랑에 초대했고, 음식값을 계산했다. 미국과 무승부를 기록한 잉글랜드의 주장 해리 케인(29·토스넘 홋스퍼)은 비난 여론 속에 가족의 위로를 받았다. 영국의 더 선은 26일(현지시간) "실업자인 호날두가 포르투갈 선수단을 데리고 저녁식사를 하러 나가 계산서를 챙겼다"고 보도했다. 포르투갈은 지난 24일 2022 카타르 월드컵 조별리그 H조 가나와 1차전에서 3대 2로 승리했다. 호날두는 이날 페널티킥을 성공시키며 팀이 승점 3점을 챙기는 데 일조했다. 호날두는 이날 승리하면서 대표팀 선수들의 사기를 유지하기 위해 식사 자리를 마련했다. 페르난도 산토스 감독이 승리 후 선수들에게 훈련 대신 휴식시간을 줬기에 가능했다. 호날두는 이날 카타르 도하에서 값비싼 레스토랑으로 팀원들을 이끌었다.포르투갈 축구 대표팀이 최근 카타르 도하의 고급 레스토랑에서 사진 촬영을 하고 있다. 이들은 대표팀 주장인 크리스티아누 호날두(상단 왼쪽에서 세 번째)가 마련한 저녁식사 자리에 초대받았다. SNS 캡처호날두가 동료들을 초대한 곳은 최근 알 마하 섬에 문을 연 '타델 데 도하'라는 레스토랑이다. 이곳은 테니스 스타 라파엘 나달 등 스포츠 스타들의 파트너사인 마벨 호스피탈리티가 운영하는 것으로 알려졌다. 호날두는 비록 소속팀이 없는 신세지만 팀 동료들과 화기애애하게 식사를 했다고 더 선은 전했다. 사회관계망서비스(SNS)에 올라온 사진에는 호날두를 비롯한 포르투갈 선수들이 활짝 미소를 지으며 즐거운 모습이었다. 호날두는 상단에 마련된 자리에 앉아 손으로 '브이(V)'를 그리며 사진을 찍었다. 더 선은 "그는 계산서를 집어들고 단체 사진을 찍기 위해 포즈를 취했다"고 전했다. 앞서 호날두는 방송인 피어스 모건이 진행하는 인터뷰에서 맨유와의 갈등을 토로했다. 구단과 에릭 텐 하흐 감독을 비난하며 "배신당했다"고 주장했다. 그러나 맨유 출신 게리 네빌과 웨인 루니는 호날두의 발언을 비판하기도 했다.해리 케인, 아내에게 '키스 위로' 받아잉글랜드 대표팀 주장인 해리 케인이 25일 카타르 도하의 알베이트 스타디움에서 열린 2022 카타르 월드컵 조별리그 B조 미국과 경기를 마친 뒤 관중석에 있던 아내 케이티 굿랜드와 입맞춤을 하고 있다. 이날 잉글랜드는 미국과 0-0 무승부를 기록했다. 로이터 연합뉴스잉글랜드 대표팀은 가족들의 위로를 받았다. 이들은 지난 26일 이번 대회 조별리그 B조 2차전 미국과 경기에서 0대 0으로 비긴 뒤 비난 여론에 시달려야 했다. 미국을 쉽게 따돌릴 수 있을 거란 예상을 깨고 시종일관 무기력한 경기를 보였다. 그러나 이들은 경기 종료 휘슬이 울린 뒤에도 실망하지 않은 표정이었다. 이날 경기가 열린 알베이트 스타디움에는 잉글랜드 선수들의 가족들이 찾아왔기 때문이다. 선수들은 관중석에서 응원한 가족들과 만남의 시간을 가졌다. 잉글랜드 수비수 에릭 다이어가 25일 카타르 도하의 알베이트 스타디움에서 열린 2022 카타르 월드컵 조별리그 B조 미국과 경기를 마친 뒤 관중석에 있던 약혼녀 안나 모들러와 단란한 시간을 갖고 있다. 이날 잉글랜드는 미국과 0-0 무승부를 기록했다. 로이터 연합뉴스특히 대표팀 주장인 해리 케인은 언론 인터뷰 등을 마친 뒤 아내 케이티 굿랜드에게 달려갔다. 케인은 아내와 키스하며 위로받았다. 수비수 해리 매과이어(29·맨유)도 아내 펀 호킨스와의 입맞춤을 잊지 않았다. 골키퍼 조던 픽포드는 아내 메건 데이비슨, 아들과 '셀카'를 찍으며 웃어 보였다. 에릭 다이어(28·토트넘 홋스퍼)도 최근 약혼한 것으로 알려진 여자친구 안나 모들러와 포옹했다. 하지만 부진한 경기는 언론의 타깃이 됐다. 영국 언론들은 잉글랜드 대표팀을 향해 "월드컵 역사상 가장 지루한 팀"이라며 비난을 퍼부었다. 다만 1차전 이란전에서 6-2로 승리했던 잉글랜드는 B조 1위에 자리했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.11.29.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>토스, 내년 알뜰폰 서비스 출시…‘서비스 완성도·상생’ 다 잡는다</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002137704?sid=105</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>[디지털데일리 강소현 기자] 토스 운영사 비바리퍼블리카(이하 토스)가 내년부터 알뜰폰 사업을 본격 전개할 전망이다. 당초 연내 시장 진출을 예고했던 가운데, 이용자가 선호하는 동시에 업계와 상생할 수 있는 요금제를 마련하려다 보니 내년으로 출시 시점을 늦췄다는 설명이다.29일 업계에 따르면 토스는 이용자 선호도 조사를 거쳐, 빠르면 내년 1월 알뜰폰 서비스를 출시할 계획이다.토스는 서비스 개시 전인 지난 7월부터 토스 이용자를 대상으로 사전 선호도 조사를 진행해 왔다. 중소 알뜰폰 업체의 사업영역을 침범하지 않는 선에서, 이용자가 선호하는 소수의 요금제만을 출시하기 위한 것이다.이는 최근 KB국민은행에 대한 알뜰폰 업계의 반발심 높아지고 있는 분위기도 고려됐다. 막대한 자본력을 앞세워 도매대가 이하의 덤핑요금제 등으로 시장을 교란했다는 이유에서 KB국민은행의 알뜰폰 브랜드인 ‘리브엠’의 사업 철수를 요구하는 목소리도 높아지고 있는 가운데, 같은 금융권 기업인 토스도 이런 시장 분위기를 의식하지 않을 수 없는 상황이다.이에 토스는 중소업체의 사업영역을 침범하지 않도록 알뜰폰 사업을 전개해 나가겠다는 입장을 재차 밝혀오기도 했다. 토스 관계자는 “도매대가 이하의 요금제를 판매하는 등의 출혈 경쟁 계획은 전혀 없다”고 선을 그으면서, “주로 선불폰을 판매하는 중소업체들과 달리 후불폰 위주로 사업을 펼칠 것”이라고 강조했다.토스가 어떠한 알뜰폰 서비스를 제공할지는 아직 내부 논의 중인 것으로 전해진다. 지금까지 알려진 바로는 이미 앱에서 제공 중인 기능들과 시너지 효과를 낼 수 있는 서비스를 기획 중이다.다만 토스의 요금제 선호도조사 항목을 살펴보면, ▲월 2만5000원(10GB) ▲월 2만원(5GB) ▲월 3만원(25GB) ▲월 3만5000원(50GB) ▲월 4만5000원(100GB) ▲월 6만9000원(무제한) 등이다. 요금제 모두 데이터를 소진하면 5Mbps 속도로 이용 가능하며, 통화·문자는 모두 무제한이다.특히 현재 알뜰폰 요금제 가운데 월 2만원대 요금제 기준 5Mbps 속도제한을 두고 무제한으로 데이터를 이용 가능한 요금제가 없어, 해당 요금제가 출시된다면 경쟁력을 확보할 수 있을 것으로 보인다.  데이터를 적게 쓰면 환급해주는 혜택도 눈길을 끈다. 예컨대 데이터 무제한 요금제(월 6만9000원) 기준 5GB보다 적게 쓰면 4만원, 10GB보다 적게 쓰면 1만5000원 환급해주는 방식이다.토스 관계자는 “선호도 조사를 통해 단순히 데이터의 용량이나 속도 뿐아니라 다양한 부분에서 이용자의 선호도를 체크하고 있다”라며 “알뜰폰 시장에서 상생하고자 이용자가 선호하는 요금제 몇 개로만 가려다 보니 예상보다 오래걸린 측면이 있다”고 설명했다.한편 토스는 알뜰폰 시장 진입을 위해 앞서 중소 알뜰폰 사업자인 머천드코리아의 지분 100%를 인수하고, 알뜰폰 브랜드명을 ‘토스모바일’로 정했다. 토스는 안정적인 서비스를 위해 토스모바일의 데이터센터(IDC) 이중화 작업도 거친다는 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>토스뱅크, 10개월 만에 중저신용자대출 비중 40% 돌파</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000185608?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>중저신용대출 2.7兆…상반기 대비 두배로 늘어토스뱅크가 중저신용자 대출 비중 40%를 돌파했다고 21일 밝혔다. /토스뱅크 제공토스뱅크가 인터넷전문은행은 물론 제1금융권 최초로 중저신용자 대출 비중 40%를 돌파했다. 자체 신용평가모형을 적극 활용해 고객의 실제 상환능력을 판단하고 건전한 중저신용자를 발굴해 고정이하여신비율은 안정적으로 유지했다.토스뱅크는 가계대출 중 중저신용(KCB 850점 이하) 대출 잔액이 지난 19일 기준 2조7000억 원을 기록했다고 21일밝혔다. 지난 6월 기준 1조3338억 원 대비 두 배 이상 늘어난 수치다. 중저신용 대출 비중은 토스뱅크 전체 가계대출의40.1%로 올해 1분기 대비 8.7%포인트 증가했다. 올해 3분기 기준 카카오뱅크와 케이뱅크의 중저신용자 대출 비중은각각 23.2%, 24.7%다.지난달 기준 고정이하여신비율은 0.32%로 올 3분기 4대 시중은행 평균 수준으로 나타났다. 자체 신용평가모형(CSS)를 적극 활용하며 건전한 중저신용자를 적극 발굴한 것이 주효했다는 설명이다.토스뱅크는 중저신용 고객 4명 중 1명 이상(25.7%)을 고신용자로 재평가했다. 신용점수 475점(과거 KCB 기준 8등급)인 이들에게도 대출이 이뤄졌고 이들은 성실 상환 등으로 신용점수를 올릴 수 있었다.중저신용고객 1인당 평균 대출액은 3006만 원이며 이들의 평균 대출금리는 저축은행 평균 대비 약 7%포인트 이상 낮은 것으로 나타났다. 토스뱅크는 국내 금융권 최초로 고정금리, 원리금 균등 상환 고객 대상 납부기간을 최장 10년까지 늘리는 서비스를 도입한 결과 고객 월평균 원리금 상환액을 35만 원 가량 낮출 수 있었다고 설명했다.개인사업자 중저신용 대출비중은 지난 19일 기준 48.3%를 기록했다.타 금융사에서 토스뱅크로 대출을 갈아타는 대환대출도 늘어났다. 지난 9월 토스뱅크가 신용보증재단과 함께 선보인 사장님 대환대출 서비스는 출시 2개월 만에 대출잔액 300억 원을 넘어섰다. 전 은행권을 통틀어 KB국민은행에 이어 두 번째로 큰 규모다. 대환대출 중 82.4%는 저축은행, 카드사, 캐피탈사 등으로부터 옮겨왔다. 코로나19로 인해 영업에 어려움을 겪는 소상공인, 자영업자들의 고정금리 대출 수요가 몰린 것으로 풀이된다.한편 가계 대출과 기업 대출을 더한 전체 여신은 8조 원으로 지난해 말 5315억 원 대비 15배 넘게 늘었다.토스뱅크 관계자는 "출범부터 꾸준히 고객들과 약속해 온 포용금융을 은행의 건전성을 유지하면서도 숫자로 증명해 나가겠다"라며 "개인사업자 대출 등 시장의 여러 자금 수요와 금융 사각지대를 들여다보고 제 역할을 하는 신뢰의 은행으로 자리매김하겠다"고 밝혔다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>토스뱅크 "체크카드 쓰고 미국주식 받으세요"</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003942997?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>토스뱅크가 24일부터 국내 최초로 '체크카드 주식캐시백' 프로모션을 시행한다. 토스뱅크 체크카드와 토스증권 계좌를 보유한 고객이라면 기존 체크카드 캐시백 또는 이번에 진행되는 주식캐시백 프로모션에 참여해 혜택을 받을 수 있다.주식캐시백 프로모션 참여 고객은 토스뱅크 체크카드로 국내외 모든 가맹점에서 5000원 이상 결제할 때마다 100원 상당의 '해외주식 및 ETF'를 즉시 지급받는다. 가맹점 중복 적용 제한도 없어서 고객은 5000원 이상 결제하는 모든 건에 대해 매번 주식캐시백 혜택을 받을 수 있다.전월 실적 조건 제한까지 없다. 체크카드를 신규로 발급 받고 즉시 프로모션 혜택을 받을 수 있다. 지급된 주식은 고객의 토스증권 계좌를 통해 확인할 수 있다. 단 5000원 미만 결제 건은 1% 현금캐시백 혜택이 적용된다. 카드 결제 즉시 고객의 토스뱅크 계좌로 입금된다.프로모션을 통해 고객들은 대표적인 미국주식 애플, 테슬라, 아마존, 엔비디아 등 미국의 우량 기업과 ETF를 포함한 30개 종목의 주주가 될 수 있다. 이 종목들 중에서 고객이 희망하는 3종목을 지정하면, 체크카드를 결제할 때마다 지정한 종목 중 랜덤으로 1개 종목의 소수점 주식이 지급된다. 희망 종목은 언제든 자유롭게 변경할 수 있다. 단 종목을 지정하지 않으면 자동으로 인기 종목이 선택된다.이번 프로모션은 평소 해외주식 투자에 관심이 많았던 고객들에게 투자에 대한 진입장벽을 낮추고, 보다 쉽고 간편하게 해외 우량 기업에 투자해 볼 수 있는 좋은 기회가 될 것으로 토스뱅크는 기대하고 있다.프로모션 기간은 이 날부터 내년 2월 말일까지다. 주식캐시백 프로모션 참여를 취소하면 기존 체크카드 캐시백 혜택이 적용된다. 주식캐시백 프로모션을 취소한 경우 재신청은 불가능하다.토스뱅크 관계자는 "토스뱅크와 토스증권 양 사에서 선보인 체크카드 즉시 캐시백과 실시간 해외주식 소수점 거래 서비스가 만나 주식캐시백이라는 새로운 차원의 고객 서비스로 탄생했다"며 "앞으로도 고객관점에서 고민하고 다양하고 혁신적인 서비스를 선보여 금융에 대한 고객 경험을 바꿔나가겠다"고 말했다.프로모션 참여를 위해서는 토스앱 내 토스뱅크 메뉴를 터치하면 된다. 서비스 및 프로모션 관련 자세한 내용은 토스뱅크 서비스 화면 또는 고객센터를 통해서도 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.11.25.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>토스·카카오페이證, '읽기 쉬운 리포트' 개인투자자 공략</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006481470?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>토스·카카오페이證 최근 애널리스트 채용 나서…'쉬운 리포트' 목표전통 증권사도 기존 리포트 문법 변화 시도 중23일 토스증권 한상원 애널리스트가 작성한 리포트 일부. 하루사이 조회수 2만7000여회를 기록했다. (토스증권 제공)(서울=뉴스1) 공준호 기자 = 토스증권과 카카오페이증권이 기존 기업분석 보고서 문법을 깨고 '콘텐츠화'된 리포트를 확대하고 있다. 이들 증권사는 주요 고객인 개인투자자의 눈높이에 맞춰 트렌드에 맞는 섹터를 조망하거나 거시경제 환경을 알기쉽게 풀어내는 등 내용을 담으려는 시도를 이어가고 있다.25일 금융투자업계에 따르면 토스증권과 카카오페이증권은 최근 애널리스트 인력을 확충하기 위한 채용에 나섰다. 이들의 채용공고를 살펴보면 소비자들에게 친숙한 콘텐츠를 생산하고자 하는 목표가 공통적으로 보인다. 토스증권의 직무설명에 따르면 애널리스트팀의 목표는 투자자에게 최고의 콘텐츠 경험을 제공하는 것이며 '모바일 제품 및 콘텐츠 전문가들과 함께 투자 경험이 없는 사람도 쉽게 이해할 수 있는 콘텐츠를 만들기 위해 고민한다'는 내용이 담겼다. 실제 토스증권의 애널리스트는 콘텐츠 제작팀과 밀접하게 협업해 함께 리서치를 제공하고 있다. 카카오페이증권 역시 리테일 투자자를 대상으로 이해하기 쉬운 투자 콘텐츠를 기획하기 위해 채용을 진행한다는 점을 밝히고 있다. 구체적으로는 ‘복잡하고 어려운 국내 및 해외 주식들의 섹터 및 산업 밸류체인에 대한 전망을 쉽게 소개하는 자료’를 제공한다는 목표다.실제 이들이 제공하는 기업분석 콘텐츠들은 기존 증권사의 문법을 철저하게 파괴한 모습을 보이고 있다. 최근 토스증권이 발행한 ‘나에게 맞는 채권 ETF를 고르는 법’을 살펴보면 금리와 채권의 상관관계, 실제 채권 투자방법, 채권별 특징 및 선택 기준 등을 일반 투자자의 눈에 맞춰 설명하고 있다. 해당 리포트는 토스증권 애널리스트팀 소속 한상원 애널리스트가 작성했으며 하루새 2만7000여명의 투자자가 콘텐츠를 본 것으로 나타났다. 카카오페이증권의 애널리스트 역시 모바일트레이딩시스템(MTS) 내 ‘무지 쓸모있는 투자 소식’ 내 일부 콘텐츠를 발행하고 있다.이들이 제공하는 리포트는 리테일 투자자를 겨냥한 만큼 어려운 용어를 가급적 피하거나 설명을 곁들인다. 이에 더해 개별기업에 대한 분석보다는 전체 시장이나 화제가 되는 특정 섹터에 대한 의견을 제시한다. 토스와 카카오라는 거대 플랫폼을 바탕으로 콘텐츠를 제공하는 점도 이점으로 작용하고 있다.전통 증권사들도 원래 방식에서 벗어나 개인투자자의 눈높이를 맞춘 콘텐츠를 개발하는 시도를 진행중이다. 기존 증권사 애널리스트들은 법인영업(홀세일) 지원에 초점을 맞춰 기관투자자 대상 리포트를 작성해왔다. 최근에는 모바일트레이딩 시스템에 리포트 요약본을 게재하거나 큰 틀에서 동영상 기업분석 콘텐츠를 제공하는 등 '딱딱한 리포트'를 벗어나기 위한 시도가 지속되고 있다.한 증권사 리서치센터장은 "요즘은 일반 증권사들도 리테일 고객을 잡기 위해 여러 노력을 하고 있다"면서도 "토스증권이나 카카오페이증권은 태생적으로 고객 대부분이 리테일인 만큼 콘텐츠화된 리포트가 발달된 것으로 보인다"고 말했다.토스·카카오페이증권가 진행하는 이번 애널리스트 채용을 본격적인 리서치 조직 확대로 연결짓기는 어려워 보인다. 현재 토스증권에 소속된 애널리스트는 1명이다. 토스증권은 이번 채용에서 1~2명선의 애널리스트를 충원하는 것으로 파악됐다.카카오페이증권 역시 아직 리서치 조직 규모가 크지 않은 만큼 토스증권과 비슷한 규모로 채용을 진행할 것으로 보인다. 카카오페이증권 관계자는 "현재 리테일 사업 부문에 애널리스트 1명이 소속돼있으며 추가채용 규모는 공개하기 어렵다"며 "향후 콘텐츠 전략에 맞추어 신중하게 검토 중"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1000억원 유상증자…자본금 총 1조4500억원</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002069887?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>토스뱅크, 출범 후 여섯 번째 유상증자 결정하나카드가 신규 주주로 합류[토스뱅크 제공][헤럴드경제=김광우 기자] 인터넷전문은행 토스뱅크가 1000억원 규모의 유상증자롤 단행한다.토스뱅크는 지난 23일 이사회를 열고 총 1000억원 규모의 유상증자를 추진하기로 결의했다고 24일 밝혔다.지난해 출범 당시 2500억원이었던 토스뱅크의 자본금 규모는 이번까지 총 여섯 차례의 증자를 통해 1조4500억원으로 불어난다.신규 발행하는 주식은 보통주 2000만주이며, 발행가는 5000원이다. 증자방식은 제3자 배정으로, 기존 및 신규 주주가 증자에 참여했다. 자본금 납입일은 이달 29일이다.하나금융그룹의 계열사인 하나카드가 이번 증자를 통해 토스뱅크의 신규 주주가 됐다. 하나카드는 총 195만617주(약 98억원 규모)를 배정받는다. 하나카드는 토스뱅크의 체크카드 업무를 대행하는 전략적 파트너로서 협업하고 있다.현재 토스뱅크의 주요 주주는 ▷비바리퍼블리카 ▷이랜드월드 ▷하나은행 ▷중소기업중앙회 ▷한화투자증권 ▷SC제일은행 등이다.토스뱅크 관계자는 “급변하는 글로벌 환경 속에서도 자본 안정성을 강화하고, 더욱 혁신적인 서비스로 고객 경험을 바꿀 수 있도록 동력을 확보해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>은행권 ‘이자 장사’ 성적표 공개…예대금리 차이 1위는?</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002615788?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>예대금리차 공시 후 평균 0.15%p↓5대 은행은 농협, 전체에선 토스뱅크지난 2월 서울의 한 건물에 설치된 현금인출기. 연합뉴스지난 10월 은행권의 ‘이자 장사’ 성적표가 공개됐다. 5대 은행 가운데는 엔에이치(NH)농협은행이, 전체 은행 중에서는 인터넷전문은행 토스뱅크가 예대금리차(예금·대출금리 차이)가 가장 컸다. 다만 지난 7월 은행권 예대금리차 공시가 시작됐을 때와 비교해 은행권 전체 예대금리차는 소폭 줄어든 것으로 나타났다.21일 은행연합회 소비자포털에 공시된 18개 은행의 10월 신규 취급 대출과 저축성수신 금리 간 예대금리차를 보면, 5대 은행(신한, 케이비(KB)국민, 하나, 우리, 엔에이치농협) 중 엔에이치농협은행의 예대금리차가 1.54%포인트로 가장 컸다. 그 뒤는 케이비국민(1.21%포인트), 신한(1.11%포인트)·하나(1.11%포인트), 우리(1.03%포인트) 순이었다. 전체 18개 은행 중에선 토스뱅크가 5.28%포인트로 1위였고, 전북(4.71%포인트), 광주(2.76%포인트) 등이 뒤따랐다.은행권 대출 중 햇살론 등 정책서민금융을 제외하고, 가계 대출로도 좁혀 예대금리차를 따져봐도, 5대 은행 중에서는 엔에이치농협은행이 1.56%포인트로 가장 격차가 컸다. 하나(0.94%포인트), 신한(0.89%포인트), 우리(0.77%포인트), 케이비국민(0.67%포인트) 등 4대 은행의 경우 전달 1% 대에서 0%대로 모두 줄어들었다. 엔에이치농협은행 관계자는 “시중은행 대비 대고객 예금 금리는 제일 높고, 대출 금리도 가장 낮은 수준이지만, 만기 6개월 미만의 단기성 정부 정책 자금을 저리에 취급하다 보니 예대금리차가 크게 나타났다”고 했다. 토스뱅크는 “중저신용자 대출 비중이 40%대로 높은 데다가 연 2%대 요구불예금(수시입출금 통장)이 수신금리에 미반영돼 예대금리차가 크게 나타났다”고 했다.은행권 전체 평균 예대금리차는 지난 9월 2.06%포인트에서 0.34%포인트 줄어든 1.72%포인트로 집계됐다. 금융당국은 지난 7월부터 은행연합회 소비자포털 누리집을 통해 매달 은행권의 예대금리차를 공시하고 있는데, 공시 첫 달인 지난 7월 은행권 평균 예대금리차는 1.87%포인트였다. 지난 8월에는 2.11%포인트로 더 벌어졌으나 지난 9월 2.06% 포인트로 소폭 좁혀진 데 이어 10월까지 두 달 연속 평균예대금리차가 줄어드는 양상이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>토스, '데이터보호 준법 자문위원회' 출범… 외부 전문가 3인 참여</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000869907?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>(왼쪽부터) 이승건 토스 대표, 김승주 교수, 권헌영 교수, 김철준 고문, 신용석 CPO]/사진=토스 모바일 금융 플랫폼 토스를 운영하는 비바리퍼블리카는 외부 전문가 3인으로 구성된 '데이터보호 준법 자문위원회'를 출범한다고 16일 밝혔다. 앞으로 위원회는 토스가 보유한 고객 데이터에 대한 처리가 관련 법령을 잘 준수하고 있는지 독립적으로 확인하고 감시하며 안전한 데이터 거버넌스 체계를 구축하기 위한 자문 역할을 수행한다. 위원회는 회사의 데이터 보호 전략 및 정책, 준법 감시 활동을 반기마다 보고 받고 개인 정보처리 민감도가 높은 사안에 대해서는 대표이사와 개인정보보호책임자(CPO)에게 의견을 제시한다.토스는 위원회의 의견을 적극적으로 수용하고,관련 결과를 홈페이지에 공개할 예정이다. 이번 자문위원회 출범은 자발적인 데이터 이용 및 보호에 대한 투명성을 높이는 자발적 신뢰 강화 활동의 일환이다. 신용석 토스 CPO는 "매월 국민 1400만명이 사용하는 금융 플랫폼으로 성장하면서 외부의 시선을 통해 더욱 적극적으로 고객 데이터 보호체계의 투명성을 점검 받고 개선해 나갈 필요가 있다는 내부 공감대가 있었다"고 설명했다.자문위원회는 권헌영 고려대 정보보호대학원 교수를 위원장으로, 동 대학원 김승주 교수, 법무법인 광장의 김철준 고문을 자문위원으로 해 출범했으며 지속적으로 확대할 계획이다.권헌영 교수는 현재 한국IT서비스학회 회장과 한국정보보호학회 개인정보보호 연구회장을 맡고 있는 정보보호 분야 전문가다.김승주 교수도 암호학과 사이버보안 분야의 전문가로 대통령 직속 4차산업혁명위원회 위원으로 활동한 바 있다.김철준 고문은 17년동안 금융당국에서 다양한 금융업권의 IT부문 검사를 진행했으며 이후 금융회사 정보보호 최고책임자를 역임하고 현재 법무법인에서 자문 활동을 하는 등 다양한 경험을 보유하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.11.29.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>'애플페이 30일 국내 출시' 이번엔 진짜?…"약관 심사 안 끝났다"</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002662415?sid=105</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>금감원 약관 수리 시점 관건…통과 전 까지 서비스 불가이르면 이달 30일 시범 서비스…사용처도 일부 매장 한정미 일리노이주 시카고에 있는 애플 매장 ⓒAP=뉴시스[데일리안 = 남궁경 기자] 애플의 간편결제 서비스 ‘애플페이’가 이르면 오는 30일 국내 시범 서비스를 시작할 것으로 전망된다. 당장의 오프라인 사용처가 적을 것으로 예상되면서 온라인 중심으로 애플페이가 서비스가 먼저 도입될 것으로 관측된다. 다만 아직까지도 금융감독원의 약관 수리를 받지 못하면서 애플페이 시범 서비스 일정이 뒤로 미뤄질 가능성도 남아있다.29일 관련 업계에 따르면, 애플은 현대카드와 손잡고 애플페이 국내 서비스를 준비하고 있다. 현재 서비스 출시 마지막 단계인 금융감독원의 약관 수리 절차만 남았다. 금감원 관계자는 "아직 약관 심사를 진행하고 있다"면서 "약관 심사 종료일은 확정되지 않았다"고 말했다.앞서 지난달 초 애플페이 서비스 내용을 담은 현대카드 약관 이미지가 온라인에 유출되면서 애플페이 서비스의 국내 서비스 일은 11월 30일로 굳혀졌다. 해당 사진의 사실 여부는 밝혀지지 않았으나, 해당 약관 부칙 항목에는 애플페이 출시일이 오는 30일이며, 서비스 이용이 가능한 가맹점은 코스트코, CU편의점, 교통카드 등으로 적혀있다.그러나 애플페이 시범 서비스가 오는 30일에 이뤄지지 않을 가능성도 있다. 아직까지 금융감독원의 약관 승인을 받지 못했기 때문이다. 금감원 약관 심사에서 온라인과 오프라인 심사는 동일하게 진행된다. 즉, 약관 수리가 이뤄지지 않을 경우 당초 알려진 30일 온·오프라인 서비스가 불가능해지는 셈이다.금감원 관계자는 "약관 심사와 관련된 부서가 많기 때문에 (약관수리가) 현재 어느 정도 단계에 올라있다고 말하기는 어렵다"면서 "현대카드가 언급하는 시범 서비스가 어떤 형태일지는 모르겠지만, 상품이 소비자에게 나가기 위해서는 약관 수리가 필요하다"고 말했다.온라인 커뮤니티에 유출된 현대카드 애플페이 서비스 약관 일부 ⓒ온라인 커뮤니티만약 애플페이 시범 서비스가 30일에 이뤄지더라도 사용처는 근거리무선통신(NFC) 단말기가 설치된 ▲스타벅스 ▲코스트코 ▲편의점 CU ▲이마트 등 현대카드 제휴처와 ▲롯데하이마트 일부점 ▲이디야커피 일부 매장등으로 한정될 전망이다. 애플페이를 사용하기 위해서는 NFC 단말기가 필요한데, 전국 NFC 단말 보급률은 10% 미만으로 알려졌다. 특히 애플페이의 경우 EMV 컨택리스(비접촉) 기술이 탑재된 NFC 단말기가 요구된다. 이 단말기는 기존 보급된 NFC 단말보다 보급률이 낮은 것으로 알려졌다.이 때문에 오프라인 매장보다 온라인에 애플페이가 먼저 도입될 것이라는 전망이 나온다. 단말기 보급률과 상관없이 서비스를 확장하는데 쉽다는 이유에서다. 온라인 결제 방법 선택 시 네이버페이·카카오페이·SK페이·토스페이 등과 함께 애플페이를 선택할 수 있는 방식이다.한편, 그동안 애플은 카드사와 애플페이 서비스 개시를 놓고 협의를 진행해왔으나, 단말기 투자비와 수수료 문제로 인해 국내 진출에 실패했다. 높은 무카드거래(CNP) 수수료와 결제단말기(NFC) 보급 주체를 결정하지 못한 게 주요 이유다. 업계에 따르면, NFC 결제 단말 구축에 소요되는 비용은 3000억원 정도다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>토스, 데이터보호 준법 자문위 출범</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002766770?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>모바일 금융 플랫폼 '토스'를 운영하는 비바리퍼블리카는 외부 전문가로 구성된 '데이터보호 준법 자문위원회'를 발족한다고 16일 밝혔다.위원회는 비바리퍼블리카의 데이터 보호 전략·정책, 준법 감시 활동을 반기마다 검토한 뒤 대표이사·개인정보보호책임자(CPO)에게 의견을 제시할 예정이다.권헌영 고려대 정보보호대학원 교수가 위원장을 맡았으며, 같은 대학원 김승주 교수, 김철준 법무법인 광장 고문이 자문위원으로 참여한다.신용석 토스 CPO는 "매월 국민 1400만명이 사용하는 금융 플랫폼으로 성장하면서, 외부 시선으로 데이터 보호 체계의 투명성을 점검하고 개선할 필요가 있다는 공감대가 있었다"며 출범 취지를 설명했다.  연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.11.26.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>아무데나 '파킹'하지 마세요…5000만원 넣으면 매달 14만원 '따박 [코주부]</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004126780?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>KBS 드라마 &lt;신데렐라 언니&gt; 캡처, 일명 ‘나태해졌을 때 보는 짤’로 영상으로 보면 더 아픕니다.[서울경제] 월급 빼고 다 오르는 잔혹한 시대! 짠테크 팁을 전하는 코주부의 숨겨진 코너 &lt;티끌 모아 먼지라도&gt;입니다. 그동안 예·적금 관련 여러 짠테크 팁을 전해드렸는데요. 그럼에도 “난 짧게 굴리고 정기예금 수준의 이자도 얻고 싶어”라며 똥배짱을 부리고 계신 독자님들 주목하세요. 사실 제 얘기인데요. 일명 ‘금리 노마드족’이라 불리는 우리에게 가장 필요한 건 바로 예금 이율 수준의 ‘파킹 통장’입니다. 지금까지 파킹통장을 비교할 때 금리만 봤다면 오늘 레터를 주의 깊게 읽어주세요. 소중한 내 돈, 안전하게 굴리기 위해 체크해야 할 파킹통장 비교 리스트 정리해 드립니다. (+저축은행 선택 팁까지!)파킹통장은 잠깐 돈을 맡겨도 높은 금리를 주고 언제든 자유롭게 입출금할 수 있는 통장을 말합니다. 일반 입출금 통장보다 비교적 짧은 기간에 높은 금리를 받을 수 있고, 예·적금 처럼 중도해지에 따른 이자 불이익이 없습니다. 사실 금리가 낮을 땐 큰 주목을 받지 못했다가 최근 저축은행이 3%대 파킹통장을 선보이면서 예·적금 못지않게 인기를 끌고 있습니다.━파킹통장 비교할 때 챙겨야 할 6가지 포인트①금리당연히 금리 비교는 필수입니다. 같은 성격의 파킹통장이라면 금리를 더 높게 주는 곳을 선택해야 합니다. 11월 22일 기준(표 참고) 가장 금리가 높은 파킹통장은 애큐온저축은행의 ‘머니쪼개기’로 연환산 이율이 4%나 됩니다.②우대금리 조건금리와 함께 세트로 살펴봐야 할 것이 우대금리 조건입니다. 조건 없이 최대 금리를 주는 상품도 있지만 고금리일수록 ‘기본금리+우대금리’로 구성되어 있는 경우가 많기 때문입니다. 웰컴저축은행의 ‘WELCOME 직장인사랑 보통예금’은 3.8%의 높은 금리를 주지만 우대금리(1.5%) 조건이 붙습니다. 100만원 이상 급여이체, 자동납부 1건, 이벤트 안내 동의 및 멤버십 가입 등 3가지입니다. 이 조건들을 충족하지 못하면 기본금리 2.3%만 적용받게 됩니다.③최대금리 적용 한도금액예금 금액이 클수록 이자도 많이 받으니 중요합니다. 보통 저축은행의 한도는 1000만~5000만원 수준이고, 인터넷은행은 억 단위입니다(케이뱅크 3억원 2.7%, 토스뱅크 무제한 2.3%). 만약 1억원의 유휴자금을 파킹통장에 넣는다고 할 때 다올의 경우 매월 26만7900원의 이자를 받지만, 웰컴은 23만2650원의 이자를 받게 됩니다. 똑같은 3.8% 금리이지만 웰컴은 최대 금리 적용 한도가 5000만원까지이기 때문입니다. 이를 제대로 살펴보지 않고 넣으면 한 달에 3만5000원, 1년이면 42만원가량 손해 아닌 손해를 보게 되는 셈이죠.④이자지급 시기이자지급 시기도 상품마다 다릅니다. 토스뱅크처럼 매일 지급하는 것도 있고 월 지급, 분기 지급 등 조건이 다를 수 있습니다. 임시로 자금을 굴리는 것이니까 이자지급 시기가 빠르면 빠를수록 좋겠죠.⑤예금자보호 적용 유무금리가 높아도 보호가 적용되지 않으면 불안하죠. 그럴 땐 상품 설명서에 예금자 보호 적용 문구가 기재되어 있는지 확인하면 됩니다. 보통 은행 상품은 5000만원까지 보호가 됩니다. 그러나 증권사 파킹통장으로 불리는 CMA통장은 과거 종금사 일부 상품을 제외하고는 예금자보호가 안되니 주의해야 합니다.⑥이체수수료 유무임시로 돈을 굴리는 통장이다 보니 수시로 입출금할 일이 생길 수 있는데 이때 이체 수수료를 내야 한다면 쓸데없는 지출이 될 수 있죠.━저축은행 불안해요? 3가지만 확인해도 안심아무래도 고금리 파킹통장을 찾다 보면 저축은행을 선택할 수밖에 없습니다. 하지만 이름도 낯선 이 은행을 믿고 내 돈을 맡겨도 될지 불안하기 마련입니다. 그렇다면 직접 확인해봐야죠. 파킹통장 비교 심화편, 바로 ‘저축은행 건전성 확인하기’ 입니다. 언제나 그렇듯 생각보다 쉽습니다.일단 예금보험공사 홈페이지에서 [금융회사 종합정보]-[저축은행] 탭에 들어가세요. 그러면 전국 저축은행의 평균 재무 현황(사진)이 나옵니다. 지역별 평균을 클릭하면 회사별로도 확인 가능합니다. 그럼 여기서 뭘 봐야 하느냐.ⓛBIS자기자본비율: 높을수록 GOOD위험자산 대비 자기자본 비율을 의미합니다. 위험자산을 커버할 수 있는 자본의 수준을 보여주는 수치로 높을수록 좋습니다. 보통 자산 1조원 이상 저축은행은 최소 준수 비율이 8%, 자산 1조원 미만은 7% 입니다. 총자산 기준 상위 18개 은행(2022년 6월 기준) 중에서는 NH저축은행이 16.7%로 가장 높았고, 대신저축은행이 10.1%로 가장 낮았습니다.②고정이하여신비율: 낮을수록 GOOD연체 기간이 3개월 이상인 부실 채권이 여신(대출) 총액에서 차지하는 비율을 말합니다. 보통 8% 기준으로 그 아래면 안전하다고 봅니다. 상위 18개 은행 중에서는 NH저축은행이 1.1%로 가장 낮았고, 오케이저축은행이 7.7%로 가장 높았습니다.③총자산순수익률 or 당기순이익 : 적자 OUT해당 은행이 수익을 얼마나 잘 내고 있는지를 나타내는 비율을 말합니다. 당기순이익이 적자라면 문제가 심각하겠죠.이제 어떤 파킹통장을 선택할 지 감이 오셨나요? 사실 저축은행 말고도 금리 눈높이를 낮춘다면 산업은행이나 인터넷은행도 추천드립니다. 큰 금액을 맡기기에는 사실 최근의 금융 경기가 불안하긴 하니까요. 개인적으로는 5000만원 한도로 여러 곳에 분산하시길 추천드립니다. 아, 이 계획을 짤 때는 통장 신규 발급 제한 20일 꼭 기억하시고요.코주부 뉴스레터 구독하기이 기사는 서울경제의 재테크 뉴스레터 ‘코주부’에 게재된 내용입니다. 코인, 주식, 부동산까지 요즘 가장 핫한 재테크 소식을 알기 쉽게 풀어드리는 코주부 레터. 아래 링크에서 구독신청하시면 이메일로 매주 월, 목요일 아침 8시에 보내드립니다.(무료!)구독 링크와 아카이브 →https://url.kr/kojubu</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>토스로 간 아마존 부사장 "고객 편리 높이는데 최선"</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005046322?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>하대웅 토스 최고제품책임자금융서비스 출시·관리 맡아핀테크 업계 전반에서 채용과 투자를 줄이는 가운데 금융 애플리케이션(앱) '토스' 운영사인 비바리퍼블리카가 미국 아마존에서 부사장까지 지낸 인사를 임원으로 영입하며 과감한 확장 전략을 펼쳐 화제다. 토스는 우수 인력을 적극 끌어들여 성장 동력을 확보한다는 계획이다.16일 하대웅 토스 최고제품책임자(CPO·사진)는 매일경제와의 통화에서 "결제·은행·증권을 비롯해 모든 서비스 부문에서 고객이 편리함을 느끼도록 하겠다"며 "매출 성장과 고객 경험 향상을 모두 잡겠다"고 포부를 밝혔다. 아마존에서 CPO(부사장)를 지냈던 그는 최근 토스 CPO로 자리를 옮겼다. 간편 결제, 대출 비교를 비롯한 토스의 모든 서비스를 출시부터 사후 관리까지 총괄하는 역할이다. 토스에서 수많은 프로젝트를 진행하는 개별 PO(제품담당자)들을 조율하고, 그룹 차원의 전략 방향을 수립하는 일도 맡았다. 그는 "한국 금융을 혁신하겠다는 이승건 대표의 비전에 깊이 공감했다"며 "아마존에서 근무했던 경험을 자양분으로 삼아 토스의 성장을 돕겠다"고 말했다. 실제로 하 CPO는 아마존 재직 시절 결제 관련 고객 경험을 개선하는 작업에 참여했다. 계산대 앞에서 줄을 설 필요 없이 앱을 켜고 매장에 들어가 물건을 가지고 나오면 자동으로 결제되는 '아마존 고(Amazon Go)' 프로젝트가 대표적이다.업무 방식 개선도 관심사다. 그는 "직원이 160만명이 넘고 업력이 30년 가까이 돼가지만, 여전히 연평균 10% 넘게 성장하는 아마존의 동력은 구성원들의 'Think Big'(크게 생각하기) 리더십"이라면서 "토스 구성원 모두가 크게 보며 다양한 사업 전략을 제안할 수 있도록 만들겠다"고 첨언했다.아마존에서 토스로 옮긴 결정과 관련해 하 CPO는 "이 대표가 토스의 강점뿐 아니라 토스가 맞닥뜨린 도전에 대해서도 솔직하게 얘기해줬다"며 "경제 위기 속에서 토스의 성공을 이끌어가는 데 제 장점을 잘 살릴 수 있겠다고 판단했다"고 말했다.앞서 토스는 지난 8월 디지털 업무 솔루션 기업 서비스나우의 김규하 한국대표도 최고사업책임자(CBO)로 영입한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>카드사 오픈페이 지지부진…연내 출범 가능성 ‘미궁’</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002660770?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>연내 출시…이견 좁혀지지 않아애플‧삼성페이도 새로운 변수카드사 로고.ⓒ각 사[데일리안 = 이세미 기자] 카드사들이 간편결제 시장 점유율을 높이기 위해 함께 준비했던 오픈페이가 표류하고 있다. 계획대로라면 이번달 중에는 베일을 벗어야 했지만, 아직까지도 카드사 간 이견을 좁히지 못한 모습이다. 결국 오픈페이 출시는 내년으로 미뤄질 공산이 커졌다.24일 금융권에 따르면 카카오페이와 네이버페이, 토스 등 빅테크의 간편결제에 맞서기 위해 카드사들이 준비 중인 오픈페이의 연내 출시가 불투명해 졌다. 출범 공식화 이후 출시 시기가 두 차례 미뤄진 데다 출시 방식과 시기 등을 놓고 업계 간 이견이 좁혀지지 않았기 때문이다.오픈페이 연내 출시 목표로 준비 중인 카드사는 업계 2, 3위를 놓고 다투는 삼성과 현대카드를 제외한 신한‧KB국민‧롯데‧하나‧NH농협‧BC카드 등 6곳이다. 뒤늦게 합류한 우리카드의 경우 내년 상반기 중 출시를 준비하고 있다.오픈페이는 은행권의 오픈뱅킹과 같은 개념으로 삼성페이처럼 한 카드사 플랫폼에서 여러 카드사의 결제가 가능한 서비스를 일컫는다. 각 카드사가 구축한 시스템은 여신금융협회가 중개하는 구조다.카드사들이 오픈페이 동맹을 맺은 이유는 간편결제 시장이 확대되고 있는 와중 네이버페이, 카카오페이 등 빅테크들이 시장 경쟁력에서 우위를 점하고 있기 때문이다. 실제 카드 기반 간편결제 서비스 중 올해 상반기 핀테크 비중은 66%에 달하며 카드사(34%)를 뛰어넘었다. 핀테크 기업의 비중도 2020년 60.8%에서 작년 64%로 매년 늘어나고 있다.반면 카드사들이 야심차게 준비한 대항마인 오픈페이 서비스는 한 발도 떼지 못한 상태다. 당초 서비스가 준비된 카드사부터 이달 중 순차적으로 출시하기로 했지만 각 카드사 간 출시 시기와 시스템 개선 등의 이유로 지연된 것이다.일각에선 오픈페이가 신한카드, 국민카드 등 시장점유율이 높은 카드사를 중심으로 추진되고 있는 점을 고려하면 대형사와 소형사 간 대립도 존재할 것이라는 의견도 나온다. 이밖에 오픈페이를 빅테크와 경쟁하기 위해 준비했지만 결국 단순 서비스 차원에 그칠 것이란 관측과 카드사 자사 앱 이용자 수가 감소될 수 있다는 우려가 동시에 나오고 있다.아울러 삼성과 현대카드의 참여 불발로 반쪽짜리 서비스라는 지적도 여전하다. 경쟁력을 위해선 고객 유인이 중요한 데 서비스 범용성과 편의성이 줄어들 것이라는 이유다.이런 가운데 애플페이의 국내 도입이 머지 않았고, 삼성페이 역시 최근 경쟁력 강화에 나서고 있어 카드사들의 고심도 깊어질 것으로 보인다. 삼성페이는 지난달 업그레이드 버전의 삼성 월렛 서비스를 13개 국가에 추가로 출시한 데 이어, 국내에서는 모바일 운전면허 확인서비스 지원에 나섰다.금융권 관계자는 “오픈페이를 연내 출시 목표로 하고 있지만 카드사 간 조율이 잘 이뤄지지 않는다면 내년으로 넘어갈 수 밖에 없다”며 “본래 취지인 핀테크 등 간편결제 시장 경쟁력 강화를 위해서 출시를 빠르게 추진할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>요즘 치고나가는 케이뱅크 브랜드 평판도 1위 올랐네</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005048462?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>다양한 고객친화 서비스 호평10월 순위에서 토스·카뱅 눌러글로벌 조사선 수익성장 '만점'케이뱅크 사옥.케이뱅크가 다양한 고객 친화 서비스를 선보이면서 브랜드 인지도를 높이는 데 성공했다. 지난달 한국기업평판연구소가 진행한 '인터넷 전문은행 브랜드평판'에서 케이뱅크는 1위를 차지했다. 경쟁사인 카카오뱅크와 토스뱅크가 그 뒤를 이었다.한국기업평판연구소는 국내 브랜드의 평판지수를 매달 분석해 발표하는데 케이뱅크가 1위를 차지한 조사는 10월 한 달간 브랜드 빅데이터 228만7427개를 분석한 결과다.인터넷 전문은행 브랜드평판지수는 참여지수, 미디어지수, 소통지수, 커뮤니티지수, 사회공헌지수, CEO지수로 나뉜다. 케이뱅크의 10월 브랜드평판지수는 134만2404로 전달 대비 14.65% 상승했다. 세부적으로는 △참여지수 30만4808 △미디어지수 28만2144 △소통지수 28만9557 △커뮤니티지수 33만7160 △사회공헌지수 4만9120 △CEO지수 7만9616 등으로 모든 지수에서 가장 우수한 결과를 보였다고 회사 측은 설명했다.케이뱅크는 최근 전 세계 인터넷은행 중 가장 빠른 성장성을 인정받은 데 이어 10월 인터넷은행 평판에서도 가장 우수한 기록을 세우며 '대세' 인터넷은행임을 입증했다.이 회사는 글로벌 리서치 기관 '탭인사이츠(TABInsights)'가 최근 발표한 '2022년 글로벌 100대 디지털은행 순위'의 성장성(수익 성장) 부문에서 최고점을 획득한 바 있다.탭인사이츠는 전 세계 주요 지역에 자리 잡은 36개국의 인터넷은행 100여 곳에 대해 △고객(고객 수, 월 고객 증가, 고객/직원 비율) △시장 및 상품 범위(진출한 시장, 상품 종류) △재무구조(자기자본이익률, 총수익, 수익 성장, 이용자당 수익, 영업이익경비율) △대차대조표(자산, 예금, 예대율) △자금 조달 등 크게 5가지 항목, 10개 세부 항목으로 분류하고 세부 항목을 평가했다.케이뱅크는 종합점수 43.5점을 기록하며 10년 먼저 설립된 일본 SBI스미신(15위), 챌린지뱅크의 상징으로 알려진 영국의 레볼루트(22위)보다 좋은 평가를 받았다. 국내 인터넷은행 3곳 중 카카오뱅크는 48.4점으로 8위, 토스뱅크는 18.8점으로 59위를 차지했다.케이뱅크 관계자는 "지난해 '수익 성장' 항목에서 10점 만점에 10점을 획득하며, 성장성 분야에서 국내는 물론 전 세계에서 가장 우수한 성과를 낸 것으로 평가받았다"면서 "수익 성장에서 만점을 획득한 은행은 케이뱅크를 포함해 100곳 중 5곳뿐"이라고 설명했다.2017년 4월 출범한 케이뱅크는 지난해 당기순이익 225억원을 기록하며 첫 연간 흑자전환에 성공했다. 전년 1054억원 적자에서 극적인 실적 반등을 이뤄낸 것이다. 올해 상반기에는 457억원의 순이익을 기록하며 지난해 연간 실적을 넘어섰다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>토스뱅크 1000억원 유상증자…자본안전성 확대</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000712589?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>하나카드 주주로 합류…"동력 확보"스뱅크가 1천억원 유상증자를 통해 자본안전성을 강화했다.24일 토스뱅크는 전날 이사회를 열고 여섯 번째 유상증자를 진행한다고 밝혔다. 이번 증자 규모는 1천억원으로, 증자 후 총 납입 자본금은 1조4천500억원으로 늘어난다.신규 발행하는 주식은 보통주 2천만주, 주당 발행가는 5천원이다. 증자방식은 제3자 배정으로, 기존, 신규 주주가 증자에 참여했다. 자본금 납입일은 이달 29일이다.토스뱅크 내부. [사진=토스뱅크]토스뱅크는 이번 증자를 통해 하나카드를 신규 주주로 맞이했다. 총 195만617주(약 98억원 규모)를 배정받는 하나카드는 토스뱅크의 기존 주주사인 하나은행이 속한 하나금융그룹의 계열사이다. 현재 토스뱅크의 체크카드(토스뱅크카드) 업무를 대행하며 전략적 파트너로도 협업하고 있으며, 향후 카드 비즈니스 등 다양한 사업 전략을 발굴할 예정이다.토스뱅크 관계자는 "급변하는 글로벌 환경 속에서도 자본안정성을 강화하고, 보다 혁신적인 서비스로 고객 경험을 바꿀 수 있도록 동력을 확보해 나갈 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>카뱅, 토스 등 '챌린저 은행' 강세.. 주거래 은행도 바꾼다"</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002291218?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>한국 딜로이트 그룹, '2022디지털뱅킹 성숙도 조사' 글로벌 보고서 발표딜로이트 글로벌, 41개국 304개 은행 대상으로 디지털뱅킹 관련 서베이 실시상위 10% 디지털 챔피언 그룹, 핵심 디지털 트렌드 주도 및 경쟁은행 대비 경쟁우위 선점한국 디지털뱅킹, 카카오뱅크, 토스뱅크 등 인터넷 전문 은행이 전통 은행 앞질러 카카오뱅크, 토스뱅크 등 인터넷 전문 은행이 디지털뱅킹 측면에서 타 은행을 압도하고 있는 것으로 나타났다.   24일 한국 딜로이트 그룹(총괄대표 홍종성)은 딜로이트 글로벌이 올해 9월 전 세계 41개국, 304개 은행을 대상으로 실시한 디지털뱅킹 트렌드 설문조사 결과를 다룬 ‘2022년 글로벌 디지털뱅킹 성숙도 조사’ 보고서 국문본을 발간했다.   이번 보고서에 따르면 은행에서 이뤄지는 모든 고객 여정에서 디지털화 수준은 2년 전 조사 때에 비해 꾸준히 증가했으며, 특히 계좌 및 상품 관리, 카드 관리, 계좌개설 부문은 2020년 이후 가장 높은 디지털화 수준을 기록한 것으로 나타났다. 상품별로 분석했을 때는 신용 및 직불 카드, 예금 등 거래용 상품과 방카슈랑스 부분 상품의 디지털화가 가장 많이 증가한 것으로 나타났다.   딜로이트는 설문조사에 참여한 은행을 디지털화 수준에 따라 4개 그룹으로 분류, 각각의 은행들을 ▲'디지털 분야의 뒤쳐진 수용자(Digital latecomers)’, ▲'디지털 분야의 수용자(Digital adopters)', ▲'디지털 분야의 스마트한 추종자(Digital smart followers)', ▲'디지털 챔피언(Digital Champion)'으로 구분했다.   이 중 ‘디지털 챔피언’그룹은 디지털 역량 상위 약 10%에 해당하는 30개 은행으로 업계 디지털 핵심 트렌드를 주도하고 있었으며 고객의 오래된 습관도 바꾸고 있었다. 은행 지점에서 이뤄지는 대면 창구 업무의 일부를 대체하는 수준이었던 디지털뱅킹이 이제는 고객들에게 주거래 은행을 바꿀 직접적 원인으로 작용할 정도로 경쟁력이 커지고 있기 때문이다.   한편, 전체 조사대상 은행 중 인터넷 전문 은행을 포함한 ‘챌린저 은행(challenger bank)’이 디지털 챔피언 그룹 전체 중에서 19% 비중을 차지하는 것으로 나타났다. 챌린저 은행은 혁신적인 솔루션 도입으로 전통 은행과는 차별화된 포인트를 다수 보유하고 있었으며, 한국도 디지털뱅킹 측면에서 인터넷 전문 은행이 전통 은행들을 앞서고 있는 것으로 나타났다. 특히 한국에서는 카카오뱅크와 토스뱅크가 강력한 존재감을 보이며 디지털 전략을 선도하는 중이다.  ◆ 상위 10% 디지털 챔피언, 작년 총 매출액 대비 순수수료 이익 비율 31%   디지털뱅킹 트렌드를 주도하는 ‘디지털 챔피언’ 그룹은 디지털 인프라가 탄탄한 상위 10% 은행을 뜻한다. 이들은 고객에게 다양한 금융 상품과 서비스를 제공하며 핵심 트렌드를 주도하는 한편 디지털 도입 사례를 선도적으로 추진해 다른 은행의 벤치마킹이 되어주고 있다.   ‘디지털 챔피언’의 성과는 나머지 타 은행을 압도하고 있다. 딜로이트의 조사에 따르면, ‘디지털 챔피언’은 타 은행 대비 자기자본 이익률(ROE) 및 총자산 이익률(ROA)이 각각 1.5%P, 0.1%P 높았다. 총 매출액 대비 순수수료 이익 비율도 2019년 기준 28%에서 2021년 기준 31%로 집계됐다. 같은 기간 타 은행이 24%에서 25%로 사실상 제자리 걸음한 것과 대비된다.   ‘디지털 챔피언’ 그룹은 고객 관계를 확장시키는 부분에서도 타 은행을 압도한다. 에코시스템 및 계좌통합 부분에서 타 은행 대비 무려 2.9배나 높은 경쟁우위를 확보하고 있었으며, 방카슈랑스 및 ‘비욘드 뱅킹’(beyond banking, 기존 은행 업무를 넘어서 새로운 가치를 제공하는 서비스) 경쟁력은 2.7배, 투자서비스 부분도 2.5배에 달하는 높은 경쟁력을 자랑했다.  ◆ 모바일 채널 디지털화 수준 대폭 증가…챌린저 은행 65%, 모바일 채널만 서비스 지원   딜로이트 보고서는 ‘디지털 챔피언’의 등장을 통해 현재 은행 업계에 불고 있는 8개의 트렌드를 짚어냈다. 먼저 완전한 디지털뱅킹 프로세스 구축 트렌드다. 현재 ‘디지털 챔피언’은 인터넷과 모바일 채널 대부분이 원격으로 계좌를 개설할 수 있도록 지원하는 등 완전한 디지털화에 다가서고 있다. 실제로 ‘디지털 챔피언’그룹 은행들은 기타 그룹 은행에 비해 모든 상품 개설 과정에 있어 약 2배가량 높은 비율로 모바일 혹은 인터넷 원격 기능을 제공하는 것으로 나타났다.   ‘디지털 챔피언’은 고객에게 금융을 넘어 새로운 가치를 제공하는 비욘드 뱅킹에도 가까워지고 있다. 특히 ‘디지털 챔피언’의 97%가 고객 보상 프로그램을 제공하는 한편 상업 카테고리 서비스를 제공하고 있다. 이를 바탕으로 추후 이커머스와 연결된 다양한 가능성을 타진할 여지도 있다. ‘디지털 챔피언’의 83%가 가상카드 솔루션을 제공하는 등 이커머스 연계를 활발히 진행중이다.   생태계 구축을 위한 노력도 눈길을 끈다. ‘디지털 챔피언’의 93%가 API를 제공하고 있으며 핀테크 파트너십, 전자정부 기능 통합에 나서는 곳도 83%에 이른다. 타 은행의 경우 각각 77%, 61%, 43%에 머무는 것을 고려하면 높은 수치다. 뿐만 아니라, ‘디지털 챔피언’ 그룹 은행의 60%가 블록체인에 투자했으나 다른 그룹 은행들은 17%에 불과하며 블록체인 분야에서도 ‘디지털 챔피언’ 그룹이 크게 앞서고 있는 것으로 나타났다.   ‘디지털 챔피언’은 개인재무관리관련 기능도 제공하는 한편 다른 앱 서비스도 적극적으로 벤치마킹한다. 고객들의 애플리케이션 사용 촉진을 위해 디지털 챔피언 그룹 은행의 53%가 비디오 자막 이용 기능을 제공하고 48%가 접근성 설명 기능도 제공하는 중이다. 타 은행은 각각 16%, 28%에 머물고 있다.   디지털 채널을 활용한 투자에 대한 잠재력에도 주목하고 있다. 주요 은행들은 복잡한 과정 없이 고객들이 간편하게 투자를 할 수 있도록 서비스를 개선하거나 양질의 정보에 기반하여 고객들이 투자의사 결정을 할 수 있도록 도와주고 있는 것으로 나타났다. ‘디지털 챔피언’들은 다양한 디지털 채널을 통한 투자 잠재력을 확실하게 이해하고 있기 때문이다.   또한, 보고서는 은행업계 디지털 트렌드의 중요한 핵심 중 하나로 챌린저 은행의 부상을 꼽았다. 이들 챌린저 은행의 무려 65%가 모바일 채널로만 서비스를 제공하는 등, 타 은행 대비 압도적인 디지털 로드맵을 보여주는 것으로 확인됐다. 한편 모바일 채널의 디지털 성숙도는 인터넷 뱅킹 채널보다 더 빠르게 증가했으며, 정보 수집, 카드 관리, 계좌 개설 영역 등에서 모바일 채널의 디지털화 수준이 2020년 이후 최대 증가폭을 보인 것으로 나타났다.   ◆ 한국, 디지털뱅킹 측면에서 인터넷 전문 은행이 전통 은행 압도   은행업계의 디지털 바람이 거세지며 한국 은행업계도 빠르게 변신하는 중이다. 예적금, 이체 등 단순한 수준을 넘어 고객별 최적화된 자산관리, 편리한 UI/UX 제공, 투자금융상품 정보 안내 및 가입 등 다양한 영역으로 디지털뱅킹의 기능이 확대되고 있는 추세이다.   올해 8월 기준 국내 6대 주요 뱅킹 앱(카카오뱅크, KB스타뱅킹, 신한쏠, NH스마트뱅킹, 우리WON 스마트뱅킹, 하나원큐)의 월간 활성 이용자(Monthly Active Users, MAU) 수가 5,311만 명을 기록한 동력이 여기에 있다.   정부도 힘을 보태는 중이다. 최근 금융위원회가 은행을 비롯해 증권, 보험, 신용카드 등 동일한 기업 집단내 금융 계열사들의 서비스를 단일 애플리케이션으로 통합한 수 있는 ’슈퍼앱’ 운영을 허용하는 것을 골자로 하는 금융 규제 혁신 조치를 취한 것도 큰 도움이 됐다.   특히 인터넷 전문 은행과 같은 챌린저 은행의 존재감이 강하다. 디지털뱅킹 측면에서 타 은행을 압도하고 있다. 포브스코리아가 올해 3월 디지털뱅킹을 이용하는 국내 소비자 1,000명을 대상으로 실시한 설문조사 결과 인터넷 전문 은행으로 분류되는 카카오뱅크와 토스뱅크가 디지털 뱅킹 역량 순위 1, 2위를 석권한 이유다.   물론 전통 은행도 거대한 변화에 맞서 디지털 챔피언 은행의 비전에 집중하고 있다. 특히 포브스코리아 기준으로 신한은행은 비 인터넷 전문 은행 중 디지털뱅킹 역량 1위를 기록하며 발 빠르게 움직이고 있다.   다만 카카오뱅크와 토스뱅크 등 챌린저 은행들이 강력한 디지털 전략에 나서며 상대적으로 디지털 챔피언이 될 수 있는 유리한 국면을 맞이했다는 평가다. 무엇보다 20대와 30대 등 젊은층은 앱 구동 속도 및 이체 수수료 면제가 디지털뱅킹 만족도를 크게 좌우한다. 여기에 착안한 카카오뱅크와 토스뱅크가 한국 디지털 은행업계의 쌍두마차로 거듭나고 있다는 설명이다.   한국 딜로이트 그룹의 장형수 금융산업통합서비스그룹 고객산업 리더는 "은행업계의 디지털 전환은 시대적 소명이 되고 있으며, 특히 챌린저 은행이 판을 주도하고 있다"면서 "디지털뱅킹 서비스 만족도에 따라 현재 고객들은 오랫동안 본인이 거래하던 주거래은행을 벗어나 새로운 디지털 챔피언의 문을 두드리는 것도 서슴지 않고 있으며, 앞으로도 디지털뱅킹이 고객 접점 및 수익 측면에서도 중요한 경쟁우위 요소로 자리잡을 것으로 보고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.11.25.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>원자재 ETF 팔면 세금 10% 날벼락…서학개미 고민</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004822126?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>[美정부 내년부터 200개 종목 부과…'단타' 예방 목적'매도액 기준' 손절해도 내야…"타국가 대체상품 대응"]서학개미들이 세금폭탄 날벼락을 맞게 됐다. 미국 정부가 내년부터 미국 증시에 상장된 원자재 관련 상장지수펀드(ETF) 매도 시 외국인 투자자들에 한해 10%의 세금을 부과하기로 하면서다. 내년까지 시간이 얼마 남지 않아 미국 원자재 ETF에 투자하는 국내 투자자들의 고민이 깊어지고 있다. ━서학개미 세금폭탄 주의보…"연내 안팔면 매도액 10% 세금"━미국 정부는 내년부터 미 증시에 상장된 200여개 종목을 세금 부과 목록, 즉 PTP로 지정해 외국인 투자자가 이 종목들을 매도할 때 매도 금액의 10%를 원천징수하기로 했다. 가격 변동성 큰 원자재 관련 상품에 대한 외국인 투자자의 '단타'를 막겠다는 의도로 풀이된다. PTP에는 원유·가스 등 천연자원이나 부동산·인프라 분야에 파트너십 형태로 투자하는 주식이나 상품 등이 포함됐다. 미국의 주요 원자재 관련 ETF나 유한책임회사(LP) 형태로 상장된 인프라·에너지 기업 200여개가 속한다. 특히 국내 서학개미들이 지난 3개월간 가장 많이 투자한 '프로셰어즈 울트라 블룸버그 내추럴 가스', '프로셰어즈 울트라 VIX 숏텀퓨처스' 등도 PTP에 포함됐다.이에 한화투자증권, 키움증권, 토스증권 등 국내 증권사들은 "미국 국세청(IRA)이 미국 증시에 상장된 200여개의 PTP 종목을 10% 원천징수 대상으로 지정했다"며 "세금 납부를 원하지 않은 경우 해당 종목을 12월30일 이전까지 매도하는 방안을 검토해달라"고 권고했다.더 큰 문제는 이번 세금은 양도 차익이 아니라 매도 금액이 기준이라는 점이다. 즉, 10달러 산 주식을 손해보고 9달러에 팔더라도 9달러의 10%를 세금으로 내야 한다.당장 서학 개미들 사이에선 '마이너스 종목을 어떻게 처리하라는 거냐' '당황스럽다'는 분통의 목소리가 터져 나온다. 예탁결제원에 따르면 200여개 종목 중 국내 투자자가 투자한 상품은 100여개로, 금액 기준으로는 1억6000만달러(한화 2000억원)가 조금 넘는 수준이다. ━"PTP 대상종목 팔고 대체상품으로 대응해야" ━증권가에서는 PTP 대상종목을 팔고 대체상품으로 대응할 필요가 있다는 조언이 나온다. 윤재홍 미래에셋증권 연구원은 "자산배분 차원에서 해당 원자재의 포지션을 이어가려면 미국 상장 관련 산업 ETF나 기타 국가에 상장된 원자재, 산업 ETP(상장지수상품)로 대응할 수 있을 것"이라고 말했다. 예로 구리(CPER US)의 경우 미국에 상장된 구리 산업 ETF나 한국 상장 구리 ETP, 일본 상장 구리 ETP 등으로 대응할 수 있다는 것이다.다만 윤 연구원은 "한국 상장 원자재 ETP는 기타 ETP로 분류돼 차익이 금융소득 종합과세에 반영된다"며 "이를 피하기 위해선 해외 상장 ETP로 대응해야 한다'고 조언했다. 대체상품을 고를 땐 순자산총액이 큰 종목을 우선 검토하되 매매 전 유동성을 반드시 살펴봐야 한다고 덧붙였다.세금 이슈로 PTP 관련 상품을 판다면 안정적인 수익을 기대할 수 있는 채권형 ETF로 갈아탈 것을 권하는 목소리도 있다. 정형주 KB증권 연구원은 "최근 높아진 무위험 이자율을 감안할 경우 PTP 과세 대상 ETF에서 13~15%를 상회하는 수익률을 기대하는 것이 아니라면 보수적인 대응을 권한다"며 "규제 대응으로 줄어든 대체자산 비중은 채권형 ETF로 옮기는 것이 효율적"이라고 했다.그는 "거래비용 증가로 인한 반강제적인 자금 이동이므로 기존 채권 ETF의 포지션 연장보단 '신규 포지션 구축'으로 보는 것이 적절해 보인다"며 "미국 국채 금리 추가 상승을 전망하면 듀레이션이 짧은 단기 채권 ETF를 주로 활용하는 것이 효과적이고 금리 하락을 전망한다면 중장기 채권 ETF를 활용하는 것이 효과적"이라고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.11.17.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>대출비교 플랫폼에 네이버 참전… 대환대출 시스템과 시너지낼까</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003755064?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>기준금리가 10년 만에 3%대에 돌입하는 등 본격적인 고금리 시대가 열리면서 한 푼이라도 이자 부담을 줄이기 위해 대출비교 서비스에 대한 관심이 커지고 있다. 주요 빅테크·핀테크 기업의 서비스 출시가 이어지는 가운데 냉담한 반응을 보이던 기존 금융권에서도 본격적인 대비에 나서는 모습이다. 여기에 금융위원회가 대환대출 시스템 출시까지 예고하면서 금융권에 얼마나 큰 변화가 찾아올지 관심이 쏠린다.     16일 금융권에 따르면 네이버파이낸셜은 다음달 초쯤 50여개 제휴사가 입점한 ‘네이버페이 신용대출비교’ 서비스를 출시할 예정이다. 이로써 대출비교 서비스는 기존 핀다와 카카오페이, 토스의 3파전에서 네이버가 더해진 4파전 양상으로 바뀌게 됐다.     앞서 핀다가 2019년 5월 금융위로부터 혁신금융서비스 지정을 받아 대출비교 및 중개 서비스를 선보인 데 이어 토스와 카카오페이 등도 속속 서비스 개시에 나섰다. 이날 기준 제휴사는 선두주자인 핀다가 62개사로 가장 많고, 카카오페이 56개사, 토스 54개사 등이다.     현재 대출비교 서비스들은 제휴사가 제각각이고, 적용하는 기술도 다르기 때문에 검색 결과도 차이를 보인다. 소비자가 플랫폼을 통해 비교검색을 하면 제휴사별로 신용평가 및 대출심사 과정을 1차적으로 거쳐 대출금리 등의 결과를 보여준다. 플랫폼 내에서 비교검색부터 제휴사 연계를 거쳐 대출 실행까지 이뤄지면 플랫폼에서 수수료를 챙길 수 있지만, 대출이 오프라인 과정 등을 통해 별도로 이뤄지면 수수료를 챙길 수 없는 구조다.     업계의 한 관계자는 “대출비교 플랫폼을 이용함으로써 여러 영업점을 돌아다닐 필요 없이 한 곳에서 여러 상품을 비교할 수 있고, 각종 자료제출 과정도 대폭 간소화된다”며 “전반적인 절차가 플랫폼 내에서 진행될 수 있도록 제휴사를 늘리고 사용자 인터페이스(UI)를 고도화하는 등 서비스 고도화 경쟁이 한창”이라고 밝혔다.     이러한 가운데 최근 금융위가 내년 5월을 목표로 온라인 대환대출 시스템의 출시를 예고했다. 현재 대환대출 시장은 온라인 시스템이 갖춰지지 않아 기존 대출을 상환하기 위해 영업점을 직접 방문해야 한다. 하지만, 온라인 대환대출 시스템이 가동되면 여러 금융사의 대출 관련 정보가 연결되며 소비자가 손쉽게 유리한 조건의 상품으로 이동할 수 있게 된다. 각종 수수료 등 추가 정보도 비교할 수 있게 돼 소비자들의 권익이 한층 증진될 것으로 기대된다.     금융권에서는 온라인 대환대출 시스템이 가동에 따라 우선 대환 상품 출시 경쟁이 이뤄질 것으로 보고 있다. 물론, 기존 점유율 및 고객을 지켜야 하는 기존 금융사들 입장에서는 이러한 상황이 불편하기만 하다. 하지만 금융당국까지 나선 만큼 불편한 심기를 대놓고 표현하지는 못하는 상황이다. 앞서 씨티은행의 소매금융 철수에 따라 신용대출갈아타기(대환)를 위해 주요 금융사에서도 대환 상품을 출시했던 만큼 결국 대부분의 금융사가 대환 상품을 내놓을 것이라는 관측이 지배적이다.     빅테크·핀테크를 비롯해 온라인투자연계금융사 등 후발주자들은 이번 기회를 활용하기 위한 준비에 분주한 모습이다. 온투업계의 한 관계자는 “이미 가계대출이 1800조원 규모까지 커지는 등 포화에 이르며 대출 수요가 한계에 다다른 상황에서 대환대출은 새로운 돌파구가 될 수 있다”며 “대출비교 서비스와 대환대출 시스템이 시너지를 낼 것이라는 기대가 크다”고 설명했다.     기존 금융권에서도 KB캐피탈이 대출중개 플랫폼 ‘알다’(운영사 팀윙크)의 인수를 추진하는 등 대비에 나서는 모습이다. 신한금융지주에서는 제1금융권의 한 관계자는 “소비자들의 수요가 커지는 상황에서 기존 금융권들도 계속 참여를 미루는 게 쉽지는 않을 것”이라며 “금융사별로 인수합병은 물론, 원앱 전략, 다른 플랫폼과의 제휴 등 다양한 전략을 취할 것으로 보인다”고 말했다.     기존 금융권에서는 이미 모빌리티, 배달 등 기존 사례를 들어 플랫폼 수수료 반영에 따른 금융상품·서비스 가격 인상으로 결국 소비자에게 피해가 전가될 것이라는 우려를 거두지 못하고 있다. 핀테크 업계의 한 관계자는 “초반에는 플랫폼별로 수수료 정책뿐 아니라 수수료 수준도 제각각이겠지만, 서비스 이용이 늘어날수록 금융당국의 가이드라인이나 규제도 정비될 것”이라며 “보험상품 간 갈아타기로 인해 소비자 피해가 발생했던 것처럼 대환 쪽에서도 관련 소비자 보호정책이 마련될 필요가 있다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>엔픽셀, 레이어1 블록체인 ‘앱토스'와 파트너십 체결</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011540026?sid=105</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>기사내용 요약웹 3.0 게임 생태계 '메타픽셀' 본격 구축작년 ‘메타본부’ 신설…엔픽셀 IP와 블록체인 기술 접목 [서울=뉴시스] 엔픽셀은 레이어1 블록체인 ‘앱토스(Aptos)’와 파트너십을 체결하고 본격적인 웹 3.0 기반 게임 생태계 ‘메타픽셀(METAPIXEL)’ 구축에 나선다고 16일 밝혔다.(사진=엔픽셀 제공) *재판매 및 DB 금지[서울=뉴시스]최은수 기자 = 엔픽셀은 레이어1 블록체인 ‘앱토스(Aptos)’와 파트너십을 체결하고 본격적인 웹 3.0 기반 게임 생태계 ‘메타픽셀(METAPIXEL)’ 구축에 나선다고 16일 밝혔다.‘앱토스’는 프로그래밍 언어 ‘무브’를 활용한 레이어1(Layer1) 블록체인으로 안정성과 유연성 등에 중점을 두고 지난 10월 메인넷을 정식 론칭한 바 있다.‘메타픽셀’은 엔픽셀 지식재산권(IP)에 블록체인 기술을 접목한 웹 3.0 기반의 게임 생태계로, 편리한 접근성과 유저 경험 및 가치를 공유할 수 있는 지속성장성을 목표로 한다.특히 엔픽셀은 ‘앱토스’ 최초로 게임 부문 파트너십을 맺고, 이들의 안정성 및 유연성 등을 토대로 ‘메타픽셀’ 생태계를 다각도로 구축하는 등 협업 방안을 모색한다는 방침이다.고정환 엔픽셀 메타본부장은 “메타픽셀은 블록체인 기술을 통해 자산을 소유하고 나누며 함께 가치를 키울 수 있는 웹 3.0 생태계”라며 “앱토스 블록체인이 가진 강점을 기반으로 자사가 지향하는 ‘메타픽셀’을 완성해 나갈 것”이라고 전했다.한편, 엔픽셀은 2017년 9월 설립한 게임 개발사로 첫 프로젝트 ‘그랑사가’에 이어 차기작 ‘크로노 오디세이’를 개발 중이며 지난해부터 블록체인과 게임간 결합 등 신사업 발굴을 위해 전담 조직 ‘메타본부’를 구성해 운영 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>[ECF 2022]“슈퍼앱·필수앱 전략으로 시장 공략…글로벌 진출 추진”</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005368819?sid=105</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>토스 “슈퍼앱으로 경쟁 촉진, 꾸준한 혁신”티맵 “전기차 라이프 플랫폼 필수앱 전략”카페24 “12조 거래액, 글로벌 진출 지원”로톡 “규제에도 소송 전략 솔루션 출시”[이데일리 최훈길 김국배 정다슬 기자] 경기 부진이 우려되는 상황에서도 혁신 기업들은 소비자 맞춤형 앱으로 시장 공략에 나섰다. 글로벌 진출을 통한 다양한 활로 모색, 혁신 서비스 출시 전략도 소개됐다. 서현우 비바리퍼블리카 헤드(기업전략 총괄 임원). (사진=이영훈 기자)서현우 비바리퍼블리카 헤드(기업전략 총괄 임원)는 16일 서울 중구 앰배서더 서울 풀만 호텔에서 ‘위기 넘어 기회 있다: 디지털 전환 시대 생존전략’ 주제로 열린 ‘이데일리 IT 컨버전스 포럼(ECF) 2022’에 참석해 연결의 힘이 금융 혁신으로 이어진 토스의 슈퍼앱 전략을 소개했다. 서 헤드는 “토스는 ‘소비자들이 금융 서비스를 보다 신속하고 편리하게 사용하도록 하자’, ‘IT 기술을 활용해 공급자 위주의 금융 산업에 경쟁을 촉진시키자’는 이유로 슈퍼앱을 추진했다”며 “그동안 소비자들이 만족하는 금융 서비스를 선보이는데 집중했다”고 전했다.  그는 “슈퍼앱 추진 과정에서 중요했던 것은 혁신 속도를 줄이지 않은 것”이라고 요약했다. 앱 이용자 수가 1위를 기록한 뒤에도 자만하지 않고, 꾸준한 성장세를 유지하는데 집중했다는 것이다. 서 헤드는 “가장 인기 있는 앱이 된 뒤에도 소비자와 가까워지려는 서비스 혁신 속도를 유지한 게 정말로 중요했다”고 설명했다. 박서하 티맵모빌리티 퓨처모빌리티 그룹장. (사진=이영훈 기자)티맵은 일상에서 반드시 쓸 수밖에 없는 ‘필수앱’ 전략을 추진했다. 박서하 티맵모빌리티 퓨처모빌리티 그룹장은 “전기차 라이프 플랫폼으로 나가는 것이 티맵의 지향점”이라며 “티맵이 대한민국 전기차 사용자의 필수앱으로 자리 잡을 것”이라고 자신했다. 티맵은 누적 가입자가 1950만명(올해 9월 기준)에 달한다. 박 그룹장은 “앞으로 전기차 충전소가 새로운 복합 문화 공간이 될 것”이라며 “티맵은 다양한 협업을 통해 오픈형 시스템을 만들고 통합 서비스를 제공할 것”이라고 예고했다. 티맵모빌리티와 볼보자동차는 구글의 안드로이드 운영체제(OS) 기능이 탑재되는 볼보차 전 모델에 티맵 서비스를 구현하기로 했다.  박준희 카페24 디지털전략연구소장. (사진=이영훈 기자)박준희 카페24 디지털전략연구소장은 ‘글로벌’을 생존 전략으로 제시했다. 온라인 쇼핑몰 솔루션 서비스를 제공하는 카페24는 누적 고객사가 200만곳, 연간 거래액이 12조6000억원에 달한다. 박 소장은 “자사 쇼핑몰을 만들어 상품을 직접 판매하는 카페24의 온라인 직접 판매(D2C·Direct to Consumer)를 해외 진출 거점으로 이용할 수 있다”고 지적했다. 이는 진출하려는 특정 국가의 언어로 D2C몰을 구책해 해외시장 수요를 빠르게 확인하는 전략이다. 이를 통해 시장 반응을 본 뒤 마케팅 전략을 수립할 수 있는 셈이다. 현재 카페24는 9개국 언어를 지원 중이다. 최근 CJ올리브영은 영문 쇼핑몰을 만들었다. 박 소장은 “고객 데이터 분석도 가능해 자사 브랜드 전략을 가다듬을 수 있다”고 전했다. 정재성 로앤컴퍼니 부대표 겸 공동창업자. (사진=이영훈 기자)로톡을 운영 중인 로앤컴퍼니의 정재성 부대표 겸 공동창업자는 ‘규제 혁신’ 필요성을 강조했다. 정 부대표는 “글로벌 리걸테크(Legaltech·법과 기술이 결합한 법률 서비스) 기업이 7144개에 달하는데 한국은 31개에 불과하다”며 “그림자 규제에 막혀 리걸테크 성장의 길이 막혀 있기 때문”이라고 말했다. 정 부대표는 “법률 경험·전문성이 있는 서비스를 합리적인 비용으로 제공하는 리걸테크 시장이 커져야 한다”며 “정부가 국민들의 공감대를 우선 고려해서 적극적인 관심과 해결책을 마련했으면 한다”고 당부했다. 이어 “로톡은 소송 전략을 분석하고 전략을 제시하는 솔루션 서비스를 출시해 시장 확대에 나설 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>토스, ‘데이터보호 준법 자문위원회’ 출범</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004122718?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>이승건(왼쪽부터) 토스 대표, 김승주 교수, 권헌영 교수, 김철준 고문, 신용석 토스 CPO가 15일 토스 데이터보호 준법 자문위원회 출범식에서 기념사진을 촬영하고 있다. 사진 제공=토스[서울경제] 토스 운영사 비바리퍼블리카는 외부 전문가 3인으로 구성된 ‘데이터보호 준법 자문위원회’를 출범한다고 16일 밝혔다.위원회는 토스가 보유한 고객 데이터 처리가 관련 법령을 제대로 준수하고 있는지 독립적으로 확인 및 감시하는 역할을 맡는다. 위원장은 권현영 고려대 정보보호대학원 교수가 맡았고 위원에는 동 대학원 김승주 교수와 김철준 법무법인 광장 고문이 임명됐다. 권 교수는 현재 한국IT서비스학회장 및 한국정보보호학회 개인정보보호 연구회장을 맡고 있는 정보보호 분야 전문가다.아울러 위원회는 토스의 데이터 보호 전략 및 정책, 준법 감시 활동을 반기마다 보고 받고 개인정보처리 민감도가 높은 사안에 대해서는 대표이사 및 개인정보보호책임자(CPO)에게 의견을 제시하게 된다. 토스는 관련 결과를 홈페이지에 공개할 예정이다. 위원회 구성도 지속 확대할 계획이다.신용석 토스 CPO는 “매월 국민 1400만 명이 사용하는 금융 플랫폼으로 성장하면서 외부의 시선을 통해 더욱 적극적으로 고객 데이터 보호 체계의 투명성을 점검 받고 개선해 나갈 필요가 있다는 내부 공감대가 있었다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.11.18.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>‘망한 나라’에서 고민한 ‘강한 국가’의 조건은…‘정의로운 체제’[윤비의 칼과 펜]</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003187239?sid=103</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>(15) 플라톤 ‘국가’의 배경원 한가운데 왕좌에 철학의 상징이 앉아있다. 그 아래 왼쪽이 철학의 대표자로서 소크라테스, 오른쪽이 플라톤이다. 소크라테스 아래부터 시계방향으로 산수, 기하, 천문, 문법, 수사학, 변증술, 음악 등 학예의 상징이 자리했다. &lt;호르투스 델리키아룸&gt;에 수록된 철학과 7학예의 묘사다. 1180년쯤.위기는 사상의 시작이다. 위기를 맞지 않는 국가는 없다. 위기는 그 원인과 극복에 대한 이야기들에 불을 붙인다. 위기는 이론과 철학의 시작이다. 소크라테스와 플라톤의 사상 역시 그리스 세계의 쇠퇴와 아테네의 몰락이라는 위기상황을 배경으로 등장하고 발전하였다. 이 사실을 강조하는 이유는 흔히 소크라테스와 플라톤의 철학을 현실과 떨어진 추상적 사변으로 오해하기 때문이다. 소크라테스와 플라톤의 철학이 꽤나 추상적인 것은 사실이다. 그 자체가 추상적이기도 하고 시대와 지적 분위기가 오늘날과 워낙 다르다 보니 더 추상적으로 느껴지기도 한다. 그러나 이들의 생각은 그리스와 아테네의 위기를 이야기하지 않고서는 이해할 수 없다. 그들이 정치와 시민윤리, 국가에 대해 내놓은 생각은 그런 위기를 극복하기 위한 대안이었다.■펠로폰네소스 전쟁의 종결과 아테네의 위기27년을 끈 펠로폰네소스 전쟁결국 스파르타의 승리로 막 내려패배와 쇠락을 마주한 아테네인들어떻게 강한 국가 재건할지 고민기원전 404년 펠로폰네소스 전쟁이 끝났다. 6개월 전 흑해로 들어가는 초입 아이고스포타모이에서 벌어진 해전이 결국 승부를 갈랐다.27년을 끈 전쟁에서 물결은 여러 번 방향을 바꾸었다. 처음에는 아테네가 스팍테리아 전투(기원전 425년)에서 스파르타군에 큰 타격을 입힘으로써 전세를 우세하게 끌어가는 듯했다. 그러나 아테네가 시칠리아 원정(기원전 415~413년)에서 함대를 모두 잃고, 여지껏 그리스 도시들이 서로 물고 뜯는 것을 지켜보던 페르시아가 스파르타와 동맹을 맺으면서 다시 전세는 스파르타 쪽으로 기우는 듯했다. 그러나 기원전 406년 아르기누사이 해전에서 아테네가 스파르타 해군에 강력한 타격을 가함으로써 전쟁의 승부는 다시금 쉽게 가늠하기 어려워졌다.아이고스포타모이 전투는 이 긴 전쟁의 종막이었다. 스파르타의 지휘관 리산드로스는 페르시아에서 들어오는 자금을 힘줄 삼아 해군을 재건한 후 에게해와 소아시아의 아테네 동맹들을 하나씩 쓰러뜨렸다. 리산드로스의 마지막 일격은 흑해에서 아테네로 들어오는 식량 공급로를 끊는 것이었다. 굶겨 죽일 셈이었다.스파르타의 지휘관 리산드로스, 〈Promptuarii Iconum Insigniorum〉에 수록된 그림, 1553년쯤.아테네로서 리산드로스와의 결전은 불가피했다. 세스토스에 정박한 스파르타 해군을 목표로 3만을 헤아리는 아테네 해군의 주력이 집결했다. 객관적인 전력에서 아테네 해군이 밀리지는 않았다. 다만 아테네 해군이 기지로 삼은 아이고스포타모이의 입지가 좋지 않았고 계략과 전술에서도 스파르타의 지휘관 리산드로스가 나았다. 아테네 해군은 스파르타 해군의 기습에 무너졌다. 전투는 그리 길지 않았다. 27년 긴 전쟁의 승부를 가르는 전투치고는 허탈하게 짧았다. 아테네 해군이 괴멸되고서도 아테네는 반년가량을 더 버텼다. 하지만 이번만큼은 탈출구가 없었다. 스파르타의 주력이 아테네 성벽 아래 진을 쳤다. 결론은 항복이었다. 식량 없이 버티기는 힘들었다. 근 80년 동안 이어진 아테네의 해상제국에 조종이 울렸다.승자 스파르타는 아테네의 식민도시를 자신의 세력권으로 편입하려 했다. 스파르타가 그리스 전체를 아우르는 대제국을 건설하는 데 걸림돌은 없어 보였다. 다만 동지중해의 최대강국 페르시아가 그것을 원치 않았다. 페르시아는 다시 한번 이이제이의 계책을 동원하여 아테네 해군의 재건을 원조하고 코린토스와 테바이를 비롯한 스파르타의 다른 동맹도시들이 반란을 일으키도록 부추겼다. 기원전 395년 코린토스 전쟁은 그렇게 시작되었다. 전쟁이 끝날 무렵 그리스 도시들은 완전히 탈진하였다. 진정한 승자는 페르시아였다. 도박판에서 돈을 버는 것은 도박장 주인이라는 말이 실감나는 순간이다.전쟁의 패배는 흔히 내전을 부른다. 이 사태에 누군가는 책임을 져야 한다고 사람들은 느낀다. 아테네인들도 그랬다. 승자 스파르타는 아테네에 자신들이 마음대로 주무를 수 있는 정권을 세워두고 싶어 했다. 민주주의가 지나쳐 결국 패배를 불러왔다고 여긴 상류층 일부가 여기에 호응했다. 크리티아스가 이끄는 친스파르타계열의 30인 과두정부가 들어섰다.과두정부가 처음은 아니었다. 시칠리아 패배 후에도 민주주의를 전복시키고 과두정부가 들어섰던 적이 있다. 당시의 과두정부는 400인 회의로 불리웠는데 겨우 4개월 만에 붕괴되었다. 누군가 아테네에 과두정부를 세우고자 한다면 이 400인 정부의 실패를 철저히 분석할 필요가 있었다. 그러나 새롭게 들어선 30인 과두정부는 그렇지 못했다. 여전히 민주주의에 대한 지지가 시민들 사이에 강한 마당에 지지기반을 넓히기 위해 노력할 필요가 있었다. 게다가 사람들은 분열에 지쳐 있었다. 아테네를 통합으로 이끌 리더십이 필요했다. 30인 정부는 반대로 움직였다. 사람들을 함부로 쳐냈다. 믿을 만하다고 여긴 3000명 정도를 제외하고 참정권을 사실상 박탈하였으며 시민들이 재판에 참여할 권리 역시 크게 제한하였다. 정권에 반감을 품고 있으리라 의심되는 사람들은 제거되고 심지어 죽음을 맞았다. 그 과정에서 부유층조차 적으로 돌렸다. 자신들 내부에서도 분열했다. 그야말로 강권을 앞세운 공포정치였다. 가뜩이나 친스파르타라는 것 때문이라도 예뻐 보이기 어려운 정부였다. 이런 정부가 오래가기를 기대할 수는 없다. 결국 30인 정부는 단 1년 만에 트라시불로스가 이끄는 반란에 부딪혔다. 내전은 스파르타왕 파우사니아스가 중재에 나서서야 끝이 났다. 아테네는 민주정으로 돌아갔다.■&lt;국가&gt; - 소크라테스와 플라톤소크라테스·플라톤의 국가관은정의로운 체제 속 정의로운 시민이제대로 잘 먹고 잘살 수 있다는 것정의의 힘에 대한 강한 신념 담겨소크라테스가 등장하는 플라톤의 대화 &lt;국가&gt;는 이런 시대적 배경에서 이해해야 한다. 여기서 한 가지, &lt;국가&gt;에 담긴 주장이 소크라테스의 생각인지 아니면 플라톤의 생각인지, 혹은 둘 생각의 교차점인지에 대해서 확실하게 결론을 내리기는 어렵다는 점을 밝혀두자. 소크라테스 자신은 어떠한 기록도 남기지 않았다. 우리가 읽는 소크라테스의 대화는 플라톤의 손끝에서 나왔다. 그렇다고 해서 모든 것이 플라톤의 생각이라고 주장하기도 어렵다. 소크라테스와 별 관계없는 이야기를 마치 소크라테스의 이야기인 것처럼 쓰기는 플라톤에게 어려웠을 것이다.소크라테스는 아테네의 쇠퇴와 몰락을 고통스럽게 지켜보았다. 소크라테스 자신은 시민의 의무를 이해하고 충실하게 따르려 했던 인물이었다. 스파르타군과 맞선 전장에서도 그랬다. 비록 엄청난 무공을 세우지는 못했어도 그렇다고 적 앞에서 방패를 늘어뜨리고 꽁무니를 빼는 인물도 아니었다. 그런 소크라테스로서 아테네를 다시 세우는 일은 중요한 관심사였다.플라톤 자신도 처음부터 정치에 깊은 관심을 가지고 있었다. 펠로폰네소스 전쟁에서 아테네가 무릎을 꿇었던 해에 그는 아직 24세였다. (플라톤은 기원전 428년에 태어난 것으로 추정된다.) 코린토스 전쟁이 발발했을 때 그는 아직 30대 초반이었다. 그사이에 그가 존경하던 소크라테스가 죽었다. 비록 정치가의 꿈은 포기했다 하더라도 정치에 관심을 갖지 않을래야 않을 수가 없었다. 플라톤이 남긴 서간들 가운데 유일하게 진작으로 여겨지는 일곱 번째 편지에 따르면 노년에도 시칠리아에 두 번이나 건너가서 자신의 정치이상을 실현해보기 위해 노력했다.&lt;국가&gt;의 논의는 꽤나 복잡하지만 목표는 아주 단순하다. 전쟁의 패배와 이어진 쇠락을 마주한 아테네인들은 어떻게 해야 다시 강한 아테네를 건설할 수 있는가를 고민했다. 과두파는 스파르타에서 배우자고 주장했다. 민주파는 다른 모델을 들고나왔다. 백가가 쟁명하는 상황이었다. 플라톤·소크라테스의 눈에는 이런 논쟁들에 뿌리가 없었다. 무엇이 강한 국가이고 무엇이 강한 국가를 만드는가에 대한 근본적인 성찰 없이 눈에 보이는 성공과 실패에만 집착하여 어떤 나라가 잘나가니 우리도 한 번 따라해보자는 식의 제안들이 판을 친다고 그들은 여겼다. (그제는 미국, 어제는 일본, 오늘은 독일, 내일은 소위 잘나가는 어떤 나라를 들먹이며 그 일면만을 부각한 후 이상화하여 ‘이리로 가자!’라고 외치는 것과 별 차이는 없다.) 이렇게 뿌리가 없는 생각, 원리가 아니라 현상에만 머무르는 생각을 그들은 ‘견해’, 그리스 말로 독사(doxa)라고 불렀다.모든 ‘견해’가 잘못된 것은 아니다. 이 점은 흔히 사람들이 오해하는 부분이다. 이 두 철학자들이 ‘견해’를 ‘잘못된 생각’이라는 의미로 썼다는 증거는 전혀 없다. 소크라테스가 등장하는 플라톤의 다른 저작, 예를 들어 &lt;메논&gt;에는 ‘올바른 견해’라는 표현도 나타난다. 다만 아무리 그럴싸하게 들리고 심지어 지금 당장 좋은 길잡이가 된다고 해도 ‘견해’에는 근본원리에 대한 성찰이 없기 때문에 범용성이 떨어진다. 즉 시간이 흐르거나 장소가 바뀌어 다른 상황을 맞닥뜨리면 한계를 드러내거나 심지어 틀린다는 것이다. 진리에 대한 성찰은 이와 다르다. 진리는 언제 어디서나 유효하다. 똑같이 힘을 갖는다.&lt;국가&gt;의 주제는 결국은 강한 국가를 만들어 시민들이 잘 먹고 잘살 수 있는 원리에 대한 것이다. 그런 나라를 만드는 핵심요소는 정의로운 시민, 정의로운 체제이다. 소크라테스와 플라톤이 잘 먹고 잘사는 부강국가에 관심이 있다는 이야기는 당장 반대에 부딪힐 것이다. 흔히 우리는 배부른 돼지가 되느니 배고픈 소크라테스가 되겠다고 이야기한다. 그만큼 소크라테스는 세속의 부나 권력 따위에 관심 없는 인물로 그려져왔다. 분명 소크라테스는 그런 인물이었고 플라톤도 크게 달랐을 것으로 보이지는 않는다. 그러나 소크라테스나 플라톤의 사상이 인간의 기본적인 행복을 부정했던 것은 아니다. “정의로운 사람들은 나이가 들었을 때, 제 나라에서 스스로 원한다면 벼슬을 하고, 어디서건 원하는 집안에서 아내를 맞이하고 누구든 자식들이 좋아하는 집안과 결혼을 시킬 수가 있다.”(조우현 역) 너무 세속적으로 들리는가? 그러나 이것은 소크라테스가 &lt;국가&gt;에서 하는 말을 그대로 옮긴 것이다.소크라테스와 플라톤이 질박함을 정치가나 시민들에게 요구했다는 것은 사실이다. 그러나 부를 초개처럼 가볍게 여기는 수도사 같은 사람들로 도시를 채울 생각도 없었고 더우기 정신만 부유한 그런 나라를 세우자고 할 생각도 전혀 없었다. 배부른 돼지가 되는 것을 소크라테스나 플라톤이 찬성했다는 것이 아니다. 정확히 말한다면 그들은 정의로운 자가 되어야 제대로 배가 부를 수 있다고 보았다.여기에는 정의의 힘에 대한 강한 신념이 있다. 이전 연재에서 이미 이야기했듯 정의의 힘에 대한 이런 믿음은 아주 오래된 것이었다. 정의가 부강한 국가를 만든다는 이야기는 오늘날의 독자들도 나름 공감할 것이다. 다만 정의로운 사람이 대개 성공을 거두고 잘살게 된다는 이야기에 대해서는 조금 이야기를 해야 한다. 말도 안 되는 이야기라고 생각할 사람이 적지 않을 것이기 때문이다. 사실 지난 연재에 언급한 트라시마코스나 글라우콘의 이야기, 즉 정의로운 자는 현실에서는 손해만 보기 일쑤라는 것이 전혀 틀린 이야기는 아니다. 적어도 정의로운 자들이 항상 복을 받는다는 주장은 그때도 지금도 입증이 안 된다. 정의로움에도 불구하고 가난하고 핍박받을 수 있다는 것은 멀리 볼 것 없이 소크라테스 자신의 삶과 죽음이 입증한다. &lt;국가&gt;도 이런 명백한 사실을 뒤에 가서 인정한다. 그래서 정의로운 인간을 신이 못 알아볼 리가 없기 때문에 지금 좀 힘들어도 죽은 뒤에 보상을 받으리라는 주장을 슬쩍 끼워넣는다. 물론 오늘날의 관점에서는 하나 마나 한 변명으로 들리기 십상이다. 그러나 소크라테스나 플라톤은 이런 주장에 꽤 진지했던 것으로 보인다. &lt;국가&gt;의 10권에서 정의로운 인간이 받는 보상과 악한 인간이 받는 징벌에 대해 자세히 이야기하는 것은 그런 이유이다.물론 소크라테스와 플라톤을 ‘공자 왈’ 하듯 떠받들지만 않는다면 이런 약점은 그다지 중요하지 않다. 고전은 완벽한 진리를 담고 있기에 가치 있는 것이 아니다. &lt;국가&gt;가 그리는 정의와 그 정의가 구현된 국가의 모습은 정치를 둘러싼 인류의 사고의 발자취를 그려본다는 의미만으로도 충분히 살펴볼 가치가 있다. 다음 편의 주제이다.▶윤비 성균관대학교 정치외교학과 교수정치이론을 역사 및 문화와 관련지어 연구한다. 베를린 훔볼트대 정치학과 및 역사학과, 서울대 외교학과에서 서양정치사상을 강의하였다. 가르친다는 일을 영광으로 여기며 산다. 2021년 마키아벨리를 주제로 독일에서 단행본을 출간하였다. 2018~2020년 한겨레 신문에 ‘윤비의 이미지에 숨은 정치’를 연재하였고, EBS &lt;지식의 기쁨&gt; &lt;세바시&gt; 등에서 강연하였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.11.27.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>유니콘 직전에 휘청한 부릉…돈맥경화에 '메쉬 내홍' 남일 아니다</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004822628?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>/사진=임종철 디자이너경기 부진과 투자 한파로 시중 자금이 말라붙는 '돈맥경화' 현상이 본격화하면서 기업가치가 큰 폭으로 떨어지는 스타트업이 속출하고 있다. 이로 인해 오랫동안 '우군'으로 지내던 창업자와 투자자가 갈등을 빚는 사례도 나타난다. 전문가들 사이에선 이미 유니콘(기업가치 1조원 이상 비상장사)에 오른 기업들도 위태로울 수 있는 상황이라고 경고한다.유정범 메쉬코리아 의장 /사진=메쉬코리아━유니콘 바라보던 메쉬코리아, 창업자 vs 채권단·주주단 갈등 ━27일 IB(투자은행)업계에 따르면 유통·물류브랜드 '부릉'을 운영하는 메쉬코리아의 창업자 유정범 의장은 지난 25일 서울회생법원에 메쉬코리아에 대한 기업회생(법정관리) 신청서를 제출했다. 채권자인 OK캐피탈은 유 의장의 독단적인 행동에 강력 반발했다.유 의장은 지난 2월 자신의 지분과 사내이사의 지분 21%를 담보로 OK캐피탈로부터 360억원을 대출받았다. 투자유치를 통해 대출금을 갚는다는 계획이었지만 꽁꽁 얼어붙은 투자 혹한기 속에서 결국 자금조달에 실패했다.이에 OK캐피탈은 메쉬코리아의 최대주주인 네이버, GS리테일, 현대차와 협의해 메쉬코리아의 경영권을 유진그룹 계열 물류기업인 유진로지스틱스의 자회사 유진소닉과 스톤브릿지캐피탈 컨소시엄에 매각하기로 결정했다.메쉬코리아는 지난해 7월 투자유치 당시 기업가치가 약 5000억원 수준이었다. 하지만 현재 매각가는 600억원으로 1년여 만에 약 8분의1 토막났다. 유 의장이 법정관리를 먼저 신청한 것은 채권단 주도로 이뤄지는 매각이나 법정관리를 막고 경영권을 방어하려는 의도로 풀이된다. 실제로 그는 회생신청과 함께 '회생절차 개시 여부 보류 신청서'(ARS)도 함께 제출했다. ARS는 회생절차 개시를 최대 3개월 보류하고 주요 채권자들과 자율적으로 사적 구조조정 협의를 진행할 수 있는 제도다. 보류기간 동안 투자를 유치해 OK캐피탈과 채무관계를 정리하려는 계획으로 보인다.OK캐피탈은 그동안 추진해온 경영권 매각을 그대로 진행한다는 방침이다. OK캐피탈 관계자는 "단순히 자기자리 보전을 위해 채권단의 동의 없이 법정관리를 신청한 점에 유감을 표한다"며 "다음달 2일 다시 이사회를 소집해 매각을 의결할 것"이라고 전했다. /사진=임종철 디자이너━'몸값 하락' 스타트업 곳곳서 내홍━그동안 대다수 스타트업은 적자를 내더라도 '미래 성장성'을 내건 대규모 투자를 유치하며 몸집을 키웠다. 하지만 업계는 "과거 저금리와 유동성 기조 속에 몸값을 부풀린 대다수의 스타트업도 투자여건이 갈수록 악화하면서 메쉬코리아와 같은 내홍을 겪을 수 있다"는 우려 섞인 전망을 내놓는다.실제로 토종 OTT(동영상스트리밍서비스) 왓챠는 올 상반기 1000억원 규모의 프리IPO(상장 전 투자유치)를 추진했으나 실패로 돌아갔다. 지난해부터 이어진 자본잠식에 주주들이 앞장서 경영진 교체를 요구하는 상황이다. 이에 경영권 매각을 추진했으나 인수자를 찾지 못해 고심 중이다.전자책 플랫폼 밀리의서재도 기업가치를 제대로 평가받기 어렵다는 이유로 이달 초 IPO(기업공개)를 철회했다. 신선식품 새벽배송으로 유명한 컬리도 지난해말 프리IPO 당시만 해도 기업가치를 4조원으로 평가받았지만 지금은 절반 이하로 떨어졌다.모바일 금융플랫폼 토스(비바리퍼블리카)도 당초 1조원 규모의 시리즈G 투자유치를 추진했지만 결국 투자금액을 5300억원으로 줄여 마무리했다. 투자유치 후 기업가치는 9조원대로 희망했던 가격(10조원대)보다 낮다. 업력 8년차 스타트업이자 국내 대표 MCN(다중채널네트워크) 기업인 샌드박스네트워크도 대규모 구조조정에 나선다. 샌드박스네트워크는 이날 발표한 입장문에서 "자본시장의 지원을 받아 새로운 길을 개척하기 위해 과감한 투자와 신규사업을 전개해왔지만 시장상황이 변했다"며 이에 대한 선제적 조치로 신사업 중 e스포츠대회 운영대행 부문은 사업을 종료하고 자체 브랜드 커머스 부문도 매각하는 한편 권고사직을 통해 임직원도 줄이는 중이다. 투자업계 한 관계자는 "최대한의 투자수익률을 확보하려는 투자자들 주도로 앞으로 스타트업 매각이 잇단 진행될 경우 경영권을 지키려고 하는 창업자와의 갈등은 더 격화할 것"이라고 말했다.[머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>토스, 데이터보호 준법 자문위원회 출범</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001066067?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>토스 운영사 비바리퍼블리카가 외부 전문가 3인으로 구성된 ‘데이터보호 준법 자문위원회’를 출범한다.위원회는 토스가 보유한 고객 데이터 처리가 관련 법령을 제대로 준수하고 있는지 독립적으로 확인하고 감시한다.또 안전한 데이터 거버넌스 체계를 구축하기 위해 자문 역할을 수행한다.구체적으로 위원회는 회사의 데이터 보호 전략, 정책, 준법 감시 활동을 반기마다 보고받는다.개인 정보처리 민감도가 높은 사안에 대해 대표이사, 개인정보보호책임자(CPO)에게 의견을 제시한다.토스는 위원회의 의견을 적극적으로 수용하고 관련 결과를 홈페이지에 공개할 예정이다.위원장은 권현영 고려대 정보보호대학원 교수가 맡았고 위원에는 동 대학원 김승주 교수와 김철준 법무법인 광장 고문이 임명됐다.권 교수는 현재 한국IT서비스학회장 및 한국정보보호학회 개인정보보호 연구회장을 맡고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.11.30.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>네이버·카카오, 내년 2월부터 간편결제수수료 공시한다</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005184805?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>금감원, 간편결제 수수료 공시 가이드라인 행정지도매 반기 종료 후 1개월 이내 공시 네이버파이낸셜, 카카오페이 등 전자금융업자는 내년 2월부터 반기에 한 번씩 결제 수수료 공시를 해야 한다. 30일 금융당국에 따르면 금융감독원은 최근 '전자금융업자 수수료 구분관리 및 공시 등을 위한 가이드라인' 행정지도 예고를 내고 다음달 13일까지 의견청취를 진행한다. 이 가이드라인은 전자금융업자가 지급결제서비스의 대가로 수취하는 수수료의 구분관리 및 공시에 대한 기준을 제시해 수수료 부과의 투명성을 제고하기 위해 마련됐다.가이드라인은 수수료를 합리적인 기준에 따라 결제수수료와 기타수수료로 구분해 수취하고 관리하도록 규정했다. 결제수수료란 결제서비스와 직접 관련된 수수료로 신용카드사 등 결제원천사 및 상위사에 지급하는 수수료와 전자금융업자가 결제업무 등의 수행에 따른 비용(일반관리비용, 시스템 구축 유지비용, 마케팅비용, 위험관리비용 등) 및 마진 등의 명목으로 직접 수취하는 수수료 등을 포함한다. 기타수수료란 총 수수료 중 결제수수료를 제외한 수수료로, 온라인 홈페이지 구축 및 관리 등 명목으로 전자금융업자가 직접 수취하거나 제3의 호스팅사에 지급하는 호스팅수수료와 온라인 하위몰 입점 또는 프로모션 명목 등으로 수취하는 수수료 등을 포함한다.공시대상 업체는 직전 사업연도 간편결제 거래금액(지역화폐 취급액 제외)이 월평균 1000억원 이상 업체다. 공시대상 업체는 계약상대방으로부터 수취한 수수료를 기준으로 공시자료를 작성해 홈페이지에 공시해야 한다. 또한 최초로 공시하는 자료에 대해서는 공시자료의 정확성 및 적정성 등에 대해 회계법인의 확인을 받아야 한다.공시기한은 매 반기 종료 후 1개월 이내다. 2~7월 반기에 대한 공시는 8월에, 8~1월 공시는 다음해 2월에 각각 올려야 한다. 이에 따라 공시대상 업체들은 지난해 8월부터 내년 1월 반기 수수료에 대해 내년 2월부터 처음으로 공시를 하게 된다.결세수수료율 공시서식은 카드 결제수수료율과 선불전자지급수단 결제수수료율로 나뉘며 이를 다시 영세, 중소1, 중소2, 중소3, 일반으로 나눠 공시하게 된다. 가맹점의 구분은 여신전문금융업법 등에 따른 신용카드가맹점 구분 기준에 따르며 가맹점 매출액 자료는 여신금융협회로부터 제공받은 국세청 매출자료를 기준으로 한다. 선불전자지급수단 결제수수료율 산정 시 간편송금 관련 비용은 제외한다.이 가이드라인은 다음달 30일부터 시행되며 2년간 적용된다. 금감원 관계자는 "그동안 빅테크 등의 결제수수료 공시를 위한 태스크포스(TF)에서 논의된 내용으로 가이드라인을 마련했으며 첫 공시는 내년 2월부터 하게 된다"고 말했다. 금감원은 지난 5월부터 빅테크 등의 결제수수료 공시를 위한 TF를 가동해 최종 공시방안을 논의해왔다. TF에는 핀테크산업협회, 한국인터넷기업협회를 비롯해 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스) 등 12개 업체 책임자가 참석했다.그동안 시장에서는 빅테크 등 전자금융업자의 간편결제 수수료가 카드사보다 높아 소상공인에게 부담이 된다는 지적이 있었다. 카드결제 수수료는 여신전문금융업법에 따라 규제를 받지만 간편결제 수수료의 경우 업체간 협의에 따라 자율적으로 책정하고 있어 수수료 공개의 필요성이 제기됐다. 이에 따라 윤석열 정부는 간편결제 수수료 공시제도 구축을 국정과제에 포함시켰다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.11.17.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>토스증권 vs 카카오페이증권, 희비 엇갈리는 까닭은</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000011789?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>해외주식으로 감 잡은 토스…점유율도 '껑충'카카오, 누적손실 700억…모회사 지원 '무용'쉽고 편한 모바일트레이딩시스템(MTS)을 기치로 내걸고 증권업에 뛰어든 토스증권과 카카오페이증권의 희비가 엇갈리고 있다.출범 이후 실적 1라운드의 승자는 토스증권이다. 해외주식 호조를 필두로 올해 3분기 첫 흑자를 냈다. 카카오페이증권의 경우 모회사인 카카오페이의 지원에다 주식 신용거래 한도를 대거 확대하며 경쟁력 확보에 안간힘을 쓰고 있지만 위탁매매(브로커리지) 부문의 성과가 기대에 미치지 못하면서 적자가 계속 불어나고 있다./그래픽=비즈니스워치토스증권, 해외주식 호조에 첫 분기 '흑자'17일 금융투자업계에 따르면 토스증권은 작년 3월 회사 출범 이후 올 3분기에 처음으로 분기 흑자를 기록했다. 순이익과 영업이익이 각각 21억원, 22억원으로 모두 전년 동기 대비 흑자전환했다. 올해 누적 기준으로는 168억원 순손실, 168억원 영업적자이지만 3분기 실적 개선을 발판으로 손실 규모를 직전 분기보다 줄였다. 매출액은 492억원으로, 작년 3분기 대비 20배 폭증했다. 긴축과 인플레이션 파고로 증시 거래대금이 급감한 가운데서도 브로커리지 수익이 불어난 게 주효했다. 아직 금액 자체는 크다고 할 수 없지만 최근 수익 급감으로 애를 먹는 기존 증권사들과는 완전히 다른 행보다. 실제 토스증권의 3분기 브로커리지 수수료 수익은 146억원으로 전년 동기보다 16배 이상 늘어났다. 올 들어서도 △1분기 54억원 △2분기 119억원 △3분기 320억원 등 분기마다 2배 이상씩 가파른 성장세를 나타내고 있다. 3분기 실적의 일등공신은 해외주식 부문이다. 지난해 말 서비스를 시작해 아직 1년도 채 안됐지만 해외주식 브로커리지로 3분기에만 130억원의 수수료를 벌어들였다. 이 역시 △1분기 37억원 △2분기 100억원에 이어 추세적으로 증가하고 있다.토스증권은 지난해 12월 500여개에 불과했던 해외주식 투자 종목을 현재 3600여개 미국주식과 상장지수펀드(ETF)로 확대했다. 이에 따라 전 종목에 온주(1주) 및 소수점 단위로 투자가 가능해졌다. 또 적금처럼 국내외 주식을 일·주·월 단위로 투자하는 '주식 모으기' 서비스를 출시해 8개월 만에 20만명의 투자자를 유치했다.특히 토스증권은 다른 증권사들의 주요 수익원인 자산관리(WM) 등 기타 사업에는 아직 손도 안 댄 상태다. 단지 브로커리지 수수료만으로 이처럼 가파른 성장세를 보여준 만큼 앞으로가 더 기대된다는 평가가 나온다. 정태준 유안타증권 연구원은 "토스증권은 해외주식 서비스를 시작하면서 고성장을 이어가고 있다"며 "작년 말 0.4%에 불과했던 해외주식 부문 점유율은 올해 상반기 10%대까지 높아져 국내주식 전반의 거래대금 감소난을 극복하고 있다"고 분석했다. 카카오페이증권, MTS·자본 확충에도 적자 확대반면 카카오페이증권은 적자가 빠르게 불어나는 추세다. 올해 1분기 108억원 수준이던 카카오페이증권의 순손실은 2분기 239억원에서 3분기 359억원으로 급증했다. 올해 누적 순손실만 707억원 이상이다. 유상증자를 통해 지금까지 2000억원 이상을 지원한 카카오페이의 노력에도 아직 이렇다 할 성과가 나지 않고 있다. 카카오페이의 브로커리지 수수료 수익은 3분기 16억원, 올해 누적 기준으로도 20억원에 머물러있다. 카카오페이증권이 핀테크 금융의 기반이 되는 MTS를 토스증권보다 1년 늦은 올해 4월 출시했다는 점을 감안해도 지금의 부진은 아쉽다.정태준 연구원은 "브로커리지가 부진한 것은 회사의 채널 경쟁력에 대한 의구심을 키우는 부분"이라며 "증권업은 결국 자본이 수익의 재원이 되는 만큼 기본적으로 흑자가 유지돼야 안정적인 외형 성장이 가능하다"고 지적했다. 다만 최근 시작한 주식 신용거래융자 서비스는 승부수를 걸어볼 만한 대목이다. 카카오페이증권은 지난 9월부터 계좌만 있으면 한도와 조건 설정 이후 바로 신용거래를 할 수 있는 서비스를 개시했다. 담보유지비율은 140%, 상환기간은 90일이지만 해당 조건을 충족하면 횟수나 기간에 상관없이 만기 연장이 가능하다. 특히 한도가 인당 최대 20억원일 정도로 파격적이다. 신한투자증권에 따르면 카카오페이증권의 올 상반기 말 기준 자기자본인 2680억원을 기준으로 한도 100%, 신용거래융자 마진율 연 3%(평균 이자율 6%, 조달금리 3%)를 가정하면, 연간 이자수익은 80억원으로 추산된다. 증권업 특성상 신용거래융자가 꾸준한 수익원임을 감안할 때 무시할 수 없는 금액이다. 임희연 신한투자증권 연구원은 "증권업 자기자본이익률(ROE)의 핵심은 결국 신용거래융자 이자수익"이라며 "카카오페이증권 역시 신용거래 서비스를 시작했다"고 설명했다. 임 연구원은 "다만 이에 앞서 MTS 거래 활성화가 선행돼야 성과가 가시화될 것"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>현상순 아시아경제 회장 등 '한양언론인상' 수상자 선정</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005178218?sid=102</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>한양대 출신 언론인 모임 '한양언론인회' 선정22일 프레지던트 호텔서 시상식제 17회 한양언론인상을 수상하는 현상순 아시아경제 회장(왼쪽부터)과 이수형 법률신문 대표이사, 송기용 머니투데이 편집국장[사진제공=한양언론인회] 한양대 출신 언론인 모임인 한양언론인회는 현상순 아시아경제 회장과 이수형 법률신문 대표이사, 송기용 머니투데이 편집국장을 제17회 한양언론인상 수상자로 선정했다고 16일 밝혔다. 한양언론인회는 오는 22일 오후 7시 서울 중구 프레지던트호텔에서 열리는 '제18회 한양언론인의 밤' 행사에서 현 회장을 비롯한 수상자들을 시상할 예정이다.한양언론인회가 선정한 '2022 한양을 빛낸 동문상'에는 천경준 씨젠 회장, 고춘홍 이브자리 회장, 김동연 일양약품 대표이사 사장, 김희근 벽산엔지니어링 회장, 김형일 ㈜한양 부회장, 이방수 LG에너지솔루션 대표이사 사장, 전해상 도레이첨단 대표이사 사장, 황현식 LG유플러스 대표이사 사장, 나희승 한국철도공사 사장, 성대규 신한라이프 대표이사 사장, 김성익 SK 대표, 윤호영 카카오뱅크 대표이사 사장, 김민표 토스페이먼츠 대표, 김민영 넷플릭스 부사장, 김혜연 엔씽 대표, 장지호 닥터나우 대표 등 총 16명이 이름을 올렸다. 한양언론인회는 1998년 11월26일 창립해 올해로 24주년을 맞는다. 현재 국내외 언론사에서 활동 중인 한양대학교 학부 졸업생 동문 1000여명이 회원으로 소속돼 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.11.26.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>韓, 스마트폰 간편결제 하루 7232억… ‘지갑없는 시대’ 더 빨라질듯</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003464584?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>팬데믹 이후 모바일금융 급성장6년새 이용액 30배 가까이 늘어금융정보 유출 등 위험 더 커져신종 코로나바이러스 감염증(코로나19) 확산 이후 급격히 커진 모바일 간편결제(페이) 시장이 ‘애플페이’의 국내 상륙을 계기로 한층 더 성장할 것으로 전망된다. 이미 카카오페이, 삼성페이 등 스마트폰을 이용한 간편결제 서비스 이용금액은 하루 평균 7000억 원을 넘어섰다.  모바일을 이용한 송금이나 금융상품 가입 등도 빠르게 늘고 있어 ‘지갑 없는 시대’로의 전환이 점점 빨라지고 있다는 분석이 나온다. 그러나 일각에선 모바일 금융의 보편화로 개인정보 유출 등 보안 사고나 보이스피싱 같은 범죄 위험이 커질 수 있다는 우려도 제기된다. 25일 한국은행에 따르면 올해 상반기(1∼6월) 간편결제 서비스의 하루 평균 이용금액은 7232억 원으로 집계됐다. 한은이 관련 통계를 집계한 2016년 이후 최대 규모다. 6년 새 이용금액은 무려 30배 가까이로 급증했다. 지난해 하반기(7∼12월)의 6533억 원과 비교해도 10.7% 늘었다. 간편결제 이용액은 2020년 이후 매 반기 10% 이상 불어나고 있다. 치열한 ‘페이 전쟁’에서 네이버페이, 카카오페이 등 빅테크들이 기선을 제압한 상태다. 상반기 기준 전자금융업자가 제공하는 간편결제 서비스 이용금액이 전체 시장의 절반(50.4%)을 넘어섰다. 여기엔 SSG페이, 쿠팡페이, 토스페이처럼 온라인 쇼핑몰과 금융 플랫폼의 페이 서비스도 모두 포함된다. 이어 은행, 카드사 등 금융회사의 페이 서비스(26.1%)와 삼성페이 등 휴대전화 제조사가 선보인 서비스(23.5%) 순으로 점유율이 높았다. 간편결제를 포함한 모바일 금융 서비스는 팬데믹 이후 급속도로 확산됐다. 한국은행이 지난해 성인 남녀 3536명을 대상으로 조사한 결과에 따르면 65.4%가 최근 1개월 내 모바일 기기로 금융 서비스를 이용했다고 답했다. 특히 20대(86.9%)와 30대(89.7%), 40대(83.4%)는 응답률이 80%를 웃돌았다. 또 응답자 42.1%는 팬데믹 이후 모바일 금융 서비스 이용이 ‘증가했다’고 대답했다. 하지만 모바일 금융 서비스가 확산될수록 명의 도용이나 개인정보 유출 같은 보안 사고 위험이 커질 수 있다는 우려도 나온다. 실제로 최근 1년 동안 지급 수단 분실 및 도난, 위·변조, 개인정보 유출 등을 경험했다는 응답은 10.0%로 2019년(7.3%)에 비해 2.7%포인트 상승했다. 회사원 이성민 씨(40)는 “결제, 송금 같은 금융 서비스는 편리함보다 안전함이 더 중요하다고 생각한다”며 “페이 서비스가 아무리 확산돼도 보안 등이 우려돼 실물 카드를 쓰고 있다”고 말했다. 김대종 세종대 경영학부 교수는 “모바일 금융 서비스가 확산되면서 개인정보 유출 등의 사고를 경험한 소비자가 많아지고 사회 전반적으로 보안에 대한 관심도 커졌다”며 “모바일 금융 이용자들이 피해를 입지 않도록 보안 기술을 정비하고 금융소비자 보호를 더 강화해야 한다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>토스뱅크 "체크카드 쓰고 미국 주식 받으세요"</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004932890?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 토스뱅크가 체크카드로 5000원 이상 결제시 100원어치 미국 주식을 주는 프로모션을 24일부터 시행한다.   지급된 주식은 고객의 토스증권 계좌를 통해 확인할 수 있다. 5000원 미만 결제 건은 1% 현금 캐시백 혜택이 적용되며, 카드 결제 즉시 고객의 토스뱅크 계좌로 입금된다.   애플, 테슬라, 아마존, 엔비디아 등 미국의 우량 기업과 ETF를 포함한 30개 종목의 주주가 될 수 있다. 고객이 희망하는 3종목을 지정하면, 체크카드를 결제할 때마다 지정한 종목 중 1개 종목의 소수점 주식이 지급된다.   토스뱅크는 고객에게 '소비가 곧바로 투자로 이어지는' 새로운 경험을 제공한다. 특히 이번 프로모션은 평소 해외주식 투자에 관심이 많았던 고객들에게 투자에 대한 진입장벽을 낮추는 취지가 있다.   프로모션 기간은 11월 24일부터 내년 2월 말일까지다. 토스뱅크 관계자는 "토스뱅크와 토스증권이 선보인 ‘체크카드 즉시 캐시백’과 ‘실시간 해외주식 소수점 거래’ 서비스가 만나 ‘주식캐시백’이라는 서비스가 나왔다”며 “앞으로도 고객 관점에서 고민하고 다양하고 혁신적인 서비스를 선보여 금융에 대한 고객 경험을 바꿔나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>첫 삽 뜬 대환대출…2금융권 고객 지키기 ‘골머리’</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002658234?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>내년 5월 플랫폼 서비스 오픈 예정산적한 리스크에 경쟁 밀려 '난색'ⓒ연합뉴스[데일리안 = 이세미 기자] 금융당국이 내년부터 보다 낮은 금리의 대출 상품을 찾아 쉽게 갈아탈 수 있도록 돕는 대환대출 플랫폼 서비스를 실시하기로 한 가운데, 저축은행과 카드·캐피탈사 등 제2금융권의 반응은 뜨뜻미지근하다. 금리상승으로 인한 대내외적 리스크가 커지고 있는 와중 고객 이탈을 더욱 가속화하는 촉매제가 될 수 있다는 우려다.16일 금융권에 따르면 금융위원회는 금융 소비자의 이자부담 경감을 위해 온라인‧원스톱 대환대출을 위한 인프라 구축을 추진한다. 내년 5월 실시될 대한대출 플랫폼은 은행과 저축은행 등 금융권 대출 상품을 모바일 앱을 통해 비교해보고 갈아탈 수 있도록 하는 서비스다.해당 서비스에 대한 논의는 지난해 추진됐으나 가계대출 급증과 가계부채 총량 관리 시작으로 중단된 바 있다. 그러나 급격한 금리 인상으로 인한 소비자 이자 부담이 가중되자 플랫폼 필요성이 대두되면서 해당 논의는 현실화 됐다.금융권에 따르면 대환대출 플랫폼 시장 참여자들은 기존 카카오페이, 토스, 핀다 등 핀테크사뿐 아니라 50여개의 은행과 저축은행, 카드·캐피탈사가 참여할 예정이다.이런 가운데 정작 카드사, 저축은행 등 2금융권은 플랫폼 참여에 난색이다. 대내외적 리스크로 금융시장이 요동치면서 2금융권이 약한고리로 지목되고 있는 와중에 고객이탈을 부추길 도화선이 될 수 있다는 우려 때문이다.실제 저축은행업계의 경우 전체 79개사 중 신용대출 취급이 높은 20여곳만 대환대출 플랫폼 참여를 검토하고 있는 것으로 알려졌다. 이는 전체 4분의 1정도에 불과한 수준이다.ⓒ금융위원회저축은행 관계자는 “플랫폼 뚜껑을 열어봐야 알 수 있겠지만 현재로선 저축은행이 시중은행과의 수신금리 경쟁에서도 밀리고 있고, 하반기 실적도 부진할 것으로 예상된다”며 “산적한 리스크를 방어하기도 전에 또 다른 고민이 생긴 꼴”이라고 말했다.기준금리 인상 기조가 지속되면서 저축은행들은 시중은행과 예금금리를 놓고 경합을 벌이고 있다. 전날 기준 시중은행의 예금금리는 글로벌 금융위기였던 지난 2008년 이후 14년 만에 연 5%대를 넘어섰다. 저축은행들이 6%까지 금리를 올렸으나 이마저도 추월 당할 것이라는 전망이 지배적이다. 수신자금을 확보해야 하는 저축은행 특성 상 대환대출 플랫폼으로 대출 고객들이 빠져나간다면 건전성이 우려되는 대목이다.카드·캐피탈사 등 여신 전문 금융사 역시 상황은 마찬가지다. 여전사들은 은행과 달리 예적금 등 수신 기능이 없어 채권 발행으로 자금을 조달하는데 최근 단기금융시장이 불안정해지면서 조달비용이 크게 뛴 상황이다. 대환대출 플랫폼이 곧 고객이탈을 부추겨 여전사의 건전성을 불안케 하는 요인으로 여겨지는 것이다.뿐만 아니라 다양한 규제로 가로막힌 2금융권의 경쟁력이 시중은행에 이어 핀테크 업계로까지 완전히 밀려날 것이라는 공통적인 우려도 존재한다. 대환대출 플랫폼 자체가 핀테크 플랫폼에 금융사의 상품을 올리는 형태이기 때문에 결국 빅테크에 잠식될 것이라는 관측이다.더욱이 이제 막 발을 떼기 시작한 각 사의 디지털 플랫폼이 대환대출 플랫폼 서비스를 시작으로 다시 후퇴할 가능성도 제기된다.금융권 관계자는 “고객이탈외에도 업계 간 플랫폼을 둘러싼 이해관계자 충돌되고 있다”며 “이에 대해 의견을 모아 조율하는 것이 관건”이라고 강조했다.금융당국 관계자는 “이달 중 금융업권, 핀테크, 금융결제원 등 이해관계자가 참여하는 태스크포스를 구성해 세부적인 의견을 조율할 예정”이라며 “대환대출 활성화 시 발생 가능한 머니무브 가속화 등 금융시장 리스크의 관리를 위해 시범운영 기간을 도입할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.11.25.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>수집형 RPG ‘블루 아카이브’ 한·일서 IP 입지 다져…확장성 더 키운다</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005050745?sid=105</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>넥슨게임즈의 서브컬처 수집형 RPG ‘블루 아카이브’가 한·일 양국에서 IP로써의 입지를 더욱 다지고 있어 눈길을 끈다.넥슨게임즈는 ‘블루 아카이브’의 아트북, 공식굿즈, TCG(Trading Card Game), 콜라보카페 등 IP 확장에 나서고 있다.넥슨게임즈는 일본 배급사 ‘요스타’, 만화 및 게임 관련 서적 전문 출판사 ‘이치진샤’와의 협업을 통해 지난 10월 5일 ‘블루 아카이브 공식 아트북’을 출간했다.이 공식 아트북은 ‘블루 아카이브’ 일본 출시 1년 간의 다채로운 일러스트, 키 비주얼, 세계관 및 캐릭터 설정자료는 물론, 게임 아트를 총괄한 ‘김인 아트 디렉터’, 스토리를 총괄한 ‘양주영 시나리오 디렉터’의 스페셜 인터뷰 등 풍성한 읽을거리를 담았다.‘블루 아카이브’의 공식 아트북은 게임 아트북으로는 드물게 출간 직후 이틀 간 일본 아마존 도서 부문에서 베스트셀러 1위를 차지했다.‘블루 아카이브’ IP를 다양한 방식으로 즐길 수 있는 콘텐츠 및 굿즈 제작도 활발하다.지난해 5월에는 게임의 무대가 되는 ‘학원도시 키보토스’에서의 대난동을 주제로 한 공식 코믹스 ‘블루 아카이브 앤솔로지’를 출시했다.일본 배급사 ‘요스타’와의 협업을 통한 굿즈들도 현지 팬들로부터 좋은 반응을 얻고 있다.일본 서비스 1주년, 1.5주년에는 태피스트리, 열쇠고리, 아크릴 디오라마, 퍼즐 선풍기 등 다채로운 굿즈를 제작, 판매했다.지난 10월 12일에는 게임 시나리오에서 다루지 않은 이야기들을 소설, 만화, 드라마 CD(오디오 드라마)로 제작, 구성한 ‘키보토스 황륜대제 미디어 믹스’를 출시했다.다양한 영역의 파트너들과의 콜라보레이션도 주목할 만하다.일본 TCG(Trading Card Game) ‘Re버스 for you’와의 콜라보를 통해 ‘블루 아카이브’ TCG를 출시했다.지난 10월 24일에는 ‘맥스 팩토리’와 협업해 제작한 피규어가 일본 아마존, 에니메이트 등 주요 온라인 판매처에서 피규어 부문 베스트 셀러 1위를 차지하기도 했다.넥슨은 케이블 애니메이션 채널 ‘애니플러스’와의 협업을 통해 지난 10일부터 12월 25일까지 6주간 서울 합정과 부산 서면에 컬래버 카페를 운영한다.‘블루 아카이브’의 컬래버 카페는 디저트 및 음료 메뉴는 물론 주요 캐릭터의 공식 일러스트 아크릴 스탠드, 포토카드, 키 홀더, 캔 뱃지, 머그컵 등 다채로운 굿즈를 구비했다.컬래버 카페 서울 합정점, 부산 서면점에는 오픈 첫날에만 약 1900명 이상의 팬들이 방문했다.한편, 넥슨은 지난 11월 21일 알라딘, 예스24 등에서 ‘블루 아카이브’의 코믹 단행본 ‘블루 아카이브 코믹 앤솔로지 VOL.1 &amp; VOL.2 합본 세트’의 예약 판매를 시작했다.이처럼 ‘블루 아카이브’ IP가 한·일에서 성공을 거두면서 이를 기반으로 한 소설, 만화 등의 콘텐츠의 흥행을 통해 IP 자체의 확장성도 기대된다.넥슨게임즈는 게임 외적인 IP의 확장 잠재력에 더해 게임 자체에도 긍정적인 영향을 줄 수 있을 것으로 기대하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.11.30.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>사회공헌 관심 1위 은행은 ‘KB국민’…농협·신한·경남은행 뒤이어</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000035290?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>국민은행 사회공헌 관심도, 전년 동기 대비 140% ↑“고금리 시대 수혜자의 고통 분담 노력 나타난 것”     KB국민은행 신관 [사진 국민은행]    국내 1금융권 은행 가운데 사회공헌 관심도가 가장 곳은 KB국민은행으로 나타났다. NH농협은행과 신한은행이 그 뒤를 이었다.    여론조사기관 데이터앤리서치는 뉴스·커뮤니티·블로그·카페·유튜브·트위터·인스타그램·페이스북·카카오스토리·지식인·기업/조직·정부/공공 등 12개 채널 23만개 사이트를 대상으로 1금융권 은행의 지난 7~9월 온라인 사회공헌 관심도를 조사했다고 30일 밝혔다.    분석 결과, KB국민은행이 4509건으로 1금융권 20개 은행 중 전체 1위를 차지했다. 지난해 같은 기간 1878건에 비해 140.09%나 늘어난 수치다. 올해 KB국민은행이 태풍 피해 성금 지원, 추석 맞이 기부, 결식아동 지원 등에 나섰던 점이 여러 온라인 커뮤니티에서 언급돼 영향을 미친 것으로 보인다.      올해 3분기 1금융권 사회공헌 관심도 순위. [사진 데이터앤리서치]    이어 NH농협은행이 4029건으로 2위를 기록했다. 지난해 같은 기간 2926건에 비해 37.69% 늘어났지만, 1위 자리는 내놓았다. 신한은행이 3580건으로 3위를 차지했으며, 전년 동기(2922건) 대비 22.51% 늘었다.    BNK경남은행은 2909건으로 4위를 기록했다. 지방은행 중에서는 가장 높은 사회공헌 관심도로 지난해 같은 기간 1284건에 비해 126.55% 늘었다. 우리은행이 2651건으로 5위를 차지했다. 지난해 같은 기간 688건이었던 것에 비하면 287.40% 급증했다.    이밖에 ▶하나은행 2473건 ▶BNK부산은행 1744건 ▶IBK기업은행 1571건 ▶DGB대구은행 1190건 ▶카카오뱅크 1133건 ▶전북은행 948건 ▶광주은행 372건 ▶KDB산업은행 302건 ▶케이뱅크 300건 ▶한국수출입은행 242건 ▶토스뱅크 225건 ▶Sh수협은행 183건 ▶제주은행 180건 ▶SC제일은행 131건 ▶한국씨티은행 59건 순으로 나타났다.    데이터앤리서치 관계자는 “올 3분기 1금융권의 사회공헌 관심도는 지난해 같은 기간에 비해 대부분 크게 높아졌다”면서 “고금리 시대 수혜자인 은행권의 고통 분담 노력이 사회 곳곳에 선한 영향력을 행사하고 있는 것으로 분석된다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>은행권 예대금리차 축소...5대銀 중 농협 3개월째 '최고'</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002659813?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>하나·신한·우리·국민 순…0.67~1.56%P5대 은행 사옥. ⓒ 각 사 제공[데일리안 = 이호연 기자] 국내 5대 은행 가운데 지난 달 대출 금리에서 예·적금 이자율을 뺀 예대금리차가 가장 큰 곳은 NH농협은행으로 나타났다. 이로써 농협은행은 석 달 연속으로 5대 은행 중 예대금리차 선두 자리를 차지했다.21일 은행연합회 소비자포털에 공시된 '예대금리차 비교' 통계에 따르면 올해 10월 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 제외한 농협은행의 가계 예대금리차(가계대출금리-저축성수신금리)는 1.56%포인트(p)로 집계됐다. 전월(1.85%p)보다는 예대금리차가 축소됐으나 5대 은행 중에서는 3개월째 1위를 차지했다. 정책서민금융을 포함한 가계예대금리차는 1.60%p로 가장 높았다.그 뒤를 이어 ▲하나은행(0.94%p) ▲신한은행(0.89%p) ▲우리은행(0.77%p) ▲KB국민은행(0.67%p) 순으로 예대금리차가 컸다.농협은행 관계자는 “주요 은행 중 예금금리를 높고 대출금리는 가장 낮은 편임에도 만기 6개월 미만의 단기성 정부 정책 자금을 취급하다보니 구조적인 착시 효과가 발생하는 것 같다”고 말했다.인터넷전문은행 중에서는 토스뱅크의 가계 예대금리차가 5.37%p로 가장 컸다. 이어 케이뱅크가 1.57%p, 카카오뱅크가 1.11%p를 기록했다.지방은행, 외국계은행을 포함한 전체 19개 은행 중에서는 전북은행의 예대금리차가 5.37%p로 4개월 연속 1위를 차지했다. 전북은행의 경우 중・저 신용자와 외국인 등 금융소외계층을 주력으로 영업하다 보니 대출금리가 상대적으로 높다는 분석이다.다만 최근 은행권의 수신금리가 가파르게 오르면서  대부분 은행들의 전체 예대금리차는 전월 대비 축소됐다. 정책서민금융을 제외하면 토스뱅크를 제외한 18개 은행에서 가계예대금리차가 지난달보다 상당 수준 줄었다.금융당국은 은행연합회와 함께 지나친 '이자 장사'를 막자는 취지로 지난 7월부터 기준을 강화해 19개 은행의 월별 예대금리차 공시를 진행해왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>접속장애 겪은 케이뱅크, 이용자수 9만명 감소</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005181977?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>전례 없는 먹통 대란을 겪은 케이뱅크의 이용자가 급감한 것으로 나타났다.24일 데이터분석업체 와이즈앱에 따르면 케이뱅크의 일간활성이용자수(DAU) 35만6057명(22일 기준)인 것으로 나타났다. 이는 먹통 사태가 발생하기 전인 지난 16일(45만245명)대비 9만4188명이 감소한 수치다.케이뱅크 모바일뱅킹 어플리케이션(앱)은 지난 17일 오후 8시30분께부터 접속 오류가 발생해 18일 새벽 4시가 넘어서야 정상화됐다. 케이뱅크 측은 목동 데이터센터와 사옥 등 현장에 직원들을 파견해 조치를 취했지만 정상 복구까지는 7시간이 넘게 걸렸다.케이뱅크의 DAU는 접속 장애가 벌어졌던 지난 17일 이후 매일 감소하는 추세다. 평일 기준으로 살펴보면 18일(42만961명), 21일(39만1918명), 22일(35만6057명)이다. 평일 대비 이용자가 감소하는 주말인 19일과 20일은 30만명대 초반 수준이었다.경쟁사인 카카오뱅크, 토스에 비해 상대적으로 작았던 케이뱅크의 DAU는 더욱 수치가 미미해졌다. 카카오뱅크의 22일 기준 DAU는 358만332명이었고, 토스의 경우 605만3590명이었다. 다만 토스의 경우 토스뱅크, 토스페이, 토스증권 등이 합쳐진 원 앱이다.지난 17일 케이뱅크 모바일뱅킹 앱에서 7시간 넘게 접속 오류가 발생해 이용자들이 불편을 겪었다.장시간 접속 오류 때문에 케이뱅크에 대한 이용자들의 민심은 급격히 차가워졌다. 점포도 없는 인터넷전문은행의 앱이 몇시간이 넘도록 오류가 지속되자, 불안하다며 돈을 다른 은행으로 옮기겠다는 이용자들도 생겨났다.오류 초반 은행 측의 미흡한 대처도 이용자들의 화를 키웠다. 장시간 오류가 이어졌음에도 문자 등 상세한 안내가 부족했다는 지적이 이어졌다. 케이뱅크는 오류가 난 뒤 앱에 바로 팝업 공지를 올렸다고 밝혔지만, 일부 이용자들은 케이뱅크와 제휴를 맺은 업비트 공지사항을 통해서야 케이뱅크의 접속 오류를 인지하기도 했다.먹통 사태는 내년 초 상장을 준비하고 있는 케이뱅크에게 엎친 데 덮친 격이다. 가뜩이나 시장 상황이 안 좋은 데다가 시중은행들도 디지털 전환을 가속화하면서 인터넷전문은행의 혁신성에 대한 의문이 제기되고 있는 것이 현실이기 때문이다.다만 케이뱅크는 '금리 경쟁력'을 통해 이용자 유입에 사력을 다하고 있다. 케이뱅크는 지난 21일 아파트담보대출 대환대출 금리를 연 0.7%포인트, 아파트담보대출금리 0.2%포인트, 전세대출 금리 0.3%포인트를 인하했다.이와 관련 케이뱅크 관계자는 "금리 인하 등으로 인해 고객들이 지속적으로 유입되고 있다"며 "이번 오류 사태를 계기로 시스템 전반을 점검하고 있고, 재발방지책도 강화할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.11.22.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>관심 밖이던 '개인사업자 대출' 제2금융·인뱅 격전지로 떠올라</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004931984?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>'사장님 금융' 상품개발 적극  #. 일시적으로 3000만원의 사입 자금이 필요한 온라인 판매업자 A씨. 1금융권에는 대출 한도가 이미 다 찼지만 금리 부담과 신용점수에 영향을 미칠까 두려워 2금융권 대출은 생각지도 않았다. 자금을 마련할 방안을 고민하던 중 '네이버페이 사업자 대출 비교'를 통해 개인 신용점수에 영향을 미치지 않는 개인 사업자 신용대출이 있는 것을 확인하고 2금융권에서 대출을 받을 수 있었다.   국내 자영업자 대출이 1000조원에 육박하면서 일명 '사장님 금융'이 주목받고 있다. 고금리에 가계대출이 위축되면서 자영업자 금융서비스가 은행권의 기회 시장으로 떠오르고 있는 것이다. 발 빠른 인터넷은행들은 비금융 정보를 신용평가에 반영해 유리한 조건의 사업자 신용대출을 내놓고 있다. 제2금융사들도 사업자 전용상품을 개발, 자영업자 대출시장에 뛰어들고 있다.   ■제2금융권도 사업자 전용대출   22일 금융권에 따르면 제2금융사들이 지난 10월 네이버파이낸셜이 출시한 '네이버페이 사업자 대출 비교'에 입점하기 위해 사업자 계정의 전용 신용대출 상품을 만들었다. 사업자 전용 대출 상품은 사업자 개인의 신용점수에 영향을 미치지 않는다.   수익성은 낮고 리스크는 높다는 인식 탓에 관심도가 낮았던 개인사업자 대출 시장에 2금융권도 활발히 참여하고 있는 것이다. 기존에는 2금융권 사업자 대출은 개인대출 상품으로 기업 대출과 달리 개인 신용점수에 영향을 줬다. 현재 네이버파이낸셜 대출비교에 입점한 금융사에서 △제1금융권은 우리은행·케이뱅크·토스뱅크·전북은행 △2금융권은 KB국민카드·롯데캐피탈·웰컴저축은행·한국투자저축은행·OK저축은행이다. 현대캐피탈도 연내 입점된다.   실제 한국은행에 따르면 지난 2·4분기 국내 자영업자의 대출잔액은 994조2000억원 규모다. 코로나 이전인 2018년 말 기준의 대출 잔액 624조3000억원, 2019년 말 684조9000억원에서 가파르게 상승했다.   ■인터넷은행 3사도 가세   대출비교 플랫폼뿐 아니라 인터넷전문은행도 사업자 대출을 차례로 출시하며 새로운 격전지로 떠올랐다.   인터넷전문은행 3사가 모두 개인사업자 대출을 취급하고 있다. 토스뱅크와 케이뱅크는 상반기에 자영업자 전용 대출을 시작했다. 카카오뱅크도 최근 개인사업자 뱅킹을 선보였다. 인터넷전문은행은 모두 비금융데이터를 접목시킨 자체 신용평가 모형으로 대출을 심사, 사업자들이 보다 유리하게 대출을 받을 수 있도록 서비스하고 있다.   온라인 사업자에게 대출을 제공한 네이버파이낸셜과 미래에셋캐피탈도 사업자대출 증가에 맞춰 서비스 개선을 위한 리뉴얼에 들어간다. 네이버 스마트스토어를 운영하는 사업자 뿐만 아니라 대상 사업자를 더 확대하기 위해서다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>"보안 투명성 높인다"…토스, 데이터보호 준법 자문위 구축</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005178309?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>권헌영·김승주 고려대 교수 및 김철준 법무법인 광장 고문 참여반기마다 데이터 보호 전략 보고 및 감시왼쪽부터 이승건 토스 대표, 김승주 고려대 교수, 권헌영 고려대 교수, 김철준 법무법인 광장 고문, 신용석 토스 최고개인정보보호책임자(CPO)토스가 외부 보안 전문가로 구성된 위원회를 꾸리고 정보보안 체계를 투명하게 관리하기로 했다.토스 운영사 비바리퍼블리카는 외부 전문가 3인으로 구성된 '데이터보호 준법 자문위원회'를 출범한다고 16일 밝혔다. 자문위원회는 권헌영 고려대 정보보호대학원 교수를 위원장으로, 같은 대학원 김승주 교수, 법무법인 광장의 김철준 고문을 자문위원으로 구성됐다. 향후에도 규모를 불려갈 계획이다.위원회는 토스가 보유한 고객 데이터를 법령에 맞춰 처리하고 있는지 확인하고 감시하게 된다. 또한 데이터 거버넌스 체계를 구축하기 위한 자문 역할도 수행한다.앞으로 토스는 데이터 보호 전략 및 정책, 준법 감시 활동을 반기마다 위원회에 보고한다. 위원회는 개인 정보처리 민감도가 높은 사안에 대해서는 토스 대표이사 및 개인정보보호책임자(CPO)에게 의견을 제시할 방침이다. 토스는 위원회의 의견을 적극적으로 수용하고 관련 결과를 홈페이지에 공개할 예정이다.신용석 토스 CPO는 "매월 국민 1400만 명이 사용하는 금융 플랫폼으로 성장하면서 외부의 시선을 통해 더욱 적극적으로 고객 데이터 보호체계의 투명성을 점검 받고 개선해 나갈 필요가 있다는 내부 공감대가 있었다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.11.27.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>인터넷은행, 올해는 약속 지키나… 중저신용 대출 확대 '스퍼트'</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000872670?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>사진=이미지투데이  카카오뱅크·케이뱅크·토스뱅크 등 인터넷전문은행의 올해 3분기말 기준 중저신용자 대출 비중이 공개된 가운데 올 연말까지 설정한 목표치에 도달할 수 있을지 눈길을 끈다. 각사는 특화 신용평가모형(CSS)을 개발해 추가 고객을 선별하는 등 중저신용자 포용이라는 목표를 위해 속도를 낼 전망이다.27일 은행연합회에 따르면 올 3분기 카카오뱅크·케이뱅크·토스뱅크의 중금리대출 취급 비중(잔액기준)은 평균 28.9%로 직전분기(27.5%)와 비교해 1.4%포인트 증가했다. 지난해 말(19.1%)과 비교해서는 9.8%포인트 증가했다.이 기간 토스뱅크의 중금리대출 비중은 39.0%로 집계됐고 케이뱅크 24.7%, 카카오뱅크는 23.2%를 각각 기록했다. 토스뱅크는 지난 19일을 기준으로 중저신용 대출 비중이 40.1%로 집계되면서 제1금융권 가운데 처음으로 40% 문턱을 넘기도 했다.인터넷은행 3사가 올해 제시한 중금리대출 비중은 토스뱅크 42%, 카카오뱅크와 케이뱅크가 25%다. 아직 연말까지 시간이 남았지만 제시한 수치에 근접하면서 목표 달성의 기대감이 고조되고 있다.3분기 내 공급한 대출 규모는 이미 지난해 수치를 넘어섰다. 카카오뱅크가 올해 1월부터 10월까지 중저신용 고객에게 공급한 무보증 신용대출 규모는 2조1147억원으로 지난해 공급한 1조7000원을 돌파했다.케이뱅크가 올해 3분기까지 공급한 중저신용 신용대출 규모는 1조5992억원으로 지난해 공급한 대출 규모(7510억원)의 2배를 돌파했다. 올해 1월 대출 영업을 정상화 한 토스뱅크의 중저신용 대출 규모는 총 2조7000억원이다.각 인터넷전문은행 중·저신용자 대상 신용대출 비중(잔액기준)/표=은행연합회 지난해 말 각 은행들의 중저신용 대출 비중은 케이뱅크 16.6%, 카카오뱅크 17%, 토스뱅크 23.9%다. 당초 케이뱅크는 21.5%, 카카오뱅크 20.8%, 토스뱅크는 34.9%를 목표로 내걸었지만 이루지 못했다. 이에 인터넷은행의 설립 목표인 '중저신용자 포용'이 무색하다는 지적도 나왔다.하지만 올해는 목표 달성이 가시화되면서 막판 속도를 낼 것으로 보인다. 각사는 신용평가모형을 손질하면서 추가 고객을 확보하고 고객의 신용점수를 높여 고금리 대출로 이탈하는 걸 막겠다는 설명이다.카카오뱅크는 최근 개발한 대안신용평가모형 '카카오뱅크 스코어'를 연내 적용할 계획이다. 심사 전략을 정교화해 중저신용자 및 씬파일러(금융이력 부족자) 고객을 추가 선별할 수 있을 것으로 보고 있다.케이뱅크는 지난 2월부터 중저신용, 씬파일러 고객군별 특성을 반영한 특화 CSS를 운영 중이다. 특화 CSS 도입 이후 중저신용 고객의 대출 승인율이 높아지며 중저신용 고객 대상 신용대출 공급이 확대됐다는 게 케이뱅크의 설명이다.토스뱅크는 지난 1년 간 자체 신용평가모형에 따라 시장의 중저신용 고객 4명 중 1명 이상(25.7%)을 고신용자로 재평가했다. 고객 가운데 신용점수 475점(과거 KCB 기준 8등급)까지 대출이 이뤄졌고 이들은 성실 상환 등으로 신용점수 상향 효과를 누렸다는 설명이다.토스뱅크 관계자는 "토스뱅크는 출범부터 꾸준히 고객들과 약속해 온 '포용금융'을 은행의 건전성을 유지하면서도 숫자로 증명해 나가려 한다"며 "중저신용 대출 비중에는 포함되지 않더라도 개인사업자 대출 등 시장의 여러 자금 수요와 금융 사각지대를 들여다보고 제 역할을 하는 신뢰의 은행으로 자리매김하겠다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.11.22.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>美 원자재ETF 매도대금에 10% 세금 매긴다</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005049158?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>美정부 PTP 규제 내년 시행자원·인프라 관련 200여 종목외국인 투자자에 원천징수서학개미 투자금 2천억 넘어美국세청 작년 말 공표했는데예탁원·증권사 뒤늦게 공지미국 정부가 내년 1월 1일부터 자원·인프라스트럭처 관련 상장지수펀드(ETF)나 종목에 대해 매도대금의 10%를 세금으로 부과한다는 사실이 뒤늦게 알려지며 서학개미들과 국내 증권사들에 비상이 걸렸다. 증권업계에 따르면 국내 투자자가 보유한 'PTP(Publicly Traded Partnership·공개 거래 파트너십)' 대상 상품 규모는 1일 기준으로 1억6000만달러(약 2170억원)다. 증권업계에서는 이미 1년 전에 제도의 윤곽이 잡혔음에도 이제서야 예탁원이 공지에 나섰다며 불만을 토로하고 있다.22일 증권업계에 따르면 미국 정부는 내년부터 외국인 투자자가 PTP 관련 상품을 거래할 때 매도금액의 10%를 원천징수한다. 주의할 점은 매도차익이 아닌 매도대금을 기준으로 과세가 이뤄진다는 점이다. 예를 들어 100원에 산 상품을 90원에 팔았을 경우에도 매도금액(90원)의 10%에 해당하는 9원을 세금으로 내야 한다는 것이다. 미 국세청은 수익률이 10% 이하인 투자자를 위해 일정한 조건을 붙여 세금을 면제받을 수 있도록 했다. 다만 한국예탁결제원에 따르면 국내 투자자는 이 같은 면제 조항의 혜택을 볼 수 없다.PTP에는 천연자원(원유·가스), 파이프라인, 부동산 및 인프라 관련 주식 200여 종목이 포함된다. 미국 현지 언론 보도 등에 따르면 PTP 대상 항목 관련 규정은 언제든 확대될 수 있다. 일례로 PTP 대상 항목에 이미 포함된 UVXY는 미 증시 변동성지수(VIX) 변동폭의 1.5배만큼 움직이는 ETF다.서학개미들의 사랑을 많이 받은 상품도 다수 포함됐다. 블룸버그 천연가스 지수의 일일 수익률을 2배로 추종하는 ETF '프로셰어스 울트라 블룸버그 내추럴 가스(BOIL)'가 대표적이다. 예탁원에 따르면 BOIL은 국내 투자자들이 지난 3개월간 1644만3080달러어치를 순매수해 같은 기간 순매수 23위에 올랐다.적용 시점이 내년 1월 1일이다 보니 과세를 피하기 위해서는 그 전에 팔아야 한다. 한 증권사 관계자는 "뾰족한 해법이 없어서 현재는 고객들에게 연내 매도를 권하고 있는 실정"이라고 설명했다. 현재 개별 증권사들은 홈페이지 등을 통해 PTP 대상 종목을 공지하고 있다.문제는 이들 상품 대부분이 최근 들어 가격이 하락하면서 손실을 본 투자자들이 적지 않다는 점이다. 손실을 본 상황에서 추가 세금 부담 때문에 의도치 않게 매도에 내몰리게 된 셈이다. BOIL은 지난 3월 초 한 주당 30달러대 중반에서 지난 7월 130달러 선까지 가격이 급등했으나 현재 40달러대 후반으로 하락한 상태다. BOIL을 130달러에 매수해 40달러까지 떨어지는 동안 보유한 투자자는 90달러의 손실과 함께, 매도 체결 금액 40달러의 10%인 4달러를 세금으로 내야 한다.증권업계에서는 앞으로 국내 투자자들이 원자재 투자 대안으로 해외 원자재 선물 등을 기초자산으로 하는 상장지수증권(ETN) 등을 선택할 가능성도 있다는 목소리도 나온다.이와 관련해 국내 증권사들과, 예탁원 등 금융당국의 조치가 미비했다는 지적도 있다. 미국 국세청이 관련된 내용을 지난해 말 공표했음에도 투자자들에 대한 안내가 부족했기 때문이다. 이날 오후 6시까지 관련 공지를 한 증권사는 삼성증권, 한화투자증권, 키움증권, 토스증권 등 4곳에 불과하다. 고객들에게 안내하는 내용도 증권사마다 달랐다. 이날 다수의 증권사에 '수익 규모와 상관없이 매도금액의 10%를 징수하는 것이 맞느냐'고 문의한 결과 한 증권사는 '맞는다'고 답했지만 또 다른 증권사 상담센터는 '관련 내용이 아직 완전히 확정되지 않아 12월 중순께 확답을 줄 수 있다'고 답했다.미국 국세청은 지난해 12월 20일 이 같은 내용을 골자로 하는 안내문을 홈페이지에 개시했다. 조치를 적용받는 상품은 구체화되지 않았더라도 세율이 10%인 점, 시행 시점이 2023년이라는 점은 명시돼 있었기에 관련 조치가 늦었다는 비판은 피할 수 없을 것으로 보인다. 한 증권업계 관계자는 "현지 조세 규정의 변화와 같은 문제는 보통 예탁원에서 사안을 알아보고 국내 업계에 안내하는 방식으로 진행돼왔다"며 "이달 초에 예탁원이 처음 안내했고, 21일 업계를 대상으로 설명회를 했다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>토스, '데이터보호 준법 자문위원회' 출범</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011538820?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]토스를 운영하는 비바리퍼블리카가 외부 전문가 3인으로 구성된 '데이터보호 준법 자문위원회'를 출범한다고 16일 밝혔다.(왼쪽부터)이승건 대표, 김승주 교수, 권헌영 교수, 김철준 고문, 신용석 CPO가 기념촬영을 하고 있다.(사진=비바리퍼블리카 제공)2022.11.16 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = 토스를 운영하는 비바리퍼블리카가 외부 전문가 3인으로 구성된 '데이터보호 준법 자문위원회'를 출범한다고 16일 밝혔다. 앞으로 위원회는 토스가 보유한 고객 데이터와 관련해 법령을 잘 준수하고 있는지 독립적으로 확인하고 감시한다. 또 안전한 데이터 거버넌스 체계를 구축하기 위한 자문 역할을 수행한다. 구체적으로 위원회는 회사의 데이터 보호 전략·정책, 준법 감시 활동을 반기마다 보고받고 개인 정보처리 민감도가 높은 사안에 대해 대표이사, 개인정보보호책임자(CPO)에게 의견을 제시한다. 토스는 위원회의 의견을 적극적으로 수용하고 관련 결과를 홈페이지에 공개할 예정이다. 이번 자문위원회 출범은 데이터 이용과 보호에 대한 투명성을 높이는 자발적 신뢰 강화 활동의 일환이다. 신용석 토스 CPO는 "매월 국민 1400만 명이 사용하는 금융 플랫폼으로 성장하면서 외부의 시선을 통해 더욱 적극적으로 고객 데이터 보호체계의 투명성을 점검 받고 개선해 나갈 필요가 있다는 내부 공감대가 있었다"고 설명했다.자문위원회는 고려대 정보보호대학원 권헌영 교수를 위원장으로 동 대학원 김승주 교수, 김철준 법무법인 광장고문을 위원으로 위촉해 출범했다. 권헌영 교수는 현재 한국IT서비스학회 회장과 한국정보보호학회 개인정보보호 연구회장을 맡고 있는 정보보호 분야 전문가다. 김승주 교수도 암호학과 사이버보안 분야의 전문가로, 대통령 직속 4차산업혁명위원회 위원으로 활동했다. 김철준 고문은 17년간 금융당국에서 다양한 금융업권의 IT부문 검사를 진행했다. 이후 금융회사 정보보호 최고책임자를 역임한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.11.20.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>[전화성의 기술창업 Targeting]238. 얼어붙은 투자시장, B2B 사업모델이 유리</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003060347?sid=110</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>배달의민족, 야놀자, 쿠팡, 토스…. 이름만 들어도 다 아는 플랫폼 스타트업의 공통점은 일반 대중 대상(B2C)으로 사업한다는 것이다. B2C 사업으로 성공하게 되면 이들과 같이 화려한 성공을 맛볼 수 있다. 자신이 만든 브랜드와 서비스가 세상 모든 사람에게 알려지는 것만큼 짜릿하고 기분 좋은 일은 없을 것이다. 대부분의 스타트업도 이런 환상에 젖어 처음부터 B2C 사업을 계획한다. 하지만 B2C는 막대한 자본과 감각적인 마케팅을 필요로 하기 때문에 제대로 시작하기도 전에 벽에 부닥치는 경우가 많다. 벤처캐피털의 거대 투자 자본을 받아서 진행할 수도 있고 홍보비 없이 기발한 바이럴 마케팅으로 성공한 스타트업도 있지만 이 역시 극소수에 불과한 것이 현실이다.하지만 기업 대상(B2B) 비즈니스는 B2C보다 접근하기도 쉬운 데다 성공확률도 10배 이상 높다. 특히 요즘과 같이 투자시장이 얼어붙어 있는 경우에는 좀 더 빠른 시기에 손익분기점(BEP)을 통과할 수 있는 B2B 사업 모델이 유리할 수 있다. 서비스형소프트웨어(SaaS) 시장과 소재·부품·장비(소부장) 시장이 매년 성장하고 있고 예비 거래처와 PoC 기회만 있다면 좀 더 안전한 창업 방법이다. 이유는 첫째 시장 분석과 예측이 상대적으로 용이하기 때문이다. 내가 만약 외식 주문 중개 플랫폼 사업을 시작했을 때 피자 프랜차이즈 본사가 아닌 일반 소비자 대상으로 했다면 어땠을까. 자본도 인력도 없는 상황에서 수많은 사람을 만나 시장 조사를 하는 것이 쉽지만은 않았을 것이다. 하지만 피자 프랜차이즈 본사를 대상으로 했기 때문에 당시 존재한 10개 회사만 돌아다니면 됐다. B2C 사업이었다면 적어도 1000만명에 대해 모집단을 만들어서 조사해야 했을 텐데 B2B였기 때문에 훨씬 수월하게 시장 조사를 끝마칠 수 있었다.또 B2B 비즈니스를 하게 되면 제품을 예측적으로 개발하지 않아도 된다는 장점이 있다. 시장 조사 자체가 '사업 제안'이 되기 때문이다. B2B는 고객사 경영자나 임원진과의 미팅을 통해 그들의 문제를 듣고 해결 방안을 제안하는 형태로 이야기가 오간다. 그때 자신의 제안이 받아들여지면 계약으로 이어지고 개발에 들어가게 된다. 하지만 B2C는 시장 조사를 통해 긍정적인 반응을 끌어냈다 해도 그것이 계약으로 이어지는 것은 아니다. 더군다나 개인과의 계약은 불가능하다. 이런 측면에서 봤을 때 B2B 비즈니스는 사업 구조가 굉장히 안정돼 있으며, 리스크도 훨씬 적은 편에 속한다고 볼 수 있다.B2B가 B2C보다 성공 확률이 높은 세 번째 이유는 거래 단위에 있다. 스타트업이 자금 조달과 판로 확보에 어려움을 겪는 시기를 이른바 '죽음의 계곡'(Death Valley)이라 하는데 많은 스타트업이 아이디어를 사업화하는 과정에서 이 시기를 버티지 못하고 무너지는 경우가 태반이다. 이 계곡을 빨리 벗어날 방법 또한 B2B에 있다. 기업을 고객으로 유치하면 한 번의 계약으로도 큰 매출을 발생시킬 확률이 높기 때문이다. A라는 기업과 계약한 뒤 내가 만든 제품이 그 기업의 직원에게 하나씩 지급된다고 가정해 보자. 한 명 한 명에게 판매하는 것보다 훨씬 더 많은 매출을 일으킬 수 있다. 그에 반해 B2C 사업은 마케팅을 통해 사람들에게 알리는 시간과 비용이 많이 들고, 큰 매출을 발생시키기까지 매우 오랜 시간이 걸린다.만약 자신이 만든 제품을 어디서부터 어떻게 팔아야 할지 고민하고 있다면, 이미 시장에 내놓았는데 잘 팔리지 않고 있다면 무리하게 돈을 써 가며 마케팅하기보다 B2B 비즈니스로의 전환을 고려해 보자. 가장 좋은 사업의 틀은 앞에서 살펴봤듯이 B2B 시장을 독점해서 절대적인 경쟁우위를 만든 다음 거기서 쌓은 노하우와 자본으로 B2C 시장에 진입하는 것이다.전화성 씨엔티테크 대표이사 glory@cntt.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>토스뱅크, 중저신용자 대출 40% 넘겨...카뱅·케뱅은 20%대</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002615761?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>올 3분기 기준 신용평점 하위 50% 차주 대상 대출 연말까지 토스뱅크 42%, 카뱅·케뱅 25% 넘겨야      인터넷전문은행 토스뱅크가 국내 은행들 가운데 처음으로 중저신용자 대출 비중이 40%선을 넘었다. 중저신용자 대상 신용 공급 확대를 조건으로 금융당국으로부터 인가를 받아냈던 인터넷은행들이 연말까지 자체적으로 내세운 중금리 대출 목표치를 달성할 수 있을지 주목된다. 21일 토스뱅크는 올해 3분기 잔액 기준 전체 가계 대출에서 중저신용자(신용평점 하위 50% 차주)가 차지하는 비중이 40.1%(2조7천억원)로 나타났다고 밝혔다. 지난해 10월 출범한 토스뱅크는 인터넷은행 3사뿐 아니라 전체 은행권을 통틀어 중저신용자 대출 비중이 가장 높다. 토스뱅크 관계자는 “자체 신용평가모형을 활용해 중저신용자 중에서도 상환 능력이 높은 차주를 발굴해 낼 수 있었다”고 설명했다.  인터넷은행들은 과거 금융당국에 제출한 인가 계획에서 기존 금융권에서 소외됐던 중저신용자들에 대한 신용 공급을 확대하겠다고 약속한 바 있다. 지난해 5월에는 금융당국 주도로 2023년 말까지 이 비중을 최소 30%까지 끌어올리기로 했다. 1호 인터넷은행인 카카오뱅크와 케이뱅크는 올해 말까지 25%를 목표치로 내세웠고, 토스뱅크는 42%를 약속했다.  그러나 금융권에 따르면 카카오뱅크와 케이뱅크의 올 3분기 기준 중저신용자 대출 비중은 각각 23.2%, 24.7%에 그친다. 자체 목표치에는 근접했으나 목표 자체를 소극적으로 잡은 게 아니냐는 지적이 나온다. 카카오뱅크 관계자는 “출범 당시만 해도 중저신용자 대출 규모를 ‘1조원’이라는 금액을 기준으로 당국과 목표를 협의했는데, 목표 기준이 비중으로 바뀐 탓에 급격하게 중저신용자 대출 비중을 늘리기 어려운 측면이 있다”고 했다. 그러나 한 금융권 관계자는 “애초에 중저신용자 신용 공급 확대를 약속하며 출범한 인터넷은행들이 출범 4∼5년이 넘어가도록 관련 대출 비중을 30% 수준도 넘기지 못하면서 목표 기준이 바뀐 탓이라고 말하는 것은 핑계”라고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.11.17.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>토스, 계열사 합동 IT 재난 대응 훈련 실시</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004123200?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>[서울경제] 토스 운영사 비바리퍼블리카는 장애·재해 등 재난 상황에서 위기 대응력을 높이기 위한 비상대응 훈련을 개최했다고 17일 밝혔다. 이번 비상대응 및 재난복구 훈련에는 토스를 비롯해 토스뱅크, 토스증권, 토스씨엑스 등 총 4개사가 참여했다. 4개사가 함동으로 전자금융서비스망 장애 관련 비상 대응 훈련을 개최한 건 이번이 처음이다.비상대응 시나리오는 디도스 공격으로 토스 서버 내 대고객 서비스 장애가 발생할 경우, 대고객 서비스와 연계 기관 서비스 장애가 발생할 경우 등 총 두 상황을 가정해 실시됐다. 토스 원앱 위기관리 태스크포스(TF) 및 장애대응 TF는 각 계열사에서 총 138명이 부문 별로 참여해 상황 발생 탐지 후 회의소집, 재해복구, 서비스 원복, 대외 고지 등 전 프로세스를 수행했다.장세인 토스 최고정보보호책임자(CISO)는 “앞으로도 전자금융서비스망 장애 재난 상황을 고려한 다양한 시나리오를 개발해 정기적으로 비상대응 및 재해복구 훈련을 실시하겠다"며 “어떤 재난 상황에도 토스 사용자가 안심하고 쓸 수 있도록 위기 대응력을 제고해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.11.25.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>‘빅테크’ DNA 심는 위메프…차세대 커머스 플랫폼 도약</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002543283?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>이진호(왼쪽) 위메프 최고기술책임자, 김동민 위메프 최고제품책임자. 위메프 제공  美 애플 출신 이진호 박사, 최고기술책임자로 영입구글과도 잇단 협업…"차세대 커머스 플랫폼 선보일 것"위메프가 커머스 플랫폼 도약을 위해 ‘빅테크’(거대 정보기술 기업) DNA 도입에 속도를 낸다. 25일 유통업계에 따르면 위메프는 빅데이터를 활용하는 ‘메타쇼핑’ 비전 선언 1년을 맞아 지난 8월 최고기술책임자(CTO) 직책을 신설하고, 미국 애플 본사 출신인 이진호 박사를 영입했다. 이 CTO는 지난 17년간 미국 실리콘밸리에서 경력을 쌓은 정보기술(IT) 전문가다. 이 CTO는 애플 본사에서 웹 검색 엔진 ‘스포트라이트(Spotlight)’를 개발하고 미국 메타커머스 ‘비컴닷컴’에서 테크 리더를 수행했다. 위메프는 "인공지능(AI)·머신러닝(ML) 전문가인 이 CTO의 합류는 23만 개 쇼핑몰, 총 7억 개 상품에서 추출한 데이터를 활용하는 메타쇼핑 기술 고도화에 기여할 수 있다"고 했다.최근 합류한 김동민 최고상품책임자(CPO) 역시 토스 증권에서 초보 투자자 대상 신규 서비스 전략을 마련, 론칭 6개월 만에 이용자 400만 명을 확보하는 등 PO(Product Owner) 전문가로 활약했다. 김 CPO는 삼성전자, 외국계 증권사 CLSA, 토스(비바리퍼블리카)를 거쳐 토스 증권의 창립 멤버이자 이사회 보드멤버로 최근까지 경력을 이어왔다.구글과의 잇단 협력도 위메프의 ‘성공 DNA’ 구축에 큰 힘이 될 전망이다. 위메프는 구글 유튜브와 ‘라이브쇼핑 파트너십’을 체결한 데 이어 지난 11일에는 클라우드 업무협약도 체결했다. 글로벌 테크를 선도하는 구글의 경험과 역량을 접목해 플랫폼 고도화를 세계 최고 수준으로 끌어올리겠다는 의지로 풀이된다. 위메프 관계자는 "메타쇼핑을 모토로 진화된 차세대 커머스 플랫폼을 선보이고자 지난해부터 단계적으로 테크·서비스 전략 개발에 나서고 있다"며 "최근 C레벨 인재 영입과 구글 협력 등과 같은 중장기 전략을 통해 최고 커머스 플랫폼을 완성할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.11.22.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>발등 불 떨어진 서학개미…내년부터 美원자재 ETF 세금폭탄</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005372698?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>2023년 1월1일부터 매도액 10%에 원천징수미국 원자재·원유 ETF 200여개 대상[이데일리 김보겸 기자] 미국 정부가 내년 1월1일부터 200여개의 원유·가스·인프라 분야의 상장지수펀드(ETF), 주식 등을 외국인이 팔면 매도액의 10%를 세금으로 부과하기로 하면서 미국 원자재 ETF에 투자하는 국내 투자자들의 고민이 깊어질 전망이다. 22일 증권업계에 따르면 한화투자증권, 키움증권, 토스증권 등은 “미국 국세청(IRA)이 ‘Section 1446(f)’ 규정을 통해 미국 증시에 상장된 200여 개의 PTP(Publicly Traded Partnership·공개 거래 파트너십) 종목을 10% 원천징수 대상으로 지정했다”고 밝혔다. 이들 증권사는 ”세금 납부를 원하지 않은 경우 해당 종목을 12월30일 이전까지 매도하는 방안을 검토해달라“고 권고했다. PTP에는 원유·가스 등 천연자원이나 부동산·인프라 분야에 파트너십 형태로 투자하는 주식이나 상품 등이 포함됐다. 미국의 주요 원자재 관련 ETF나 유한책임회사(LP) 형태로 상장된 인프라·에너지 기업 200여 개가 포함됐다. 주요 PTP 종목으로는 ‘미국원자재ETF’, ‘프로셰어즈 금 선물 2배 레버리지’ 등이 포함된 것으로 알려졌다. 국내 서학개미들이 지난 3개월간 가장 많이 투자한 종목군에 이름을 올린 ‘프로셰어즈 울트라 블룸버그 내추럴 가스’, ‘프로셰어즈 울트라 VIX 숏텀퓨처스’  등이 포함됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>국민비서 '구삐' 채널 '8→12개'…"이용자 선택권 높인다"</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005373987?sid=100</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>우리은행·카드, 하나은행·카드 등 4개 금융사 업무협약[이데일리 양희동 기자] 우리 국민 10명 중 3명이 이용하는 국민비서 ‘구삐’의 생활형 행정정보 알림서비스가 네이버와 토스 등 기존 8개에서 금융사 4개를 포함해 12개로 확대된다.인공지능 토끼 로봇을 형상화한 국민비서 ‘구삐’. (자료=행안부)행정안전부는 오는 25일 우리은행, 우리카드, 하나은행, 하나카드 등 국내 4개 금융사와 함께 국민비서 서비스 제공 및 이용 활성화를 위한 업무협약(MOU)을 체결한다고 24일 밝혔다. 이번 협약을 통해 국민비서 구삐의 서비스 앱 채널이 현행 네이버앱, 카카오톡, 토스, 케이비(KB)스타뱅킹, 케이비 페이(KB Pay), 신한 쏠(SOL), 신한플레이(pLay), 페이코(PAYCO) 등 8개에서 우리WON뱅킹(우리은행), 우리WON카드(우리카드), 하나원큐(하나은행), 1QPay(하나카드) 등 4개가 추가된 12개로 확대된다. 특히 이번 업무협약으로 4대 시중 금융사의 대표 모바일 앱이 모두 연계된다.국민비서 구삐는 국민생활에 꼭 필요한 교통·건강·교육 등의 생활형 행정정보를 국민들이 자주 이용하는 민간 앱 등을 통해 제공하는 서비스다. 지난해 3월 서비스 이후 지난달 13일 기준 가입자 1500만명을 돌파해 정부의 대표적 행정서비스로 자리매김하고 있다. 현재 국민비서 구삐는 백신접종 예약, 교통 범칙금 안내 등 기존의 27종 알림서비스에 이어, 지난 9일부터 7종의 신규서비스를 추가해 총 34종으로 알림서비스를 확대했다.최근에 추가된 주요 알림서비스를 살펴보면 국가공무원 공개경쟁채용시험에 응시한 수험생에게 합격정보 알림, 1365자원봉사포털을 통한 봉사활동 신청·실적 알림(연간 약 3000만건), 자동차365 이용자 대상 차량 명의변경, 보상(리콜)내역 등 알림(연간 약 1500만건), 고용·산재보험 의무적용 대상인 예술인 및 노무제공자(특수형태근로종사자) 대상 피보험자격 신고사실 통지(연간 450만건) 등이다.한창섭 행안부 차관은 “국민비서는 정부와 민간이 서로 협력하여 공공서비스를 제공하는 디지털플랫폼정부의 대표적인 사례”라며 “앞으로도 국민이 자주 사용하는 앱을 통해 보다 편리하게 공공서비스를 이용할 수 있도록 민간과 지속 협력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>엔픽셀, L1 블록체인 'Aptos'와 파트너십 체결... 웹3 게임 생태계 구축 본격화</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003059541?sid=105</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>엔픽셀은 레이어1 블록체인 '앱토스(Aptos)'와 파트너십을 체결하고 본격적인 웹 3.0 기반 게임 생태계 '메타픽셀(METAPIXEL)' 구축에 나선다고 16일 밝혔다.앱토스는 프로그래밍 언어 '무브(Move)'를 활용한 레이어1(Layer1) 블록체인이다. 안정성과 유연성 등에 중점을 두고 지난달 메인넷을 정식 론칭했다.메타픽셀 엔픽셀 지식재산권(IP)에 블록체인 기술을 접목한 웹 3.0 기반 게임 생태계다. 편리한 접근성과 유저 경험 및 가치를 공유할 수 있는 지속성장성을 목표로 한다.엔픽셀은 앱토스 최초로 게임 부문 파트너십을 체결했다. 안정성과 유연성 등을 토대로 메타픽셀 생태계를 다각도로 구축하는 등 협업 방안을 모색할 방침이다.고정환 엔픽셀 메타본부장은 “메타픽셀은 블록체인 기술을 통해 자산을 소유하고 나누며 함께 가치를 키울 수 있는 웹 3.0 생태계”라며 “앱토스 블록체인이 가진 강점을 기반으로 자사가 지향하는 '메타픽셀'을 완성해 나갈 것”이라고 말했다.엔픽셀은 2017년 9월 설립한 게임 개발사로 첫 프로젝트 '그랑사가'에 이어 차기작 '크로노 오디세이'를 개발 중이다. 지난해부터 블록체인과 게임간 결합 등 신사업 발굴을 위해 전담 조직 '메타본부'를 구성해 운영 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.11.20.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>MZ세대도 옛말…기업들은 2010년 이후 태어난 ‘알파세대’ 사로잡기 부심</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000078424?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>하나금융硏 “2025년 전 세계 알파세대 22억명”기업·금융사, 선점 위한 상품·서비스 봇물 GS25가 지난 10월 24일 로블록스에 선보인 ‘모여봐 GS25’ 스틸컷 이미지. (GS25 제공)MZ세대가 소비의 중심으로 떠오른 지 얼마 되지 않은 상황에서 기업들이 벌써 다음 세대를 주목한다는 분석이 나왔다. 바로 2010년 이후에 태어난 알파세대다. 인류 역사상 가장 큰 규모의 세대가 될 것이라는 전망이 나오는 가운데, 국내 기업들은 이미 알파세대를 겨냥한 마케팅을 펼치고 있다.하나금융경영연구소는 11월 14일 발간한 ‘알파세대 겨냥한 기업들의 키즈테크’ 보고서에서 오는 2025년 전 세계 알파세대 인구가 22억명에 달할 것으로 전망했다. 이는 전체 인구 중 25%에 해당하며 베이비부머세대를 넘어서는 규모다.이 같은 전망에 따라 시장 선점의 중요성이 부각되고 있다. 특히 금융사가 알파세대를 겨냥한 마케팅에 적극적이다.해외에서는 이미 시장 경쟁이 시작됐다. 유니콘 기업으로 성장한 핀테크 업체도 탄생했다. 키즈 핀테크 업체 그린라이트는 어린이용 모바일 직불카드, 주식·ETF 투자, 1% 캐시백 등을 제공 중이며 3조원의 기업가치를 인정받고 유니콘 기업으로 성장했다. 뱅카루는 어린이 전용 가상은행으로 부모가 가상의 자금을 자녀 계좌에 설정하면 자녀는 현금 관리, 예산 수립, 비용기록, 저축 등을 통해 배지를 수령하는 서비스다.국내에서도 알파세대를 겨냥한 서비스가 속속 등장했다. 특히 카카오뱅크의 10대 전용 금융 서비스인 ‘카카오뱅크 미니’가 성공한 이후 국내 시중은행들도 직불카드부터 주식, 금융 지식 교육, 전용 금융 앱 등 키즈를 대상으로 한 금융 서비스를 선보이고 있다.하나은행의 ‘아이부자앱’은 연령 제한 없이 금융 교육, 용돈 이체, 충전식 선불카드, 주식 투자 간접 체험 등 자산관리에 초점을 맞췄다. 부모도 이용 가능하도록 가족 앱으로 설계했다. 토스뱅크는 카드 이용 연령을 7세로 낮췄으며, 어린이 핀테크 스타트업인 레몬트리는 제공 중인 금융 교육 영역을 향후 간편결제와 소액 주식 투자 서비스로 확장할 계획이다.금융사 외 기업들도 알파세대를 겨냥한 서비스 출시에 속도를 내고 있다. 온라인 패션 플랫폼 무신사는 어린이 고객에게 상황별 스타일을 제안하고 신규 브랜드를 소개하는 ‘무신사 키즈’를 런칭했다. GS25는 지난 10월 알파세대가 많이 이용하는 메타버스 플랫폼 로블록스에 편의점 시뮬레이션 게임 ‘모여봐 GS25’를 선보이기도 했다.김지현 하나금융경영연구소 연구위원은 “알파세대의 특징은 디지털 환경에 익숙하고 이미지와 영상을 선호하며 메타버스와 인공지능(AI)에 친숙하다”며 “해외 금융사들은 디지털 기반의 창조와 참여의 재미가 가미된 마케팅을 펼치고 있는 반면 국내 은행은 메토버스 또는 게임형 금융 교육 제공의 비중이 높은 편”이라고 설명했다. 이어 “알파세대의 특징을 반영한 서비스와 마케팅 확대가 필요하다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>SKT·SK스퀘어·하나금융 “초협력으로 미래금융 대응”</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003239854?sid=105</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>지난 18일 전략적 파트너십 사업 공유회에서 기념 촬영 중인 함영주 하나금융 회장(왼쪽)과 유영상 SK텔레콤 대표. [사진 하나금융]           SK텔레콤·SK스퀘어·하나금융그룹이 ‘정보통신기술(ICT) 금융’ 초(超)협력을 강화하겠다고 20일 밝혔다. 지난 7월 4300억원 상당의 대규모 지분 교환에 따른 후속 조치다. 3사는 ▶미래 공동 대응 ▶새로운 고객가치 창출 ▶선한 영향력 확산을 3대 과제로 삼고 본격적인 사업 협력에 나선다. SK스퀘어는 지난해 SK텔레콤에서 인적분할된 SK그룹의 중간 지주사로, SK하이닉스·SK쉴더스·11번가·티맵모빌리티·원스토어·콘텐츠웨이브·T1 등 주요 계열사의 최대주주다.      3사는 먼저 ‘웹 3.0 생태계 공동 투자’를 첫 번째 과제로 내세웠다. 웹 3.0은 블록체인, NFT(대체불가능토큰), 탈중앙화자율조직(DAO) 등 미래 산업의 첨병으로 주목받는 기술이다. 네이버·카카오·토스 등 테크핀(기술 기반 금융) ‘메기’들에게 내준 혁신 주도권을 되찾아오겠다는 다짐으로 풀이된다. SK텔레콤 관계자는 “ICT 역량을 보유한 SK그룹과 금융 역량을 보유한 하나그룹이 진입하면 미래 금융에 대응할 수 있는 시너지가 날 것”이라고 설명했다.      그래픽=김영옥 기자 yesok@joongang.co.kr           그러나 아직은 구상 단계다. 3사에 따르면 이들이 이미 투자했거나 투자를 검토 중인 웹 3.0 관련 서비스·플랫폼은 현재로썬 없다. 올해 테라·루나 사태, FTX 파산 등으로 암호화폐가 주도하는 블록체인 시장이 침체기에 들어선 것도 주요 변수다. 이에 대해 SK텔레콤 측은 “암호화폐에 대한 투자는 우선 고려 대상이 아니다”라며 “웹 3.0 환경에서 3사가 경쟁력을 가질 만한 기술을 중심으로 투자할 계획”이라고 밝혔다.      3사는 또 ‘데이터 협력’을 통한 신규 고객가치 창출도 계획하고 있다. SK그룹의 소비자 비금융 데이터와 하나그룹의 금융 데이터를 결합해 대안신용평가모형을 고도화하고, 새로운 마이데이터 상품을 출시한다는 계획이다. 당장 소비자가 체감할 변화로는 SK텔레콤·하나그룹 간 융합 상품이 꼽힌다. 실제 양사는 지난 10년간 150만명이 사용한 ‘클럽 SK 신용카드’의 업그레이드 버전을 출시하기로 했다. 또 ‘T우주’에서 적금 우대 금리, 환전 수수료 등을 제공하는 구독 서비스도 선보일 예정이다. SK스퀘어는 또 보안 자회사인 SK쉴더스를 통해 하나그룹의 소상공인 매장 지원 프로그램에 동참한다.      한편 3대 과제 중 하나인 ‘선한 영향력 확산’은 인재 양성에 초점을 맞췄다. SK텔레콤과 하나그룹은 청소년 코딩스쿨과 금융 교육의 연계, 실무형 디지털 인재 양성, 스타트업 투자·육성 등에서 협력을 강화할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>예금경쟁에 10월 예대금리차 축소…농협銀 석달 연속 1위</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000311426?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>[앵커]지난달 은행권 예대금리차가 전반적으로 줄어든 것으로 나타났습니다.은행권이 예금이자 인상 경쟁에 나섰기 때문으로 분석됩니다.권준수 기자, 먼저 시중은행에서 예대금리차 어느 정도 좁혀졌습니까?[기자]5대 은행 중에서 정책서민금융을 제외한 지난달 가계예대금리차는 농협은행이 1.56%p로 가장 컸습니다.석 달 연속 1위였지만 지난 9월 1.85%p보다는 한 달 만에 약 0.29%p 줄었습니다.이어 하나은행 0.94%p, 신한은행 0.89%p, 우리은행 0.77%p, 국민은행 0.67%p 순으로 예대금리차가 컸는데요.전반적으로 시중은행 모두 예대금리차가 좁혀졌습니다.한 시중은행권 관계자는 "10월 한국은행의 빅 스텝 단행으로 수신금리를 올려 예대금리차가 크게 줄어든 것으로 보인다"면서 "금리인상기에 예대금리차가 줄어든 건 이례적"이라고 평가했습니다.[앵커]지방은행권에서는 어땠나요?[기자]지방은행 중 전북은행도 지난달 5.37%p 예대금리차를 기록하며 1위를 유지했습니다.다만, 한 달 전 6.43%p와 비교해 1%p 이상 줄었습니다.광주은행도 지난달 3.46%p 예대금리차를 보였는데 4.16%p 에서 0.5%p 줄었습니다.[앵커]인터넷은행은 어떤가요?[기자]인터넷은행인 토스뱅크는 더 커졌습니다.지난달 5.37%p의 예대금리차를 기록했는데, 한 달 전 5.04%p 보다 0.3%p 가량 확대됐습니다.토스뱅크는 지난달 한국은행의 빅 스텝에도 예·적금 금리를 올리지 않았습니다.케이뱅크나 카카오뱅크는 지난달 각각 1.57%p, 1.11%p 예대금리차를 기록했는데요.두 은행 모두 2.78%p, 1.99%p에서 크게 줄었습니다.토스뱅크 관계자는 "수시입출금 통장에서 금리를 올렸지만 반영되지 않았다"면서 "담보대출 없이 신용대출만 다뤄 예대금리차가 크게 나타났다"고 설명했습니다.SBS Biz 권준수입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>블록체인 뛰어든 엔픽셀…메타 출신이 만든 ‘앱토스’와 파트너십</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004123020?sid=105</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>메타픽셀 생태계 구축 등 협업사진제공=엔픽셀[서울경제] 엔픽셀이 블록체인 메인넷 ‘앱토스(Aptos)’와 파트너십을 체결하고 본격적인 웹 3.0 기반 게임 생태계 ‘메타픽셀(METAPIXEL)’을 구축한다고 16일 밝혔다.앱토스는 메타 출신 개발자가 프로그래밍 언어 ‘무브(Move)’를 활용해 구축한 레이어1(Layer1) 블록체인이다.메타픽셀은 엔픽셀 지적재산권(IP)에 블록체인 기술을 접목한 웹 3.0 기반의 게임 생태계로 편리한 접근성과 이용자 경험 및 가치를 공유할 수 있는 지속성장성을 목표로 한다. 이들은 이번 파트너십을 토대로 메타픽셀 생태계를 다각도로 구축하는 등 협업 방안을 모색한다는 방침이다.엔픽셀은 지난 2017년 9월 설립한 게임 개발사로 첫 프로젝트 ‘그랑사가’에 이어 차기작 ‘크로노 오디세이’를 개발 중이며 지난해부터 블록체인과 게임간 결합 등 신사업 발굴을 위해 전담조직 ‘메타본부’를 구성해 운영 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>코오롱 4세 경영 속도…모빌리티 컨트롤타워</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000078501?sid=102</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>[CEO LOUNGE] 이규호 코오롱모빌리티그룹 사장  코오롱그룹이 본격적인 4세 경영에 나섰다. 이웅열 코오롱그룹 명예회장 장남이자 코오롱가(家) 4세인 이규호 부사장(38)이 사장으로 승진하면서 그룹 내 역할에 관심이 쏠린다. 1984년생/ 미국 코넬대 호텔경영학과/ 2012년 코오롱인더스트리 차장 입사/ 코오롱인더스트리 FnC 부문 전무/ 코오롱글로벌 자동차 부문 부사장/ 코오롱모빌리티그룹 사장(현)▶이규호 사장 승진▷코오롱모빌리티그룹 수장 맡기로코오롱그룹은 최근 정기 임원 인사를 통해 코오롱모빌리티그룹 수장으로 이규호 사장을 선임했다. 코오롱그룹은 수입차 유통 사업 부문을 통합해 내년 1월 코오롱모빌리티그룹을 새로 출범시킨다. 앞서 코오롱글로벌은 지난 7월 수입차 판매·AS 부문인 코오롱모빌리티그룹을 인적분할하기로 했다. 기존 건설, 상사 부문을 남기고 자동차 부문을 떼어내는 구조다. 코오롱글로벌은 2012년 건설, 상사, 자동차 부문을 합병해 거대 기업으로 탈바꿈했지만 10년 만에 다시 분할을 결정했다. 이를 통해 코오롱모빌리티그룹은 기존 판매 중심에서 종합 모빌리티 사업자로 입지를 넓힌다는 방침이다. 2025년 매출 3조6000억원 달성이 목표다.경영 전면에 나선 이규호 신임 사장은 1984년생으로 故 이원만 코오롱 창업주 증손자다. 영국에서 고등학교를 졸업하고 미국 코넬대에서 호텔경영학을 전공했다.현장 경영을 중시하는 코오롱그룹 원칙에 따라 주요 계열사를 거치며 차근차근 경영 수업을 받아왔다. 10년 전인 2012년 코오롱인더스트리 구미공장 차장으로 입사해 회사 생활을 시작했다. 구미공장 재직 당시 사원 숙소에서 지내며 대중교통으로 출퇴근하는 등 소탈한 면모를 보였다는 후문이다.코오롱글로벌 건설 현장 관리 책임을 거쳐 2015년에는 31살 나이에 코오롱인더스트리 상무보로 승진하면서 본격적인 경영에 뛰어들었다. 당시 30대 초반이라 국내 100대 기업 최연소 임원으로 화제에 오르기도 했다.2017년 코오롱그룹 지주사 ㈜코오롱 전략 기획 담당 상무를 맡고, 2018년에는 코오롱인더스트리 패션 부문 최고운영책임자(COO·전무)로 승진해 실적 반등 기반을 다졌다. 당시 코오롱의 주력 사업이던 아웃도어 시장이 부진한 데다 유통 플랫폼도 급변했지만 그는 온라인 유통 채널을 강화하며 체질 개선에 나섰다.주력 브랜드인 코오롱스포츠에 레트로 이미지를 접목한 콘셉트 스토어 ‘솟솟상회’를 선보인 것도 그의 역할이 컸다. 지포어를 비롯한 골프웨어 브랜드 사업도 키워왔다. 덕분에 지난해 코오롱인더스트리FnC 부문 매출은 전년 대비 17.3% 증가한 1조181억원을 기록했고, 영업이익도 385억원으로 최대 실적을 이어가는 중이다.코오롱인더스트리에서 다양한 경험을 쌓은 뒤 2020년 코오롱글로벌로 자리를 옮겼다. 이후 2년간 코오롱글로벌 자동차 부문 부사장을 맡으면서 ‘과감한 체질 개선으로 1등 DNA를 심는다’는 전략 아래 사업 포트폴리오를 확대해 실적 고공행진을 이끌었다는 평가다. 그는 “코오롱이 고객에게 전할 수 있는 가치를 구체화해 미래를 열어나가야 한다. 고객에게 선택받을 수 있는 우리만의 색깔과 정체성을 구축해 미래 가치를 극대화하자”고 강조해왔다.코오롱글로벌 자동차 부문은 BMW, 볼보, 아우디, 롤스로이스, 지프 등 주요 수입차 8개 브랜드, 81개 네트워크를 운영 중인 메가 딜러사다. 2012년 이후 10년간 매출이 연평균 12% 넘게 성장하면서 그룹 내 캐시카우 역할을 해왔다. 코로나19, 글로벌 경기 침체 여파에도 지난해 매출이 전년 대비 40%가량 증가한 2조548억원으로 역대 최대 실적을 기록했다. 영업이익도 571억원으로 2020년 대비 65% 이상 상승했다. 코로나19 확산으로 완성차 시장이 침체됐지만 그는 비대면 트렌드에 맞춰 지난해 11월 아웃도어, 캠핑에 특화된 지프 브랜드 딜러십을 추가해 공격적인 외형 확장에 나섰다.MZ세대를 공략하기 위해 온라인 비즈니스도 강화했다. 지난해 말 모바일 금융 전문 서비스 토스를 운영하는 비바리퍼블리카와 파트너십을 체결해 핀테크를 활용한 전자 결제 시스템을 도입했다. 기존에는 매장에 방문해 카드로 결제해야 했지만, 앞으로는 수입차를 구매하거나 관련 서비스를 이용할 때도 온라인 결제가 가능하도록 했다. MZ세대 관심이 뜨거운 e모터스포츠 경기 후원에 나서는 등 자동차 유통을 넘어 모터 스포츠 문화까지 사업 영역을 넓히면서 브랜드 가치를 높여왔다는 평가다.코오롱모빌리티그룹 수장에 오른 이규호 사장은 수입차 유통, 판매 중심의 사업 구조부터 개편할 계획이다. SUV(스포츠 유틸리티 차량), 전기차 등 멀티브랜드를 구축하고 프리미엄 구독 서비스 등 다양한 신사업에 뛰어들 예정이다. 송유림 한화투자증권 애널리스트는 “코오롱모빌리티그룹은 기존 수입차 브랜드 외에도 신규 브랜드를 추가로 확보하는 한편 중고차 등 연관 신사업 진출에 나설 것”이라고 내다봤다.▶과제도 만만찮아▷지주사 지분 없어…계열사 실적 변수이규호 사장이 코오롱그룹 내 중책을 맡았지만 과제도 산적해 있다. 부친 이웅열 명예회장은 2018년 11월 당시 회장직에서 물러나면서 “아버지로서 재산은 물려주겠지만 경영 능력을 인정받지 못하면 주식은 한 주도 물려주지 않겠다”고 공언해왔다. 실제로 이규호 사장은 코오롱그룹 지배구조 정점에 있는 ㈜코오롱 지분이 전혀 없는 만큼 그룹을 총괄하는 자리에 오르려면 뚜렷한 성과를 내는 것이 급선무다. 이웅열 명예회장이 보유한 ㈜코오롱 지분은 49.74% 수준이다.야심 차게 출범한 코오롱모빌리티그룹 수장을 맡았지만 수입차 시장 경쟁이 격화된 만큼 계속해서 넉넉한 영업이익을 낼지는 의문이다. 올 3분기 코오롱글로벌 유통 부문 영업이익은 106억원으로 전년 동기 대비 23.1% 감소했다. 재계 관계자는 “이규호 사장 주도로 수입차 부문을 키웠지만 브랜드마다 시장점유율 경쟁이 치열하다는 점이 변수”라고 귀띔했다.그룹 주요 계열사 실적이 부진한 점도 고민거리다. 코오롱그룹 계열사 맏형 격이면서 이규호 사장이 몸담았던 코오롱인더스트리는 올 들어 실적 부진에 골머리를 앓는 중이다. 3분기 영업이익은 510억원으로 전년 동기 대비 36.7% 줄었다. 코로나19에 따른 중국 봉쇄 조치로 에폭시수지 등 화학 부문 실적이 악화된 영향이 크다. 이진명 신한투자증권 애널리스트는 “글로벌 교체용 타이어 수요 둔화에 따른 타이어코드 판매량 감소로 코오롱인더스트리 4분기 실적도 부진할 것으로 보인다. 필름 시장 역시 수요 부진으로 적자 기조를 이어갈 것”이라고 내다봤다.최근 코오롱인더스트리 대표이사가 김영범 코오롱글로텍 사장으로 교체된 것도 실적 부진과 무관치 않다는 분석이다. 코오롱인더스트리뿐 아니라 코오롱글로텍 대표에는 방민수 코오롱플라스틱 부사장이, 코오롱플라스틱 대표로 허성 코오롱인더스트리 부사장이 선임되는 등 그룹 화학 제조 부문 CEO가 줄줄이 교체돼 분위기가 심상찮다. 코오롱 4세 경영을 이끄는 이규호 사장이 각종 악재를 딛고 그룹 성장세를 이어갈지 지켜볼 일이다.[본 기사는 매경이코노미 제2185호 (2022.11.23~2022.11.29일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>'소프트웨어 웰컴즈 걸즈' 행사서 여성 인재 성장 지원</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013598202?sid=100</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 조성미 기자 = 한국지능정보사회진흥원(NIA)은 과학기술정보통신부 주최로 '2022 제9회 소프트웨어 웰컴즈 걸즈'가 25일 서울 동작구 스페이스 살림에서 열린다고 24일 밝혔다.    여성 인재의 소프트웨어 분야 진출 활성화를 목적으로 열리는 이 행사는 올해 '소프트웨어로 경계를 넘어 성장하는 내일'을 주제로 NIA와 서울시여성가족재단이 공동 주관한다.제9회 소프트웨어 웰컴즈 걸즈 포스터[한국지능정보사회진흥원 제공. 재판매 및 DB 금지]    1부 행사에서는 소프트웨어 분야 실무자들의 경력 관리와 학습 방법 특강이 마련됐고, 2부에서는 직무별 학습 멘토링을 통해 인공지능, 데이터분석 등에 대한 정보가 공유된다.    1부 특강에서 토스 조유성 테크리드가 '어떤 개발을 할 것인가: 변하는 것과 변하지 않는 것'을 주제로 직업인으로서 개발자의 목표와 좋은 개발의 조건에 대해 발표한다.    구글의 김종민 UX 엔지니어도 '자아를 위한 일'을 주제로 발표하고, LG유플러스 장진수 팀장은 '초보 개발자가 리더가 되기까지'라는 주제로 개발자 경력과 업무 비전 등을 공유한다.     csm@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>토스뱅크의 화두는 '카드업'…신규 주주로 하나카드 합류</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000041559?sid=105</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>토스뱅크 내부 사진.(사진=토스뱅크)인터넷전문은행 토스뱅크가 카드사업 강화에 상당한 관심을 기울이고 있다. 예적금과 대출 등 은행 본연의 상품군을 통해서는 이미 상당한 고객을 유치했다. 경제활동의 핵심 상품인 카드업 확대를 통해 더 많은 신규 고객을 유입할 수 있을 것으로 예상된다.토스뱅크는 지난 23일 이사회를 열고 총 1000억원 규모의 유상증자를 추진하기로 결의했다. 출범 후 여섯 번째 유상증자다. 신규 발행하는 주식은 보통주 2000만주다. 주당 발행가는 5000원이다. 증자방식은 제3자 배정으로 기존, 신규 주주가 증자에 참여했다. 특히 이번 증자를 통해 하나카드를 신규 주주로 맞이한 점이 주목된다.총 195만617주(약 98억원 규모)를 배정받는 하나카드는 토스뱅크의 기존 주주사인 하나은행이 속한 하나금융그룹의 계열사다. 현재 토스뱅크의 체크카드(토스뱅크카드) 업무를 대행하며 전략적 파트너로도 협업하고 있으며, 향후 카드 비즈니스 등 다양한 사업 전략을 발굴할 예정이다.유력 금융기관인 하나카드를 주주로 맞이하며 토스뱅크는 보다 안정적인 성장의 발판을 마련했다. 현재 주요 주주로는 비바리퍼블리카, 이랜드월드, 하나은행, 중소기업중앙회, 한화투자증권, SC제일은행 등이 참여하고 있으며 토스뱅크의 성장세를 이어가기 위해 긴밀한 협력을 이어오고 있다.증자 후 토스뱅크의 총 납입 자본금은 1조4500억원으로 늘어난다. 그만큼 자본안정성이 한층 강화된다는 의미다. 출범 당시 2500억원이었던 자본금 규모는 여섯 차례의 증자 과정에서 11개월 만에 1조2000억원의 신규 자본금을 확충하는 결과로 이어졌다. 토스뱅크는 출범 당시 5년간 1조원의 추가 증자 계획을 밝힌 바 있지만, 빠른 여수신 성장세에 힘입어 자본 확충도 가속화했다.이렇게 확보한 자본금은 카드업 확대의 마중물이 될 전망이다. 토스뱅크는 24일 국내 최초로 '체크카드 주식캐시백' 프로모션을 시행한다고 밝혔다. 참여 고객은 토스뱅크 체크카드로 국내외 모든 가맹점에서 5000원 이상 결제할 때마다 100원 상당의 '해외주식 및 ETF'를 즉시 지급받는다. 또, 가맹점 중복 적용 제한도 없어서 고객은 5000원 이상 결제하는 모든 건에 대해 매번 주식캐시백 혜택을 받을 수 있다.여기에 전월 실적 조건 제한까지 없어서 체크카드를 신규로 발급받고 즉시 프로모션 혜택을 받을 수 있다. 지급된 주식은 고객의 토스증권 계좌를 통해 확인할 수 있다. 단 5000원 미만 결제 건은 1% 현금캐시백 혜택이 적용되며, 카드 결제 즉시 고객의 토스뱅크 계좌로 입금된다.프로모션을 통해 고객들은 대표적인 미국주식 애플, 테슬라, 아마존, 엔비디아 등 미국의 우량 기업과 ETF를 포함한 30개 종목의 주주가 될 수 있다. 이 종목들 중에서 고객이 희망하는 3종목을 지정하면, 체크카드를 결제할 때마다 지정한 종목 중 랜덤으로 1개 종목의 소수점 주식이 지급된다. 희망 종목은 언제든 자유롭게 변경할 수 있다. 종목을 지정하지 않으면 자동으로 인기 종목이 선택된다.토스뱅크는 '체크카드 주식캐시백' 프로모션을 통해 고객에게 '소비가 곧바로 투자로 이어지는' 새로운 경험을 제공하고자 한다. 특히 이번 프로모션은 평소 해외주식 투자에 관심이 많았던 고객들에게 투자에 대한 진입장벽을 낮추고, 보다 쉽고 간편하게 해외 우량 기업에 투자해 볼 수 있는 좋은 기회가 될 것으로 보인다.토스뱅크 관계자는 "토스뱅크와 토스증권 양사에서 선보인 '체크카드 즉시 캐시백'과 '실시간 해외주식 소수점 거래' 서비스가 만나 '주식캐시백'이라는 새로운 차원의 고객 서비스로 탄생했다"며 "앞으로도 고객관점에서 고민하고 다양하고 혁신적인 서비스를 선보여 금융에 대한 고객 경험을 바꿔나가겠다"고 말했다.토스증권의 초기 성장을 이끈 건 '주식 1주 랜덤 증정 이벤트'였다. 잠재된 해외주식 고객을 대거 발굴함으로써 토스증권은 출범 2년도 안 돼 첫 분기 흑자를 달성했다. 이번 토스뱅크의 해외주식 이벤트는 토스증권의 고객군과 상호 호환성을 마련함으로써 잠재고객의 유입을 배가하는 효과가 있을 것으로 분석된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.11.17.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>토스, 4개 계열사 합동 IT 재난 대비 훈련…‘디도스’ 공격 가정</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000034465?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>원앱 위기관리 TF, 장애·재해 위협에도 대응 체계 마련     비바리퍼블리카(토스)가 장애·재해 등 재난상황에서 위기 대응력을 높이기 위한 비상대응 훈련을 개최했다고 17일 밝혔다. [사진 토스]    비바리퍼블리카(토스)가 장애·재해 등 재난상황에서 위기 대응력을 높이기 위한 비상대응 훈련을 개최했다고 17일 밝혔다. 이번 비상대응·재난복구 훈련에는 토스 외에도 토스뱅크, 토스증권, 토스씨엑스 총 4개사가 함께했다.    앞서 토스-토스뱅크, 토스-토스증권 간 비상대응 훈련은 있었지만 4개 사가 합동으로 전자금융서비스망 장애 관련 비상대응 훈련을 개최한 것은 이번이 처음이다.      비상대응 시나리오로 디도스 공격으로 토스 서버의 대고객 서비스 장애, 대고객 서비스와 연계기관 서비스 장애 두 가지 경우를 가정해 대응훈련을 시행했다.    토스의 원앱 위기관리 태스크포스(TF) 및 장애대응 TF는 각 계열사에서 총 138명이 부문별로 참여했다. 상황 발생 탐지 후 회의소집, 재해복구, 서비스 원복, 대외 고지 등 전 과정에 이르는 실제 프로세스를 수행했다.      특히 이번 훈련에서 토스 및 계열사들의 위기대응 및 재해복구 체계의 유효성을 검증하고 실전 재난 대응역량을 확인할 수 있었다는 설명이다. 토스는 데이터센터 내 주요 전산 자원을 평소 동일하게 보유하고 있어 지진, 화재 등 비상상황뿐 아니라 오류, 해킹 등이 발생해도 페일 오버(업무 이관)를 통해 서비스 중단을 최소화할 수 있다고 강조했다.    장세인 토스 최고정보보안책임자(CISO)는 “앞으로도 전자금융서비스망 장애 재난 상황을 고려한 다양한 시나리오를 개발해 정기적으로 훈련을 하겠다”며 “어떤 재난 상황에도 사용자가 안심하고 쓸 수 있도록 위기 대응력을 제고할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.11.23.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>[알프스 원정] 악마처럼 입 벌린 크레바스들…우린 서로 자일로 묶었다</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/094/0000010492?sid=103</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>브라이트호른 정상 오르고 샤모니 암벽 등반대학산악연맹 50주년 알프스 원정기 下브라이트호른 등반 중 바라본 눈 덮인 알프스 산군.7월 21일 대장의 무게 오늘 인혁 형은 평소 마시지 않던 맥주를 마셨다. 어떤 의미인지 상당히 고민이 된다. 스스로 휴식이 필요한 것인지, 아니면 쌓인 스트레스를 달래는 것인지. 대장의 무게는 무겁다. 여기 있는 대원 모두는 각 학교에서 대장을 한 번씩 해봤다. 그렇기에 인혁 형의 마음을 누구보다 잘 알 것이다. 산악부 신입생처럼, 그저 즐기기보다는 함께 고민하며 성장해 나갔으면 하는 바람이다. 우리는 내일 1,200m를 올라야 한다. 상당히 고된 하루가 될 것이다. 한 번에 오르막이 있는 것이 아니라 오르락내리락하며 고도 손실을 감내해야 한다. 7월 22일 우회하다 지체된 모이리산장 가는 길 오늘 산행은 상당히 고된 편이다. 영식 형이 계획한 루트를 따라 갈 경우 거리 8.8km에 오르막 1,200m로 경사는 급하지만 빠르게 운행을 마무리 지을 수 있을 것 같았다. 하지만 본격적인 오르막 구간에서 현지인들은 다른 길로 내려오고 있었다. 이들에게 우리가 가고자 하는 길로 갈 수 있냐고 물었을 때 '아마도 가능할 것'이라고 말했다. 하지만 그 누구도 우리가 가는 루트에서 하산하는 사람은 없었다. 현지 상황에 따라야 했다. 우리가 가고자 하는 루트 끝머리는 길이 무너진 듯했고, 우리는 산장 도착까지 약 3km를 앞두고 다시 내려와 현지 사람들이 가는 루트로 가야 했다. 상황은 좋지 못했다. 챙겨 온 2리터의 물은 새로운 길로 접어들며 거의 바닥을 보였다. 나는 물을 많이 마시는 편이 아니었기에 약 700ml가 남아 있었지만, 이도 충분한 것은 아니었다. 항상 어딜 가든 샘터가 있었기에 물을 아껴 마실 생각을 하지 못한 우리의 불찰이었다. 식사도 물을 쓰지 않은 채 빵과 행동식으로 간단히 해결했지만, 다들 목마름에 입술이 갈라지고 있었다. 경치가 아름답고 길이 좋아 이번 원정에서 가장 즐거운 길이었던 체르마트에서 몬테로사산장으로 가는 길.부상자들의 예후도 좋지 않았다. 성민 형은 운행 한 시간 만에 힘들어했다. 결국 성민 형 배낭 속 짐을 다른 대원들이 나눠 들었다. 루트를 변경하고 산장 도착까지 7km 남은 상황에서는 이미 진통제에 취해 눈이 풀려 있었다. 빗방울이 조금씩 떨어져 다들 옷을 바꿔 입어가며 운행했다. 특히 배낭이 원체 무거운데 부상자의 짐도 들고 가다 보니, 항상 씩씩하게 걸었던 민규마저 힘들어 했다. 아마 민규의 배낭이 가장 무거웠을 것이다. 여러 악조건이 겹쳤다. 나는 원래 느리게 걷는 편이고, 가장 후미에서 내 페이스대로 걸었다. 그래서 걸을 만했다. 또한 내 역량으로는 성민 형의 짐을 들어줄 수 없다는 사실을 알았다. 나도 돕고 싶은 마음이 있었다. 하지만 내 역량 이상을 수행하다 내가 퍼져버리면 그것이 더 큰 문제로 작용할 것 같았다. 그래서 들어줄 수 없었다. 다른 대원들에게는 많이 미안했다. 그래서 나는 내가 오늘 할 수 있는 것을 했다. 홍주연 대원이 샤모니에서 알버트산장으로 이동하고 있다.상황이 너무 힘드니 누군가는 '저 부상자가 없었다면 다른 대원들이 지금 퍼지기 직전인 나의 짐을 대신 들어줄 수 있었을 텐데' 하는 생각을 가졌다. 사람은 누구나 자신의 안위가 보장된 후에 타인을 생각하기 마련이다. 거친 산악 환경은 인간의 날것 그대로를 보이게 만들곤 한다. 집에 돌아가서 서로를 보듬는 시간이 그래서 중요하다. 이를 인혁 형은 아는 듯하다. 인혁 형은 차례차례 산장에 도착하는 대원들을 기다렸다가 한 명씩 안아주었다. 그렇게 원시적이었던 우리를 다시 문명인으로 돌려놓았다. 7월 25일 브라이트호른 정상에 오르다 브라이트호른 공격을 위한 준비가 한창이다. 안티스노 플레이트(크램폰 바닥에 눈이 붙는 것을 방지해 주는 장비)가 없는 재곤이는 자신의 크램폰에 랩과 테이프를 감으며 간이 안티스노를 만들었다. 나름 깔끔하게 개조된 크램폰의 성능이 기대된다. 성민 형의 컨디션도 돌아온 듯하다. 원정 초기에 생긴 부상이어서 앞으로의 일정 소화가 가능할지 걱정이 되었지만 큰 문제는 없을 것이라 믿는다. 이제는 자신과의 싸움이 될 것이다. 우리는 불필요한 장비들을 모두 빼버렸다. 변수를 위해 준비했던 장비는 운행 자체의 속도를 늦췄고 이것이 오히려 변수가 되었다. 피부에 직접적으로 닿는 내의 및 양말을 제외한 모든 것들은 한 장으로 통일했다. 무게는 절반가량으로 줄었다. 이번 원정에서 기록과 촬영을 담당한 박민규 대원.산타클로스 수염을 한 한 중년 남성이 내가 하는 일을 슥 쳐다보고는 돌아섰다. 우리가 하는 새로운 도전은 마치 산타를 찾아 나서는 여정과 같다. 그곳에 산타가 없을지라도 우리는 믿음을 가지고 걸어간다. 비록 안 될 줄 알면서도 그것을 행하는 모습은 인간이 성장하는 본연의 모습일 것이다. 우리는 체르마트에서 곤돌라를 두 번 갈아타고 브라이트호른 공격 지점까지 도달했다. 그곳에는 산악인 외에 스키나 보드를 즐기기 위해 아침 일찍 나온 관광객도 많다. 곤돌라 안에 타고 있는 사람들이 목표한 곳은 서로 달랐지만, 그 목적을 이루고자 하는 마음가짐은 하나였다. 브라이트호른은 크게 어려운 등반지는 아니기에 대원들 모두 정상에 도착했다. 오르는 길은 완만한 편이었지만, 간혹 발이 꺼지는 구간이 있어 마음을 놓을 수는 없었다. 하지만 안자일렌으로 묶인 우리는 서로를 믿으며 한 발씩 나아간다. 그리고 그곳에서 처음으로 4,000m의 높이를 실감했다. 두려움과 환희가 뒤섞여 있는 오묘한, 우리 누구도 경험해 보지 못했기에 표현할 수 없는 그런 감정이다. 나는 그저 내 장비를 차고, 내 옷을 들고, 대장님의 지시를 따르는 것만으로도 벅찼다. 우리는 성장 중이라는 덕담만을 듣고 살아왔지만, 실전에서 느낀 것은 나 자신에 대한 실망감이다. 나의 도전은 상당히 부끄럽다. 하지만 시작은 미약할지라도 그 끝은 창대할 것이라 믿는다. 내일의 나는 나의 반성 위에 올라 더 높은 고도에 서 있을 것이다. 브라이트호른 정상에 올라 50주년 기념 플래카드를 펼쳐 들고 기념 사진을 찍은 원정대.7월 27일 두포르스피체봉 4,300m까지 오르고 후퇴  두포르스피체에 도전한다. 몬테로사산군 중 최고봉이다. 어떻게든 넘어가야 할 것이지만, 고소에 약한 대원들이 우려된다. 원정 오기 전, 생각이 없고 여유가 있을수록 고소에 강하다는 이야기를 들었다. 나는 나름 생각이 많다고 생각했는데, 아닌가보다. 일찍 일어난 우리는 강제로 뇌를 깨우기 시작한다. 우리는 아무 말 없이 내의를 입고, 오버트라우저를 입는다. 계단을 오르내릴 때에도 숨이 찬다. 어서 호흡이 올라와야 할 텐데 말이다. 아직은 식당 문이 열리지 않아 밖에서 대기하고 있다. 다들 긴장한 표정인지, 비장한 표정인지 모를 얼굴을 하고 있다. 헤드랜턴을 밝혔던 시간에서 여명이 눈뜨기까지, 우리는 수많은 크레바스를 마주했다. 어둠은 크레바스의 깊이를 알리지 않았다. 그래서 우리는 검은 그림자만을 좌우로 두고, 랜턴이 비추는 흰 얼음에만 집중했다. 그래서 모두 자신 있게 크레바스를 뛰어 넘는다. 물론 몇몇은 히든크레바스를 밟고 빠지기도 했다. 민규는 촬영을 위해 사진을 찍던 중 허리까지 빠졌다. 그것을 헤쳐 나오기 위해 다른 곳에 발을 디뎠지만, 그 또한 크레바스였다. 안자일렌으로 엮인 자일을 당겨 민규를 구출해 낸다. 다소 당황하고 두려움에 떨 법도 한데, 민규는 티내지 않고 원래 자신이 가지고 있던 에너지를 발산한다. 몬테로사산군에서 만난 알프스 산양.해발고도 3,000m 중후반대를 넘으면서 대부분의 대원들은 고소 증세를 강하게 호소했다. 대부분 두통에 집중력을 잃어가고 있었고, 중원이를 비롯한 몇몇은 속앓이를 한다. 선두에 섰던 영식 형은 때때로 헛구역질을 한다. 나도 내 앞선 사람들이 빠르다며 예민하게 짜증을 냈다. 하지만 돌아갈 수는 없다. 인혁 형은 아파하고 짜증내는 우리들에게 불호령을 내린다. 나는 인혁 형이 얼마나 화를 내는지가 산행 난이도의 척도라고 생각한다. 오뜨루트 둘째날 일정에서도 수많은 크레바스를 넘는 과정에서 인혁 형의 언어는 우리에 대한 걱정에서 시작해 분노로 나아갔다. 오늘은 인혁 형의 언어는 그때보다 더 거칠다. 이는 오뜨루트보다 큰 어려움이 기다리고 있음을 뜻한다. 하지만 그 누구도 인혁 형의 말에 상처받지 않는다. 걱정하는 마음의 표현 방식일 뿐이기 때문이다. 산악 환경은 때때로 이런 불같은 무언가가 필요하다. 헤파이토스 대장간의 불길처럼 뜨거운 말은 식어 있던 우리를 깨웠다. 그런 담금질 속에서 우리는 더 단단해졌고, 좋은 빛을 내는 쇠가 되어가고 있다. 고소증세는 인혁 형의 말에 비하면 아무것도 아니었다. 저 봉우리보다 무서운 사람이 우리를 이끌고 있었다. 날씨가 더워 얼음은 확실하게 단단하지 않았고, 지속적으로 산사태와 눈사태가 일어나고 있었다. 다들 고소 때문에 아픈 머리를 부여잡고 있었고, 말도 거의 하지 않았다. 불확실성에 대한 도전과 위험을 저울질했을 때, 위험성이 더 무거웠다. 그래서 우리는 4,300m 구간의 골짜기 맨 위를 거쳐 그대로 하산했다. 물론 하산 길에서도 긴장의 끈을 놓을 순 없었다. 길은 좁았으며, 녹고 있는 크레바스의 브리지를 믿어야 했다. 우리는 얼음이 더 녹기 전 빠르게 통과했고, 천운이 도와 그 누구도 빠지지 않았다. 운행이 끝나고 그니페티산장에 도착한 시간은 12시가 채 되기 전이었다. 장장 열한 시간이 넘는 운행을, 그것도 4,000m 고도에서 수행하는 것은 쉬운 일이 아니었다. 내려온 대원들의 상태는 좋지 않았다. 브라이트호른에서의 고소증세는 오직 졸린 것뿐이었는데, 오늘은 강한 두통을 호소했고 내려오자마자 중원이에게 약을 두어 알 받아먹었다. 힘을 쓰게 되어 더 많은 산소를 쓴 듯하다. 나는 샤워 타이밍을 못 맞춰 빙하 녹은 물로 씻었다. 없던 고소증세도 생기는 것 같다. 모두들, 원하는 지점엔 오르지 못했지만 오늘을 기반삼아 더 높은 꿈을 꾸길 바란다. 락 블랑Lac blanc 트레킹에서 만난 환상적인 블랑 호수의 풍경.8월 2일 브레방 등반…위험한 낙석 일으켜 원정대 전원이 브레방 등반에 나섰다. 두 개 조로 나누어 진행했다. 주산 형이 선등을 하는 팀에는 중원, 주연, 은정이가 있었고, 보라가 선등을 하는 팀에는 영식 형, 호준 형, 민규, 보미, 재곤이, 그리고 내가 있었다. 우리 조에서는 내가 두 번째로 등반했다. 선등자 확보를 보기도 하고, 고정로프를 설치하기도 하며 나름 바쁘게 노동했다. 세 번째 피치였을까, 스태밍 동작으로 꽤 무서운 동작을 유지한 채 등반하는 구간을 제외하고는 모두들 수월하게 등반했다. 선등자였던 보라는 스태밍 구간을 재밍으로 통과하려다 꽤 애를 먹었다. 캠을 아래 구간을 통과하는 데 다 써버렸고, 퀵드로도 몇 개 모자라 사이즈가 맞지 않는 캠을 볼트에 걸고, 거기에 줄을 걸어가며 악을 썼다. 선등자가 그곳을 스태밍으로 통과하려면 꽤 많은 담력을 요했을 것이다. 어떻게든 그 구간을 통과해 낸 보라가 대견하다. 또한 뒤이어 등반하며 볼트에 걸린 캠을 회수하면서 그것이 참으로 치열한 사투였음을 간접적으로 경험했다. 우리 조에선 내가 위험한 사고를 저질렀다. 사람 머리만 한 낙석을 떨어뜨린 것이다. 루트가 끝나고 걸어서 약간 트래버스하는 구간이 있었다. 그곳에서 균형을 잃고 넘어질 뻔했는데, 그때 내가 짚었던 부분의 흙이 쓸려나가며 그 위에 있던 바위가 떨어졌던 것이다. 영식 형은 그것을 보자마자 낙석이 떨어지고 있음을 큰 소리로 외쳤다. 다행히 사상자는 없었다. 나는 오늘 사람을 죽일 뻔했다. 8월 5일 기록을 마무리하며 돌아가는 길에는 추적추적 비가 내린다. 트레킹 팀이 다녀온 아르장티에 후기를 듣기도 하고, 이제 원정이 저물어간다는 사실에 다들 아쉬워한다. 내일은 장비를 마저 패킹하고 집에 돌아갈 채비를 한다. 하루 하루는 길었지만 한 주 한 주는 짧았다. 다소 용두사미가 되어버린 듯해 아쉬움이 남는다. 등반 환경이 여의치 않아 다같이 움직이는 일정이 후반부로 들어설수록 줄어들었다. 사람의 기억은 유한하고, 깎여 나가기에 온전히 남을 수 없다. 언젠가 기억이 잘 떠오르지 않을 때가 오더라도, 우리 모두는 낱말과 활자가 되어 이곳에 남아 있을 것이다. 미니인터뷰 | 견연수 원정대장 1 원정을 대비해 특별히 준비한 것은? 처음 해외 원정을 경험하는 재학생들로 구성된 원정대라서, 무엇보다 먼저 팀워크에 중점을 두었습니다. 또 고산 장기 트레킹에 대비해 체계적으로 체력 강화 훈련을 많이 했습니다. 2 다른 원정과 다른 점은? 보통 원정은 뛰어난 경험이 많은 소수 대원들로 구성하거나 학교산악부나 단위산악부 대원들로 구성됩니다. 하지만 이번 원정은 대학산악연맹 50주년을 기념해 각 대학의 젊은 대원들을 선발해 장차 대학산악연맹의 재목으로 성장하는 기회를 마련하고자 했습니다. 그래서 서로의 능력이나 개성을 잘 알지 못하는 상태라 원정 중에 이를 조율하는 데 심혈을 기울였습니다. 또 무엇보다 사고가 나지 않도록 주의했습니다. 3 원정에서 가장 어려웠던 건? 지구온난화 영향으로 유럽 일대가 유례없는 폭염으로 빙하의 소실이 가속화되어 마르몰라다 빙하가 붕괴해 많은 사상자가 발생하기도 해 원정 전부터 긴장했었습니다. 실제로 등반 둘째 날에는 유실되고 불량한 빙하의 상태로 한 대원이 발목이 접질리는 사고가 발생하기도 했습니다. 이때는 정말 과연 우리의 목표를 완수해 낼 수 있을지 두려운 걱정이 앞섰습니다. 4 원정대원들에게 한마디 여러 어려움을 함께 극복하며 훌륭하게 원정을 마친 여러분과 함께하여 행복했고 각자 각 대학산악부는 물론 대학산악연맹에서 더 능력을 키워 선후배와 함께 더 큰 산을 목표로 안전하게 산악 활동을 했으면 좋겠습니다. 월간산 11월호 기사입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1000억원 유상증자...하나카드 98억 투자</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004933078?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 토스뱅크가 출범 후 여섯 번째 유상증자를 진행한다.   토스뱅크는 지난 23일 이사회를 열고 총 1000억원 규모의 유상증자를 추진하기로 결의했다고 24일 밝혔다. 증자 후 토스뱅크의 총 납입 자본금은 1조4500억원으로 늘어난다.   출범 당시 2500억원이었던 자본금 규모는 여섯 차례의 증자 과정에서 11개월 만에 1조2000억원의 신규 자본금을 유치하며 1조4500억원으로 늘었다.   신규 발행하는 주식은 보통주 2000만주다. 주당 발행가는 5000원이다. 증자방식은 제3자 배정으로, 기존, 신규 주주가 증자에 참여했다. 자본금 납입일은 이달 29일이다.   하나금융 계열사 하나카드가 이번 증자를 통해 토스뱅크의 신규 주주가 됐다. 하나카드는 총 195만617주(약 98억원 규모)를 배정받는다. 하나카드는 현재 토스뱅크 체크카드 업무를 대행하고 있다.   토스뱅크의 현재 주요 주주는 비바리퍼블리카, 이랜드월드, 하나은행, 중소기업중앙회, 한화투자증권, SC제일은행 등이다.   토스뱅크 관계자는 "급변하는 글로벌 환경 속에서도 자본 안정성을 강화하고, 더욱 혁신적인 서비스로 고객 경험을 바꿀 수 있도록 동력을 확보해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.11.20.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>연이은 은행권 뱅킹 시스템 장애, 왜?</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002137141?sid=105</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 은행권의 모바일 뱅킹 서비스 장애가 이어지고 있다. 그동안 개별 은행들의 뱅킹 시스템 장애는 종종 있어왔지만 최근 일주일 사이 케이뱅크, 우체국금융, 기업은행 등 3개 은행의 뱅킹 시스템 장애가 일어난 것은 이례적이라는 평가다.지난 17일 인터넷 전문은행 케이뱅크의 모바일 앱이 7시간 동안 장애를 겪었다. 이를 통해 가상자산거래소 업비트 고객들도 일부 장애를 겪어야 했다. 케이뱅크측은 “일부 서버의 저장 장치에 문제가 생기면서 접속 장애가 발생했다”고 밝힌 상태다.앞서 지난 2월 케이뱅크는 상암에 있던 IT센터를 목동에 위치한 KT 인터넷데이터센터(IDC)로 이전했다. 케이뱅크 IT센터가 위치를 옮긴 것은 지난 2017년 4월 설립 이후 처음으로 이번에 문제가 생긴 하드웨어 등을 포함한 이전작업이 이뤄진 바 있다.  18일에는 우정사업본부 우체국금융 스마트뱅킹에서 장애가 발생했다. 이날 오후 2시 30분께 시작된 장애는 19일 자정경에 모든 서비스가 복구됐다. 우정사업본부는 “신속한 복구와 정상 운영을 위해 최대한 노력하고 있다. 시스템을 관리하는 국가정보자원관리원과 원인 분석 및 문제 해결을 위해 가능한 모든 방안을 동원하고 있다”고 밝혔다.19일 오전에는 기업은행 인터넷·모바일 뱅킹 서비스가 약 1시간 가량 멈춰섰다. 이 날 오전 8시부터 오전 9시 15분까지 약 1시간동안 인터넷 뱅킹 사이트, 모바일뱅킹 앱 등의 이용이 어려웠다.  앞서 지난달 25일에는 우리은행의 모바일뱅킹 애플리케이션 ‘우리WON뱅킹’이 오전 한때 접속이 되지 않는 장애가 발생하기도 하는 등 최근 한달 새 연이은 은행권 뱅킹 시스템 장애로 고객들의 원성도 높아지고 있는 상황이다. 금융감독원이 국민의힘 윤창현 의원실에 제출한 국정감사 자료에 따르면 금융권의 전산 장애는 ▲2019년 196건 ▲2020년 198건 ▲지난해 228건으로 매년 늘고 있다.지난 2019년부터 올해 8월까지 최근 4년간 은행권에서 발생한 전산 장애는 은행이 275건으로  케이뱅크의 전산 장애가 34건으로 가장 많았다. 뒤 이어 ▲신한은행(32건) ▲카카오뱅크(27건) ▲산업은행(25건) ▲SC제일은행(23건) ▲토스뱅크(17건) ▲하나은행(16건) ▲KB국민은행(15건) ▲수협은행·▲우리은행(14건)이 뒤를 이었다. 업계에선 은행권의 전산관련 인력 부족과 일부 중요 뱅킹 서비스의 도급 사업이 한 원인일 것으로 보고 있다. 물론 하드웨어 장비 등의 장애도 원인이지만 근본적으로는 금융 시스템 운영 인력의 부족과 이에 따른 전문 인력 확보가 어려워지고 있다는 분석이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>토스, 클릭 한번으로 병원비 실손보험 청구</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005048477?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>토스 운영사인 비바리퍼블리카는 마이데이터가 시행되기 전부터 거의 비슷한 서비스를 제공해왔다. 모든 금융기관에 있는 계좌 잔액과 내역을 조회할 수 있는 '통합 계좌 조회', 내 카드 사용내역을 바탕으로 소비 패턴을 분석해주는 '소비내역 분석' 서비스 등이다. 서비스 운영 노하우와 분석 품질에서 다른 금융사보다 강점이 있다는 평가를 받는다.토스는 사용자가 등록한 공동인증서를 기반으로 스크래핑 기술을 활용해 이러한 정보를 제공했다. 마이데이터를 통해 기술의 근간이 API로 바뀌면서 토스는 더 빠르고 안정적으로 관련 서비스를 선보일 수 있게 됐다.토스 마이데이터 서비스는 다른 서비스보다 직관적으로 쓸 수 있다. 기존에 개선해온 사용자 경험을 그대로 옮겨 시행착오가 적다. 계좌 지출내역, 카드 사용내역을 바탕으로 한 소비 분석은 정기적인 소비처와 주 사용 분야는 물론 이용 중인 카드의 혜택 실적 달성 여부, 예상 지출일 등을 일목요연하게 보여준다. 보험과 연계한 기능도 눈에 띄는 대목이다. 소비내역에서 병원비가 발생하면 클릭 한 번으로 가입한 실손보험 회사에 청구 관련 서류를 보내고 청구내역을 관리할 수 있다. 소비가 많은 분야에서 할인 혜택을 받을 수 있는 결제 수단도 추천받을 수 있다.토스는 최근 '데이터 보호 준법 자문위원회'를 출범시켜 고객의 데이터 보호에 만전을 기하고 있다. 위원회는 토스가 보유한 고객 데이터에 대한 처리가 관련 법령을 잘 준수하고 있는지 독립적으로 확인·감시하며, 안전한 데이터 거버넌스 체계를 구축하기 위한 자문 역할을 수행한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.11.29.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 3세대 웹표준 HTTP/3 도입…“결제 경험 고도화”</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000035178?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>“업계에서 가장 빠르고 안정적인 서비스 제공할 수 있을 것”     토스페이먼츠가 3세대 웹표준 프로토콜인 HTTP/3을 전자지급결제대행업(PG) 업계 최초로 도입했다고 29일 밝혔다. [사진 토스]    토스의 페이테크 계열사 토스페이먼츠가 3세대 웹표준 프로토콜인 HTTP/3을 전자지급결제대행업(PG) 업계 최초로 도입했다고 29일 밝혔다.    HTTP/3은 인터넷에서 정보를 주고받기 위한 3세대 웹 표준 프로토콜이다. 지난 6월 국제인터넷기술위원회(IETF)가 차세대 웹 통신 표준 프로토콜로 제정한 바 있다. 구글, 메타 등 글로벌 빅테크 기업은 이미 HTTP/3을 채택해 서비스를 운영하고 있다.    우선 토스페이먼츠는 가맹점과 일반 사용자의 이용 빈도가 높은 ▶전자 결제 서비스 ▶브랜드페이 ▶상점관리자 ▶전자계약 온보딩 서비스 등에 HTTP/3을 적용했다. 그 외 서비스에 대한 HTTP/3 적용은 순차적으로 완료할 예정이다.    토스페이먼츠에 따르면 이번 HTTP/3 적용으로 업계에서 가장 빠르고 안정적인 서비스를 제공할 수 있을 것으로 기대된다. HTTP/3은 브라우저와 웹서버 간 연결 및 데이터 전송 과정을 효율화해, 웹페이지 데이터가 서비스 사용자에게 도달하는 시간을 줄일 수 있다. 다시 말해 사용자가 경험하는 서비스 로딩 속도를 개선할 수 있다는 것이다.    아울러 토스페이먼츠는 이번 HTTP/3 도입을 비롯해 오픈소스 플랫폼 ‘쿠버네티스’ 도입을 통한 클라우드 네이티브 환경을 구축하고, 글로벌 금융 기업 수준의 데이터센터(IDC)와 클라우드의 유기적 운영 환경 구축 등 기술 개선을 이어가고 있다.    강병훈 토스페이먼츠 최고기술책임자(CTO)는 “토스페이먼츠는 정체된 국내 PG 산업에서 새로운 변화를 만들기 위해 노력하고 있다”며 “더욱 편리하고 안전한 결제 시스템을 구축하기 위해 앞으로도 투자를 지속해 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.11.17.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>'이자 낮은 곳 어디지?'…대환대출 플랫폼 놓고 여전히 밥그릇 싸움</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000311011?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>[앵커] 대출금리가 빠르게 오르다 보니 금리를 어떻게 하면 조금이라도 낮출 수 있을지 고민되시죠? 그러다 보니 핀테크 업체들을 중심으로 대출 금리를 비교해주는 서비스가 늘어나고 있습니다. 이제 관심은 대출 상품을 비교하고 나서 더 나은 상품으로 갈아탈 수 있는 대환대출 플랫폼에 쏠리고 있는데요.금융당국이 내년 5월로 출시 시점을 못 박았지만, 핀테크 업체들과 기존 금융사들 간의 밥그릇을 둘러싼 이해관계는 여전히 첨예한 상황입니다. 이한승 기자, 먼저 대출 금리 비교 서비스를 하는 곳은 어디 어디인가요? [기자] 핀다나 카카오페이, 토스 등이 50~60개 금융사와 제휴해 대출 금리 비교 서비스를 제공하고 있고요.여기에 다음 달 초에는 네이버파이낸셜도 뛰어들 계획입니다. 현재 제휴사들과 협의 중인 상황으로 50여 개 사의 대출 상품을 비교할 수 있게 될 전망입니다. [앵커] 결국은 더 나은 조건의 상품으로 갈아탈 수 있어야 하는데, 대환대출 플랫폼이 내년 5월에 나오는 거죠? [기자] 맞습니다. 금리 비교 서비스를 제공하고 있는 핀테크 업체들은 대환대출 플랫폼 출시를 반기는 분위기이고요.기존 금융사들은 핀테크에 수수료를 갖다 바쳐야 한다며 반발했던 상황이었습니다. 금융당국은 대출을 이동할 수 있는 온라인 시스템을 만들면 각 금융사 별로 금리를 비교하고 대환 할 수 있는 서비스를 만들 것이라며 기존 금융사들도 적극적으로 뛰어들 수밖에 없다는 입장입니다. 하지만 결국 대출 금리를 낮추는 경쟁을 해야 하는 데다 대환대출로 고객을 묶어두기가 힘들어지는 등 기존 금융사들은 우려를 나타내고 있어, 내년 출시까지는 적잖은 진통을 겪을 것으로 예상됩니다. SBS Biz 이한승입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>토스뱅크 1000억원 유상증자…하나카드 신규 주주로 참여</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004779108?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>토스뱅크는 23일 이사회를 열고 총 1000억원 규모 유상증자를 추진하기로 결의했다고 24일 밝혔다. 출범 후 총 여섯 차례에 걸쳐 1조2000억원을 증자한 셈이다. 오는 29일 1000억원이 납입되면 총 1억4500억원의 납입 자본금을 갖추게 된다. 카카오뱅크는 2조3831억원, 케이뱅크는 2조1500억원의 자본금을 갖고 있다. 토스뱅크가 신규로 발행하는 주식은 보통주 2000만 주로, 주당 발행가는 5000원이다. 증자방식은 제3자 배정으로 진행됐다. 기존 주주들과 함께 신규 주주로 하나카드가 참여했다. 기존 주주사인 하나은행에 이어 총 195만617주(약 98억원)를 하나카드가 배정받았다. 현재 토스뱅크의 체크카드(토스뱅크카드) 업무를 대행하며 전략적 파트너로 협업하고 있다. 현재 주요 주주로는 비바리퍼블리카와 이랜드월드, 하나은행, 중소기업중앙회, 한화투자증권, SC제일은행 등이 참여하고 있다. 토스뱅크 관계자는 “중저신용 고객 포용, 사용자 중심의 서비스 혁신 등 시장의 호응 속에 이뤄진 빠른 성장세는 주주사들의 지원이 있었기에 가능했다”며 “자본안정성을 강화하고, 혁신적인 서비스로 고객 경험을 바꿀 수 있도록 동력을 확보해 나갈 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.11.25.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>‘블루 아카이브’, 한국·일본 겜심 동시에 사로잡은 비결은?</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002137581?sid=105</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>[디지털데일리 왕진화 기자] 넥슨게임즈가 개발한 서브컬처 수집형 역할수행게임(RPG) ‘블루 아카이브’가 게임은 물론, 지식재산권(IP)에 기반한 다양한 콘텐츠를 속속 선보이고 있다.   넥슨게임즈는 블루 아카이브가 아트북, 공식 굿즈, 트레이딩 카드 게임(Trading Card Game, TCG), 컬래버레이션 카페 등 활발한 IP 확장으로 한일 양국에서 입지를 굳히고 있다고 25일 밝혔다.  현재 블루 아카이브는 서울 합정과 부산 서면에 컬래버레이션 카페를 운영 중이다. 다음달 25일까지 운영된다. 디저트 및 음료 메뉴는 물론 주요 캐릭터의 공식 일러스트 아크릴 스탠드, 포토카드, 키 홀더, 캔 뱃지, 머그컵 등 다채로운 굿즈가 구비됐다.   두 개 카페는 오픈 첫날, 약 1900명 이상의 팬들이 방문했다. 특히 굿즈 중 블루 아카이브 게임에 등장하는 샬레 오피스와 게임개발부실 배경이 구현된 ▲아크릴 배경 디오라마 2종 ▲무선 충전 스탠드 ▲일러스트 특대형 장패드 2종 등은 카페 오픈 첫날부터 모두 품절될 정도의 인기를 끌었다.    이번 컬래버 카페 업무를 총괄한 애니플러스 MD사업팀 관계자는 “오픈 첫날부터 현재까지도 많은 블루 아카이브 팬 방문이 대거 이어지고 있다”며 “고객 안전과 원활한 이용을 위해 굿즈 구매권 배부, 굿즈샵 조기 오픈을 지속해야 할 정도로 열기가 뜨겁다”고 말했다.  또, 넥슨게임즈는 일본 배급사 ‘요스타’ 및 만화·게임 서적 전문 출판사 ‘이치진샤’와의 협업을 통해 지난달 5일 ‘블루 아카이브 공식 아트북’을 출간한 바 있다. 공식 아트북은 게임 아트북으로는 드물게 출간 직후 이틀 간 일본 아마존 도서 부문에서 베스트셀러 1위를 차지했다. 희망 도서를 의미하는 도서부문 위시리스트(Most Wished For)에서 1위를 차지하기도 했다.   해당 IP를 다양한 방식으로 즐길 수 있는 콘텐츠 및 굿즈 제작도 활발하다. 지난해 5월 게임의 무대가 되는 ‘학원도시 키보토스’에서의 대난동을 주제로 한 공식 코믹스 ‘블루 아카이브 앤솔로지’가 출시됐다. 메신저 라인(LINE)에 캐릭터들을 활용한 다채로운 스탬프(이모티콘 형태, 일본에서만 구매 가능)와 스마트폰 테마도 선보였다.   넥슨게임즈 MX스튜디오 김용하 총괄 PD는 “블루 아카이브가 하나의 훌륭한 IP로 자리잡는 것을 목표로 하고 있다”며 “게임 서비스 및 운영에 최선을 다하는 한편, 더 많은 이용자가 블루 아카이브 IP를 즐길 수 있는 방안을 지속적으로 고민할 것”이라고 말했다.   한편, 모바일 빅데이터 플랫폼 모바일인덱스에 따르면 지난 18일 블루 아카이브는 일본 구글플레이 현지 매출 순위 36위였으나, 현지 업데이트 호응 등으로 오늘(25일) 오후 3시 기준 실시간 매출 9위를 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.11.29.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>은행원 1년 새 4000여명 짐 쌌다...희망퇴직은 현재진행형</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002662364?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>3Q정규직 10만3721명, 전년비 3977명↓영업점 통폐합 가속...농협, 희망퇴직 신호탄서울 시내 한 은행의 창구 ⓒ 연합뉴스[데일리안 = 이호연 기자] 코로나19로 가속화된 비대면 디지털 열풍으로 은행원들이 설 자리가 점저 좁아지고 있다. 최근 1년간 국내 은행의 정규직은 4000여명이 떠난 반면, 비정규직은 약 1500명이 늘었다. 여기에 은행 점포수도 빠르게 감소하면서 내년에도 이같은 추세가 지속될 전망이다.29일 은행연합회의 은행통계정보시스템에 따르면 올해 9월 기준 국내은행(특수은행 포함) 정규직(무기계약직 포함)은 10만3721명으로 전년 동월 대비 3977명이 감소했다. 이에 비해 비정규직은 1만271명으로 같은 기간 1477명이 늘었다. 국내은행의 정규직 감소와 비정규직 증가는 꾸준히 이어져왔다.은행별로는 시중은행에서 이같은 경향이 두드러졌다. 9월 기준 시중은행 정규직은 지난해보다 9월 기준 4272명 줄어든 5만7043명으로 집계됐다. 비정규직은 1290명 늘어난 5955명을 기록했다.지방은행의 경우 9월 기준 정규직은 1만779명, 비정규직은 912명을 기록했다. 각각 지난해보다 정규직은 357명이 줄고, 비정규직은 156명 늘었다. 같은기간 특수은행은 9월 기준 정규직 3만3949명으로 114명 쪼그라들었다. 비정규직은 2명 늘어난 3210명을 차지했다.유일하게 카카오뱅크, 토스뱅크, 케이뱅크 등의 인터넷은행만 9월 기준 정규직은 1950명으로 1년 전보다 766명 늘었다. 비정규직도 29명 늘어난 194명으로 나타났다.국내 은행의 직원수 추이 그래프 (단위 : 명) ⓒ 데일리안 이호연 기자이같은 은행원 정규직 감소는 에견됐던 수순이다. 디지털 전환이 불가피한 상황 속 은행 점포는 점점 사라지고 있기 때문이다. 모바일 앱 뱅킹이 활성화되면서 올해 3분기 말 기준 4대 은행(KB국민, 신한, 하나, 우리)의 은행 점포수는 총 2891로 전년 동기 대비 255개 감소했다. 점포 감소로 현금 자동 입출금기(ATM)도 같은 기간 1533개 급감했다.주요 은행은 내년에도 점포 통폐합에 박차를 가할 예정이다. 우선 KB국민은행이 내년 1월 영업점 40곳을 통폐합한다. 신한은행도 2곳의 통폐합을 예고했다.당장 시중은행은 연말 희망퇴직에 돌입했다. NH농협은행은 지난 18일부터 22일까지 희망퇴직 신청자를 받았으며, 현재 심사중이다. 대상자는 전 직급 10년 이상 근무자 중 만 40세 이상부터 만 56세까지로 특별퇴직금은 월평균 임금의 39개월치까지 지급한다. 최대 28개월치까지 보상했던 지난해보다 보상규모가 확대된 만큼, 올해 퇴직규모도 지난해와 비슷하거나 더 많을 것으로 예상된다.4대 은행은 올해 1월 기준 희망퇴직으로 총 1871명을 내보낸 바 있다. 나머지 은행들도 이르면 다음달부터 희망퇴직을 진행할 것으로 예상된다. 업계는 올해 은행이 역대급 실적을 기록했고, 신규채용도 2500여명으로 사상최대급을 기록한만큼 상당 수준의 은행원들이 은행을 떠날 것으로 보고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.11.26.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>‘금융계 BTS’ 정말 나올까...60년 찬반논쟁 금산분리가 뭐기에 [뉴스 쉽게보기]</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005051152?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>매일경제 '디그(dig)'팀이 연재하는 '뉴스 쉽게보기'는 술술 읽히는 뉴스를 지향합니다. 복잡한 이슈는 정리하고, 어려운 정보는 풀어서 쉽게 전달하겠습니다. 금융위원회 내부. [사진 제공=금융위원회]최근 정부가 ‘금산분리 제도’를 개선하겠다는 뜻을 밝히면서 다시 한번 금융시장이 시끄러워졌어요. 우리나라에 이 제도가 도입된 지는 60년이 넘었는데요. 그동안 제도에 대한 격렬한 찬반 논쟁이 이어져 왔고 법 자체도 여러 차례 수정돼왔죠. 이런 상황에서 정부가 ‘제도를 갈아엎는 방안까지 검토해 보겠다’라고 예고한 거예요. 심지어 정부는 이번 개선을 통해 금융계의 BTS(방탄소년단)를 만들겠다는, 어디서 많이 들어본 듯한 목표까지 제시했죠. 이 소식을 듣고 두 팔 벌려 환영하는 사람들도 있지만 우려를 보내는 이들도 적지 않아요.금산분리에서 ‘금’과 ‘산’은 각각 금융과 산업을 의미해요. 금융은 은행이나 보험사 같은 금융회사들이고, 산업은 제조업이나 서비스업 등 금융 산업을 제외한 모든 산업의 회사들을 뜻하죠. 금산분리는 금융 회사와 그 외 산업군의 회사가 서로의 업종을 소유하는 걸 금지하는 원칙을 가리키는 말이에요. 만약 대기업이 원한다 해도 삼성은행이나 SK은행, LG은행 등이 만들어질 수 없는 것도 금산분리 규제 때문이죠. 금융 산업의 핵심인 은행에 집중한 ‘은산분리’라는 표현도 있어요.둘을 떼어놓을 수밖에 없는 이유그렇다면 왜 은행 같은 금융회사와 일반 회사가 서로 소유하거나 지배하면 안 된다는 걸까요? 대표적인 금융회사인 은행을 예로 들어볼게요. 은행은 금융 시장에서 아주 특별하고 중요한 존재예요. 기업이나 개인 등이 맡긴 돈을 보관해 주잖아요. 그리고 이 돈을 필요로 하는 이들에게 빌려주고요. 돈이 적재적소에 도달할 수 있도록 하는 역할을 하는 거죠. 이 과정에서 은행은 예금자에게 지급해야 하는 이자보다 대출자로부터의 이자를 비싸게 받아 돈을 벌고요.은행은 예금을 받아두기 때문에 많은 돈을 굴려요. 은행 자체의 재산에 비해 훨씬 많은 돈이죠. 그리고 이렇게 많은 돈을 대출해줄지 말지도 결정하고요. 은행은 아무한테나 대출해주지 않아요. 나중에 돈을 갚을만한 능력이 있는 회사, 혹은 개인인지를 꼼꼼하게 따져보죠.이러니 기업들은 은행 눈치를 볼 수밖에 없어요. 기업을 경영하기 위해선 항상 돈이 필요하니까요. 직원들 월급은 당연히 줘야 하고, 갑자기 회사가 경영난을 겪거나 새로운 사업에 투자하기 위해서도 돈이 필수죠. 회사가 벌어들이는 돈으로 이를 충당할 수 있으면 좋겠지만, 부족한 경우도 많고요. 이쯤 되면 큰 기업들 입장에선 ‘수중에 은행 하나를 두면 대출받기가 훨씬 편하지 않을까?’라고 생각할 수도 있는 거죠.만약 실제로 기업 하나가 은행을 직접 차리거나 인수하면 어떻게 될까요? 그러면 이 은행이 굴리는 막대한 돈에 눈이 가겠죠. 압력을 행사해 깐깐한 대출 심사 없이 많은 돈을 빌려 쓸 수도 있고, 다른 계열사에 돈을 빌려주라고 요구할지도 모르는 거예요.물론 이렇게 빌린 돈으로 여기저기 투자하고 사업을 확대해서 성공하면 모두가 행복하겠지만, 만약 실패하면 문제가 생기겠죠. 이 은행을 믿고 많은 돈을 예금한 다른 기업이나 개인은 맡긴 돈을 대부분 잃을 수도 있는 거고요. 내 돈으로 망하면 나만 손해지만, 남의 돈으로 망하면 그 피해가 어디까지 퍼질지 예측하기 힘들어요. 최악의 경우엔 금융시장 전반에 큰 혼란이 퍼질지도 모르는 거죠.반대의 경우도 문제가 생길 수 있어요. 은행이 ‘우리도 다른 사업 좀 해보자’라고 하면서 회사를 하나 차리거나 인수하는 경우예요. 이렇게 되면 아무래도 은행은 기업에 많은 돈을 빌려주고 싶은 유혹을 떨치기가 어렵겠죠. 이 회사가 사업에 실패하면 똑같은 문제가 발생하는 거고요.이런 문제를 방지하기 위한 게 바로 금산분리 제도예요. 우리나라에선 일반 회사가 은행 지분을 4% 넘게 소유하는 게 법으로 금지돼 있어요(일반 회사가 은행 외의 금융사 지분을 보유하는 건 가능해요). 반대로 은행이나 보험사 같은 금융회사는 일반 회사 지분을 15% 넘게 소유할 수 없죠. 또 금융회사는 금융업과 관계없는 사업을 새롭게 시작하는 것도 제한돼요.예외는 없어?일부 예외도 존재해요. 신한은행은 ‘땡겨요’라는 배달 앱을 운영 중이고, KB국민은행은 알뜰폰 사업을 하죠. 하지만 이런 사업들은 정부의 별도 심사를 통과해야만 시작할 수 있어요. 사업을 시작한 뒤에도 2년마다 다시 심사받아야 하고요.금융사가 비금융 사업에 진출하는 건 제약이 많지만, 반대로 비금융 기업이 은행업에 진출할 수 있는 길은 최근에 크게 확대됐어요. 특히 정보기술(IT) 기업들이 연달아 은행 사업을 시작했죠. 카카오뱅크나 토스뱅크가 대표적인 사례예요. 결정적인 계기는 2019년 ‘인터넷 전문은행 특별법’의 시행인데요. 이 법은 오프라인 점포 없이 온라인으로만 영업하는 인터넷 전문은행에 한해서는 일반 기업도 최대 34%까지 지분을 보유할 수 있도록 허용한다는 내용을 담고 있죠. 34%면 경영권을 확보하기엔 충분한 수준이에요. 실제 카카오뱅크의 최대 주주는 카카오고, 토스뱅크의 최대 주주는 토스를 운영하는 비바리퍼블리카예요.이러니 은행들은 불만이 쌓일 수밖에 없는 거예요. 일반 기업들이 인터넷 전문은행을 만드는 건 허용됐는데, 은행이 다른 사업에 진출하는 데엔 제약이 많으니까요. 은행 외의 금융회사들도 다양한 사업에 진출하고 싶어 하고요. 또 한국의 금산분리 제도는 다른 나라에 비해 규제 강도가 높은 것으로 알려져 있거든요.창의력 한번 발휘해봐!결국 정부는 이런 불만을 받아들여 규제를 좀 풀어주겠다고 결심한 거예요. 은행 같은 금융회사가 다른 산업에 진출하도록 허용해 줄 테니, 한번 창의력을 발휘해서 혁신적인 서비스를 내놓아 보라고 기회를 준 거죠. 요즘 전 세계적으로 IT와 금융 서비스를 결합한 회사들이 빠르게 성장하면서 주목받고 있기도 하고요. 김주현 금융위원장이 지난 14일 오전 서울 중구 명동 은행회관에서 열린 제4차 금융규제혁신회의에서 모두발언을 하고 있다. [사진 제공=금융위원회]지난 7월에 취임한 김주현 금융위원장은 취임 직후부터 금산분리 규제를 풀겠다는 계획을 밝혔어요. 요즘 높으신 분들의 단골 멘트인 ‘○○계의 BTS를 만들겠다’도 빠지지 않았는데요. 그는 “금융규제 혁신의 목표는 우리 금융산업에서도 BTS와 같이 글로벌 금융시장을 선도하는 플레이어가 출현할 수 있도록 새로운 장을 조성하는 것”이라고 말하면서 금산분리 규제 완화를 가장 중요한 과제로 꼽았죠.그럼 이제 ‘삼성은행’ 생길 수도 있는 거야?그건 아니에요. 이번에 정부가 언급한 제도 개선은 금융회사가 다른 산업으로 진출하는 걸 좀 풀어주겠다는 뜻이거든요. 은행 등 금융회사가 비금융회사의 주식을 15% 넘게 보유하는 걸 허용하고, 다른 사업에 진출하는 것도 보다 용이해지도록 만든다는 거죠. 일반 기업이 인터넷전문은행이 아닌 일반 은행 지분을 4% 초과해 보유하는 건 앞으로도 계속 금지될 것으로 보여요. 금산분리이래도 괜찮은 거야?정부 발표를 보고 우려를 보내는 사람들도 많아요. 앞서 말한 문제점들에 더해, 은행의 규모가 커지면서 새로운 위험 요소도 추가됐다는 주장이죠. 은행이 굴리는 돈이 증가하면서 은행이 돈을 빌려준 기업의 숫자도 늘어났거든요. 은행이 대출 심사를 하면서 기업들의 다양한 정보를 취득했을 텐데, 이런 은행이 특정 회사의 소유가 되면 공정한 경쟁을 해칠 수 있다는 지적이에요. 또 대형 금융회사들이 무분별하게 사업을 확장하면서 골목상권을 침해할지도 모른다는 우려도 나와요. 막대한 돈을 굴리는 은행이 마음먹고 사업을 확장하면 경쟁사들이 견제하기가 쉽지는 않을 테니까요.다만 정부는 이미 안전장치가 충분히 만들어졌기 때문에 괜찮다는 입장이에요. 은행이나 보험회사가 특정 회사에 과도하게 자금을 지원하는 걸 금지하는 법이 만들어졌거든요. 또 모든 규제를 다 풀어주지 않을 수도 있대요. 정부가 제시한 개선 방안은 세 가지예요.현행 금산분리 규제는 ‘금융 회사와 비금융 회사가 서로의 업종을 소유하는 걸 금지한다’는 원칙 아래 일부 사항만 허용하는 포지티브(Positive) 규제인데요. 첫 번째 방안은 이 원칙을 유지하면서 허용되는 사항만 늘려주는 방법이에요. 다만 원칙적으로 모든 걸 허용하면서 일부 사항만 금지하는 네거티브(Negative) 규제로 바꾸는 것도 검토 중이래요. 사안별로 이 둘을 적당히 섞는 방법도 있고요.정부는 이해당사자들의 의견을 폭넓게 들어보고, 여러 부처가 모이는 회의를 거쳐 내년 초에 개선 방안을 확정한다는 계획인데요. 과연 60년 된 ‘뜨거운 감자’ 금산분리 제도를 모두가 만족하는 방향으로 개선할 수 있을지 지켜봐야겠네요.&lt;뉴미디어팀 디그(dig)&gt;[뉴스 쉽게보기]는 매일경제 뉴미디어팀 '디그(dig)'의 주말 연재물입니다. 디그가 만든 무료 뉴스레터를 구독하시면 술술 읽히는 다른 이야기들을 월·수·금 아침 이메일로 받아보실 수 있습니다. '매일경제 뉴스레터'를 검색하고, 정성껏 쓴 디그의 편지들을 만나보세요. 아래 주소로 접속하셔도 구독 페이지로 연결됩니다.https://www.mk.co.kr/newsletter/</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.11.30.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>39개월치 급여 주고 내보내는 이유 있었네…'인당 생산성 2억6500만원' 흔들리는 은행원</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002072345?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>은행권 인력 감축 지속정규직원 1년 새 4300명 줄여인뱅은 500명 증가시중은행, IT 인력 모집 애쓰지만“기존 은행권은 매력 없다”인뱅에 쏠리는 인재에 골머리한 시중은행의 대면 영업 창구 풍경.[연합][헤럴드경제=김광우 기자] 비대면 전환이 본격화되면서 기존 은행권과 인터넷은행의 희비가 엇갈리고 있다. 시중은행들은 점포 수 감소와 함께 대면 영업에 할애됐던 고정지출을 줄이려 인력 긴축에 애쓰고 있다. 반면 디지털에 특화된 인터넷은행은 출범 이후 계속해서 세를 불리는 중이다. 최근에는 금융권 모두가 눈독 들이는 정보기술(IT) 인력의 선호가 인터넷은행으로 집중되는 현상이 심화하며 시중은행들의 고심이 깊어지고 있다.1년 새 4300명 시중은행 떠나…인터넷은행은 인력 34% 보충30일 은행연합회에 따르면 올해 3분기 말 국내 시중은행의 정규직원 수는 5만7000여명으로 지난해 동기(6만1300명) 대비 4300명가량 줄어드는 등 감소 추세가 지속되고 있다. 심지어 2020년 3분기(6만3400명)에서 지난해 3분기까지 약 2100여명이 빠져나간 것과 비교했을 때 인력 감소세는 더 커졌다.이러한 추세는 은행들의 영업 환경이 변화한 탓이다. 코로나19 이후 비대면 전환의 필요성을 체감한 은행들은 꾸준히 점포 수를 줄이고, 비대면 서비스 영역을 키우고 있다. 이에 대면 서비스 인력의 인건비 부담이 커진 은행들이 대응에 나선 것이다. 실제 올해 9월 말 기준 국내 시중은행의 영업점포 수는 3111개로, 2년 전 동기(3659) 대비 약 600개 이상 감소했다.은행권의 고질병인 ‘항아리형’ 인력구조도 한몫했다. 책임자급이 많은 항아리형 구조는 높은 직급과 연차에 지불하는 인건비 비중이 큰 탓에 주된 비용증가 요인으로 꼽힌다. 은행들이 희망퇴직의 보상을 강화하는 등 자발적 퇴사의 조건을 확대해 인력구조 개편에 나선 이유다.지난해 5대 시중은행에서 희망퇴직을 한 직원은 총 2092명으로 전년 대비 약 300여명이 늘었다. 올해 가장 먼저 희망퇴직 신청을 받은 NH농협은행의 경우 희망퇴직 보상 규모로 최대 39개월 치 급여를 내걸며 지난해(최대 28개월 치)에 비해 보상 규모를 키우기도 했다. 나머지 시중은행들 또한 올해 말이나 내년 초에 희망퇴직을 실시할 것으로 예상되며, 보상 규모에 관심이 주목된다.한 시중은행의 대면 영업 창구 풍경.[연합]이에 희망퇴직은 점차 확대될 것으로 보이지만, 이 또한 긍정적인 신호만은 아니다. 한 시중은행 관계자는 “이전에 비해 희망퇴직의 조건이 좋아졌고, 이에 대한 수요가 늘고 있는 것도 사실”이라면서도 “인력 개편의 목적이 있지만 은행에 중요한 역할을 하는 인재들이 빠져나가는 경우도 있어, 은행에 마냥 좋은 현상이라고 볼 수는 없다”고 말했다.인력 관리에 골머리를 앓는 시중은행과는 달리, 인터넷은행은 규모를 점차 늘리고 있다. 올해 3분기 말 국내 인터넷은행의 정규직원 수는 1950명으로 지난해 말(1454명)보다 약 34%(496명)가량 상승해 꾸준히 늘어나는 추세다.이는 5년 전 처음 출범한 인터넷은행이 서비스와 사업체의 규모를 계속 키우고 있는 영향이 크다. 또 대면 영업을 하지 않는 인터넷은행의 특성상, 비대면 전환에 따른 생산성 악화를 고민할 상황도 아니다. 실제 지난해 카카오뱅크의 직원 1인당 생산성은 약 3억5000만원으로 4대 은행(KB국민·신한·하나·우리) 평균(2억6500만원)에 비해 약 30% 높은 것으로 집계됐다.“기존 은행은 매력 없다”…시중은행, IT 인재 구하기도 ‘하늘의 별 따기’[게티이미지뱅크]신규 인력 확충에도 희비가 엇갈린다. 최근 은행권 채용 시장은 금융권의 비대면 전환에 발맞춰 IT 인력 중심으로 재편되고 있다. 시중은행들도 IT 인력 확보에 심혈을 기울이고 있다. 그러나 금융권을 지망하는 IT 인력들의 선호는 여전히 인터넷은행이나 핀테크로 쏠리는 경향이 크다.가장 큰 요인은 디지털 인력을 중심으로 조직이 구성된 인터넷은행이나 핀테크와는 달리, 기존 금융권에서의 디지털 인력은 시스템 관리 등 부수적인 업무에 머무르는 경우가 많은 탓이다. 물론 시중은행들 또한 최근 비대면 전환 사업을 추진하며 디지털 업무 영역을 넓히고 있다. 그러나 대면 영업을 중심으로 짜인 조직 특성상, 업무 자유도나 직무역량 개발 등의 매력 요인이 뒤처진다는 게 업계의 평이다.한 시중은행의 IT담당 직원은 “인원이나 역량이 부족하다 보니 당장 은행들의 개발 업무와 관련해서도 주요한 부분은 외주를 주는 경우가 많은데, 신입사원들이 어떤 역량을 키울 수 있겠나”라며 “조직의 관점 자체가 IT로 돌아가느냐 마느냐는 생각보다 큰 문제”라고 말했다.실제 강민국 국민의힘 의원이 금융감독원에서 받은 자료에 따르면 올해 8월 말 기준 4대 은행의 IT 인력 총합은 4493명으로 전체의 8.2%에 불과했다. 반면 같은 기간 인터넷은행 3사(케이뱅크·카카오뱅크·토스뱅크)의 IT 인력 비중은 34.4%(734명)로 시중은행에 비해 약 4배 이상 높은 것으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.11.18.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>[단독] '산 넘어 산'…개방형 결제 시스템 '오픈페이' 명칭 못 쓴다</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000311212?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>[앵커] 카드업계는 신한카드 앱에서 국민카드를 쓸 수 있도록 하는 서비스, 이른바 오픈페이를 1년 넘게 준비하고 있습니다. 네이버나 카카오 등 빅테크에 대응하기 위해 그만큼 공을 들이고 있는 건데요.그런데 그동안 대내외적으로 사용해 왔던 이 오픈페이라는 명칭을 공식적으로 쓰지 못하게 됐습니다. 류정현 기자가 단독 취재했습니다. [기자] 지난해 4월부터 카드업계는 하나의 카드사 앱에서 여러 카드사의 신용카드를 쓸 수 있도록 하는 개방형 결제 시스템을 추진해 왔습니다. 삼성 페이는 물론이고 카카오페이, 토스 등 결제시장을 잠식해 오는 빅테크에 대항하기 위해서입니다. 이 서비스는 대내외적으로 '오픈페이'라고 불려 왔는데, 여신협회가 출시를 코앞에 두고 새 이름 찾기에 나섰습니다. [카드업계 관계자: 이름(네이밍)을 오픈페이로 그냥 썼었는데 이번에 이름은 종합적으로 바꾼다고 얘기하더라고요. 일단은 통합 명칭을 뭐로 할지는 같이 정하자고는 의견을 맞춘 것 같아요.]확인 결과 채용정보 제공회사 사람인 HR이 지난 2020년 상표등록을 마쳐 이 명칭을 쓸 수 없게 됐기 때문입니다. 오픈페이는 사업 초기 일부 카드사가 참여하지 않아 반쪽짜리라는 비판을 받아왔습니다. 이후에는 서비스 출시 시기를 조율하는 과정에서 우여곡절을 겪고 있는데 익숙하게 불리던 이름마저 쓰지 못하게 됐습니다. 이제 막 브랜딩 업체 선정에 들어간 만큼 새로운 명칭이 정해지기 전에 서비스가 출시될 가능성도 있습니다. [이명천 중앙대 광고홍보학과 교수: 오픈페이라는 공동 브랜드가 이미 상당 부분 알려졌다는 거죠. 그걸 포기하고 새로운 브랜드를 채택해야 되게 되면 머릿속에 자리 잡힐 때까지 어려움이 있고. (다만) 좋은 대안을 찾을 수 있다고 그러면 하나의 기회가 될 수도 있죠.]이에 대해 여신금융협회는 "본래 오픈페이를 공식 이름으로 정한 건 아니"라며 "이름 없이 나오더라도 서비스 이용에 불편은 없을 것"이라고 설명했습니다. SBS Biz 류정현입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.11.17.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>대출금리 8% 임박…더 뜨거워질 ‘대출비교 삼국지’ [고금리 시대 빛나는 대출비교 서비스①]</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000034457?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>기준금리 3% 시대, 주담대는 8% 가까워져토스·카카오페이·핀다, 1년 새 대출금액 5배 ↑12월, 네이버파이낸셜도 신용대출비교 오픈내년 5월 개시, 온라인 대환대출 서비스도 기대     토스, 카카오페이, 핀다 CI. [각 사]    10년 만에 기준금리 3% 시대에 진입하면서 서민들의 이자 부담이 늘고 있다. 이에 여러 대출상품 금리와 한도를 한 번에 비교할 수 있는 대출비교 서비스에 관심이 쏠린다. 특히 ‘3대장’이라 불리는 ‘토카핀(토스·카카오페이·핀다)’이 치열하게 경쟁을 벌이며 대출 수요자들을 끌어모으고 있다.    17일 은행권에 따르면 국내 시중은행들은 지난 15일 은행연합회가 공시한 10월 코픽스(COFIX) 상승분(0.58%포인트)을 반영해 변동형 주택담보대출금리를 일제히 높였다. KB국민·신한·하나·우리·NH농협은행 등 5대 은행의 주택담보대출 변동금리는 5.09~7.71%에서 5.26~7.77%로 올라섰다. 하단금리는 5%를 크게 넘어섰고, 상단금리도 8%에 한 발짝 가까워진 상황이다.    앞으로도 대출금리는 더 오를 전망이다. 최근 미국 연방준비제도(Fed·연준)의 ‘자이언트스텝(기준금리 0.75%p 인상)’으로 오는 24일 한국은행 금융통화위원회의 기준금리 인상이 유력하기 때문이다. 이미 한은은 올해 열린 여섯 차례 금통위에서 기준금리를 연속으로 인상해, 연초 1%에서 현재 3%까지 끌어올렸다. 기준금리 3%대는 지난 2012년 이후 처음 진입이다.    이처럼 차주들의 이자 부담 증가가 확실시되는 가운데 여러 금융사의 대출상품이 한눈에 비교 가능한 대출비교 서비스가 주목된다. 과거엔 대출모집인은 1개 금융사 상품만 팔아야 한다는 ‘1사 전속주의’ 규제가 있었다. 하지만 2019년 금융위원회의 혁신금융서비스로 지정되면서 대출비교 시장의 활로가 열렸다.          현재 대출비교 시장은 토스, 카카오페이, 핀다의 3파전 양상을 띠고 있다. 윤창현 국민의힘 의원실 자료에 따르면, 2021년 1~7월 신규 취급액 기준 대출비교 서비스를 통해 실행된 저축은행 10개사(애큐온·SBI·유진·모아·페퍼·상상인·한국투자·KB·웰컴·OK저축은행)의 신용대출 가운데 토스의 비중이 43.2%로 가장 많았다. 카카오페이(35.7%)와 핀다(17.8%)가 뒤를 이었다. 업계에선 전체 대출비교 시장에서도 3사 점유율이 이와 유사한 수준인 것으로 보고 있다.    이들 3사의 대출 중개실적 또한 눈에 띄게 성장하고 있다. 김한규 더불어민주당 의원실 자료에 따르면 2020년 토카핀 3사의 금융상품 중개건수는 17만2842건에서 2021년 80만9687건으로 크게 늘었다. 1년 만에 4.6배나 증가한 것이다. 올해 상반기는 이미 71만2454건을 기록해 지난해 규모를 훌쩍 뛰어넘을 것으로 예상된다.          대출금액도 급격히 증가했다. 토스의 대출액은 2020년 1조7949억원에서 2021년 5조2557억원으로 약 3배 증가했다. 카카오페이도 같은 기간 1조709억원에서 4조9535억원으로 크게 늘었다. 핀다는 3사 가운데 가장 크게 성장했다. 3854억원 수준에 불과했던 대출금액은 지난해 2조4599억원으로 6.3배 넘게 성장했다. 올 상반기까지만 토카핀의 대출금액은 9조9951억원으로, 올해는 지난해 전체 금액인 12조6691억원을 크게 웃돌 것으로 보인다.      한 대출비교 플랫폼 관계자는 “지난해 가계대출 총량 규제 실시 이후 대출비교 서비스 수요가 크게 늘었다”며 “올해 3분기 한도조회 건수만 해도 전년 동기보다 3배 가까이 늘어나는 등 앞으로도 비교 플랫폼 고객은 증가할 것”이라고 전망했다.    이같이 대출비교 서비스 수요 증가가 예상되는 가운데, 플랫폼 간 경쟁은 더욱 치열해질 전망이다. 또 다른 빅테크인 네이버가 이 시장에 곧 참전하기 때문이다. 네이버파이낸셜은 ‘네이버페이(N Pay) 신용대출비교’ 서비스를 12월 초 출시 예정이다.    네이버파이낸셜에 따르면 출시 시점부터 1·2금융권을 망라한 50여개 금융사의 신용대출을 비교하는 게 목표다. 이는 토카핀이 각각 54·56·62개 금융사의 상품을 선보이고 있는 것과 비슷한 수준이다.           ━          대출비교, 대환대출 플랫폼으로 진화한다      대출비교 서비스는 ‘비교’에서만 멈추지 않을 전망이다. 더 금리가 낮은 곳으로 대출을 갈아타는 ‘대환’ 대출 서비스의 본격적인 개시가 예고돼 있어서다.      대환대출 개념도. [사진 금융위원회]    금융위는 지난 14일 금융소비자의 이자부담 경감을 지원하기 위해 온라인·원스톱 대환대출을 위한 인프라 구축을 추진한다고 밝혔다. 이전에는 대환대출 시 고객이 직접 영업점을 찾아야 하는 번거로움이 있었지만, 앞으로는 플랫폼에서 한번에 비대면으로 진행할 수 있게 되는 셈이다. 전 업권 실무자 회의, 시스템 개발, 통합 테스트 등 구축을 거쳐 2023년 5월 시스템 운영을 시작한다는 목표다.    대출비교 플랫폼들도 고객층을 확장할 수 있어 환영하는 분위기다. 이혜민 핀다 대표는 “온라인 대환대출에 필요한 인프라는 이미 다 갖추고 있다”며 “금융당국에 대환대출 인프라 관련 의견을 적극적으로 낼 예정이다”고 말했다.    김재우·조아해 삼성증권 애널리스트는 “정부 주도의 대환대출 인프라 구축을 통해 온라인상에서 원스톱으로 대환대출이 가능하게 된다면, 대출비교 플랫폼이 대상으로 하는 시장이 가계대출 잔액 전체로 확대될 수 있다”고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>[미리보는 이데일리 신문]급변하는 디지털 세상, 우영우처럼 상상하라</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005368950?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>[이데일리 배진솔 기자] 다음은 16일자 이데일리 신문 주요 뉴스다. △1면- 급변하는 디지털 세상, 우영우처럼 상상하라 -  상장사 5곳 중 1곳 적자 ‘버팀목’ 반도체도 위태 - 둔촌주공 분양가 3.3㎡당 3829만원- 신평사, 롯데그룹 신용등급 전망 줄하향△아르테미스 1호 로켓 발사 성공 - 달 탐사 26일 여정 시작…이번엔 마네킹, 2년 뒤엔 사람이 직접 간다 - “‘대항해시대’처럼 우주질서 재편 시작 韓, 새 흐름 대비해야”- 국가 주도 ‘아폴로 계획’과 달라…민간 주도 우주경제시대 준비 △순방 마친 尹대통령 과제는- 美 주도 국제질서에 합류 선언…中과의 디커플링 가속화 우려는 커져 - “미·일·중·아세안과 안전·미래먹거리 치열하게 협의”- 전용기 탑승 불허, 순방 중 취재 제한…언론과는 잇단 잡음△종합- 이재용·최태원·정의선 등 재계총수와 차담회…‘네옴시티’ 추가 수주 주목- 코스피 상장사, 누적매출액 25% 늘고 순익 12% 줄어- “수험표·신분증·마스크 챙기고 개인샤프·연습장은 사용 못해요”- 수익성 우려에…신평사들 롯데케미칼 신용도에 경고△5대 그룹 정기인사 임박- ‘신상필벌’ 원칙 ‘미래지향’ 방점…재계 ‘3고 태풍’ 속 기회 찾는다- “고환율·돈맥경화 심화…최악 대비하라” 기업들 시나리오별 비상계획 수립 전력△종합- “원재료값 10% 넘으면 사업자간 협의해 단가 연동”…예외 폭넓게 인정- 차주 1년에 4번까지 대출환승 가능할 듯 - 둔촌주공 높은 분양가에 대출도 안돼 흥행여부 주목- 이사·상속 일시적 2주택자, 종부세 납부연기 가능△이데일리 IT컨버전스포럼 2022- “완성도 높은 K콘텐츠와 OTT 기술 결합…지속가능 비즈니스 만들어야”- “이제 데이터는 구글·애플 아닌 내 것…웹3시대 성큼”- 토스·티맵·카페24 “혁신 서비스 중심엔 소비자”△이데일리 IT컨버전스포럼 2022- “플랫폼 독과점 규제 성급…글로벌 기업 국내 진출 돕는 결과 만들 수도” - “인터넷의 다음 모습은 메타버스”- 생중계 열공 후끈…김영식·박운규 “디지털 기업 적극 지원”△정치- ‘이태원 참사’ 후속대책 마련 나선 여야…방향은 달랐다- 견제장치 없는 ‘이재명의 민주당’- 여야, 넉달 만에 기재위 소위 구성…세법 심사 속도- 함정 ‘감항인증제’ 도입 놓고…조선업계 “국방품질연구원은 안된다”- 여야, 연금개혁 속도…민간자문위 본격 가동△경제- 대우조선 파업 불법행위 수사 이달 마무리…노란봉투법 입법에 영향 주나 - “FTX 파산 탓…비트코인 1.3만달러까지 추락할 것”- 산업부, 새만금 풍력발전사업 양수 허가 철회…경찰수사 의뢰 △금융- “은행보다 2%p 더 싸네” 고금리 피난처 된 인뱅- 전세대출 금리도 8%대 넘봐- 내부출신 여성임원 단 2명…은행 ‘유리천장’ 여전- 한화생명 “내년 4월 예정대로 콜옵션 이행”△글로벌 - 폴란드에 떨어진 미사일…美 “우크라發 요격 미사일인 듯”- 美 소비자 이어 생산자물가 둔화, 12월 연준 ‘빅스텝’으로 힘 실려- 트럼프 대선 재출마 선언…“모든 정책, 美 최우선할 것”- “亞 의존도 ↓”…애플, 美공장서 반도체 받기로 △산업- 김윤 회장 ‘13년’ 뚝심 투자 결실…‘화이트 바이오’ 리더 도약 발판 놨다 - 대한항공-아시아나 합병 난기류…美, 기업결합 추가 심사키로- “초거대 AI ‘믿음’ 상용화, 세계 경제 흐름 바꿀 것”- 금호타이어, 통상임금 소송 일부 패소…경총 “산업계 혼란 우려”△제약·바이오- 에스티팜, 내성없고 완치 가능한 에이즈치료제 속도낸다 - 국내 최대 게놈파운드리 마크로젠, 세종에 짓는다- 3년 안에 동물진단 ‘글로벌 톱3’ 자신- 세계 최초로 ‘자연·백신’ 코로나 항체 동시 판별△증권- 4분기에도 실적 먹구름…연말선물 될 종목 있을까- “풀릴 물량 너무 많다” KB제20호스팩 합병상장 빨간불- 달러로는 반토막…달달한 환차익에 삼전 사는 외인들 - 신한證 VVIP 서비스 강화, 청담금융센터 확장 이전 - 한전 적자, 민간발전사에 불똥…SK·GS 주가 날개 꺾이나△부동산- 7개월 만에 나온 서울 분양인데 경쟁률 ‘한자릿수’- 재건축 이주 끝나자…과천 전셋값도 꺾였다- “계약금 500만원, 중도금 무이자…혜택 드릴게 제발 청약해주세요”- 한남뉴타운 마지막 퍼즐 ‘4구역’ 정비계획 통과△엔터테인먼트- 신곡 내고, 콘서트 열고…팬덤 다지는 트롯★들- 류준열 ‘외계+인’ 실패 딛고 유해진과 ‘흥행 3연타’ 칠까- 산골 접수한 술도녀들△이데일리가 만났습니다 - “美中 반도체전쟁 격화될수록 한-대만 협력해 목소리 키워야”- “반도체는 국가의 수호신 대만, 온갖 지원책 쏟아내”△피플- ‘그래미 세번째 도전’ BTS “영광이고, 감사하다”- 현대차그룹 ‘산업안전상생재단’ 본격 운영- “국내외 원전 프로젝트 가시화…미리 준비해야”- 이한준 LH사장 “공공주택 품질 개선해야”- 이성희 농협회장 “디지털농업 혁신 지원체계 확충”△오피니언- 예능이 조명한 지역소멸, 정부가 응답할 차례- 호미로 막을 걸 가래로 막는 레고랜드 사태- 이예림 ‘모두들 안녕하신가요’ △전국- “글로벌 자족도시 도약 위한 초석 다지겠다”- 충청, 세계대학경기대회 준비 속도전- ‘5호선 연장’ 얻어낸 김포, 건설폐기물처리장 가져가나△사회- “보고 못받아” “몰랐다”…눈물 흘리며 항변한 이임재·류미진- 오세훈 “핼러윈 대책 주도면밀하지 못했다”- 야당 “정진상 물증 없이 억지 수사”…패 못 보여준다는 검찰- 세월호 보고시간 조작 김기춘 파기환송심서 무죄- ‘이춘재 누명 20년 옥살이’ 윤성여 씨에 국가 18억 배상</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.11.30.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>토스뱅크, 3분기 476억원 순손실…충당금 적립전 이익은 첫 흑자</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005185136?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>적자 폭 2분기 보다 줄여인터넷 전문은행 토스뱅크가 3분기 순손실이 476억원을 기록하며 적자폭을 전분기(-589억원)보다 113억원 줄였다고 30일 밝혔다. 3분기 충당금 적립 전 이익은 185억원으로 첫 흑자를 냈다. 작년 10월 창사 이래 처음으로 흑자를 낸 것이다. 3분기까지 누적 순손실은 1719억원으로, 이 가운데 충당금 전입액이 1334억원으로 약 80%를 차지했다. 3분기 말 고객 수는 476만명이며, 10월 말 기준으로는 504만명으로 증가했다.9월 말 기준 여신 잔액은 7조1000억원을 기록하며 전 분기(4조3000억원)보다 약 66% 성장했다. 수신 잔액은 23조1445억원이다. 예금 잔액 대비 대출 잔액 비율을 뜻하는 예대율은 29.57%로 집계됐다. 2분기(15.62%)보다 두 배 가까이 상승한 수치다.명목순이자마진(NIM)은 3분기 0.54%로 나타나, 2분기(0.12%)보다 4.5배 상승했다. 3분기 국제결제은행(BIS) 자본 비율은 11.35%를 기록했다.토스뱅크 관계자는 "3분기 중저신용자 가계 대출 비중 39%, 최근 1금융권 은행 중 최초로 40% 돌파하며 소외되어 왔던 ‘건전한 중저신용자’ 포용에 나섰다"며 "순수수료손익은 409억원 적자였지만, 모든 수수료는 토스뱅크가 부담하겠다는 고객과의 약속을 지켜가고 있다"고 했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.11.16~2022.11.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.11.16~2022.11.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.11.25.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>'FTX 파산 촉발' 바이낸스 "업계 후폭풍 막고자 10억$ 기금 조성"</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004822141?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>/사진=세계 최대 암호화폐 거래소 바이낸스 블로그세계 최대 가상자산(암호화폐) 거래소인 바이낸스가 'FTX 파산사태'로 위기에 빠진 암호화폐 업계를 구하기 위한 해결사로 나선다.24일(현지시간) 블룸버그통신·CNBC 등 주요 외신에 따르면 바이낸스는 자사 블로그를 통해 세계 3대 암호화폐 거래소 중 하나인 FTX의 파산사태에 따른 업계 후폭풍을 막고자 10억 달러(약 1조3310억원)의 산업 복구 기금(IRI·Industry Recovery Initiative)을 조성한다고 밝혔다. 필요하면 특정 시점에 기금의 규모를 20억 달러까지 늘린다는 방침이다.자오창펑 바이낸스 최고경영자(CEO)는 기금 조성 계획이 공식 발표되기 전 블룸버그TV에 출연해 이를 먼저 알리며 해당 기금이 '투자 자금'이 아니라는 점을 강조했다. 그는 지난 14일 FTX 파산 관련 "일부 연쇄적인 영향이 있을 것"이라며 위기에 직면한 업계를 돕고자 산업 회복 기금을 설립할 것이라고 밝힌 바 있다.자오 CEO는 "FTX 파산에 따른 업계 후폭풍을 억제하는 것이 이번 기금 조성의 목표"라며 "다양한 업계 관계자들이 원하는 대로 기여할 수 있는 느슨한 접근 방식으로 가고 있다"고 말했다. 바이낸스도 블로그에 올린 공지에서 "IRI는 투자펀드가 아니다"라고 강조하며 "자신이 잘못해서가 아니라 중대한 단기적 재정적 어려움에 직면한 기업과 프로젝트를 지원하기 위한 것"이라고 설명했다. 이어 이 기금이 향후 6개월가량 지속할 것으로 예상한다며 추가 자금 조성을 위한 투자자 신청받고 있다고 덧붙였다.  150개 기업이 이미 IRI 지원을 요청했다. 바이낸스는 현재 암호화폐 트레이닝업체 점프크립토를 비롯해 브루커그룹(태국 상장 금융 컨설팅업체), 앱토스랩스(블록체인 스타트업), 애니모카 브랜드(블록체인 플랫폼 업체), GSR(암호화폐 등급업체), 크로노스(대만 금융 리서치업체), 폴리곤 벤처스 등으로부터 5000만 달러 규모의 초기 약정 자금을 확보한 상태다. 시장은 바이낸스의 기금 조성 발표에 큰 반응을 보이지 않고 있다. 코인데스크에 따르면 한국 기준 25일 오전 7시 현재 비트코인 가격은 24시간 거래 대비 0.35% 소폭 오른 1만6534.30달러에서 거래되고 있다. 비트코인은 앞서 FTX 악재에 심리적 지지선인 1만6000달러 아래로 떨어졌다. JP모건은 FTX 사태로 비트코인 가격이 1만3000달러까지 추락할 수 있다고 경고했다. 비트코인 지지자인 '부자 아빠 가난한 아빠' 저자 로버트 기요사키는 1만 달러까지 빠질 것으로 봤다.한편 FTX 파산사태는 바이낸스가 유동성 위기에 직면한 FTX를 인수하겠다고 밝힌 지 하루 만에 인수 계획을 철수하면서 불거졌다. 바이낸스의 인수 철회 발표 후 비트코인 등 암호화폐 가격은 급락했고, FTX는 미법원에 파산보호를 신청했다. 이 여파로 FTX에 투자하거나 거래했던 제네시스 트레이딩, 블록파이 등 암호화폐 대출업체와 거래소 등이 자금 인출과 거래 등을 중단하며 파산과 대규모 해고를 준비하는 등 암호화폐 업계의 연쇄 파산 우려가 커졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.11.25.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>금리 여기가 더 싼데?…대세는 비교서비스 [슬기로운 금융생활]</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001067951?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>예적금·대출 비교서비스 시장 확대  내년 대환대출·보험비교서비스도 오픈A은행에서 연 7% 금리로 대출 받았는데…B은행에서는 연 6%?금융권에서 일명 '호구'가 사라질 전망입니다. 비싼 이자 내면서 돈 빌렸던 대출자들, 혹은 이자 찔끔 받으며 돈 맡겼던 예금자들 모두 이제는 다른 금융기관과 '한 눈에 상품 비교'가 가능해졌기 때문입니다. 이전처럼 발품 팔던 시대는 지났습니다. 금융권 대세로 떠오른 비교서비스, 어떤 서비스들이 있는 지 슬기로운 금융생활에서 짚어봤습니다.◆ 1%p라도 더 받아야 이득기준금리 인상으로 갑작스레 고금리 시대를 맞이한 금융소비자들. 연 1%대에 불과했던 예금금리는 연 6%를 뚫었습니다. 제2금융권인 저축은행에서는 연 7%에 달하는 예금상품도 쏟아지고 있고, 각종 조건을 맞추면 연 10% 짜리 적금에도 가입이 가능해졌습니다.다양한 상품들이 쏟아지고 있지만 가장 높은 금리의 상품에 돈을 맡기려면 비교는 필수. 과거 금융사 창구에 직접 방문해야 하는 수고는 사라졌습니다. 각종 플랫폼 서비스를 통해 예적금 비교가 가능해졌기 때문입니다. 실제 카카오페이의 경우 예적금 비교서비스를 운영 중인데, 예시금액을 입력하면 추후 이자까지 만기 후 받을 수 있는 금액을 알려주는 것은 물론 가장 높은 금리를 주는 곳이 어디인지도 안내해줍니다.그렇다면 그 동안 왜 이런 편리한 비교서비스가 불가능했던 걸까요? 그 동안은 금융소비자보호법에 따라 다른 금융사의 예금성 상품을 비교, 추천하거나 두 곳 이상 금융사의 같은 종류의 상품을 중개할 수 없는 '1사 전속의무'가 있었습니다.하지만 금융위원회는 최근 혁신금융서비스를 통해 온라인 예금상품 중개업이 가능하도록 규제를 완화했습니다. 최근 열린 정례회의에서 깃플과 네이버파이낸셜, 뱅크샐러드, 비바리퍼블리카, 신한은행, 엔에이치앤페이코, 줌인터넷, 핀크 등 8개사도 온라인 예적금 비교 플랫폼 사업자로 지정된 만큼 금융소비자들은 더 많은 곳에서 예금상품을 간편하게 비교·가입할 수 있게 될 전망입니다.◆ 대출도 창구 아닌 '온라인'에서 비교하고 받는다예적금만큼이나 가계에 영향을 주는 것, 바로 대출입니다. 다만 대출은 예금과 달리 개개인의 신용점수나 재산규모에 따라 대출조건이 달라지죠. 때문에 금융사들은 마이데이터를 활용해 개인별 맞춤 대출서비스를 제공하기 위한 시스템 구축이 한창입니다.이 같은 서비스의 발전이 지속되면서, 핀다와 핀크 등 온라인 사업자를 비롯해 토스, 네이버파이낸셜 등 빅테크도 대출금리 비교서비스 시장에 뛰어들었습니다. 네이버파이낸셜이 최근 시작한 '네이버페이 사업자 대출비교' 서비스는 은행부터 저축은행, 캐피탈 등 다양한 금융사의 사업자 신용대출 금리와 한도를 비교하고 금융소비자가 비대면 채널에서 가장 유리한 조건으로 대출을 받을 수 있도록 연결해줍니다.핀테크사인 뱅크샐러드도 마이데이터를 기반으로 한 주택담보대출 비교서비스를 출시했죠. 자체 구축한 상품추천 알고리즘을 적용해 개인 고객에게 최적화된 주택담보대출 금리와 상품을 제공하는 방식입니다. 웰컴저축은행도 마이데이터를 기반으로 맞춤대출 서비스를 출시하기도 했습니다. 다만 이런 서비스들은 일종의 플랫폼 형식이라 얼마나 많은 금융사들과 제휴를 맺느냐가 맞춤·비교서비스의 정확도를 좌우합니다.대출 비교서비스가 활성화되자 정부도 나섰습니다. 금융위원회는 서민들의 이자부담을 줄여주는 '온라인 대환대출 서비스' 시스템 구축을 추진 중입니다. 이미 대출을 받은 금융소비자들이 보다 싼 대출로 간편하게 갈아탈 수 있도록 서비스를 구축, 내년 5월 오픈을 목표로 하고 있습니다.◆ 보험비교서비스 시장 커진다예금과 대출상품 외에 비교가 가능한 상품이 또 있죠, 바로 보험입니다. 다만 보험은 상품 구조가 복잡하고 가입자의 성별이나 나이에 따라 보험료가 천차만별이라 단순비교가 불가능합니다.때문에 보험사들은 가입자별 데이터를 기반으로 맞춤 상품을 추천해주는 서비스를 속속 운영 중인데, 이런 서비스는 플랫폼사인 네이버나 카카오를 통해서도 가능해질 전망입니다. 최근 금융당국이 혁신금융서비스의 일환으로 빅테크의 보험비교추천서비스를 허용해줬기 때문입니다.다만 실제 서비스 개시까지는 시일이 걸릴 것으로 보입니다. 보험업계에는 설계사라는 거대한 판매채널 조직이 있죠. 빅테크의 보험비교추천서비스가 가능해질 경우 설계사를 통한 보험가입은 줄어들 수밖에 없기 때문에 설계사채널의 반대가 만만치 않습니다. 하지만 이미 금융서비스의 비대면화는 빠른 속도로 진행되고 있는 상황. 보험료가 비싸고 장기인 경우를 제외하곤 온라인 비교를 통해 간편하게 보험에 가입하려는 수요 역시 더 늘어날 것으로 전망됩니다.★ 슬기로운 TIP이것저것 서비스 가입하기 귀찮은데, 예적금과 대출, 보험까지 모든 금융상품에 대한 비교를 한 번에 할 수 있는 곳은 없을까요? 금융감독원은 금융상품통합 공시시스템인 '금융상품 한눈에'를 운영 중입니다. 정기예금과 적금, 주택담보대출과 전세자금대출, 개인신용대출을 비롯해 연금저축과 실손의료보험, 자동차보험 상품 비교가 가능합니다. 다만 금감원 사이트의 정보는 금융회사가 각 금융협회에 제출한 공시자료를 기초로 제공되고 있는 만큼 공시주기에 따라 최신정보를 반영하지 못 하는 경우도 있습니다. 사이트에서와 달리 실제 가입 시 상품별 이자율 등 거래조건이 수시로 변경될 수 있기 때문에 '참고용'으로만 활용하는 방안을 추천합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.11.30.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>토스뱅크, 3분기 적자폭 개선에 충당금적립전이익은 '첫 흑자전환'</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003945418?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>토스뱅크는 올 3분기 당기순손실이 전분기(589억원) 대비 113억원 줄어든 476억원을 기록했다고 30일 밝혔다.1분기 당기순손실(654억원) 대비 2분기(589억원) 개선 치 65억원과 비교해 실적이 1.7배 이상 개선된 셈이다. 충당금적립전이익은 3분기 185억원 흑자로 창사 이래 첫 턴어라운드에 성공했다.  3분기 누적 당기순손실(1719억원)에서 충당금전입액(1334억원)이 차지하는 비중은 약 80%를 차지했다.여신잔액은 9월 말 기준 7조1000억원으로 전 분기(4조3000억원)보다 66% 성장했다. 예대율(예금 잔액 대비 대출 잔액 비율)은 29.57%로, 2분기(15.62%) 대비 두 배 가까이 뛰었다.명목순이자마진(NIM)은 3분기 0.54%로 2분기 0.12% 대비 4.5배 상승했다. 3분기 BIS자기자본비율은 11.35%로 2분기 10.52% 대비 0.83% 증가했다.3분기 말 고객 수는 476만명으로, 10월 말 기준 504만명으로 나타났다. 토스뱅크 관계자는 "녹록치 않은 대외환경에도 불구하고 500만 고객과 주주들의 성원으로 출범 1년여만에 유의미한 성과를 만들 수 있었다"며 "앞으로도 고객 중심의 혁신과 중저신용자 포용에 더욱 박차를 가하며, 모두를 위한 제1금융권 은행으로서의 신뢰를 쌓아나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>토스뱅크 1천억 유상증자…자본금 1조4500억 확보</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002660997?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>ⓒ토스뱅크[데일리안 = 부광우 기자] 토스뱅크가 출범 후 여섯 번째 유상증자를 진행한다. 토스뱅크는 지난 23일 이사회를 열고 총 1000억원 규모의 유상증자를 추진하기로 결의했다고 24일 밝혔다.증자 후 토스뱅크의 총 납입 자본금은 1조4500억원으로 늘어난다. 그만큼 자본안정성이 한층 강화된다는 의미다. 출범 당시 2500억원이었던 자본금 규모는 여섯 차례의 증자 과정에서 11개월 만에 1조2000억원의 신규 자본금을 확충하는 결과로 이어졌다. 토스뱅크는 출범 당시 5년간 1조원의 추가 증자 계획을 밝힌 바 있지만, 빠른 여수신 성장세와 함께 적기 자본 확충을 이어오고 있다.신규 발행하는 주식은 보통주 2000만주다. 주당 발행가는 5000원이다. 증자방식은 제3자 배정으로, 기존, 신규 주주가 증자에 참여했다. 자본금 납입일은 이번 달 29일이다.토스뱅크는 이번 증자를 통해 하나카드를 신규 주주로 맞이했다. 총 195만617주(약 98억원 규모)를 배정받는 하나카드는 토스뱅크의 기존 주주사인 하나은행이 속한 하나금융그룹의 계열사다. 현재 토스뱅크의 체크카드 업무를 대행하며 전략적 파트너로도 협업하고 있으며, 향후 카드 비즈니스 등 다양한 사업 전략을 발굴할 예정이다.유력 금융기관인 하나카드를 주주로 맞이하며 토스뱅크는 보다 안정적인 성장의 발판을 마련한 상황이다. 현재 주요 주주로는 비바리퍼블리카, 이랜드월드, 하나은행, 중소기업중앙회, 한화투자증권, SC제일은행 등이 참여하고 있으며 토스뱅크의 성장세를 이어가기 위해 긴밀한 협력을 이어오고 있다.토스뱅크 관계자는 "중저신용 고객 포용, 사용자 중심의 서비스 혁신 등 시장의 호응 속에 이뤄진 빠른 성장세는 주주사들의 높은 관심과 지원이 있었기에 가능했음을 잘 알고 있다"며 "급변하는 글로벌 환경 속에서도 자본안정성을 강화하고, 보다 혁신적인 서비스로 고객 경험을 바꿀 수 있도록 동력을 확보해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.11.30.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>카카오·네이버, 내년부터 간편결제 수수료 공시… ‘총 수수료’ 공개 가닥</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000858888?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>간편결제 수수료 투명성 제고 기대금융감독원 전경        윤석열 정부의 국정과제인 카카오페이, 네이버파이낸셜 등 빅테크의 간편결제 수수료 공시가 내년부터 추진된다. 전자금융업자들이 우려했던 세부 수수료를 공개하는 대신 전체 결제 수수료만 공개하는 방식으로 진행된다.30일 금융감독원에 따르면 감독당국은 내년 2월부터 전금업자가 각사 홈페이지에 간편결제 수수료율을 매반기 공시하도록 행정지도를 예고했다.결제 수수료율 공시는 영세·중소·일반기업별로 카드 결제 수수료율과 선불전자지급수단 결제 수수료율로 나뉘어 표시한다. 전금업자는 계약 상대방으로부터 실제 수취한 수수료를 기준으로 결제 수수료율을 공시해야 한다. 결제 수수료는 결제 서비스와 직접 관련된 수수료다. 신용카드사 등 결제원천사 및 상위 PG사에 대외 지급하는 수수료, 전금업자가 결제업무 등의 수행에 따른 비용 및 마진 등의 명목으로 직접 수취하는 수수료 등을 포함한다.전금업자는 결제 수수료율을 공시하기 전 자료의 정확성 및 적정성 등에 대해 회계법인의 확인을 거쳐야 한다.공시 대상 업체는 월평균 거래금액 1000억원 이상인 전금업자다. 카카오페이와 네이버파이낸셜, 비바리퍼블리카(토스) 등의 업체가 수수료 공시 대상이 된다.금감원 관계자는 “올해 하반기 결제 수수료에 대해 내년 2월부터 공시를 해야 한다”며 “다음 달 중순까지 업체들의 의견을 수렴할 예정이지만, 큰 틀은 이번에 행정지도한 내용을 유지할 것”이라고 설명했다.금감원은 빅테크 등 전금업자가 카드사에 비해 높은 간편결제 수수료를 수취하며 폭리를 취한다는 지적에 따라 간편결제 수수료 공시를 추진했다. 카드결제 수수료는 여신전문금융업법에 따라 정해지지만, 간편결제 수수료는 업체 간 협의에 따라 자율적으로 정할 수 있기 때문이다.금감원과 전금업자는 지난 5월부터 간편결제 수수료 공시를 위한 태스크포스(TF)를 운영하며 공시 운영 방안을 논의해왔다. 금감원은 당초 간편결제 수수료 공시를 통해 전금업자의 결제 수수료와 기타 수수료를 세부 공개하는 방안을 추진했다. 이 과정에서 전금업자들은 세부적으로 수수료를 공개하게 되면 PG사별로 다르게 책정된 수수료를 공개할 수밖에 없어 사실상 ‘영업비밀’인 원가를 공개하는 것과 다름없다고 반발했다. 결국 금감원은 세부 수수료를 공개하는 대신 전체 수수료를 공시하는 방안으로 선회하게 됐다. 금감원 관계자는 “업계의 반발이 있어 총 수수료만 공개하는 방안을 채택했다”고 설명했다.수수료 공시 제도가 시행되면 전금업자의 수수료 부과 과정의 투명성을 제고할 수 있어 전금업자가 과도하게 수수료를 수취하는 부분이 줄어들 것으로 보인다. 또, 다른 전금업자와 직접적인 수수료 비교가 가능해 자율적인 수수료 인하 효과도 있을 것으로 전망된다.금감원 관계자는 “전금업자가 전자지급결제 서비스 등의 대가로 수취하는 수수료의 구분 관리 및 공시에 대한 기준을 제시해 수수료 부과의 투명성을 제고하고 자율규제 체계를 확립할 수 있을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.11.29.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>투자 혹한기…전열 재정비하는 플랫폼</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004127983?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>3분기 벤처 투자 1년새 40% 급감요기요, 쿠팡 출신 책임자들 영입에이블리도 IB 출신에 '러브콜'번개장터는 '경영 전문가' 대표 영입[서울경제] 투자 혹한기에 들어간 플랫폼 업계가 ‘살아 남기’에 필요한 인재 모시기에 나섰다. 메쉬코리아가 법인 회생을 신청하고, SSG닷컴과 컬리 등이 사실상 기업공개(IPO)를 늦추는 등 플랫폼 업계의 경영 환경이 악화되자 경영 효율성을 제고할 투자은행 업계는 물론 경쟁사 출신까지 전략적으로 영입하며 전열 재정비에 돌입했다.이상민 에이블리 투자 총괄/사진 제공=에이블리코퍼레이션29일 업계에 따르면 에이블리, 위메프, 요기요 등은 최근 잇따라 외부 인사를 대거 영입하며 새 판 짜기에 들어갔다. 우선 지난달부터 시리즈C 투자 유치를 진행 중인 패션 플랫폼 에이블리는 지난 28일 투자 전략실을 신설했다. 매년 거래액이 증가하고는 있지만, 적자가 계속되는 상황에서 적극적인 투자 유치가 필요하다는 판단 때문으로 풀이된다. 해당 부서를 전담하는 총괄 리더로는 뱅크오브아메리카(BofA) 메릴린치 출신의 이상민 실장을 영입했다. 에이블리는 이를 통해 글로벌 투자를 본격화하고, 중장기 성장 전략을 수립한다는 계획이다.스티브 조 요기요 최고 마케팅 책임자(CMO)/사진 제공=요기요음식 배달 플랫폼 업계 점유율 2위인 요기요도 올해 C 레벨 인사를 대거 영입하며 전략 수립에 나섰다. 요기요는 지난 4월 민지영 최고제품책임자(CPO)를 시작으로 7월 전준희 최고기술책임자(CTO)를 영입했다. 또 지난달에는 장수백 최고정보책임자(CIO) 겸 최고보안책임자(CSO)와 스티브 조 최고마케팅책임자(CMO)을 잇달아 영입했다. 이들 모두 쿠팡에서 근무한 이력이 있다는 점을 미뤄볼 때 퀵커머스(즉시배송) 서비스 ‘요마트’ 등에서의 빠른 배송 경쟁력을 강화하는 데에 집중할 것으로 보인다.위메프도 C 레벨 인사를 잇달아 영입하며 근본적인 체질 개선에 돌입했다. 위메프는 지난 8월 애플 출신의 이진호 박사를 최고 기술책임자(CTO)로 영입한 데 이어 지난달 말 김동민 전 토스 증권 창립 멤버를 최고제품책임자(CPO)로 선임했다.강승현 번개장터 공동 대표/사진 제공=번개장터중고거래 플랫폼도 경영진의 전문성을 강화하고 있다. 우선 번개장터는 지난달 말 프랙시스캐피탈파트너스 강승현 전무를 공동대표로 선임했다. 경영 분석 및 전략 전문가로 꼽히는 강 신임 대표는 최재화 현 대표이사가 함께 조직을 이끌면서 경영 효율성을 높인다는 계획이다. 당근마켓도 지난 24일 황도연 사업 부문 총괄 부사장을 대표로 신규 선임했다. 당근마켓은 김용현·황도연 각자 대표 체제로 재편되며, 김재현 전 대표는 최고전략책임자(CSO)로 직책을 전환해 당근마켓의 장기 비전과 미래 전략 방향을 설계하는 데 주력한다.탄탄한 모회사가 있는 경우에는 실탄 마련에 집중하고 있다. 네이버 손자회사 크림은 이달 초 모회사 네이버의 500억 원 직접 투자를 포함해 알토스벤처스, 미래에셋캐피탈 등으로부터 1700억 원을 유치했다. 크림은 이를 기반으로 한정판 리셀 플랫폼에서의 선두 지위를 공고히 하는 한편 글로벌 진출에 속도를 낸다는 전략이다.플랫폼 업계가 잇달아 외부 인재를 영입하고 재정비에 나선 이유는 올해 하반기에 이어 내년에도 업계에 투자 한파가 불 것으로 전망되기 때문이다. 중소벤처기업부에 따르면 올해 3분기 벤처 투자 규모는 1조 2525억 원으로, 전년 동기 대비 40%가량 줄었다. 내년에도 상황이 나아지긴 어려울 것으로 보인다. 벤처 펀드에 정부가 출자하는 모태펀드 예산도 줄어들 예정이기 때문이다. 실제로 이같은 투자 혹한기에 간판급 플랫폼들의 어려움도 커지고 있다. 메쉬코리아는 자금난에 결국 지난 25일 법원에 법정관리를 신청했다. 오늘회도 지난 9월 서비스를 중단하고 전 직원에게 권고사직을 단행했다. 현재 일부 서비스를 재개했지만 핵심인 수산물은 하고 있지 않다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.11.26.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>인뱅3사, 중저신용대출 끌어올리기…목표 달성 '눈앞'</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005183175?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 3사가 연말을 앞두고 중저신용자 대출 비중 올리기에 박차를 가하고 있다.26일 금융권에 따르면 3분기 중저신용자 대상 신용대출 비중이 일제히 상승해 연말 목표치 달성이 눈앞이다.  은행연합회가 공시한 각 인터넷전문은행의 '중저신용자 대상 신용대출 비중(잔액 기준)'을 살펴보면 9월 말 기준 카카오뱅크는 23.2%, 케이뱅크는 24.7%, 토스뱅크는 39%였다.지난 6월 말과 비교하면 카카오뱅크는 1.0%포인트, 케이뱅크는 0.7%포인트, 토스뱅크는 2.7%포인트 늘었다.올해 말까지 각 인터넷전문은행이 설정한 비중 목표치는 카카오뱅크·케이뱅크가 25%, 토스뱅크는 42%였다. 지난해의 경우 인터넷전문은행들은 당초 정한 목표한 수준에 도달하지 못하면서 체면을 구겼다. 카카오뱅크가 2017년 7월 출범 이후 지난달까지 중저신용 고객에게 공급한 무보증 신용대출 규모는 6조6245억원에 달했다.지난달 말 기준 무보증 중저신용대출 잔액은 3조789억원으로, 이날 기준 중저신용자 대출비중은 24%를 넘어섰다.카카오뱅크가 올해 1월부터 10월까지 중저신용 고객에게 공급한 무보증 신용대출 규모는 2조1147억원으로, 전년 연간 공급한 1조7000억원을 이미 넘어섰다.케이뱅크는 3분기 누적 중저신용자 대상 대출 규모가 1조5992억원이라고 밝혔다. 이는 지난해 전체 케이뱅크 중저신용 대출 규모 7510억원의 두 배를 웃도는 수준이다.토스뱅크는 출범 이후 최근까지 중저신용 고객을 위한 가계대출을 2조7000억원 규모로 공급했다. 지난 19일 기준으로는 중저신용자 대출 비중이 40.1%를 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.11.29.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>토스페이먼츠 "PG업계 최초 3세대 웹표준 HTTP/3 도입"</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013611371?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>토스페이먼츠 로고[토스페이먼츠 제공. 재판매 및 DB 금지](서울=연합뉴스) 임성호 기자 = 모바일 금융 서비스 토스의 페이테크(결제기술) 계열사 토스페이먼츠는 3세대 웹표준 프로토콜인 HTTP/3을 PG(전자결제지급대행) 업계 최초로 도입했다고 29일 밝혔다.    HTTP/3은 인터넷에서 정보를 주고받기 위한 3세대 웹표준 프로토콜이다. 지난 6월 국제인터넷기술위원회(IETF)가 차세대 웹 통신 표준 프로토콜로 제정한 바 있으며, 구글, 메타 등 글로벌 빅테크 기업이 이를 채택했다.    토스페이먼츠는 우선 가맹점과 일반 사용자의 이용 빈도가 높은 전자 결제 서비스 브랜드 페이, 상점 관리자, 전자계약 온보딩 서비스 등에 HTTP/3을 적용했다. 다른 서비스에도 HTTP/3을 차차 적용할 예정이다.    토스페이먼츠는 이번 HTTP/3 적용으로 로딩 시간을 줄여 빠르고 안정적인 서비스를 제공할 수 있을 것으로 기대하고 있다.    강병훈 토스페이먼츠 최고기술책임자(CTO)는 "토스페이먼츠는 정체된 국내 PG 산업에서 새로운 변화를 만들기 위한 노력을 이어 나가고 있다"면서 "한국의 첫 페이테크 기업으로서 더욱 편리하고 안전한 결제 시스템을 구축하기 위해 투자를 지속해 나가겠다"고 말했다.    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.11.25.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>3분기 인터넷은행 중저신용 대출 비중↑…토스뱅크 40% 육박</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001067930?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>카카오· 케이·토스뱅크 등 인터넷전문은행 3사의 3분기 중저신용자 대상 신용대출 비중이 일제히 상승하며 연말 목표치 달성이 임박한 것으로 나타났다.25일 은행연합회가 공시한 각 인터넷전문은행의 '중저신용자 대상 신용대출 비중(잔액 기준)'을 살펴보면 9월 말 기준 카카오뱅크[323410]는 23.2%, 케이뱅크는 24.7%, 토스뱅크는 39.0%로 집계됐다.지난 6월 말과 비교하면 카카오뱅크는 1.0%포인트(p), 케이뱅크는 0.7%p, 토스뱅크는 2.7%p 비중이 확대됐다.올해 말까지 각 인터넷 은행이 설정한 비중 목표치는 카카오·케이뱅크가 25%, 토스뱅크는 42%였는데, 3사 모두 이 수치에 근접한 것이다.카카오뱅크가 올해 들어 지난달까지 무보증 신용대출 규모는 2조1천147억 원으로, 작년 한 해 동안 공급한 1조7천억원을 이미 넘어섰다.이에 따라 지난달 말 기준 무보증 중저신용대출 잔액은 3조789억 원으로, 현재 기준 중저신용자 대출비중은 24%를 넘어섰다.케이뱅크는 올해 3분기까지 중저신용 대출을 1조6천억원 공급했다고 밝혔다.이는 지난해 1년간 공급한 대출 규모(7천510억원)의 2배가 넘는 수치다.3분기 기준으로는 5천502억원의 중저신용 대출을 새로 공급했다.토스뱅크는 출범 이후 최근까지 중저신용 고객을 위한 가계대출을 2조7천억원(잔액 기준) 규모로 공급했다.이에 따라 이달 19일 기준으로는 중저신용자 대출 비중이 40.1%를 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>엔픽셀, 레이어1 블록체인 앱토스와 메타픽셀 구축한다</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/356/0000057119?sid=004</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>▲ 메타픽셀과 앱토스 파트너십 체결 대표 이미지 (사진제공: 엔픽셀)엔픽셀은 16일, 자사 웹 3.0 기반 메타버스 플랫폼 메타픽셀 구축을 위해 레이어1 블록체인 앱토스(Aptos)와 파트너십을 체결했다.앱토스는 프로그래밍 언어 무브(Move)를 활용한 레이어1(Layer1) 블록체인으로, 지난 10월 메인넷을 열었다. 엔픽셀은 앱토스 최초로 게임 부문 파트너십을 맺고, 메타픽셀 생태계를 다각도로 구축한다. 고정환 엔픽셀 메타본부장은 "메타픽셀은 블록체인 기술을 통해 자산을 소유하고 나누며 함께 가치를 키울 수 있는 웹 3.0 생태계"라며 "앱토스 블록체인이 가진 강점을 기반으로 자사가 지향하는 메타픽셀을 완성해 나갈 것"이라고 전했다. 한편, 엔픽셀은 2017년 9월 설립한 게임 개발사로 첫 게임 그랑사가에 이어 차기작 크로노 오디세이를 개발 중이다. 아울러 작년부터 블록체인과 게임간 결합 등 신사업 발굴을 위해 전담 조직 메타본부를 운영 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.11.18.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>[증권사 2022년 3분기 실적] ② 수탁수수료 수익 38% 감소...토스證 vs 카카오證 ‘눈길’</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002290811?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>증시 호황기 대비 거래대금 1/3토막... 올 1월 대비 37.6%↓토스證 3분기 첫 흑자 vs 카카오證 적자 지속... 토스 1년 새 11배 급증키움證 리테일 강자 굳건...안정적 수익원 확보      증시 거래대금이 코로나19 팬데믹 이전 수준으로 급감하면서 증권사들의 위탁매매(브로커리지) 수익도 줄었다. 반면 핀테크 증권사인 토스증권은 해외주식 수수료 급증에 따라 가파른 성장세를 보였다.   18일 금융투자협회 전자공시시스템에 따르면 12월 결산법인 52개 증권사의 별도재무제표 기준 3분기 누적 수탁수수료 수익은 3조9096억원으로 전년 동기(6조3097억원) 대비 38% 감소했다.   인플레이션과 글로벌 경기침체 우려 등에 따른 투자심리 위축이 위탁매매 수익 악화로 직결됐다. 지난달 증시 일평균 거래대금은 12조8910억원으로 증시 호황이 한창이던 지난해 1월(42조1073억원) 대비 1/3토막 났다. 올해 1월(20조6542억원) 대비로도 37.6% 줄었다.   수탁수수료 수익이 전년 대비 증가한 증권사는 제이피모간증권, 토스증권 두 곳뿐이다. 핀테크 증권사인 토스증권과 카카오페이증권의 엇갈린 성적표가 눈길을 끈다. 토스증권은 3분기 순이익 21억원으로 첫 흑자를 달성했지만 카카오페이증권은 120억원의 순손실을 기록했다. 양사의 3분기 누적 순손실은 각각 147억원, 359억원이다.   토스증권의 수탁수수료 수익은 25억8000만원에서 320억5000만원으로 1년 새 11배 급증했다. 분기별로도 1분기 55억원, 2분기 119억원, 3분기 146억원으로 지속 성장했다.   지난해 12월 선보인 해외주식 서비스가 매출의 30%를 차지하며 호실적을 이끌었다. 해외주식 거래대금은 1분기 6조2000억원, 2분기 10조6000억원, 3분기 13조5000억원으로 지속 성장 중이다. 국내주식 거래대금 감소 영향을 해외주식 서비스의 고성장으로 극복하는 모양새다. 토스증권은 연말까지 해외주식 브로커 및 환전은행 이중화를 마무리할 계획이다.   반면 카카오페이증권은 18억5000만원에서 16억6000만원으로 10.1% 줄어든 모습이다. 4월 MTS를 정식 출시한 카카오페이증권은 3분기에 14억6000만원의 수탁수수료 수익을 올렸다.   정태준 유안타증권 연구원은 “국내증시 거래대금 감소 이상으로 위탁매매 수수료수익이 급감했다”며 “저조한 성적은 채널 경쟁력에 대한 의구심을 가지게 하는 대목이다. 브로커리지 시장에서의 도태를 막을 조치가 필요하다”고 분석했다.   다만 지난 9월 선보인 ‘신용거래융자 서비스’가 향후 실적 개선을 이끌지 주목된다. 신용공여는 자기자본의 100% 이내에서 제공할 수 있다. 정 연구원은 “카카오페이증권은 토스증권보다 이익 체력이 더 낮고 판관비는 더 많이 지출하기 때문에 흑자전환을 위해서는 더 많은 자본 확충이 필요하다”고 밝혔다.   한편, 1위 키움증권은 수탁수수료 수익(5020억원)이 전년 대비 26.7% 감소하며 비교적 선방했다. 세부적으로는 코스닥(1271억원), 국내파생상품(426억원), 해외파생상품(1109억원) 시장에서 가장 많은 수탁수수료 수익을 올렸다. 3분기 누적 국내주식 리테일 시장점유율은 30.1%로 업계 1위다.   윤유동 NH투자증권 연구원은 “대형사 중 부동산 익스포저(노출액)가 가장 적고 브로커리지에 특화된 사업구조로 타사 대비 안정적인 수익원을 확보하고 있다”며 “4분기에도 국내 일평균 거래대금이 소폭 감소하겠지만 해외주식/파생상품 점유율이 여전히 1위인 만큼 국내 감익을 일부 상쇄할 것으로 보인다”고 전망했다.   미래에셋증권(4062억원)의 수탁수수료 수익은 전년 대비 36.6% 감소했으나 순위는 한 계단 올라섰다. 해외주식(1190억원) 시장에서는 선두를 차지했고 코스피(1514억원) 시장에서도 두 번째로 많은 수익을 올렸다.   KB증권(3387억원)은 전년 대비 39.6% 줄어든 수익을 올리며 3위를 차지했다. 코스피(1607억원) 시장에서 가장 많은 수익을 올렸으며 코스닥(1156억원) 시장에서도 키움증권에 이은 2위다.   삼성증권은 수탁수수료 수익이 6480억원에서 3365억원으로 48.1% 급감했다. 올해 2월 미국주식 주간거래 서비스를 최초로 선보인 삼성증권은 해외주식(898억원) 시장에서 세 번째로 많은 수익을 올렸다.    NH투자증권(3206억원)은 수탁수수료 수익이 44.6% 감소했다. 코스피시장에서는 KB증권, 미래에셋증권에 이어 3위(1402억원)다.    한국투자증권(2624억원)과 신한투자증권(2444억원)은 국내파생상품 시장에서, 교보증권(1021억원)과 이베스트투자증권(676억원)은 해외파생상품 시장에서 키움증권 다음으로 많은 수익을 올렸다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>토스뱅크, 중저신용자 대출 비중 40% 넘어</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004777457?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>은행권 처음…대출 잔액 2.7조자체 신용평가모형 적극 활용토스뱅크의 가계대출 중 중저신용자 비중이 40%를 넘어섰다. 은행권 가운데 중저신용자 비중이 40%를 넘은 것은 토스뱅크가 처음이다.토스뱅크는 가계대출의 중저신용자(KCB 850점 이하) 대출 잔액이 지난 19일 기준 2조7000억원을 기록했다고 21일 밝혔다. 지난 6월(1조3338억원) 대비 두 배 이상으로 늘었다. 중저신용자 대출 비중은 전체 가계대출의 40.1%로 나타났다.중저신용자 1인당 평균 대출액은 3006만원으로 집계됐다. 토스뱅크는 “‘매달 내는 돈 낮추기’ 서비스로 차주 1인당 원리금 상환액이 평균 35만원 줄었다”고 설명했다. 매달 내는 돈 낮추기는 상환 기간을 최장 10년으로 연장해 이자 부담을 낮추는 프로그램이다.기업대출은 중저신용자 잔액 비중이 19일 기준 48.3%로 가계대출보다 높게 나타났다. 신용평가가 어려운 운수업 등의 프리랜서 취약계층이 중저신용자로 분류되면서 대출이 가능해진 덕분이다.지난달 말 기준 고정이하여신 비율은 0.32%로 4대 시중은행 평균 수준으로 나타났다. 자체 신용평가모형(CSS)을 활용해 건전한 중저신용자를 적극 발굴한 게 주효했다는 설명이다. 토스뱅크는 중저신용 고객 4명 중 1명 이상(25.7%)을 고신용자로 재평가했다. 신용점수 475점(과거 KCB 기준 8등급)인 이들에게도 대출이 이뤄졌고 이들은 성실 상환 등으로 신용점수를 올릴 수 있었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.11.22.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>현직 여성 CEO의 조언 "남성 중심 기업 문화 속에서 여성 연대 길러라"</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/310/0000101782?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>'경기도 여성기업가에게 힘을 싣다' 포럼 22일 개최고혜미 10koco 대표 "2030 여성, 커리어 포기 말라"김소연 세이브어스랩 대표 "발로 뛰며 사업 확장해라"유지은 딱따구리 대표 "비유 맞추지 말고 '나의 길' 가라"22일 경기도 수원시 이비스 앰버서더 수원에서 아시아재단이 \'경기도 여성기업가에세 힘을 싣다\' 토론회를 개최했다. ⓒ홍수형 기자현직 여성기업가들은 예비 여성기업가들에게 자신의 커리어를 소중하게 여기고 끊임없이 도전하라고 조언했다. 특히 남성 중심의 기업 문화 속에서 자신을 굽히지 말라며 여성 연대를 강조했다.아시아재단·경기도일자리재단·자기주도적여성기업가협회는 22일 경기도 이비스 앰배서더 수원 호텔에서 '경기도 여성기업가에게 힘을 싣다' 포럼을 열었다.첫 번째 세션에선 고혜미 10koco 대표·김소연 세이브어스랩 대표·유지은 딱따구리 대표가 참석해 여성기업가들의 애로사항을 나눴다.'10koco' 고혜미 대표 "남편을 육아휴직 시켜서라도 당신의 커리어를 이어가라"22일 경기도 수원시 이비스 앰버서더 수원에서 아시아재단이 개최한 \'경기도 여성기업가에세 힘을 싣다\' 토론회에서 고혜미 10koco대표가 발언을 하고 있다. ⓒ홍수형 기자고혜미 대표의 '10koco'(텐코코)는 화장품 상품 기획, 패키지 디자인, 제작까지 원스톱 솔루션을 제공하는 화장품 브랜딩 회사다.고 대표는 창업 계기로 "대단한 목적이 있어서 이 자리에 나온 것이 아니라 공감을 주기 위해 나왔다"며 "저는 아이를 낳고 출산과 육아 때문에 경력이 단절이 된 사람"이라고 소개했다. 그러면서 "취업할 때마다 '나이는 30대 중반인데 경력이 부족하다'는 말을 면접에서 계속 들었다"며 "차근차근 준비해서 창업했다기보다 내가 내 회사를 차려서 이 돈을 다 가져가고 싶다는 지극히 개인적인 욕심에서 비롯됐다"고 설명했다.고 대표는 창업하면서 '내 보스(Boss)가 없다'는 점이 가장 어려웠다고 꼽았다. 그는 "누군가가 저를 쪼지 않기 때문에 스스로 채찍질해야 한다"며 "기한에 맞춰 내 목표에 맞게 완료하는 것이 대단한 일이라고 느꼈다"고 얘기했다.그는 2030대 여성들에게 본인의 커리어를 우습게 여기지 말고 내 남편이 영원히 나를 위해 돈을 벌어다 준다는 생각으로 커리어를 포기하지 말라고 조언했다. 고 대표는 "세상에 영원히 변치 않는 재물이나 사람은 없다"며 "차라리 남편을 육아휴직 시켜서라도 커리어를 이어가라"고 당부했다.'딱따구리' 유지은 대표 "남성 중심 문화서 자신을 굽히지 말라…여성 연대 중요"22일 경기도 수원시 이비스 앰버서더 수원에서 아시아재단이 개최한 \'경기도 여성기업가에세 힘을 싣다\' 토론회에서 유지은 딱따구리 대표가 발언을 하고 있다. ⓒ홍수형 기자유지은 대표의 '딱따구리'는 어린이와 양육자를 위해 안전한 콘텐츠를 만들고 큐레이션 하는 플랫폼 기업이다.유 대표는 자신을 '연쇄 창업자'라고 소개했다. 그는 "별생각 없이 창업한 것이 26살이었고 당시 생각보다 회사가 잘 됐지만 지방이었기 때문에 어려움이 많았다"며 "여성 인권에 관심이 많아서 여성 인권에 도움 되는 일을 하고 싶다는 생각이 들어 여성 생활용품도 수입해 판매했다"고 말했다.이어 "조금 더 젠더와 관련된 일을 하고 싶어서 고민하다가 만든 것이 딱따구리라는 회사"라며 "창업 시기가 2019년이었는데 당시 젠더 관련 이슈가 국내에서 크게 있었고 그때 제가 주목했던 것은 젠더 이슈가 성인들만의 문제가 아니라 10대 청소년 역시 교실 안에서 동일한 문제를 겪고 있는 점이었다"고 설명했다.유 대표는 "어린아이들이 접하는 콘텐츠를 성인이 만들다 보니까 고정관념과 혐오를 아이들에게 그대로 반영됐다"며 "이 문제를 해결해보고자 사업에 뛰어들었다"고 얘기했다.그는 심사하는 사람이 대부분 미혼 남성이라 여성 기업가에게 불리한 점도 있다고 짚었다. 유 대표는 "여전히 많은 심사위원이 '본인은 아이가 없는데 육아 사업을 하느냐. 진정성이 떨어진다'는 얘기도 들어봤다"며 "우리가 쓰는 인터넷전문은행 앱 '토스'의 대표는 치과의사이고, '배달의민족' 대표는 디자이너, 젤 네일 스티커 브랜드 '오호라'의 대표는 남성"이라고 지적했다. 이어 "여성들은 이중적 잣대를 받는다"며 "실제로 '소풍'이라는 창업 투자 회사는 '젠더 관점으로 투자하기'라는 것을 만들어 심사위원을 가르치기도 한다. 하지만 여전히 이 산업군에선 젠더 이해도가 굉장히 떨어진다"고 덧붙였다.유 대표는 남성 중심적인 문화 속에서 자신을 굽히지 말라고 조언했다. 그는 "그들의 마음에 들기 위해서 자신을 바꾸지 말라"며 "'나의 길을 가겠다'는 것을 보여줬을 때 오히려 좋은 평가를 받았다"고 얘기했다. 또 "목표를 남성보다 낮게 잡는 경향이 있는데 '1천억짜리 회사가 되겠다'는 마인드로 크게 잡아야 한다"며 "자신의 가치를 높이는 습관을 들여라"고 강조했다. 이어 "여성 연대의 중요성을 많이 느낀다"며 "'내 옆의 여성이 잘돼야 나도 잘된다'고 생각했더니 많은 혜택을 받았다"고 덧붙였다.'세이브어스랩' 김소연 대표 "직접 만나서 대화하며 사업을 확장시켜라"22일 경기도 수원시 이비스 앰버서더 수원에서 아시아재단이 개최한 \'경기도 여성기업가에세 힘을 싣다\' 토론회에서 김소연 세이브어스랩대표가 발언을 하고 있다. ⓒ홍수형 기자김소연 대표의 '세이브어스랩'은 다회용으로 빨아 쓸 수 있는 폴텍 마스크와 실내 공기 질 개선을 위한 폴텍 청정 스크린을 공급하고 있다.디자인 전공을 한 김 대표는 새로운 일을 하고 싶어 창업에 뛰어들었다. 김 대표는 "처음부터 이미 세팅된 회사가 아니라 내 손으로 하나하나 만들어가는 것도 즐겁지 않을까 하고 시작한 것이 창업이었다"며 "2018년에 개인 사업자를 내고 2020년 법인 전환해 이젠 예비 사회적 기업으로 지정받아 활동하고 있다"고 말했다.지원 사업 자체에 도전하는 것 자체가 어려웠다. 김 대표는 "실제로 물건을 만들어본 제조에 기반한 심사위원이 없었다. 그래서 설득시키는 데 오래 걸렸다"며 "롱텀 플랜을 제시해주는 곳도 없었다"고 얘기했다. 또 "이 부분을 극복하려고 스스로 스타트업 코칭과 컨설팅을 배웠다"며 "기업가 정신이 지원 사업에 연결됐으면 좋겠다"고 제언했다.김 대표는 조금 더 적극적으로 움직여 많은 사람을 만나라고 권유했다. 그는 "직접 만나서 대화하는 것이 사업을 확장하는 길"이라며 "저는 시니어에 창업했기 때문에 누군가를 만나고 제게 연락이 오는 것이 사실 기뻤다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>예대금리차 줄었지만 더 가팔라진 대출금리</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002767739?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>금융당국의 예대금리차 축소 압박으로 은행권의 예대금리차는 축소됐지만 기준금리 인상과 예·적금 금리 경쟁으로 대출 금리 상승세는 더 가팔라진 것으로 나타났다.21일 은행연합회에 따르면 5대 주요 은행(국민·신한·하나·우리·농협)의 10월 신규 취급 대출 기준(서민정책금융 제외) 가계 예대금리차(가계대출금리-저축성수신금리)는 1.72%포인트(p)로 9월(2.06%포인트)보다 0.34%포인트 하락했다. 공시 첫 달인 지난 7월 은행권 평균 예대금리차는 1.87%p였다. 8월에는 2.11%p로 더 벌어졌으나 9월 2.06%p로 소폭 좁혀진 데 이어 10월까지 두 달 연속 평균 예대금리차가 줄어들었다.5대 은행 중에선 NH농협은행이 1.56%p로 가장 컸다. 이어 △하나은행(0.94%p) △신한은행(0.89%p) △우리은행(0.77%p) △KB국민은행(0.67%p) 순이었다. 전달 대비 축소폭 기준으로 보면 우리은행이 64bp(1bp=0.01%p) 가장 큰 폭 좁아졌다. 이어 국민은행이 49bp, 신한은행 36bp, 농협은행 29bp, 하나은행 20bp하락 순이었다.인터넷 전문은행 중에서는 토스뱅크(5.37%p)가 가장 컸다. 케이뱅크(1.57%p)와 카카오뱅크(1.11%p)가 뒤를 이었다.전체 은행 가운데 가계 예대금리차가 가장 큰 곳은 토스뱅크와 더불어 전북은행(5.37%p)이었다. 가장 작은 은행은 IBK기업은행(0.58%p)였다.은행 예대금리차 공시는 은행의 지나친 '이자 장사'를 방지하기 위해 지난 7월 도입됐다. 은행권이 첫 공시 이후 저소득·저신용 서민 대상의 정책금융상품의 금리가 높아 이를 많이 취급할수록 예대금리차가 커지는 왜곡 현상을 지적하자, 8월 통계부터 일부 정책금융상품을 제외한 예대금리차가 따로 공개되고 있다.반면 가계 대출금리는 가파르게 상승한 것으로 나타났다. 기준금리 인상 영향도 있지만 은행권이 예대금리차를 좁히고자 예·적금 금리를 올리면서  대출 금리를 밀어올렸다는 분석이 나온다.10월 신규 취급 대출로 산출한 5대 은행의 정책서민금융 제외 가계대출금리는 신한은행이 연 5.04%로 가장 높았고 하나은행이 5.01%, 우리은행 4.97%, 농협은행 4.84%, 국민은행 4.82%로 나타났다.7월까지만 해도 4.19%에 그쳤던 5대 은행의 가계대출 평균 금리는 10월 들어 4.936%로 넉 달 만에 0.746%p 상승했다.  은행권 가계예대금리차가 축소됐지만 대출금리 상승세가 가파른 것으로 나타났다. 연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1000억원 유상증자 결의…총 자본금 1조4500억원 확보</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000034940?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>출범 후 여섯 차례 증자 진행신규 주주로 하나카드 합류     토스뱅크 내부 모습. [사진 토스뱅크]    토스뱅크가 출범 후 여섯 번째 유상증자를 진행한다.    토스뱅크는 지난 23일 이사회를 열고 총 1000억원 규모의 유상증자를 추진하기로 결의했다고 24일 밝혔다.    증자 후 토스뱅크의 총 납입 자본금은 1조4500억원으로 늘어난다. 그만큼 자본안정성이 한층 강화된다는 의미다. 출범 당시 2500억원이었던 자본금 규모는 여섯 차례 증자 과정에서 11개월 만에 1조2000억원의 신규 자본금을 확충하는 결과로 이어졌다.    신규 발행하는 주식은 보통주 2000만주다. 주당 발행가는 5000원이다. 증자방식은 제3자 배정으로 기존 주주는 물론, 신규 주주도 증자에 참여했다. 자본금 납입일은 이달 29일이다.    토스뱅크는 이번 증자를 통해 하나카드를 신규 주주로 맞이했다. 총 195만617주(약 98억원)를 배정받는 하나카드는 토스뱅크의 기존 주주사인 하나은행이 속한 하나금융그룹의 계열사다. 현재 토스뱅크의 체크카드인 ‘토스뱅크카드’ 업무를 대행하며 전략적 파트너로도 협업 중이다. 향후 카드 비즈니스 등 다양한 사업 전략을 발굴할 예정이다.    토스뱅크는 하나카드를 주주로 맞이하며 보다 안정적인 성장 발판을 마련했다는 평가가 나온다. 현재 주요 주주로는 비바리퍼블리카, 이랜드월드, 하나은행, 중소기업중앙회, 한화투자증권, SC제일은행 등이 참여하고 있다.    토스뱅크 관계자는 “중저신용 고객 포용, 사용자 중심의 서비스 혁신 등 시장의 호응 속에 이뤄진 빠른 성장세는 주주사들의 높은 관심과 지원이 있었기에 가능했음을 잘 알고 있다”며 “급변하는 글로벌 환경 속에서도 자본안정성을 강화하고, 보다 혁신적인 서비스로 고객 경험을 바꿀 수 있도록 동력을 확보해 나갈 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>토스뱅크, 은행 최초 중·저신용자 대출 40%대 달성</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004124531?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>중저신용자 4명 중 1명 고신용 평가인뱅 3사 올해 목표치 달성 전망[서울경제] 토스뱅크가 중·저신용자 대출 비중 40%를 넘겼다. 인터넷전문은행은 물론 은행권 중 최초다.토스뱅크는 19일 기준 가계대출 가운데 중·저신용자 대출 비중(KCB 850점 이하, 잔액 기준)이 40.1%로 나타났다고 21일 밝혔다. 올 1분기(31.4%) 대비 8.7%포인트 늘며 제1금융권 가운데 처음으로 40%를 넘어섰다. 토스뱅크가 이달 19일까지 취급한 총대출은 8조 원이다. 이 중 중·저신용 고객을 위한 가계대출 잔액이 2조 7000억 원에 달했다. 중·저신용 고객 1인당 평균 대출 금액은 3006만 원을 기록했다.토스뱅크는 자체신용평가모형을 통해 중·저신용자를 적극 발굴한 결과라고 설명했다. 실제로 토스뱅크는 지난 1년간 자체 신용평가모형에 따라 중·저신용 고객 4명 중 1명 이상(25.7%)을 고신용자로 재평가했다. 신용점수 475점(과거 KCB 기준 8등급)인 고객에게도 대출이 이뤄졌고 이후 고객이 채무를 성실하게 상환해 신용 점수가 오르는 경우도 발생했다.반면 건전성 지표는 안정적인 편이다. 10월 말 기준 토스뱅크의 고정 이하 여신 비율은 0.32%로 올 3분기 4대 시중은행 평균 수준으로 나타났다.한편 토스뱅크가 올해 금융 당국과 약정한 중·저신용자 대출의 목표치는 42%로 19일 기준(40.1%)과 1.9%포인트 차이밖에 나지 않는다. 카카오뱅크와 케이뱅크의 중·저신용자 대출 비중 목표는 모두 25%다. 3분기 기준 카카오뱅크는 23.2%, 케이뱅크는 24.7%를 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.11.18.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>[새 책] 유난한 도전 외</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000708203?sid=103</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>교양·문학·어린이 청소년교양정경화 '유난한 도전'△유난한 도전정경화 지음. 간편송금을 도입한 토스가 혁신적인 금융 핀테크 기업으로 성장한 과정을 다룬 책. 1명으로 시작해 인터넷 은행 인가를 받고 2,000여 명의 공동체가 되기까지 10년의 여정을 소개한다. 이승건 대표와 전·현직 토스팀원 35명을 인터뷰하고 이들의 메시지와 회의록을 파헤친다. 수많은 실패와 갈등을 어떻게 극복했는지를 솔직하게 보여준다. 북스톤·336쪽·1만7,000원김준형 '달리기의 힘'△달리기의 힘김준형 지음.  30년간 기자 생활을 해온 저자가 20년 넘게 마라톤을 하면서 겪은 일화와 성찰들을 담은 에세이집. 자칭 '발로 뛰는 기자'에게 글쓰기가 밥벌이라면 달리기는 밥벌이를 가능케한 버팀목이었다. 스물여섯 편의 글은 달리기 과정에서 만난 여러 사람들과 에피소드, 추억 등을 생생하게 전달한다. 저자는 나이가 들수록 '나중에'는 '네버(never)'가 된다며  조금이라도 젊을 때 달리기를 시작하기를 권한다. 굿모닝북스·272쪽·1만4,800원문학쥘 베른 '20세기 파리'△20세기 파리쥘 베른 지음. 김남주 옮김. 기술적 진보를 이룬 19세기 사회의 인간상과 사회상을 신랄하게 풍자하는 고전 SF소설. 1863년에 쓰였지만 놀라울 정도로 현대 사회 문제와 잘 맞물려 있다. 원작의 세계관을 바탕으로 현대 한국 작가가 쓴 단편을 덧붙인 'FoP(포비든 플래닛) 클래식 시리즈'의 첫 번째 작품이다. 정지돈 작가가 '22세기 서울'을 그려냈다. 알마·344쪽·1만7,500원김유담 '커튼콜은 사양할게요'△커튼콜은 사양할게요김유담 지음. 김유정작가상과 신동엽문학상을 수상한 작가의 청춘 소설. 연극배우라는 꿈을 잠시 접어두고 취직을 위해 고군분투하는 신입사원의 이야기다. 적성에 맞지 않는 일, 피곤한 얼굴 그리고 스트레스를 주는 직장 동료들까지 이 시대를 살아가는 청년들의 현실을 주인공 연희에 고스란히 담아냈다. 생동감 있는 캐릭터로 풍성한 재미를 더해 독자들에게 위로를 전한다. 창비·360쪽·1만6,000원어린이·청소년주리스 페트라슈케비치 '두려움이 찾아오면'△두려움이 찾아오면주리스 페트라슈케비치 지음. 김은지 옮김. 두려움이 부정적인 감정이면서도 자신을 지켜주는 알람임을 일깨워주는 책. 주인공 에리카는 폭풍이 다가오자 '얼어붙기 두려움'이 나타날까 걱정한다. 다행히 '내달리기 두려움'이 도와줘 에리카는 집으로 안전하게 귀가한다. 불안장애의 원인이기도 한 두려움을 아이들이 용기 있게 받아들이고 조절할 수 있는 방법을 알려준다. 올리·40쪽·1만4,000원기쿠치 치키 '단풍 편지'△단풍 편지기쿠치 치키 지음. 황진희 옮김. 금방 지나가버리는 가을의 모습을 아름답게 담아낸 책이다. 개똥지빠귀에게 단풍 편지를 받은 생쥐는 여러 동물 친구들과 함께 단풍잎을 찾아나선다. 붉은색을 띤 다양한 존재를 보여주면서 알록달록한 가을 풍경을 보여준다. 작가는 데뷔작에 이어 '단풍 편지'에서도 세계그림책원화전(BIB) 황금사과상을 수상했다. 웅진주니어·40쪽·1만8,000원</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.11.29.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>대포통장? 중고거래 사기? 토스·카카오페이가 막아준다</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003243227?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   범죄 악용 의심 계좌를 알려주는 카카오페이(왼쪽)와 사기 의심 계좌를 알려주는 토스.    간편송금 플랫폼의 소비자 보호 역할이 확대되고 있다. 최근 카카오페이는 도용 계좌를 알려주는 서비스를 시작했고, 간편송금을 처음 시작한 토스는 이미 8년째 사기계좌를 경고해주는 기능을 고도화하고 있다. 28일 카카오페이는 최근 '계좌 지킴이' 서비스를 시작했다고 밝혔다. 계좌 지킴이는 마이데이터로 연결된 내 계좌가 타인에게 도용돼 악용되고 있는지, 사기 의심 계좌로 등록된 것은 아닌지 등을 알려주는 서비스다.     카카오페이 관계자는 "사용자들에게 억울한 피해가 발생하지 않도록 '계좌 지킴이' 서비스를 기획했다"고 말했다.     일반적으로 금융 소비자가 자주 사용하지 않고 방치해두던 계좌가 사기 등 범죄에 이용되는 경우가 많은데, 당사자가 이를 모르고 범죄에 연루되는 사례가 발행한다. 이에 카카오페이는 금융사기 방지 회사인 더치트를 통해 내 계좌를 조회하고 사기 사건 등과 연루돼 있는지를 확인하도록 했다. 특히 최근 많이 이뤄지는 중고거래 시에도 상대 계좌가 사기 의심 계좌인지 조회할 수 있는 기능도 있다.       카카오페이 앱이 아니어도 카카오톡 '자산' 탭에서 이용할 수 있도록 범용성도 높였다. 카카오페이 자산관리에 계좌를 연결했다면, 해당 계좌들의 도용 여부 등을 확인할 수 있다.     이런 기능을 처음 도입한 곳은 토스다. 지난 2015년부터 토스는 금융사기에 사용된 계좌에 송금하려고 할 때 위험성을 경고하는 기능을 넣었다.     한 중고거래 커뮤니티에는 "나름 많은 거래를 해왔고 어느 날 토스로 거래하면서 알게 된 건데, 사기 전적이 있는 계좌를 걸러주더라"며 "100% 다 걸러주는지는 모르겠으나, 덕분에 사기를 2번이나 피해갔다. 그래서 물품 거래로 인한 계좌이체 시 토스를 이용한다"는 후기도 올라왔다.     이 기능을 위해 토스 역시 더치트와 제휴를 맺었다. 더치트는 과거 사기 거래에 사용된 계좌와 연락처 정보를 활용해 2차 피해를 막아주는 서비스다. 더치트는 보이스피싱, 온라인 사기 등 금융사기에 사용된 계좌와 연락처 정보 104만 건 이상을 보유하고 있으며, 일평균 신규 피해 등록 건수는 644건 이상이다.     토스는 이어 경찰청과도 손잡았다. 모든 송금 거래에서 경찰청에 등록된 계좌와 연락처 이력을 바탕으로 '사기 피해 신고 이력 조회'가 자동으로 진행되도록 '사기 의심 사이렌' 서비스를 강화한 것이다.     토스의 간편송금 화면에서 이체 금액과 받는 사람의 정보를 입력하면 자동으로 수신자 계좌 혹은 연락처가 사기 의심 거래에 해당하는지 확인하는 방식이다. '보내기' 버튼을 눌러도 사기 의심 계좌나 연락처로 판명될 경우 송금 전 주의가 필요하다는 문구가 나온다.     또 토스는 온라인 중고거래에서 사기를 당한 고객에게 피해 금액을 최대 50만원까지 1회에 한해 보상하는 정책도 내놨다. 피해자가 피해 발생 15일 이내에 토스 고객센터에 관련 사실을 접수할 경우, 수사기관 신고 증빙 등 절차를 거쳐 보상금이 지급된다.     한국인터넷진흥원(KISA) ICT분쟁조정지원센터의 조사 결과에 따르면 중고거래 사기 피해액은 해마다 증가 추세를 보이며 2014~2021년까지 피해 검거 건수는 약 62만 9000건, 피해액은 6504억 7500만원가량인 것으로 나타났다.     토스 관계자는 "하루에도 몇천건씩 사기 의심 계좌가 조회된다. 보통 자주 사용하지 않는 계좌가 악용되는 사례가 많고, 서로 송금을 하다가 상대의 계좌가 사기 의심 계좌로 사이렌 알람이 떠 인지하게 되는 경우도 많다"며 "이 서비스는 계속 고도화되는 중"이라고 말했다.    권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.11.17.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>"싼 이자로 갈아탄다" 대환대출, 은행·핀테크 이견 좁히고 내년엔 나올까</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000869978?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>지난해 출시되려다가 무산됐던 대환대출 플랫폼이 내년 5월 출시된다. 사진은 서울시내 한 은행 영업점을 찾은 고객들이 상담을 받는 모습./사진=뉴스1 한국은행의 지속적인 금리 인상으로 대출자들의 이자 부담이 커지자 금융당국이 기존 대출보다 유리한 조건의 신규 대출로 갈아탈 수 있는 '대환대출'(대출 갈아타기) 플랫폼을 내년 5월 출시한다.당초 대환대출 플랫폼은 지난해 9월말 출시될 예정이었지만 은행 등 전통 금융사들과 핀테크 업체 간의 이견으로 출시가 무산된 바 있다. 이번엔 금융당국의 계획대로 대환대출 플랫폼이 출범할 수 있을지 금융권의 관심이 쏠린다.17일 금융권에 따르면 금융위원회는 개인대출을 대상으로 은행, 저축은행, 여전사가 참여하는 대환대출 플랫폼을 내년 5월 개시할 계획이다.대환대출 플랫폼은 소비자가 여러 대출상품을 한눈에 비교하고 금융기관 방문 없이 기존 대출을 보다 유리한 조건의 대출로 비대면·원스톱으로 이동할 수 있도록 지원하는 서비스를 말한다.대환대출 플랫폼이란 하나의 플랫폼에서 은행, 저축은행, 캐피탈 등 여러 금융기관 대출상품을 비교하고 낮은 금리로 갈아탈 수 있게 하는 비대면 원스톱(One-stop) 플랫폼을 말한다.금융 소비자들은 이 서비스를 통해 금융사를 직접 방문하지 않아도 하나의 플랫폼에서 금융사들의 금리 수준을 비교한 뒤 금리가 가장 낮은 대출로 갈아탈 수 있다.금융결제원이 구축하는 플랫폼에 토스나 카카오페이 등 핀테크 업체가 운영 중인 대출금리 비교 서비스를 연계하는 방식으로 진행된다.━ 대환대출 플랫폼, 핀테크는 반기지만 은행은 볼멘소리━금융위는 당초 지난해 9월말 대환대출 플랫폼을 출범할 계획이었지만 KB국민, 신한, 하나, 우리, NH농협 등 주요 은행들은 대환대출 플랫폼 참여를 미루고 독자 대환대출 플랫폼을 만들겠다는 입장을 보이면서 결국 도입이 무산된 바 있다.카카오페이, 네이버파이낸셜, 토스 등 핀테크 중심의 대환대출 플랫폼에 참여할 경우 수수료가 발생하고 이들에 종속될 우려가 크다는 게 이유였다.하지만 한국은행이 오는 24일 사상 첫 6회 연속 기준금리 인상에 나서고 변동형 주택담보대출(주담대)의 준거 금리인 신규취급액 코픽스(COFIX·자금조달비용지수)가 10월 기준 3.98%로 역대 최고치를 찍으면서 대출자들의 이자 부담이 커지자 대환대출 플랫폼 도입 논의가 재점화된 것이다.하지만 이번에도 일각에선 핀테크 업체와 전통 금융사 간의 이견을 좁히기엔 쉽지 않을 것이라는 관측이 나온다.이번에 금융위는 기존 금융사도 비교·추천체계 검증 등 대출 비교 플랫폼 운영 방향을 협의해 겸영 업무로 영위할 수 있도록 기존 금융사 앱(창구)을 통해서도 대출 이동시스템을 이용할 수 있도록 하는 등 개선된 방안을 내놨다.우선 핀테크 업체들은 이전과 같이 대환대출 플랫폼 출시를 반기고 있다.비대면 대환대출이 본격화되면 핀테크 업체들은 대환대출을 통한 중개수수료 등을 받을 수 있어 성장 가능성이 커지기 때문이다.한 핀테크 업계 관계자는 "기대출 보유자들도 신규 고객이 될 수 있어 수익원을 늘릴 기회"라며 "금융당국 계획에 맞춰 대환대출 플랫폼을 준비할 것"이라고 말했다.하지만 은행권에선 여전히 불만의 목소리가 나온다.한 시중은행 관계자는 "대환대출 플랫폼 의존도가 높아지면 핀테크에 대한 중개수수료 부담이 늘어날 수밖에 없고 고객 락인효과가 사라져 은행들은 자칫 금리 경쟁 속에 치킨게임으로 치달을 수도 있다"고 우려했다.은행 등 금융사들은 대환대출 플랫폼을 운영하는 핀테크 업체에 대출 상품을 공급하는 하청 업체로 전락할 것이라는 우려도 여전하다.이에 따라 기존 금융사의 핀테크 종속 우려, 중개 수수료 부담 증가, 금리인하 경쟁 심화 등 업권간 이해관계가 첨예하게 맞부딪히고 있어 금융위가 내년 5월 대환대출 플랫폼 출범까지 적지 않은 진통을 겪을 것으로 금융권은 내다보고 있다.한 금융권 관계자는 "카드사와 저축은행의 고객 이탈이 심해질 것으로 예상되는 부작용도 예상되지만 장기적인 관점에선 플랫폼 사업의 성장 측면에선 긍정적일 것으로 보인다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.11.29.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 새버전 기술 도입 결제 속도 높인다</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002769448?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>PG 업계 최초 3세대 웹표준 프로토콜 HTTP/3 도입토스페이먼츠가 3세대 프로토콜을 도입해 사용자 로딩 속도를 개선했다고 밝혔다. 토스페이먼츠 제공    토스의 페이테크(Paytech) 계열사 토스페이먼츠는 3세대 웹표준 프로토콜인 HTTP/3을 PG(Payment Gateway) 업계 최초로 도입했다고 29일 밝혔다.토스페이먼츠가 더 빠르고 안정적인 결제 경험을 제공하기 위해 도입한 HTTP/3은 인터넷에서 정보를 주고 받기 위한 3세대 웹표준 프로토콜(Protocol)이다. '/3'은 세 번째 메이저 버전을 의미한다.지난 6월 국제인터넷기술위원회(IETF)가 차세대 웹 통신 표준 프로토콜로 제정한 바 있으며, 구글, 메타 등 글로벌 빅테크 기업은 이미 HTTP/3을 채택해 서비스를 운영하고 있다.토스페이먼츠는 우선 가맹점과 일반 사용자의 이용 빈도가 높은 △전자 결제 서비스 △브랜드페이 △상점관리자 △전자계약 온보딩 서비스 등에 HTTP/3을 적용했으며, 그 외 서비스에 대한 HTTP/3 적용은 순차적으로 완료할 예정이다. 이번 HTTP/3 적용으로 토스페이먼츠는 업계에서 가장 빠르고 안정적인 서비스를 제공할 수 있을 것으로 기대된다. HTTP/3은 브라우저와 웹서버 간 연결 및 데이터 전송 과정을 효율화해 웹페이지 데이터가 서비스 사용자에게 도달하는 시간을 줄일 수 있다. 이를 통해 사용자가 경험하는 서비스 로딩 속도를 개선할 수 있다.특히 HTTP/3가 최신 암호화 규격인 TLS(Transport Layer Security) 1.3 버전을 준용하고 있어 토스페이먼츠의 서비스 정보보호 강화에 도움이 될 것으로 보인다.토스페이먼츠는 이번 HTTP/3 도입을 비롯해 오픈소스 플랫폼 '쿠버네티스' 도입을 통한 클라우드 네이티브 환경 구축, 글로벌 금융 기업 수준의 데이터센터(IDC)와 클라우드의 유기적 운영 환경 구축 등 기술적 혁신을 이어가고 있다.   토스페이먼츠는 영세·중소 사업자를 위한 보증보험 면제 혜택, 간편한 결제 연동 경험 지원 등 다양한 혁신을 선보이며 성장을 가속화하고 있다. 현재 토스페이먼츠의 월간 거래액은 3조원 이상, 가맹점은 9만개 이상에 이른다.강병훈 토스페이먼츠 최고기술책임자(CTO)는 "토스페이먼츠는 정체된 국내 PG 산업에서 새로운 변화를 만들기 위한 노력을 이어 나가고 있다"며 "한국의 첫 페이테크 기업으로서 더욱 편리하고 안전한 결제 시스템을 구축하기 위해 투자를 지속해 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>진보당 광주시당, 광주은행 대출금리 인하 운동 돌입</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003707735?sid=102</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>진보당 광주시당이 16일 광주시의회에서 열린 기자회견을 시작으로 '광주은행 대출금리 인하운동'에 돌입했다. 진보당 광주시당 제공지방은행인 광주은행이 고금리로 지역민을 상대로 이자 장사를 하고 있다며 진보당 광주시당이 광주은행 대출금리 인하 운동에 들어가 결과가 주목된다.진보당 광주시당은 16일 광주시의회에서 기자회견을 열고 "광주은행은 지역사회 공헌과 상생이라는 지방은행 설립 취지에 맞게 고금리 이사장사를 즉각 중단하고 대출금리를 인하해야 한다"고 주장했다.전국은행연합회 공시자료에 따르면 지난 9월 기준 광주은행의 가계예대금리차는 4.58%로 전국 18개 은행 중 전북은행(7.38%), 토스뱅크(5.07%)에 이어 3번째로 높았다.광주은행의 가계예대금리차는 같은 지방은행인 경남은행보다 5배 가량 높았고, 가계대출금리는 7.54%로, 전국 18개 은행 중 전북은행 다음으로 높았다.진보당은 이처럼 광주은행이 대출금리를 높게 책정하면서 올해 3분기까지 거둔 누적 당기순이익이 2008억 원으로 전년 대비 23%를 기록하면서 역대 최고 성과를 거뒀다고 주장했다. 국내 4대 금융지주회사도 올해 3분기까지 13조 8544억 원의 당기순이익을 기록하면서 사상 최대 실적을 나타냈다.진보당 광주시당은 코로나19 한파를 버티기 위해 정부 정책으로 저금리 대출을 받았으나 초기 대출만 고정금리가 적용되고 대부분 변동금리 적용으로 고통받는 중소상공인에 대한 대책을 마련해야 한다고 주장했다.또 고금리, 원자재 가격 상승 등 경제 위기 상황에서 사상 최대 실적을 내고 있는 은행과 정유사 등의 초과 이윤을 환수할 수 있도록 법과 제도를 정비해야 한다고 촉구했다. 진보당 광주시당은 '광주은행 대출금리 인하 운동본부'를 구성해 서명운동과 상가방문, 1인 시위, 정당 연설회 등을 진행할 예정이라고 밝혔다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.11.25.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>중형 증권사 실적도 '추풍낙엽'…적자도 나왔다</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000011967?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>[워치전망대]③중소형 증권사 3분기 실적 분석IBK·교보, 어색한 1·2위…다올·현대차증권 등 부진몸집 1위 한화증권, 토스뱅크 지분법 손실에 '적자'긴축과 인플레이션 파고는 중소형 증권사들에게도 큰 타격을 가했다. 모든 증권사의 실적이 일제히 쪼그라든 가운데 적자를 낸 증권사까지 나왔다. '반토막' 순이익이 평균치일 정도다. 실적 순위에도 지각변동이 크게 일었다. 앞서 3개 분기 연속 실적 1위를 지켜오던 증권사가 선두에서 밀려나고, 몸집 1위 증권사는 '적자'의 굴욕을 맛봤다. 서울 여의도 증권가 / 사진=비즈니스워치IBK투자증권, '머쓱한' 1위25일 비즈니스워치가 자기자본 5000억원 이상 2조원 미만(올해 3분기말 기준)인 12월 결산 국내 증권사 12곳의 3분기 연결 실적을 분석한 결과 이들 전체 순이익은 1407억원을 나타냈다. 지난해 동기 3739억원 대비로는 무려 62% 이상 쪼그라든 규모다. 대내외 불확실성이 계속되면서 투자자들의 주식시장 이탈은 가속화됐고 가장 큰 수익원인 위탁매매(브로커리지) 수수료 급감을 이들 중소형 증권사도 피해갈 수 없었다. 그간 실적을 방어했던 기업금융(IB)도 이번에는 힘을 쓰지 못했다. 이들중 순이익 1위는 IBK투자증권이었다. 3분기 전년대비 26%가량 감소한 239억원의 순이익을 기록했다. 다른 증권사들의 이익 감소폭이 워낙 컸다는 점이 반영되며 상대적으로 선방했다는 평가가 나온다.브로커리지 의존도가 타 증권사 대비 크지 않은 점도 최근같은 상황에서는 강점이 되고 있다. 특히 3분기에는 브로커리지 수수료 수익 비중이 전체 영업수익의 6%에 불과했다.교보증권은 3분기 순익이 222억원으로 전년동기대비 45%가량 줄었다. 그나마 IB부문이 버틴 결과다. 인수·주선 및 신탁 수수료, 펀드운용 보수 등 금융상품 관련 이익이 불어나면서 브로커리지의 부진을 만회했다.교보증권 관계자는 "지방자치단체가 운영하는 물류산업단지, 지식센터 등 우량 비주거 부동산 포트폴리오로 지속적인 수익 창출을 도모했다"고 설명했다. 선두 빼앗긴 다올, 현대차·하이도 '부진'올해 2분기까지 3개 분기 연속 중소형 증권사 실적 1위를 놓치지 않던 다올투자증권은 3위로 밀려났다. 이 증권사는 3분기 207억원의 순익을 거두며 가까스로 분기 순익 200억원대를 수성했다. 전년동기대비로는 27%가량 감소한 규모다. 다만 3분기 누적 기준으로는 이들 중소형사 가운데 유일하게 순익 1000억원을 넘어선 상태다. 부동산 금융 중심의 IB 수수료 순영업수익이 453억원으로 지난해 같은 기간보다는 11% 이상 늘었지만, 시장이 경색되면서 전분기 대비 30% 넘게 쪼그라드는 등 감소세가 본격화됐다. 주요 수익원이란 점에서는 적신호다.여기에 하반기 들어 본격화된 채권금리 및 달러/원 환율 상승 등에 운용손실 44억원, 기타손실 79억원 등도 추가됐다. 다올투자증권 관계자는 "부동산 침체와 급격한 금리 상승이 맞물린 비우호적 영업환경 탓에 양적 성장보다는 리스크 관리와 사업 안정화에 집중했다"고 말했다. 현대차증권은 직전분기 중소형 증권사 실적 2위에서 다시 4위로 떨어졌다. 앞선 2개 분기 연속 300억원대던 순이익이 이번엔 200억원에도 못 미쳤다. 3분기 순이익은 전년동기보다 38% 감소한 186억원이다.시장금리 급등으로 채권 평가 이익이 줄었고 브로커리지 수수료도 감소했다. 다만 자기자본투자(PI)부문에서는 미국 물류센터 관련 투자 엑시트 등으로 전년동기대비 19% 성장을 이끌어 냈다. 유안타증권은 직전분기 '적자'에서 다시 흑자로 전환하며 중소형 증권사 실적 톱5에 들었다. 3분기 순익은 전년동기대비 57%가량 축소된 146억원이다.여기에 브로커리지 의존도가 유독 높다는 점을 감안하면 향후 전망은 밝지 않다. 실제 브로커리지 수수료 수익은 △1분기 481억원 △2분기 435억원 △3분기 368억원 등 계속 감소하고 있다.하이투자증권은 분기 순익이 100억원에도 못 미치는 충격적인 성적표를 내놨다. 실적 순위도 직전분기 3위에서 7위로 떨어졌다. 3분기 순이익은 93억원으로 전년동기대비 78% 넘게 급감했다.거래대금이 쪼그라들면서 WM부문 수익이 축소됐고 상품운용에서도 적자를 이어갔다. 그간 실적을 주도했던 IB 및 부동산 프로젝트파이낸싱(PF) 부문의 순영업수익 또한 전년동기보다 30% 가까이 줄었다는 설명이다. 한화증권 2분기 연속 적자…이베스트 순익 80%↓중소형 증권사 '몸집 1위' 한화투자증권은 2개 분기 연속 적자를 냈다. 3분기에만 38억원 순손실로 지난 2분기(93억원 순손실)에 비해서는 그 규모가 줄었지만 반년이나 적자를 지속한 탓에 3분기 누적 기준으로도 실적이 최하위다. 이 증권사는 3분기말 기준 자기자본이 1조6561억원으로 중소형 증권사 가운데 1위다.불확실한 시장상황과 함께 관계기업인 토스뱅크의 적자에 영향을 받았다. 지난 2019년 토스뱅크 컨소시엄에 주요 주주로 참여했던 한화투자증권은 올해 2월 유상증자를 통해 지분율을 10.0%까지 늘렸다. 그러나 토스뱅크가 3분기 484억원의 순손실을 내면서 한화투자증권엔 지분법 손실이 반영됐다.실제 이 증권사는 3분기 개별기준으론 5100만원의 순이익을 거뒀다. 브로커리지를 비롯한 사업부문 전반에서 이익이 대폭 줄긴 했지만, 지분법 손실이 아니었다면 '흑자'가 가능했다는 의미다.이베스트투자증권에게도 3분기는 뼈아픈 시기였다. 전년동기 300억원대던 순이익은 1년만에 80%나 급감해 70억원에 그쳤다. 브로커리지를 비롯해 주요 사업부문 수익이 모두 쪼그라들었다. 특히 인수·주선 수수료 수익이 전년동기보다 무려 72% 이상 축소됐고, WM 수수료 수익도 같은 기간 40%가량 감소했다.지난 2분기 실적 톱10에 이름을 올렸던 DB금융투자는 흑자전환에는 성공했지만 순위권에서는 밀려났다. 3분기 순이익은 17억원으로 전년동기대비 95% 급감했다. 이 증권사도 브로커리지 수익이 40%가량 쪼그라든 가운데 WM과 신탁보수 수수료 모두 감소했다. 이처럼 실적부진이 이어지며 중소형 증권사들이 위기를 맞고 있다는 관측도 나오고 있다. 이들 증권사는 자금조달이나 유동성 측면에서 대형사들에 비해 더 많은 리스크에 노출돼 있기 때문이다. 이미 일부 증권사는 인력 감축 등 구조조정을 시작한 상태다.임희연 신한투자증권 연구원은 "자본시장의 신규 거래가 얼어붙은 만큼 IB부문을 비롯해 전사적인 구조조정이 이뤄질 가능성이 높다"며 "정부의 유동성 공급에도 일부 중소형 증권사의 경우 인수·합병(M&amp;A) 시장에 매물로 나올 수도 있다"고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.11.22.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>지앤넷 '출력물 없는 실손보험 청구', 이용 가능 병원 1200곳 돌파</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004820982?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>의료정보전송 플랫폼 전문기업 지앤넷(대표 김동헌)은 최근 '닥터구디'를 통해 출력물 없는 보험금 청구를 할 수 있는 제휴 병원이 1200곳을 돌파했다고 22일 밝혔다. 모두 1229곳이다.김동헌 지앤넷 대표는 "올 연말까지 4000곳, 2023년 상반기에는 1만여 곳의 병원·약국과 연동을 예상한다"고 말했다.지앤넷은 병원의 의료정보를 보험사로 전송하는 '실손보험 빠른청구'와 개인의 건강을 관리하고 의료정보를 전송하는 '닥터구디'를 서비스 중인 업체다. '실손보험 빠른청구'는 4대 시중은행 및 지방은행, 토스, 보맵, 주요 카드사를 비롯해 50여 개 기업과 제휴를 맺은 바 있다. 현재까지 '닥터구디'를 통한 누적 청구 건수는 150만건 이상이다.사진제공=지앤넷</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.11.27.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>[SS초점] 인터넷은행, 올해 중저신용 대출 목표치 달성 임박 내년은?</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000903933?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>케이뱅크(왼쪽부터), 카카오뱅크, 토스뱅크. 사진|각사[스포츠서울 | 홍성효기자] 지난해 중저신용 대출 비중 목표치를 달성하지 못했던 인터넷은행들이 올해는 목표치를 달성할 전망이다. 이에 인터넷은행들은 내년 목표치를 더욱 높게 잡으며 눈길을 끌고 있다.27일 은행권에 따르면 카카오뱅크의 중저신용 고객 대출 비중은 최근 약 24%을 기록하며 지난해 말 17%보다 7%p 가량 높아졌다. 올해 공급 목표 비중 25% 달성을 눈 앞에 두고 있다. 카카오뱅크가 올해 1월부터 10월까지 중·저신용 고객에게 공급한 무보증 신용대출 규모는 2조1147억원으로, 지난해 공급한 1조7000억원을 이미 넘어섰다.케이뱅크의 올해 3분기 말 기준 중저신용 대출 비중은 24.7%다. 지난해 말 16.6%보다 8.1%p 상승했다. 올해 공급 목표 비중인 25%에 근접한 수준이다. 케이뱅크가 올해 3분기까지 공급한 중저신용 신용대출 규모는 1조5992억원이다. 이는 케이뱅크가 지난 한 해 동안 공급한 대출규모 7510억원의 2배가 넘는 수치다.토스뱅크는 지난 19일 기준 중저신용 대출 비중이 40.1%를 기록했다. 이는 제1금융권 가운데 처음으로 40%를 넘어선 수치다. 올해 목표 비중인 42%까지 얼마 남지 않은 상황이다. 올해 1월 대출 영업을 정상화 한 토스뱅크의 중저신용 대출 규모는 총 2조7000억원이다.지난해 인터넷은행들은 중저신용 대출 비중 목표치에 미치지 못한 바 있다. 지난해 말 각 은행들의 중저신용 대출 비중은 △케이뱅크 16.6% △카카오뱅크 17% △토스뱅크 23.9%다. 당초 이들 은행이 계획했던 21.5%, 20.8%, 34.9%에는 도달하지 못했다. 하지만 올해는 인터넷 은행들이 제시한 수치에 근접하면서 목표 달성의 기대감이 고조되고 있다.인터넷은행들은 목표 달성에 가까워지며 자신감을 얻고 내년 중저신용 대출 비중을 올해보다 더욱 높인다고 밝혔다. 전체 신용대출 중 △케이뱅크 32% △카카오뱅크 30% △토스뱅크는 44%를 중저신용 차주에 공급하겠다고 했다. 이는 올해보다 최대 7%p 높은 수치다. 인터넷은행이 중저신용 대출을 확대하면 대출 문턱이 낮아지는 효과가 나온다. 시중은행에서 대출이 거절되거나 한도 제한이 걸린 차주가 고금리인 2금융권으로 넘어 가지 않고 인터넷은행으로 향할 수 있기 때문이다. 다만 공격적인 중저신용 대출 확대에 따라 건전성 우려도 나오고 있다. 상대적으로 상환 능력이 약한 중저신용 차주가 차지하는 비중이 높아질수록 연체나 채무 불이행 가능성도 높아지기 때문이다.하지만 인터넷은행들은 이러한 우려를 불식시키고 있다. 신용평가모형(CSS) 고도화로 ‘건전·우량한 중저신용 차주’ 발굴이 이뤄지고 있기 때문이다. 인터넷은행들은 신용점수가 아닌 카드 사용 내역으로 소비 성향을 유추하고, 통장 내역으로 직업이 있는지 추정하는 대안정보 활용 CSS를 도입했다. 신파일러(금융이력부족자)도 다양한 비금융 데이터로 상환 능력을 심사해 대출을 실행하고 있다.아울러 최근 인터넷은행들은 신용대출 뿐만 아닌 주택담보대출과 개인사업자 대출 등 여신 포트폴리오 다각화도 병행하고 있다. 전체 여신에서 담보부 대출 비중을 늘리며 리스크를 분산하는 것이다.지난해까지 인터넷은행들은 수많은 지적을 받아왔지만 올해는 달라진 모습을 보여줬다. 앞으로 인터넷은행들의 행보가 기대되는 이유다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>은행권 예대금리차 감소세… 5대 은행선 KB국민銀 ‘최저’</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000856582?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>NH농협, 예대금리차 5대 은행 중 석달 연속 1위인터넷은행선 토스뱅크(5.37%포인트)가 가장 커        지난달 국내 은행들의 예대금리차(대출금리와 예금금리 차)가 전달 대비 축소한 것으로 나타났다. KB국민·신한·우리·하나·NH농협 등 5대 시중은행에서 예대금리차가 가장 컸던 곳은 NH농협은행으로 조사됐다.서울 시중 은행에 대출금리 안내문 모습. /연합뉴스        21일 전국은행연합회에 따르면 지난 10월 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 뺀 국내 17개 은행(산업·한국씨티은행 제외)의 가계 평균 예대금리차는 1.60%포인트(p)로, 전달(2.26%포인트)보다 0.66%포인트 감소했다. 7월 1.98%포인트, 8월 2.10%포인트로 증가하다가 10월 들어 준 것이다.19개 은행의 월별 예대금리차 공시는 금융당국이 지나친 ‘이자 장사’를 막자는 취지로 올해 7월부터 시행됐다. 예대금리차가 상대적으로 크다는 것은 산술적으로 대출·예금 금리 격차에 따른 마진이 많다는 뜻이다. 지난달 예대금리차가 축소된 것은 은행들이 늘어나는 자금 수요를 감당하기 위해 수신 금리를 큰 폭으로 올렸기 때문이라는 해석이 나온다.5대 은행 중에선 NH농협은행의 가계 예대금리차(가계대출금리-저축성수신금리)는 1.56%포인트로 집계됐다. NH농협에 이어 ▲하나은행(0.94%포인트) ▲신한은행(0.89%포인트) ▲우리은행(0.77%포인트) ▲KB국민은행(0.67%포인트) 순으로 가계 예대금리차가 컸다.NH농협은행은 8월(1.73%포인트)과 9월(1.85%포인트) 이어 석 달 연속 5대 은행 중 예대금리차 1위를 기록했다. NH농협은행 관계자는 “저원가성 수신 금리로 인해 예대금리차가 크게 보이는 것”이라며 “실제 10월 정책서민금융 제외 가계대출금리는 농협이 연 4.85%로 5대 은행 중 KB국민(연 4.82%)을 제외하면 가장 낮다”고 설명했다.서울 시내 한 시중은행 예금금리 안내문. /연합뉴스        인터넷전문은행 중에서는 토스뱅크의 가계 예대금리차(5.37%포인트)가 가장 컸다. 케이뱅크(1.57%포인트)와 카카오뱅크(1.11%포인트)가 뒤를 이었다.토스뱅크 측은 “상대적으로 대출 금리가 높은 중저신용자 및 개인사업자 위주의 포용적 금융을 목표로 하는 데다, 연 2%대 요구불예금(수시입출금 통장)이 수신금리에 미반영돼 예대금리차가 크게 나타났다”고 설명했다.전체 은행 가운데 가계 예대금리차가 가장 큰 곳은 토스뱅크와 더불어 전북은행(5.37%포인트)이었다. 가장 작은 은행은 IBK기업은행(0.58%포인트)이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.11.27.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>인뱅, 중·저신용 대출 '막판 스퍼트'…금리 리스크 '관건'</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002661646?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>케뱅 24.7%…목표까지 0.3%'이자 부담' 막판 변수 주목케이뱅크, 카카오뱅크, 토스뱅크 ⓒ각 사[데일리안 = 김효숙 기자] 인터넷전문은행들이 중·저신용 대출 비중 목표치를 채우기 위해 막판 스퍼트를 내고 있다. 금융당국이 정한 가이드라인에 대부분 바짝 다가서면서 무난히 고지 달성이 예상되지만, 하루가 다르게 불어나는 이자로 대출 수요가 줄고 있는 현실은 막판 변수가 될 전망이다.27일 은행연합회에 따르면 카카오뱅크, 케이뱅크의 올해 9월 말 기준 중저신용 대상 신용대출 비중은 각각 23.2%, 24.7%이다. 연말까지 목표치는 두 곳 다 25%로 각각 1.8%, 0.3% 남겨둔 상황이다. 중·저신용자는 KCB 기준 신용평점 하위 50%를 의미한다.토스뱅크는 지난 21일 기준 중·저신용 대출 비중이 40.1%라고 밝혔다. 연말까지 목표치는 42%로 토스뱅크 는 남은 한달 여동안 1.9%를 채워야 한다.이들은 정부로부터 사업 인가를 받을 당시, 첨단 정보기술을 활용해 중·저신용자 신용대출에 적극적으로 나선다고 약속한 바 있다.하지만 기대와 달리 인터넷은행들의 중·저신용 대출이 미흡했다고 판단한 금융당국은 지난해 5월 이에 대한 관리감독을 강화하겠다고 나섰다. 지난해 9월 말부터 인터넷은행 중신용자 대출 비중을 공시하도록 하고, 목표 달성 계획을 제대로 지키지 않을 시 이를 신사업 인·허가 등에 고려하겠다고 했다.당시 이같은 경고에도 인터넷은행 3사는 지난해 각자 목표치를 달성하지 못했다. 연말부터 이뤄진 정부의 가계대출 총량 규제가 대출을 늘리는 데 제한 요소였기 때문이다. 인터넷은행 3사 모두 올해부터 중·저신용 대출에 적극 나선 만큼, 이번에는 목표치는 무난히 달성할 수 있다는 분위기다.다만 최근 한국은행이 올해만 7번 기준금리를 인상하면서 대출금리 역시 치솟고 있다. 고금리 이자 부담에 대출 수요도 줄고 있는 점은 마지막 변수가 될 전망이다.공시 기준이 신규취급액 기준이 아닌 잔액 기준이기 때문에 높은 이자 부담을 느끼는 차주들이 원금을 일부 갚기라도 하면 비율이 떨어질 수도 있다.인터넷은행 관계자는 "전체 여신 규모가 커지면 잔액 기준 중저신용 대출 비중을 늘리기 어렵다"며 "신용평가모델을 고도화하며 건전성을 관리해야하는 점은 두 가지 숙제"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.11.17.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>'C레벨 인사' 모셔온 위메프…"체질개선해 경쟁력 강화"</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004123592?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>이진호 CTO·김동민 CPO 영입"테크·서비스 전략 시너지 기대"김동민 위메프 CPO[서울경제] 위메프가 최근 두 달간 C 레벨 인사를 잇달아 영입했다. 2010년 창사 이래 최고경영책임자(CEO) 외에 별도의 C 레벨 경영진을 두지 않았던 위메프이지만 최근 급변하는 유통 환경 속에서 근본적인 체질 개선을 통해 위메프만의 서비스 경쟁력을 갖추겠다는 의지로 풀이된다.17일 유통업계에 따르면 위메프는 지난 8월 애플 출신의 이진호 박사를 최고 기술책임자(CTO)로 영입한 데 이어 지난달 말 김동민 전 토스 증권 창립 멤버를 최고제품책임자(CPO)로 잇달아 영입했다.위메프 관계자는 “C 레벨 최고 책임자는 자신의 분야에서 독보적인 역량을 증명한 S급 인재로 구성원들의 일하는 방식, 업무 역량에도 영향을 줄 것”이라며 “이용자 중심의 플랫폼 서비스 고도화가 더욱 빨라질 것”이라고 설명했다.이진호 위메프 CTO이 CTO가 총괄하는 기술 분야는 위메프가 ‘커머스 플랫폼’으로의 도약을 선언한 이후 가장 공을 들이는 분야다. 이 CTO는 미국 메타커머스 ‘비컴닷컴’ 테크 리더로, 애플에서는 인공지능(AI)과 머신러닝(ML)을 바탕으로 한 검색 기술 개발 책임자로 활약해왔다. 김 CPO는 서비스 전략을 총괄한다. 위메프는 사용자 중심의 서비스 개편을 지속하고 있는데, 김 CPO가 이용자에게 실질적으로 도움되는 쇼핑 콘텐츠를 제공하고, 쇼핑 과정을 더욱 편리하게 기획하는 데에 적임자라는 설명이다.위메프 관계자는 “이 CTO가 주축이 돼 쌓은 기술적 역량을 김 CPO 산하에서 ‘이용자 중심’의 서비스로 구현할 계획”이라며 “두 C레벨 인사의 시너지가 클 것”이라고 기대했다. 이어 그는 “테크와 서비스 전략이 잘 어우러져 ‘어떤 상품이 요즘 유행하는지’, ‘어떤 상품을 고르는 것이 좋을지’를 고민하는 플랫폼으로 거듭나는 것이 목표”라고 말했다.C레벨 영입 외에도 위메프는 최근 유튜브 및 구글과 협력 체계를 구축하며 쇼핑 플랫폼으로서의 역량도 강화하고 있다. 지난달 유튜브 라이브 방송에서 소개하는 상품을 위메프에서 바로 구매할 수 있도록 시스템을 연동한 데 이어 최근에는 구글과의 클라우드 협업을 통해 한층 진화한 상품 추천 및 이미지 검색 시스템 등을 도입한다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>[단독] 아마존 부사장이 뭐가 아쉬워서?...토스로 넘어온 이 남자</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005046266?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>투자 위축기 인재 유치 ‘역발상’C레벨 임원 잇따라 영입300명 규모 직원 채용 진행도핀테크 업계 전반에서 채용과 투자를 줄이는 상황에서 금융 앱 ‘토스’ 운영사 비바리퍼블리카(토스)가 미국 아마존에서 부사장까지 지낸 인사를 임원으로 영입해 과감한 확장 전략을 펼쳐 화제다. 토스는 이런 때 우수 인력을 적극 끌어들여 성장 동력을 확보한다는 계획이다.16일 하대웅 토스 최고제품책임자(CPO·사진)는 매일경제와 통화에서 “결제, 은행, 증권을 비롯한 서비스의 모든 부문에서 고객이 편리함을 느낄 수 있도록 하겠다”며 “매출 성장과 고객 경험 향상 모두를 잡겠다”고 포부를 밝혔다.미국 아마존에서 최고제품책임자(부사장)를 맡았던 그는 최근 토스 최고제품책임자(CPO)로 자리를 옮겼다. 간편 결제, 대출 비교를 비롯한 토스의 모든 서비스를 출시부터 사후 관리까지 총괄하는 역할이다. 토스 내에서 수많은 프로젝트를 진행하는 개별 PO(제품 담당자)들 사이를 조율하고, 그룹 차원의 전략 방향을 수립하는 일도 맡았다. 그는 “한국 금융을 혁신하겠다는 이승건 대표의 비전에 깊이 공감했다”며 “아마존 근무 경험을 자양분 삼아 토스의 성장을 돕겠다”고 했다.실제로 하 CPO는 아마존 재직 시절 결제 관련 고객 경험을 개선하는 작업에 참여했다. 계산대 앞에서 줄 설 필요 없이 앱을 켜고 매장에 들어가 물건을 가지고 나오면 자동으로 결제가 되는 ‘아마존 고’(Amazon Go) 프로젝트가 대표적이다.업무 방식 개선도 관심사다. 그는 “직원이 160만명이 넘고, 업력이 30년 가까이 돼 가지만 여전히 연 평균 10% 이상 성장하는 아마존의 동력은 구성원들의 ‘Think Big’(크게 생각하기) 리더십”이라며 “토스 구성원 모두가 크게 보며 다양한 사업 전략을 제안할 수 있도록 만들겠다”고 덧붙였다.아마존에서 토스로 옮긴 결정과 관련해 하대웅 CPO는 “이승건 대표가 토스의 강점뿐 아니라, 토스가 맞닥 뜨린 도전들에 대해서도 솔직하게 얘기해줬다”며 “경제 위기 속에서 토스의 성공을 만들어 나가는 데 내 장점을 잘 살릴 수 있다고 판단했다”고 말했다.앞서 토스는 지난 8월 디지털 업무 솔루션 기업 서비스나우의 김규하 한국대표도 최고사업책임자(CBO)로 영입한 바 있다. B2B 부문을 중심으로 매출, 수익성 등 제고를 위해 토스 사업 영역을 조율하는 위치다. 직원들 채용도 적극적이다. 토스는 지난 9~10월 토스, 토스뱅크, 토스페이먼츠, 토스증권, 토스인슈어런스, 토스씨엑스, 토스글로벌, 토스플레이스을 비롯한 전 계열사 24개 직군에서 최대 300명을 채용하는 ‘2022 토스커뮤니티 대규모 채용’을 실시한 바 있다. 하대웅 토스 최고제품책임자 &lt;사진 제공=비바리퍼블리카&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.11.19.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>“주민번호 뒷자리가 1이든 2든, 모두 저 박에디인데 말이죠”</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002615549?sid=102</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>[한겨레S] 기획 _ 인권활동가 에디의 성별 정정 분투기판결문엔 수술 여부 주로 언급“그동안 겪은 고뇌 빠져 씁쓸”성별 정정 뒤 정보 변경 복잡업체서 명의 변경 요구하기도엠티에프(MTF) 트랜스젠더 여성인 박에디씨가 지난달 24일 인터뷰에서 법적 성별 정정 과정에서 겪었던 고충을 설명하고 있다. 이정용 선임기자 lee312@hani.co.kr☞한겨레S 뉴스레터 무료 구독. 검색창에 ‘에스레터’를 쳐보세요.“딩~딩.”뭔가 나타날 것 같은 분위기의 음악에서 현이 돌출되듯 튕겨진다. 심상찮은 음악이 점점 고조되고, 이윽고 방문이 열린다. 곧이어 의료진과 병원 침대에 누운 한 여성이 등장한다. 성별 확정 수술을 막 마친 박에디(활동명·35)다. 에디는 올 1월 말 타이(태국)의 한 병원에서 수술을 마치고 병실로 들어오는 모습을 찍은 영상을 자신의 페이스북에 올렸다. 댓글엔 ‘영웅 탄생’ ‘슈퍼히어로’ 등이 달렸다. “게임이나 영화를 보면 영웅이 태어났을 때 배경음악이 깔리잖아요. 함께 태국에 간 지인들에게 병실에 들어섰을 때 다시 태어난 느낌으로 웅장하고 멋진 노래를 틀어달라고 했어요.” 에디가 선택한 곡은 게임 ‘어쌔신 크리드 오디세이’에 나오는 메인 테마곡 ‘레전드 오브 디 이글 베어러’(Legend of the Eagle Bearer)​이다. “병실에서 노래가 들렸을 때 ‘아차’ 싶었어요. 마취가 덜 깨서 비몽사몽이었는데 창피하더라고요. 안정을 취해야 하는데 말이에요.(웃음)” 다섯줄짜리 성별정정 판결문에디는 엠티에프(MTF, 스스로를 여성으로 정체화한 지정 성별 남성) 트랜스젠더 여성이다. 올해 초 성별 확정 수술을 받기 전까지 약 5년간 청소년성소수자 위기지원센터 띵동에서 활동가로 일하며 청소년 성소수자들의 ‘든든한 백’이 돼왔다.성별 확정 수술은 에디가 오랫동안 기다렸던 일이었지만, 뻔한 활동가 수입으로 몇천만원이나 하는 수술비를 충당하기는 어려웠다. “주변 도움이 컸죠. 비용을 모금해 주기도 하고, 수술 뒤 한국에 돌아왔을 땐 사골국을 끓여주기도 했어요. 고맙죠.” 덕분에 몇개월 동안 몸을 회복하고, 올 6월 법원에 성별 정정을 신청했다.성별 정정 신청 서류를 준비하는 건 만만치 않다. 먼저 가정법원에 등록부 정정 허가 신청을 해야 한다. 신청서와 가족관계등록부의 기본증명서, 가족관계증명서, 주민등록표등(초)본은 필수로 제출해야 한다. 출입국 증명서, 혼인관계증명서, 정신과 진단서, 수술확인서, 의사 소견서, 성장환경진술서, 인우보증서, 신용정보조회서 등은 2020년 3월 대법원 예규가 개정됨에 따라 참고 서면으로 바뀌었지만, 대체로 함께 제출하는 편이다. “의사 소견서를 제출하면서 의아했어요. 성별 확정 수술을 받았다는 수술확인서가 있는데 국내 병원에서 몸을 보여주며 생식능력이 없음을 다시 확인을 받아야 하거든요. 출입국 증명서도 함께 제출했는데 ‘나는 범죄를 일으키지 않는다’ ‘사회에 해를 끼치지 않는다’는 걸 계속 증명하는 과정 같았어요.”법원에 성별 정정 신청 서류를 제출하고 난 뒤엔 기약 없는 기다림이 이어졌다. 다행히 2개월여 만에 심문기일이 잡혔다. “판사가 ‘언제부터 여성으로 인식했냐’고 묻더라고요. 문제적인 질문이거든요. 왜냐면 지금 내가 여성이 아니라는 전제가 있는 거니까요. 그래도 그냥 넘기고 답했어요. 판사 심기를 거슬러서 좋을 게 없으니까요.” 심문은 10여분 만에 끝났다.그리고, 9월2일 오랫동안 원했던 결과를 받았다. 하지만 막상 판결문을 확인하고는 좀 씁쓸했다. 다섯줄짜리 성별 정정 허가 이유엔 생식능력과 수술에 대한 언급이 주를 이뤘다. “그동안 제가 고민하고 혼란스러워했던 시간, 고뇌를 다 적어 냈는데 그런 언급이 없어서 성별 정정엔 수술 여부만 중요했던 건가 싶었어요. 씁쓸했죠.”예상보다 빠른 성별 정정은 반가웠지만, 복병은 성별 정정 이후였다. 법원으로부터 성별 정정을 허가받더라도 가족관계등록부, 주민등록증, 여권 등은 신청인이 따로 변경 신청을 해야 했다. 주민번호 뒷자리 ‘1’로 가입된 서비스업체에 연락해 주민번호 뒷자리 ‘2’로 바뀐 개인정보 변경도 신청해야 한다. 상당수 업체는 ‘주민번호 1 박○○’과 ‘주민번호 2 박서연’을 같은 인물로 보지 않았다. “개인정보를 변경하는 칸에 주민번호를 바꾸는 칸은 없었고, 업체에 연락했더니 시스템상 명의를 바꿔야 한다고 하더라고요. 둘 다 같은 사람인데 ‘박○○’에서 ‘박서연’으로 명의를 변경하는 게 말이 안 되잖아요.”알뜰폰 통신사에선 가입 이벤트로 1년여간 매달 받아왔던 50기가 데이터를 ‘명의 변경’ 탓에 더 이상 지급할 수 없다는 답을 듣기도 했다. 시스템 부재로 ‘개인정보 변경’이 아닌 ‘명의 변경’을 하면서, 그 책임도 고객에게 넘긴 셈이었다. “문제제기 했더니, 뭐가 문제냐는 식이더라고요. 온라인 서비스를 가입하거나 이용하려면 통신사 인증이 필수잖아요. 그래서 통신사 개인정보 변경이 가장 시급했던 문제라 싸우고만 있을 순 없더라고요. 업체 말대로 명의 변경하고 매달 받던 데이터도 날렸죠.”비슷한 일은 다른 온라인 금융사에서도 이어졌다. 개인정보를 변경하는 게 아니라 ‘주민번호 뒷자리 2’ 박서연으로 새로 가입해야 했다. 예를 들어 송금서비스 앱인 ‘토스’에서는 과거 박○○으로 가입해서 토스에 연결했던 금융사의 계좌를 불러올 수 없었다. “새로 은행 계좌를 트지 않는 이상 이전에 사용하던 계좌는 사용을 할 수가 없더라고요. 비슷한 상황에 계신 분께 조언드리자면, 그냥 새로 계좌 만드세요. 제일 속 편합니다.(웃음)” 주홍글씨로 남는 성별정정 이력실제 트랜스젠더들은 성별 정정 이후 에디처럼 정보 변경에서 어려움을 겪는다. 공익인권변호사모임 ‘희망을만드는법’ 류민희·박한희·조혜인·한가람 변호사가 트랜스젠더 70명을 설문조사해 낸 2018년 연구보고서 ‘트랜스젠더의 성별정정 절차 개선을 위한 성별정정 경험 조사’에 따르면, 성별 정정 이후 ‘보험, 인터넷, 학교 등 개별 정보를 일일이 변경해야 하는 어려움을 겪었다’고 답한 이가 응답자 33명 중 25명(75.8%)에 이르렀다. 다음으로 ‘공문서에 변경 사실이 드러났다’가 51.5%였다. 서술형 응답에는 ‘고등학교·대학교 선생님·행정실에 성전환 사실을 알리고 수정을 부탁드려야 했다’(사실상의 강제 커밍아웃), ‘주민등록초본과 기본증명서에 남겨진 성별 정정 기록을 지우고 싶다’ 등이 있었다. 특히 트랜스젠더에 대한 부정적 인식이 높은 한국 사회에서 주민등록초본 등에 남는 성별 정정 이력은 ‘주홍글씨’와도 같다. 에디가 말했다. “취업을 준비하는 트랜스젠더 같은 경우엔 기업에서 초본을 요구하면 강제 아우팅이 되잖아요. 부정적인 낙인이 되는 상황에서는 마이너스가 될 수밖에 없죠.”성별 정정 뒤 2개월간 까다로웠던 정보 변경을 마치고 요즘엔 트랜스젠더 여성의 삶을 다룬 다큐멘터리 촬영과 에세이 집필에 집중하고 있다. “책이 잘 팔리면 좋겠지만 돈을 번다는 생각은 안 하고 있어요. 트랜스젠더 당사자분들이나 경험을 듣고 싶은 앨라이(성소수자 차별에 반대하는 이들)가 되고 싶은 분들이 읽으면 좋겠다 싶어요.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.11.23.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>예대금리차 공시, 대출금리 브레이크 걸었나</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000011898?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>10월 예대금리차, 전달대비 큰 폭 축소대출금리 인상폭 조절했지만…상승 압력 거세시중은행 예대금리차(예금과 대출금리 차)가 큰 폭으로 줄었다. 예‧적금 상품 등 수신금리는 큰 폭으로 올린 데 반해 대출금리 인상 폭은 최소화했다.하지만 자금조달을 위한 수신금리 경쟁이 치열해 향후 대출금리 인상 폭이 확대될 가능성을 배제할 수 없는 상황이다.수신금리 인상에 예대금리차 축소은행연합회에 따르면 10월 기준 주요 시중은행(KB국민‧신한‧하나‧우리‧NH농협은행)과 인터넷전문은행(카카오‧케이‧토스뱅크) 가계 예대금리차는 약 1.69%포인트로 전달(2.18%포인트)대비 0.49%포인트 축소됐다./그래픽=김용민 기자 kym5380@지난 7월 은행별 예대금리차 공시가 시작된 이후 주요 은행들 가계 예대금리차는 제자리 수준을 유지해왔다. 10월의 경우 한국은행 금융통화위원회가 '빅스텝'(기준금리 0.5%포인트 인상)을 단행했음에도 금리차 축소폭이 가장 큰 것으로 나타났다.금리차가 큰 폭으로 줄어든 것은 은행들이 수신금리는 큰 폭으로 인상한 반면 대출금리 인상 폭은 제한했기 때문이다. 실제 주요 은행들의 전달대비 가계대출 금리 인상 폭은 0.2%포인트, 저축성수신금리는 0.69%포인트 올랐다. 대출금리보다 수신금리가 세배 이상 오른 셈이다.공시 효과일까정부가 예대금리차 공시를 시작한 것은 은행들의 지나친 이자 장사를 경계하고, 금리 인상기 대출금리 인상 속도를 늦추는 게 목표였다. 이를 감안하면 기준금리의 가파른 인상 속에서 은행들의 예대금리차 축소는 공시 효과가 나타난 것으로 평가할 수 있다.한 시중은행 관계자는 "수신금리 인상으로 자금조달 비용 등이 늘었지만 예대금리차 공시로 이전보다는 대출금리 인상 폭을 줄이고 있다"며 "금리차 공시가 대출금리 인상 속도조절 역할을 하는 부분이 있다"고 설명했다.반면 공시에 대한 부담보다 최근 은행 경영 상황이 금리차 축소로 나타난 것이란 목소리도 나온다. 단기자금시장 안정을 위해 금융당국의 은행채 발행 자제 요청으로 은행들은 예‧적금 등 수신상품을 통한 자금조달 의존도가 커진 상태다. 자금을 모으기 위해 수신 금리를 올려야 하는 상황인 것이다.동시에 가계대출 수요는 크게 줄었다. 부동산과 주식 등 자산시장 위축과 금리 인상으로 이자 부담이 급증해서다. 은행들 입장에선 줄어든 가계대출 수요를 잡기 위한 대출금리 경쟁이 불가피하다.또 다른 은행 관계자는 "공시를 염두에 두고 예대금리차를 축소하기 위해 인위적으로 대출금리를 결정하지는 않는다"라며 "금리는 은행 경영과 관련된 사안이기 때문에 금리차 공시보다 금융당국 정책과 대출 수요 등에 대응한 결과"라고 말했다. 금리차, 더 줄일 수 있을까금융소비자들의 관심은 앞으로 금리차가 얼마나 더 축소될 수 있을지다. 특히 기준금리 인상이 지속되는 상황에서 대출금리는 상대적으로 덜 오른다면 이자부담을 조금이라도 덜 수 있어서다.하지만 상황은 녹록지 않다. 특히 은행들이 자금조달 부담을 얼마나 감당할 수 있을지가 관건이다. 자금조달을 위해 은행들은 수신금리를 빠르게 올렸고 이는 코픽스 금리 상승으로 이어졌다. 10월 코픽스(COFIX, 자금조달비용지수) 금리는 역대 최고치(3.98%, 신규취급액 기준)를 기록했다. ▷관련기사: 코픽스도 또 '빅스텝'…서민·영끌족 깊어지는 한숨(11월19일)여기에 금융당국이 자금쏠림 현상을 우려해 금융권에 수신경쟁 자제를 요청하면서 수신금리 인상에도 제동이 걸릴 전망이다. 시중은행 관계자는 "은행들이 마진 감소 등을 감수하고 대출금리 인상 폭을 제한했지만 곧 한계점에 다다를 것"이라며 "기준금리 인상이 계속되고 자금조달 부담이 커지는 상황에선 대출금리 상승 압력은 갈수록 커질 수밖에 없다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.11.25.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사, 중·저신용자 신용대출 비중 3분기 28.9%</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005183077?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 중급리대출 취급 비중 (은행연합회)인터넷전문은행 3사의 지난 3분기 중·저신용자 신용대출 평균 취급비중이 28.9%를 기록했다. 25일 은행연합회에 따르면 3분기 카카오뱅크·케이뱅크·토스뱅크의 중금리대출 취급 비중(잔액기준)은 평균 28.9%를 기록했다. 이는 직전분기 27.5% 대비 1.4%포인트 증가한 수치다.토스뱅크의 3분기 중금리대출 비중은 39.0%였다. 같은 기간 케이뱅크가 24.7%, 카카오뱅크가 23.2%를 기록했다. 직전분기 증가폭은 각각 3.7%포인트, 0.7%포인트, 1.0%포인트를 기록했다.중저신용자 대출 비중이 늘어난 비중 만큼이나 공급량도 불었다. 카카오뱅크가 올해 1월부터 10월까지 중·저신용 고객에게 공급한 신용대출 규모는 2조1147억원으로 지난해 연간 공급(1조7000억원) 규모를 넘어섰다. 토스뱅크도 중·저신용자 대출 잔액이 지난 19일 기준 2조7000억원으로 지난 6월(1조3338억원) 대비 두 배 이상으로 늘었다.케이뱅크는 올해 상반기 1조490억원의 중금리대출을 공급한 데 이어 3분기 5502억원을 취급해 3분기 누적 대출규모가 약 1조6000억원이다. 지난해 연간 공급 대출규모(7510억원)의 두 배가 넘는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.11.29.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>경기 불황 직격탄 스타트업..."수익성 입증해야 버틴다"</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002275055?sid=105</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>토스·알스퀘어·쏘카 흑자 기조로 생존..."스타트업 진짜 실력, 경기 침체로 드러나"경기 둔화에 따른 투자시장 침체로 예전부터 수익성을 챙긴 스타트업들이 빛을 발하고 있다.매출을 늘리면서도 조직을 안정적으로 운영하고, 이익을 낼 수 있는 사업구조를 갖춘 스타트업들이 순항할 것으로 전망된다. 반면 성장에 초점을 두고 사업 확장에 주력했던 기업들은 추가 투자 유치를 위해 투자사의 ‘문’을 두드리거나, 그동안 확대한 사업과 조직을 축소하는 모양새다.29일 스타트업 업계에 따르면 ‘토스’ 운영사 비바리퍼블리카는 올해 상반기 5천300억원의 매출액을 기록했다. 지난해 전체 실적(7천800억원)의 70%가량을 6개월 만에 달성했다. 지난 8월에는 기업가치 9조원을 바탕으로 2천300억원의 투자금을 추가 유치했다.인플레이션 자료사진(제공=이미지투데이)비바리퍼블리카는 최근 계열사 지배력을 높이고, 재무안정성을 다지기 위한 자본 확충에 집중하고 있다. 11월 초 전자결제(PG) 계열사인 토스페이먼츠 지분 12%를 추가 매입했다. 인터넷 은행 계열사인 토스뱅크는 지난 8월 재무안정성을 다지기 위해 3천억원 규모의 유상증자를 단행했다.상업용 부동산 데이터 전문 회사 알스퀘어는 안정적인 실적을 바탕으로 사업을 확대하고 있다. 알스퀘어는 올해 1~7월 수주매출 1천200억원을 돌파하며 지난해 전체 수준을 뛰어넘었다. 지난해 같은 기간과 비교하면 50% 넘게 증가한 수준이다. 알스퀘어는 지난해 소폭이지만, 영업이익을 기록하며 프롭테크 기업 중에선 유일하게 흑자를 냈다. 베트남과 싱가포르에 이어 말레이시아와 인도네시아, 태국 등에 진출하며 해외 사업에 적극적으로 뛰어들고 있다.지난 8월 유가증권시장에 상장한 쏘카도 최근 흑자를 내며 수익성 중심의 사업을 펼치고 있다. 쏘카는 지난 3분기에 1천170억원의 매출액을 기록했다. 지난해 3분기(865억원)보다 35.3% 늘었다. 영업이익도 116억원으로, 전년(15억원)보다 8배 가까이 증가했다. 쏘카는 올해 1~9월 누적으로 45억원의 영업이익을 올려 전년과 비교해 흑자 전환했다.경기 침체로 스타트업들도 수익성을 입증해야 생존할 수 있게 됐다. (제공=이미지투데이)앞선 사례처럼 순항하는 기업은 소수에 불과하다. 대부분의 스타트업은 투자시장 침체에 난항을 겪고 있다. 2016년 설립된 국내 1호 미디어 스타트업 닷페이스와 뷰티숍 예약 결제서비스 라이픽, 빅데이터 기반 모바일 사용자 분석 유저해빗, 패션 플랫폼 힙합퍼 등은 최근 폐업을 결정했다.오늘회를 운영하는 오늘식탁은 9월 서비스를 중단했다. 이후 다시 서비스를 재개했지만, 경영 체질을 타이트하게 바꾸고 있다. 적자 규모를 키우지 않고 영업이익을 낼 수 있도록 회사 비즈니스모델, 조직, 재무구조를 전환하는 과정에 있다.'부릉' 운영사 메쉬코리아는 최근 서울회생법원 자율적 구조조정지원 프로그램(Autonomous Restructuring Support, ARS)을 신청했다. ARS 프로그램은 법인회생절차의 한 종류로 법원의 보전처분·포괄적금지명령(채무변제, 강제집행 등 원칙적 금지) 하에 최대 3개월간 회생절차개시를 보류하고 있다가 채권자 채무자간 협의가 이뤄지면 회생신청을 취하하도록 하는 제도다. 이 과정에서 창업자 유정범 의장의 경영권과 회사 매각을 두고 OK캐피탈 등 채권단과 법적 다툼을 벌일 가능성이 제기되는 상황이다.스타트업 관계자는 “투자시장 ‘거품’이 꺼지면서 스타트업이라도 당장 이익을 낼 수 있고, 안정적으로 사업을 경영할 수 있느냐에 관심이 쏠린다”며 “호황에 가려졌던 스타트업의 진짜 실력이 경기 침체로 드러나고 있는 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.11.22.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>美 원자재·에너지 투자 '稅폭탄' 초비상</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004777964?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>내년부터 美 정부가 정한200여개 종목 매도하면손익 무관하게 10% 원천징수 '프로셰어즈 내츄럴 가스' 등서학개미 거래 많은 ETF 포함 증권사 "연내 매도 검토해달라"이 기사는 국내 최대 해외 투자정보 플랫폼 한경 글로벌마켓에 게재된 기사입니다.사진=게티이미지뱅크서학개미들이 ‘초비상’이다. 미국 정부가 내년부터 200여 개의 원유·가스·인프라 분야 상장지수펀드(ETF), 주식 등을 외국인이 팔 경우 매도액의 10%를 세금으로 내도록 하는 방안을 추진하면서다. 과세 대상인 200여 개 상품(종목)엔 국내 투자자들이 주로 거래하는 ETF가 대거 포함돼 있다. 상당수 서학개미가 올 연말까지 ‘손절’에 나서지 않으면 ‘세금 폭탄’을 맞게 될 판이다. 美 주요 원자재 ETF 투자자 ‘세금 폭탄’22일 증권업계에 따르면 한화투자증권, 키움증권, 토스증권 등은 고객들에게 “미국 국세청(IRA)이 ‘Section 1446(f)’ 규정을 통해 미국 증시에 상장된 200여 개의 PTP(Publicly Traded Partnership) 종목을 10% 원천징수 대상으로 지정했다”고 공지했다. 이들 증권사는 “세금 납부를 원하지 않을 경우 해당 종목을 12월 30일 이전까지 매도하는 방안을 검토해달라”고 알렸다.PTP는 원유·가스·금·은 등 천연자원이나 부동산·인프라 분야에 파트너십 형태로 투자하는 상품을 뜻한다. 미국의 주요 원자재 관련 ETF들이나 유한책임회사(LP) 형태로 상장돼 있는 인프라·에너지 기업이 주로 포함된다.한국경제신문 취재 결과 PTP엔 서학개미들이 많이 거래하는 ETF가 대거 들어간 것으로 파악됐다. 국내 투자자들이 최근 3개월 동안 가장 많이 거래한 미국 종목 16위인 ‘프로셰어즈 울트라 블룸버그 내추럴 가스’(BOIL)와 31위인 ‘프로셰어즈 울트라 VIX 숏텀 퓨처스’(UVXY) 등이다. BOIL의 경우 3개월간 국내에서만 4억달러(약 5430억원)가 거래됐다. UVXY는 2억6000만달러어치 거래됐다. 같은 기간 애플이 20억달러가량 거래됐다는 점을 고려하면 적지 않은 금액이다.유한책임회사 형태로 미국 증시에 상장돼 있는 ‘브룩필드 인프라스트럭처 파트너스’(BIP), ‘블랙스톤 미네랄스’(BSM) 등 글로벌 인프라·광산 투자 종목도 PTP 원천징수 목록에 들어갔다. “손실 피하려면 연내 매도해야”증권업계는 이번 미국 정부의 정책을 원자재 관련 상품에 대한 단기 트레이딩을 막기 위한 것으로 보고 있다. 그동안 원자재의 높은 가격 변동성을 이용해 단기 차익을 노렸던 투자자가 많았다. 내년부터 외국인 투자자들이 손익과 관계 없이 매도할 때마다 세금을 부과해 관련 거래를 사실상 틀어막겠다는 의도로 분석된다.한 증권업계 관계자는 “과거 니켈 시장 등에서 단기 해외 자금이 가격 변동성을 키웠다는 지적이 있었는데, 이 같은 상황을 막으려는 법안으로 보고 있다”고 말했다.신재생에너지 분야에 대한 투자를 유도하기 위한 정책이라는 관측도 있다. 한 외국계 증권사 관계자는 “환경오염을 유발하는 미국 내 전통 에너지 및 자원 관련 투자 상품에 해외 자금이 쏠리는 걸 막기 위한 것 같다”고 분석했다.증권사들은 현재로선 세금을 피할 뾰족한 방법이 없는 만큼 손실을 줄이기 위해 해당 종목을 다음달 12월 30일까지 매도하라고 권고하고 있다. 증권업계는 200여 개 종목 중 100여 개가 국내 증권사를 통해 거래되고 있는 것으로 보고 있다. 국내 투자자의 관련 상품(종목) 보유 금액만 2000억~3000억원에 달할 것으로 관측된다.문제는 현재 손실을 보고 있는 경우다. 손해를 보고 있는 투자자는 올 연말까지 보유 종목이 반등하지 않는다면 ‘손절’하거나 ‘세금 폭탄’을 맞아야 하는 상황에 내몰렸다. 원자재 ETF 등을 통해 자산 배분을 해온 기관투자가들의 고민도 크다는 전언이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.11.27.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>[New book] 이번 주 신간 도서</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000048581?sid=103</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>유난한 도전 나이를 이기는 심리학 일놀놀일유난한 도전정경화 지음 / 북스톤 펴냄 / 326쪽 / 1만7000원세상에 없던 금융, 세상에 없던 일 문화를 만드는 사람들인 토스의 이야기를 담고 있다. 간편송금으로 시작해 뱅킹, 증권, 보험, 결제 등을 아우르는 종합금융 플랫폼으로 성장한 저력을 엿보게 된다. 세간에 화제가 되는 그들의 독특한 기업 문화는 어떻게 만들어졌는지도 보여준다.나이를 이기는 심리학한소원 지음 / 바다출판사 펴냄 / 242쪽 / 1만6000원단순히 '현명하게 나이 들기'라는 단어적 의미를 넘어 훨씬 복잡하고 폭넓은 스마트 에이징(smart aging)에 관한 연구와 가이드다. 저자의 주된 연구 분야인 '뇌과학과 인지노화'를 설명하면서 학술적인 이론의 무게를 모두 걷어내고, 가장 쉬운 설명과 지극히 현실적인 사례와 어드바이스로 꽉 채운 실용 산문이다.일놀놀일김규림, 이승 지음 / 웅진지식하우스 펴냄 / 220쪽 / 1만7000원일도 잘하고 재밌게도 살고 싶은 당신의 생각을 행동으로 이끌어줄 책이다. '일놀놀일'은 '일하듯이 놀고 놀듯이 일하다'의 줄임말로, 두 사람이 일하면서 깨달은 태도를 함축적으로 보여주는 말이다. 일상에서 즐거움을 주는 것, 동경하는 것, 영감 등이 일에 소스가 된다면, 일의 생산성으로 연결된다면 어떨지를 고민한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>토스뱅크 1천억원 유상증자 결의…하나카드 합류</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002274633?sid=105</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>주금 납입 후 자본금 1조4천500억원인터넷전문은행 '토스뱅크'가 총 1천억원 규모의 유상증자를 추진하기로 결의했다고 24일 밝혔다.증자 후 토스뱅크의 총 납입 자본금은 1조4천500억원으로 늘어난다.신규 발행하는 주식은 보통주 2천만 주다. 주당 발행가는 5천원이다. 증자방식은 제3자 배정으로, 기존·신규 주주가 증자에 참여한다. 자본금 납입일은 이달 29일이다.토스뱅크이번 증자서 하나카드가 신규 주주로 합류했다. 하나카드는 약 98억원 규모(총 195만617주)를 투자한다.현재 주요 주주는 ▲비바리퍼블리카 ▲이랜드월드 ▲하나은행 ▲중소기업중앙회 ▲한화투자증권 ▲SC제일은행 등이다.토스뱅크의 출범 당시 자본금은 2천500억원이었으나 이번을 포함해 여섯 차례 증자를 단행했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.11.28.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>[우.동.행] 지금까지 이런 은행은 없었다…은행인가 LP룸인가</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002274905?sid=105</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>서울 마포 서교동 '무신사 테라스 라운지'에 우리은행 '원 레코드' 운영'지금까지 이런 은행은 없었다. 이것은 은행인가 LP룸인가.'서울 마포 서교동 무신사 테라스 라운지에 위치한 우리은행 팝업스토어 '원 레코드(WON Record)'를 둘러보면서 느낀 소감입니다. 이곳은 제가 소개해드린 은행 중에 가장 은행답지 않습니다. 디지털 기기나 로봇을 데려다 놓고 '디지털 기술을 최대한 구현한 은행'이라는 강압에 가까운 어필을 하지 않습니다.LP판과 LP플레이어, 자동화기기(ATM) 모습을 한 스티커 사진기로 배치된 원 레코드를 둘러보면 '은행이 이런 감성을 자극할 수도 있어?'라는 말이 절로 나오게 합니다. LP판 외에도 원 레코드의 캐릭터인 '지지직'만 보더라도 그렇습니다. 음표 모양을 본따 만든 캐릭터와 캐릭터를 잘 배치한 메모장과 스티커는 MZ세대들의 '다꾸(다이어리 꾸미기)'와 '폰꾸(폰 꾸미기)' 욕구를 자극합니다.서울 마포 서교통 '무신사 테라스 라운지'에 위치한 우리은행 '원 레코드'.왜 우리은행은 은행답지 않은 은행으로 MZ세대와 소통에 나섰을까요. 이와 관련해 팝업스토어를 기획한 우리은행 정철 채널전략부 차장은 "은행같지 않은 은행을 만드는데 최대한 집중했다"며 "은행과 젊은 세대들의 소통을 위해서 금융서비스보다는 그들이 좋아하는 것으로 또 음악이란 전 세대를 아우르는 콘텐츠로 대화하고 싶었다"고 설명했습니다. 이어 정 차장은 "직접 이원덕 은행장님도 둘러보고 갔는데 잘 했다고 한 마디 하고 가셨다"고 부연했습니다.서울 마포 서교통 '무신사 테라스 라운지'에 위치한 우리은행 '원 레코드'.서울 마포 서교통 '무신사 테라스 라운지'에 위치한 우리은행 '원 레코드'.MZ세대가 은행과 소통하는 주 채널이 영업점이 아닌 모바일로 옮겨 가면서, 전통 은행들은 카카오뱅크나 토스뱅크와 같은 인터넷전문은행들에게 접점을 빼앗기고 있지요. 이 접점을 만들기 위해서 MZ세대들이 즐길 만한 콘텐츠, 서비스와 제휴하고 있지만 과도한 금융서비스 소개는 눈쌀을 찌푸리게 만들었던 점이 있습니다. 이를 우리은행은 기민하게 캐치한 것입니다.서울 마포 서교통 '무신사 테라스 라운지'에 위치한 우리은행 '원 레코드'에 위치한 자동화기기(ATM) 스티커 사진기.특히 배치된 LP판을 통해 우리은행의 가치와 소개, 금융서비스를 자연스럽게 설명할 수 있다는 점이 눈길을 끌었습니다. 우리은행의 로고나 색깔과 같은 LP, 우리은행의 모바일 뱅킹 '원'에서 제공하는 운세나 부동산과 같은 비금융서비스를 연결할 수 있는 LP들을 소개한다는 점이 새로웠습니다.정 차장은 "음악 추천 업체로부터 LP를 추천받았으며 스토리를 녹이면서도 MZ세대에게도 소개할 수 있는 음악을 배치하는데 심혈을 기울였다"며 "팝업스토어에 대한 반응이 좋아서 이를 다양하게 활용하는 방안도 내부적으로 검토 중"이라고 귀띔했습니다.우리은행 팝업스토어는 12월 18일까지 운영된다고 합니다.“우리 회사를 소개합니다'의 새로운 코너 '우리동네 은행을 소개합니다(우동행)'를 시작합니다. 신종 코로나 바이러스(코로나19) 유행 이후부터 은행 지점을 찾는 발길이 서서히 끊어지고 있습니다. 국내 은행들도 이에 맞춰 지점을 줄이고 디지털 채널을 강화하고 있습니다. 디지털 소외 계층이나 은행이 꼭 필요한 순간을 대비해 찾아오고 싶은 은행으로 지점을 바꾸고 있습니다. 고리타분한 은행을 벗어난 특별한 은행 지점을 탐방해 소개해보려고 합니다. [편집자주]”</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>토스, '데이터보호 준법 자문위원회' 출범</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002136855?sid=105</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>좌측부터 이승건 토스 대표, 김승주 교수, 권헌영 교수, 김철준 고문, 신용석 토스 CPO[디지털데일리 이상일기자] 비바리퍼블리카(이하 ‘토스’)는, 외부 전문가 3인으로 구성된 ‘데이터보호 준법 자문위원회’를 출범한다고 16일 밝혔다.  앞으로 위원회는 토스가 보유한 고객 데이터에 대한 처리가 관련 법령을 잘 준수하고 있는지 독립적으로 확인하고 감시하며, 안전한 데이터 거버넌스 체계를 구축하기 위한 자문 역할을 수행한다. 위원회는, 회사의 데이터 보호 전략 및 정책, 준법 감시 활동을 반기마다 보고 받고, 개인 정보처리 민감도가 높은 사안에 대해서는 대표이사 및 개인정보보호책임자(CPO)에게 의견을 제시하게 된다. 토스는 위원회의 의견을 적극적으로 수용하고, 관련 결과를 홈페이지에 공개할 예정이다. 이번 자문위원회 출범은 자발적인 데이터 이용 및 보호에 대한 투명성을 높이는 자발적 신뢰 강화 활동의 일환이다. 신용석 토스 CPO는 “매월 국민 1400만 명이 사용하는 금융 플랫폼으로 성장하면서, 외부의 시선을 통해 더욱 적극적으로 고객 데이터 보호체계의 투명성을 점검 받고 개선해 나갈 필요가 있다는 내부 공감대가 있었다”고 설명했다.자문위원회는 고려대 정보보호대학원 권헌영 교수를 위원장으로, 동 대학원 김승주 교수, 법무법인 광장의 김철준 고문을 자문위원으로 하여 출범했으며, 지속적으로 확대할 계획이다.권헌영 교수는, 현재 한국IT서비스학회 회장과 한국정보보호학회 개인정보보호 연구회장을 맡고 있는 정보보호 분야 전문가다. 김승주 교수도 암호학과 사이버보안 분야의 전문가로, 대통령 직속 4차산업혁명위원회 위원으로 활동한 바 있다. 김철준 고문은, 17년간 금융 당국에서 다양한 금융업권의 IT부문 검사를 진행하였으며, 이후 금융회사 정보보호 최고책임자를 역임하고, 현재 법무법인에서 자문 활동을 하는 등 다양한 경험을 보유하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>10월 가계 예대금리차, 5대 은행 중 농협은행 1.60%p 최대</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011548615?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>기사내용 요약5대 은행, 농협·신한·하나·우리·국민 순농협 "단기성 정책자금 취급 특수성"19개 은행 1위는 전북은행 6.72%p[서울=뉴시스]이주혜 기자 = 지난달 국내 5대 시중은행 중 NH농협은행의 가계대출과 예금의 금리 차이가 가장 큰 것으로 나타났다.21일 은행연합회 공시에 따르면 지난달 신규 취급액 기준 농협은행의 가계 예대금리차(가계대출금리-저축성수신금리)는 1.60%포인트로 3개월 연속 5대 시중은행 중 가장 컸다.이어 신한은행 1.07%포인트, 하나은행 0.99%포인트, 우리은행 0.98%포인트, 국민은행 0.70%포인트 순이다.농협은행 관계자는 "다른 은행에 비해 대출금리는 낮고 예금금리는 높은 편이나 공공기관이나 정부의 만기 6개월 미만 단기성 정책자금을 취급하는 특수성으로 인해 이전 달과 마찬가지로 예대금리차가 상대적으로 크게 나타났다"고 설명했다. 가계 예대금리차는 가계 대출금리와 저축성수신금리의 차이다. 저축성수신금리에는 개인예금뿐만 아니라 기업, 기관 예금이 포함된다.정책서민금융(햇살론뱅크, 햇살론15, 안전망 대출Ⅱ, 최저신용자 특례보증)을 제외한 가계 예대금리차도 5대 은행 중 농협은행이 1.56%포인트로 가장 높았다. 하나은행 0.94%포인트, 신한은행 0.89%포인트, 우리은행 0.77%포인트, 국민은행 0.67%포인트가 뒤를 이었다. 정책서민금융을 제외하면서 하나은행과 신한은행의 순위가 바뀐 것으로 나타났다.5대 은행의 기업대출을 포함한 예대금리차는 농협은행 1.54%포인트, 국민은행 1.21%포인트, 신한은행·하나은행 1.11%포인트, 우리은행 1.03%포인트다.인터넷은행 중에서는 토스뱅크의 가계 예대금리차가 5.37%포인트로 가장 컸다. 이어 케이뱅크 1.57%포인트, 카카오뱅크 1.20%포인트다. 지방은행과 외국계 은행을 포함한 공시 대상 19개 은행 중 가계 예대금리차가 가장 큰 곳은 전북은행으로 6.72%포인트다. 가장 작은 곳은 SH수협은행으로 0.63%포인트로 집계됐다. 정책서민금융을 제외한 가계 예대금리차는 19개 은행 중 전북은행과 토스뱅크가 5.37%포인트로 가장 컸다. IBK기업은행이 0.58%로 가장 작았다. 기업대출을 포함한 예대금리차가 가장 큰 은행은 토스뱅크(5.28%), 최소는 한국씨티은행(0.11%)이다. 예대금리차 공시 대상 중 한국씨티은행은 소비자금융 업무의 단계적 폐지 결정에 따라 올해 2월15일부터 개인고객 신규 거래가 중단됐다.은행권 예대금리차 공시는 소비자에게 금리 관련 정보를 정확하고 충분하게 제공하고 은행들의 과도한 '이자 장사'를 막고자 7월부터 시행되고 있다. 매월 변동 추이를 확인할 수 있도록 신규 취급액 기준으로 산출된다.가계대출 기준 예대금리차와 기업대출을 포함한 대출평균 기준 예대금리차를 모두 공시한다. 고금리 정책대출 상품으로 인해 예대금리차가 커지는 왜곡이 발생하는 점을 보완하기 위해 정책서민금융을 제외한 예대금리차와 가계 대출금리도 공시하고 있다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.11.23.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>반도체·소매업 강세…K증시 연말랠리 시동 걸릴까 [증시 개장 전 꼭 알아야 할 5가지]</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004778260?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>사진=게티이미지뱅크미국 증시는 IT 경기 바로미터로 꼽히는 베스트바이(+12%)의 호실적에 따른 경기침체 우려 완화 및 블랙프라이데이 기대감 등으로 상승했다. 국내 증시도 반도체 및 소매업종 중심으로 반등이 이어질 것이란 기대가 나온다. ■ 코스피 연말랠리 시동 걸릴까미국 증시가 견조한 소매업종의 실적 발표에 힘입어 연말 쇼핑시즌에 대한 기대 심리가 확산되며 강세를 보인 점은 23일 국내 증시에 긍정적인 영향을 줄 것으로 전망된다. 중국 정부가 코로나 봉쇄 지역의 최소화, 기간의 단축 등을 시사한 점도 긍정적 요인으로 꼽힌다.서상영 미래에셋증권 연구원은 "역사적으로 연말 쇼핑 시즌에 대한 기대로 ‘연말 랠리’가 진행되었던 점을 감안할때 전반적인 투자 심리 개선에 우호적 영향을 줄 것으로 예상된다"며 "일부 호재성 재료가 유입된 반도체 기업들의 강세에 힘입어 필라델피아 반도체 지수가 3.03% 상승한 점도 긍정적"이라고 평가했다. 그는 "금일 국내 증시는 0.7% 내외 상승 출발 후 견고한 모습을 보일 것"이라고 내다봤다.한지영 키움증권 연구원은 "미국 델(+6.8%) 발 호재에 따른 필라델피아반도체지수(+3.0%) 반등 효과 등에 힘입어 대형주를 중심으로 상승 흐름을 보일 것"이라며 "미국 소비시즌에 영향을 받는 가전, 디스플레이 등 IT 업종 관련주들에 단기적 주가 모멘텀이 발생할 것"이라고 전망했다.염승환 이베스트투자증권 이사는 "이미 글로벌 각국 중앙은행들의 피봇(통화정책 전환)은 시작됐다"며 "주가는 이미 경기침체까지 반영한만큼 하방 리스크는 제한적이기 때문에 조정시 주식 비중 확대, 주가 상승시 관망 전략을 유지해야 한다"고 말했다. ■ 美 증시 기업 실적 호조에 반등미국 증시는 중국의 코로나19 상황을 주시하며 베스트바이 등 소매 기업들의 실적 호조에 상승했다. 22일(현지시간) 다우존스지수는 전장보다 397.82포인트(1.18%) 오른 34098.10으로 거래를 마쳤다. S&amp;P500지수는 전장보다 53.64포인트(1.36%) 상승한 4003.58로, 나스닥지수는 149.90포인트(1.36%) 뛴 11174.41로 장을 마감했다.미국 10년물 국채금리는 경기 둔화 우려에 장기물 국채 수요가 몰리면서 3.8% 아래에서 마감했고, 2년물 국채금리는 4.52% 근방에서 거래를 마쳤다. 둘 간의 금리 스프레드는 -76bp로 확대돼 1981년 10월 이후 역전 폭이 가장 커졌다. 장단기물 금리 역전은 경기 침체의 전조로 해석된다.한편 미국의 주택시장이 냉각되면서 투자자들이 일반 매수자들보다 급하게 발을 빼고 있다. 부동산 중개업체 레드핀에 따르면 3분기 미국에서 기업형 투자자들이 매수한 주택은 6만5000여 가구로 전년 동기(9만4000여 가구)보다 30.2% 급감한 것으로 집계됐다. 코로나19 사태 직후인 2020년 2분기를 제외하고, 지난 2008년 글로벌 금융이기 이후 최대폭 감소라고 레드핀은 밝혔다. ■ OECD, 중국 올해 3.3%·내년 4.6% 성장 예상경제협력개발기구(OECD)가 내년 중국의 경제 성장률 전망치를 4.6%로 조정했다. OECD는 22일(현지시간) 발표한 경제 전망 보고서에서 내년 중국의 성장률을 지난 9월에 발표한 직전 전망치(4.7%)에 비해 0.1% 포인트 내린 4.6%로 전망했다. 2024년에는 4.1% 성장할 것으로 OECD는 예상했다.OECD는 이와 함께 올해 중국 성장률은 9월에 발표한 전망치(3.2%)에 비해 0.1% 포인트 상향 조정해 3.3%로 예상했다. 이는 중국 정부가 지난 3월 제시한 올해 성장률 목표치인 '5.5% 안팎'을 크게 하회하는 것이다.중국의 올해 분기별 성장률(전년 동기 대비)은 1분기에 4.8%를 기록한 뒤 2분기에 0.4%로 급전 직하했다가 3분기에 3.9%로 회복했다.중국의 1∼3분기 누적 성장률은 3.0%로 집계됐다. ■ 내수부진에 기업 체감경기 약 2년만에 최악내수 부진으로 인한 소비심리 위축, 주택경기 둔화 등으로 비제조업을 중심으로 기업 체감 경기가 1년 11개월 만에 최악 수준으로 나빠졌다.한국은행이 23일 발표한 11월 기업경기실사지수(BSI) 조사 결과에 따르면 이달 모든 산업의 업황 BSI(실적)는 75로, 10월(76)보다 1포인트 내렸다. 지난 2020년 12월(75) 이후 1년 11개월 만에 최저치다.전산업 BSI는 지난 7월 80에서 8월 81로 올랐지만, 9월(78)과 10월(76), 11월(75)까지 3개월 연속 하락했다. BSI는 현재 경영상황에 대한 기업가의 판단과 전망을 바탕으로 산출된 통계로, 부정적 응답이 긍정적 응답보다 많으면 지수가 100을 밑돈다. ■ 美 원자재 투자한 서학개미 '稅폭탄' 초비상서학개미들이 ‘초비상’이다. 미국 정부가 내년부터 200여 개의 원유·가스·인프라 분야 상장지수펀드(ETF), 주식 등을 외국인이 팔 경우 매도액의 10%를 세금으로 내도록 하는 방안을 추진하면서다. 한화투자증권, 키움증권, 토스증권 등은 고객들에게 “미국 국세청(IRA)이 ‘Section 1446(f)’ 규정을 통해 미국 증시에 상장된 200여 개의 PTP(Publicly Traded Partnership) 종목을 10% 원천징수 대상으로 지정했다”고 공지했다. 이들 증권사는 “세금 납부를 원하지 않을 경우 해당 종목을 12월 30일 이전까지 매도하는 방안을 검토해달라”고 알렸다.증권업계는 200여 개 종목 중 100여 개가 국내 증권사를 통해 거래되고 있는 것으로 보고 있다. 국내 투자자의 관련 상품(종목) 보유 금액만 2000억~3000억원에 달할 것으로 관측된다. 과세 대상인 상품(종목)엔 국내 투자자들이 주로 거래하는 ETF가 대거 포함돼 있다. 상당수 서학개미가 올 연말까지 ‘손절’에 나서지 않으면 ‘세금 폭탄’을 맞게 될 판이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>수신이자 경쟁에 예대금리차 소폭 축소…농협銀 석달 연속 '1위'</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000311405?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>지난달 예대금리차가 은행권 전체적으로 줄어든 것으로 나타났습니다.또 시중은행에서 가장 예대금리차가 큰 곳은 석달 연속 농협은행이었습니다.오늘(21일) 은행연합회에 따르면 10월 정책서민금융 제외 가계예대금리차는 시중은행 중 NH농협은행이 1.56%p로 가장 컸습니다.뒤이어 하나은행 0.94%p, 신한은행 0.89%p, 우리은행 0.77%p, 국민은행 0.67%p 순입니다.전반적으로 시중은행 예대금리차는 한 달 전과 비교해 축소됐습니다. 농협은행의 경우 1.85%p에서 1.56%p로 약 0.29%p 줄어들었습니다.우리은행도 지난 9월 1.41%p에서 10월 0.77%p로 예대금리차가 절반 가까이 축소됐습니다.이밖에 신한은행도 1.25%p에서 0.89%p로, 국민은행과 하나은행도 각각 1.16%p, 1.14%p에서 0.67%p, 0.94%p로 예대금리차가 감소했습니다.이는 지난달 한국은행이 빅스텝을 밟으며 기준금리를 0.5%p 올리자 은행들이 예금과 적금 등 수신상품의 금리를 경쟁적으로 올린 영향이 큽니다.전체 은행권에서 가장 예대금리차가 가장 큰 곳은 전북은행으로 지난달 5.37%p 예대금리차를 기록했습니다. 전북은행은 지난 9월에도 6.43%p 예대금리차를 기록한 바 있습니다.인터넷은행인 토스뱅크는 지난달 5.37%p 수준의 예대금리차를 보였는데, 한 달 전 5.04%p 보다 0.3%p 가량 더 커졌습니다.한 은행권 관계자는 "10월 한국은행의 빅스텝 단행으로 수신금리를 올려 예대금리차가 크게 줄어든 것으로 보인다"면서 "금리인상기에 예대금리차가 줄어든 건 이례적"이라고 평가했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.11.17.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>토스, 계열사 합동 IT 재난 대응 훈련 개최</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000855760?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>모바일 금융 플랫폼 토스 운영사 비바리퍼블리카가 장애 및 재해 등 재난상황에서 위기 대응력을 높이기 위한 비상대응 훈련을 개최했다고 17일 밝혔다. 이번 비상대응 및 재난복구 훈련에는 토스 외에도 토스뱅크, 토스증권, 토스씨엑스 총 4개사가 함께했다.앞서 토스-토스뱅크, 토스-토스증권 간 비상대응 훈련은 있었지만 4개 사가 합동으로 전자금융서비스망 장애 관련 비상대응 훈련을 개최한 것은 이번이 처음이라는 게 토스 측의 설명이다.토스 로고(토스 제공)        비상대응 시나리오는 디도스 공격으로 토스 서버의 대고객 서비스 장애, 대고객 서비스와 연계기관 서비스 장애  두 가지 경우를 가정해 대응훈련을 실시했다.토스의 원 애플리케이션(앱) 위기관리 태스크포스(TF) 및 장애대응 TF는 각 계열사에서 총 138명이 부문별로 참여해, 상황발생 탐지 후 회의소집, 재해복구, 서비스 원복, 대외 고지 등 전 과정에 이르는 실제 프로세스를 신속하게 수행했다.토스는 안정적인 서비스 제공을 위해, 데이터센터(IDC)를 주센터와 DR(데이터복구)센터간 액티브-액티브 형태로 운영해왔다. 또한, 2018년부터 IDC 이중화를 도입해 현재 수도권 내 총 3개 IDC를 운영하고 있으며 추가 1개 IDC도 오픈을 앞두고 있다.토스에 따르면 액티브-액티브 방식은, 유사 시 백업 센터를 통해 복구 과정을 거치는 액티브-스탠바이 방식에 비해, 빠르게 대응 할 수 있는 것이 장점이다. 데이터센터 내 주요 전산 자원을 평소 동일하게 보유하고 있어 지진, 화재 등 비상상황 뿐 아니라 오류, 해킹 등이 발생해도 페일오버(업무 이관)을 통해 서비스 중단을 최소화할 수 있기도 하다.장세인 토스 정보보호최고책임자(CISO)는 “앞으로도 전자금융서비스망 장애 재난 상황을 고려한 다양한 시나리오를 개발해 정기적으로 비상대응 및 재해복구 훈련을 실시하겠다”며 “어떤 재난 상황에도 토스 사용자가 안심하고 쓸 수 있도록 위기 대응력을 제고해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.11.22.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>프랑스·일본·미국…글로별 경영 속도내는 최태원, 사업 기회 엿볼까 [뒷북비즈]</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004124816?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>파리 BIE 3차 총회서 부산엑스포 유치전다음달 일본, 미국 출장도 예정美 배터리 착공식 등 사업 관련 일정 소화 전망도최태원 SK그룹 회장. 사진=스파크랩[서울경제] 최태원 SK(034730)그룹 회장이 글로벌 경영을 통해 새로운 사업 발굴 기회를 엿본다. 부산국제박람회(부산엑스포) 지원 등 표면적인 일정 외에 이번 출장을 통해 ‘BBC(배터리·바이오·반도체)’ 산업의 현황을 둘러보고 현지 업체와의 협업 가능성을 살필 가능성이 제기된다.22일 재계에 따르면 최 회장은 이달 28~29일 프랑스 파리에서 열리는 국제박람회기구(BIE) 3차 총회에 참석한다. 최 회장은 2030 부산엑스포 유치지원위원회 공동위원장 겸 민간위원장을 맡고 있다. 이번 3차 총회에서 개최되는 경쟁 프레젠테이션(PT)을 총괄하고 있다. 올 6월 있었던 2차 PT에도 최 회장이 직접 참석했다.이어 다음 달 초에는 최 회장이 이사장으로 있는 최종현학술원 주최 포럼 행사가 일본과 미국에서 잇따라 열린다. 최 회장은 여기에도 참석한다. 최 회장은 12월 1~2일 일본 도쿄대와 최종현학술원이 공동 주최하는 ‘도쿄포럼 2022’에 참석해 개회 연설을 맡는다. 개회식에는 최 회장 외에 후지이 데루오 도쿄대 총장, 반기문 전 유엔(UN) 사무총장, 폴 알리비사토스 미국 시카고대 총장 등이 연설한다. 같은 달 5~7일에는 미국 워싱턴D.C. 근교에서 ‘제2회 트랜스 퍼시픽 다이얼로그(TPD)’ 일정이 진행된다. 지난해 처음 막을 연 TPD는 최 회장이 수년간 구상한 끝에 출범시킨 집단지성 플랫폼으로, 한미일 전현직 고위 관료와 학자, 재계 인사 등이 태평양·동북아 각종 현안을 논의하고 해법을 찾는 포럼이다.이번 일정을 포함하면 최 회장은 올해 들어서만 일본과 미국을 각각 세 번씩 방문하는 셈이다. 각 행사별로 표면적인 이유가 뚜렷하지만 일각에서는 SK그룹 내 각 계열사의 사업장 관련 일정이 예정돼 있어 사업 관련한 일정도 일부 소화할 수 있을 것이란 관측이 나온다.최 회장의 미국 출장이 예정된 다음 달 초에는 미국 테네시·켄터키주에 들어서는 SK그룹 배터리계열사 SK온과 포드의 배터리합작법인 ‘블루오벌SK’ 배터리1공장의 착공행사가 열릴 가능성이 높은 것으로 알려졌다. 이 자리에 최 회장이 참석할 가능성이 제기된다. 앞서 구광모 LG 회장도 지난달 미국 출장 중 오하이오주의 LG에너지솔루션-제너럴모터스(GM)의 합작법인 얼티엄셀즈1공장을 찾은 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.11.21.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>[오늘의 스프] 일론 머스크식 '언론의 자유'는 민주주의를 위협한다</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001014517?sid=103</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>'지식인싸'들의 프리미엄 레시피 지식구독플랫폼 스브스프리미엄, 스프입니다. 11월 21일, &lt;오늘의 스프&gt;입니다. 한 주를 시작하는 월요일에 어울리는 스프, 한 가득 담아왔습니다. -[개척자들] 한국 핀테크 시장의 개척자, 토스-[스프X뉴욕타임스] 일론 머스크식 '언론의 자유'는 민주주의를 위협한다-[마부작침] 내년 월급 50%나 올린 의원님, 그래도 겸직이 필요할까요?첫 번째 스프는, 새 분야를 개척해 온 혁신 스타트업의 성공 비결을 분석해 전해드리는 [개척자들]입니다. 고려대 경영대 남대일 교수팀과 함께 하는 [개척자들] 이번 편은, 핀테크의 불모지를 개척해 '계좌 이체해' 대신 "토스해"라는 말까지 만들어낸 토스입니다.      　[개척자들] 한국 핀테크 시장의 개척자, 토스한국에서는 핀테크 비즈니스가 어렵다 혹은 한국의 금융 산업에서는 급진적인 혁신이 탄생하기 어렵다는 의견이 팽배하던 시기에, 이러한 편견을 깨고 '고객 주도형' 비즈니스 모델을 통해 핀테크를 개척한 기업이 있다. 현재는 핀테크 서비스 분야의 유니콘이며 데카콘을 향해 성장해 나아가고 있는 비바리퍼블리카 토스다. 토스는 복잡한 절차 없이 간편한 계좌이체를 할 수 있는 송금 서비스를 선보이면서 "계좌 이체해"라는 말 대신 "토스해"라는 신조어를 만들어낼 정도로 소비자들의 마음을 사로잡으며 핀테크 시장의 '디스럽터(disrupter)'로 등장하였다."초기 창업팀은 사실 핀테크를 하겠다, 우리나라에 금융을 혁신하겠다 이런 생각을 가지고 비바리퍼블리카라는 회사를 창업하지는 않았어요. 모바일로 사람들에게 영향력을 주는 일을 해 보겠다는 생각으로 처음에 창업을 했었고 그 과정에서 사실 많은 실패를 했었죠. 초기 창업 팀 기준에서 토스는 아홉 번째 아이템이거든요. 어떻게 보면 여덟 개 다 망했습니다. 어떤 거를 해야지 사람들에게 큰 영향력을 주고, 사람들이 좋아하고, 정말 문제를 해결하는 걸까 라는 생각을 하게 되면서 그중에 하나가 '간편 송금'이었고 그 간편 송금 문제를 풀어보자라고 시작하면서 핀테크가 시작이 됐죠. 이걸 혁신해주는 게 뭔가 큰 성취겠다, 대박이겠다 이런 생각을 하면서 계속해서 몰입했던 것 같아요."  &lt;서현우 비바리퍼블리카 최고전략책임자&gt; **'보러가기' 버튼이 눌리지 않으면 해당 주소를 주소창에 옮겨 붙여서 보세요.[ https://premium.sbs.co.kr/article/9bnjNefgZR ]스프와 뉴욕타임스의 콜라보 프로젝트 [스프X뉴욕타임스]에선 일론 머스크가 주인이 된 트위터 문제를 다뤘습니다. 최근 머스크는 22개월 간 정지됐던 트럼프 전 미국 대통령의 트위터 계정을 복구 조치하기도 했죠. 머스크가 말하는 '언론의 자유'가 오히려 민주주의를 위협할 수 있다는 진단 살펴보시죠. 외신큐레이션 전문매체 '뉴스페퍼민트'가 함께 했습니다. [스프 X 뉴욕타임스] '일론 머스크'식 언론의 자유는 민주주의를 위협한다오랜 논란 끝에 테슬라(Tesla)의 창업자 일론 머스크(Elon Musk)가 트위터를 인수했습니다. 머스크를 새 주인으로 맞은 트위터는 상장을 철회하고 비공개기업이 됐는데, 이 과정에서 이미 갖은 내홍에 휩싸였습니다.머스크가 트위터를 인수한 경위, 그 과정에서 빚어진 여러 논란에 관해선 여러 언론이 자세히 정리하고 있습니다. 언젠가 머스크의 트위터 인수 일지를 함께 정리해보는 것도 재미있을 것 같은데요, 아직 '트위터 사태'가 종착지에 가지 않았으므로 그 작업은 다음 기회로 미루고, 오늘은 "언론의 자유의 메시아"를 자처하는 머스크가 왜 민주주의에 위험할 수 있는지, 그 위험이 구체적으로 어떻게 드러날지 짚어보겠습니다.먼저 뉴욕타임스 칼럼니스트 리디아 폴그린(Lydia Polgreen)이 쓴 칼럼 "If You Want to Understand How Dangerous Elon Musk Is, Look Outside America"을 옮겼습니다. **'보러가기' 버튼이 눌리지 않으면 해당 주소를 주소창에 옮겨 붙여서 보세요.[ https://premium.sbs.co.kr/article/4giXGSbTLY ]오늘의 마지막 스프, 데이터저널리즘팀 [마부작침]이 연속해서 전하는 지방의원들의 겸직 문제 세 번째 편입니다. 지방의원들은 월정수당을 4년에 한 번 '셀프 인상'하는데 내년 수당을 50%까지 올린 지방의회도 있습니다. 애초에 생계 곤란을 이유로 지방의원들만 겸직이 가능하도록 했던 취지가 무색해진 상황인데 이대로 둬도 될까요?  [마부작침] 내년 월급 50%나 올린 의원님들, 그래도 겸직이 필요할까요?왜 국회의원도, 공무원도 안 되는 겸직을 지방의원만 허용해 줬을까요? 불법 겸직 같은 문제가 근절되지 않고 있고, 의원 겸직 회사에 계약을 몰아주는 등 이해충돌 원인으로 지적받고 있는데도 말입니다. 지방의원 겸직이 필요한 이유에 대한 원론적인 물음이 생길 수밖에 없습니다. 이번 편에서는 지방의원들의 겸직 허용 취지가 여전히 유효한지에 대한 질문을 던져보려고 합니다. 저희는 의정비와 겸직으로 받는 수령액 분석을 통해서 답을 찾아봤습니다. 또 다른 문제점인 의정비 인상과 심의 과정에서도 허술한 부분은 없는지도 함께 짚어봤습니다.**'보러가기' 버튼이 눌리지 않으면 해당 주소를 주소창에 옮겨 붙여서 보세요.[ https://premium.sbs.co.kr/article/ocnqm3A13M ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>토스, 외부 전문가로 구성된 '데이터보호 준법 자문위원회' 출범</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006460286?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>좌측부터 이승건 토스 대표, 김승주 교수, 권헌영 교수, 김철준 고문, 신용석 토스 CPO.(토스 제공)(서울=뉴스1) 김정은 기자 = 모바일 금융 플랫폼 토스를 운영하는 비바리퍼블리카(이하 토스)는 외부 전문가 3인으로 구성된 데이터보호 준법 자문위원회를 출범한다고 16일 밝혔다. 자문위원회는 토스가 보유한 고객 데이터에 대한 처리가 관련 법령을 잘 준수하고 있는지 독립적으로 확인하고 감시하며, 안전한 데이터 거버넌스 체계를 구축하기 위한 자문 역할을 수행한다.또 위원회는 회사의 데이터 보호 전략 및 정책, 준법 감시 활동을 반기마다 보고 받고 개인 정보처리 민감도가 높은 사안에 대해서는 대표이사 및 개인정보보호책임자(CPO)에게 의견을 제시할 예정이다. 토스는 위원회의 의견을 적극적으로 수용하고 관련 결과를 홈페이지에 공개할 방침이다.이번 자문위원회 출범은 자발적인 데이터 이용 및 보호에 대한 투명성을 높이는 자발적 신뢰 강화 활동의 일환이다. 위원장은 현재 한국IT서비스학회 회장과 한국정보보호학회 개인정보보호 연구회장을 맡고 있는 고려대 정보보호대학원 권헌영 교수가 맡았다. 자문위원으로는 고려대 정보보호대학원 김승주 교수와 법무법인 광장의 김철준 고문이 참여했다.신용석 토스 CPO는 "매월 국민 1400만 명이 사용하는 금융 플랫폼으로 성장하면서, 외부 시선을 통해 더욱 적극적으로 고객 데이터 보호체계의 투명성을 점검 받고 개선해 나갈 필요가 있다는 내부 공감대가 있었다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.11.16.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>[알림]이데일리 IT컨버전스포럼(ECF), 오늘 10시 유튜브 생중계</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005368117?sid=105</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>오늘 오전 10시부터 앰배서더서울 풀만 호텔서 열려‘우영우’’ 제작 스튜디오지니 김철연 대표 기조연설오세현 SKT 부사장 등 ‘넥스트 인터넷’ 웹3 강연유튜브 ‘이데일리 프렌즈’ 생중계[이데일리 김현아 기자]한국도 내년 1%대 저성장에 그칠 것이라는 전망이 제기되는 등 내년까지 경기 위기 상황이 이어질 것이라는 경고음이 높아지는 가운데 디지털 시대를 맞은 기업들의 생존 전략을 모색하는 자리가 열립니다.이데일리는 오늘(16일) 서울시 중구 앰배서더서울 풀만 호텔 그랜드볼룸에서 ‘위기 넘어 기회 있다: 디지털 전환 시대 생존전략’을 주제로 ‘제9회 이데일리 IT컨버전스포럼(ECF) 2022’를 개최합니다. 이 행사는 ‘이데일리 프렌즈’ 유튜브 채널(https://www.youtube.com/watch?v=RsMozZaIPTo)에서도 오전 10시부터 생중계됩니다.이번 포럼은 드라마 ‘이상한 변호사 우영우’를 제작한 김철연 스튜디오지니 대표의 기조연설로 문을 엽니다. 전 세계 시청시간 4억 시간을 기록한 ‘우영우’의 성공 비결과 글로벌 콘텐츠·미디어 시장 전망 등을 공유합니다.‘디지털 경제 성공을 위한 규제 혁신 방향은? 플랫폼, AI, 데이터를 중심으로’를 주제로 규제 정책 방향을 논의하는 장도 마련했습니다. 이성엽 고려대 기술법정책센터장(좌장), 엄열 과학기술정보통신부 인공지능기반정책관, 박성호 한국인터넷기업협회 회장, 이윤조 김앤장 변호사가 토론합니다.오세현 SK텔레콤 Digital Asset CO(부사장)는 오후 세션 1부에서 ‘넥스트 인터넷’으로 여겨지는 웹3에 대해 강연을 진행합니다. 거대 플랫폼이 데이터를 소유하는 현재 인터넷과 달리 개인이 직접 데이터를 소유하는 웹3가 바꾸는 세상을 소개합니다.아울러 서현우 비바리퍼블리카 사업전략 헤드는 토스의 슈퍼앱 전략을, 박준희 카페24 디지털전략연구소장은 글로벌 커머스 시장 진출 전략을 제시하며 박서하 티맵모빌리티 퓨처모빌리티 그룹장은 도심항공모빌리티(UAM) 시대를 이끄는 모빌리티 플랫폼의 진화에 대해, 정재성 로앤컴퍼니 부대표는 글로벌 시장 동향과 로톡의 전략을 공유합니다.2부에선 △이경일 컴투버스 대표 △권순일 업스테이지 비즈총괄 △한상영 네이버클라우드 기획·전략 상무 △김수종 이노스페이스 대표가 메타버스·AI·클라우드·우주개발 등 기술 분야별 사업 전략을 발표합니다.여러분의 응원과 따뜻한 관심을 부탁드립니다. ECF 2022는 무료입니다. 오늘 행사장 접수 선착순 200명에게 점심 식권을 제공합니다.◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계https://www.youtube.com/watch?v=RsMozZaIPTo</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.11.19.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>앱 하나로 대출 이자 비교→갈아타기…"고객 떠날라" 속타는 2금융권</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004819827?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>[[핀토크]] /사진=머니투데이금융당국이 모바일 앱을 통해 대출을 갈아탈 수 있는 '대환대출 플랫폼' 출시 밑그림을 확정했다. 상대적으로 고금리 대출을 취급하는 제2금융권이 '전전긍긍'하는 분위기다. 금리가 저렴한 시중은행에 고객을 뺏길 가능성이 있어서다.19일 금융권에 따르면 금융당국은 이달 중 각 금융업권·핀테크·금융결제원 등이 참여하는 TF(태스크포스)를 꾸리고, 대환대출플랫폼의 2023년 5월 운영 개시를 위한 시스템 구축 논의에 착수할 계획이다.대환대출 플랫폼은 은행과 저축은행, 카드사, 캐피탈사 등 1·2금융권으로 받은 자신의 대출과 다른 회사 대출상품을 모바일 앱으로 비교한 뒤 비대면, 원스톱으로 갈아탈 수 있는 서비스다. '신용대출' 상품이 대상이다. 금결원망을 이용하고 있지 않은 대부업권과 신용대출 규모가 미미한 보험업권은 제외된다.자신의 금리 현황을 비교할 수 있어 소비자에게 유리하게 작용할 것으로 점쳐진다. 다만 저축은행과 카드사 등 제2금융권은 현재 플랫폼 참여에 난색이다. 저축은행은 대환대출 플랫폼이 활성화하면 건전성 부담이 가중될 것이라고 우려한다. 금리인상기를 맞아 전 금융권의 예금금리 인상 경쟁이 심화하면서 저축은행 예금 고객이 은행으로 빠져 나갔듯, 대환대출 플랫폼이 도입되면 조금이라도 싼 금리를 찾아 대출 고객들이 은행으로 대거 이탈할 수 있어서다. 지난해 금융당국의 가계대출 규제 '풍선효과'로 시중은행에서 밀려나 저축은행으로 왔던 우량 고객을 다시 뺏길 수도 있다. 대출 고객 이탈에 대비해 미리 수신자금을 넉넉히 확보해 둬야 한다는 점도 문제다. 가뜩이나 금리인상기를 맞아 은행과 예금금리 경쟁을 벌이고 있는 상황에서 자금조달 비용이 더 상승할 수밖에 없다.한 저축은행 관계자는 "TF 논의가 아직 본격화하지 않아 좀 더 지켜봐야겠지만, 산적한 대내외적 리스크에 또다른 고민이 추가된 셈"이라며 "대형 저축은행은 중금리 대출 고객을 확보하려는 전략을 가져갈 수 있겠지만, 중소형 저축은행은 그마저도 여의치 않아 업권 내 양극화가 더 심화할 가능성도 있다"고 말했다.카드사와 캐피탈사 사정도 비슷하다. 수신 기능이 없는 여전사들은 대다수 자금을 채권시장에서 조달한다. 최근 단기금융시장 불안이 심화하면서 조달비용이 크게 오른 상황이다. 실제 금융투자협회 채권정보센터에 따르면 AA+ 등급 여전채 3년물 금리는 지난 17일 기준 연 5.871%를 기록, 지난해 말(연 2.372%)과 비교해 2배 이상 뛰었다. 조달 비용이 크게 오른 상황에서 대출 고객마저 타 업권에 빼앗기면 수익성 악화가 불가피하다.특히 대출에 중도상환수수료를 부과하지 않는 카드사의 경우 대환대출 문턱이 더 낮다. 앞서 토스뱅크가 '카드론 대환대출 서비스'를 출시했다가 카드사들의 반발에 부딪혀 서비스를 잠정 중단했던 것도 이런 이유에서다.금융당국은 대환대출이 활성화할 경우 발생할 수 있는 부작용을 고려해 '시범운영' 기간을 둔다는 계획이다. 과도한 머니무브로 금융사의 리스크가 커질 수 있다는 점을 감안한 조치다. 2금융권 관계자는 "TF 논의 과정에서 여러 제한 장치를 둔다고 해도 결국 대환대출 플랫폼이 나오면 은행으로의 고객 이탈이 뻔해 2금융권은 영업 기반이 흔들릴 수밖에 없다"며 "나아가 대환대출 플랫폼 자체가 핀테크 플랫폼에 금융사 상품이 입점하는 형태이기 때문에 빅테크에 종속될 수 있다는 우려도 크다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.11.29.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 새 웹표준 프로토콜 도입…"서비스 로딩 빨라져"</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000312356?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>토스의 전자결제(PG) 계열사인 토스페이먼츠가 새로운 웹표준 프로토콜을 업계 최초로 도입했습니다.토스페이먼츠는 3세대 웹표준 프로토콜인 'HTTP/3'을 PG 업계 최초로 도입했다고 오늘(29일) 밝혔습니다. HTTP/3은 인터넷에서 정보를 주고 받기 위한 3세대 웹표준 프로토콜로, '/3'은 세 번째 메이저 버전을 의미합니다.HTTP/3은 지난 6월 국제인터넷기술위원회(IETF)가 차세대 웹 통신 표준 프로토콜로 제정한 바 있으며, 구글이나 메타 등 글로벌 빅테크 기업은 이미 HTTP/3을 채택해 서비스를 운영하고 있습니다.토스페이먼츠는 가맹점과 일반 사용자의 이용 빈도가 높은 ▲전자 결제 서비스 ▲브랜드페이 ▲상점관리자 ▲전자계약 온보딩 서비스 등에 HTTP/3을 적용했으며, 그 외 서비스에 대해서는 순차적으로 적용될 예정입니다.토스페이먼츠는 HTTP/3 적용으로 웹페이지 데이터가 서비스 사용자에게 도달하는 시간을 줄이고, 이를 통해 사용자가 경험하는 서비스 로딩 속도를 개선할 수 있다고 강조했습니다.특히, HTTP/3가 최신 암호화 규격인 TLS 1.3 버전을 준용하고 있어, 토스페이먼츠의 서비스 정보보호 강화에 도움이 될 것으로 봤습니다.강병훈 토스페이먼츠 최고기술책임자(CTO)는 "토스페이먼츠는 정체된 국내 PG 산업에서 새로운 변화를 만들기 위한 노력을 이어 나가고 있다"며 "한국의 첫 페이테크 기업으로서 더욱 편리하고 안전한 결제 시스템을 구축하기 위해 투자를 지속해 나가겠다"고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.11.24.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>'국민비서' 구삐, 우리·하나금융 모바일앱서도 이용가능</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011555117?sid=102</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>기사내용 요약행안부, 업무협약 체결…서비스 채널 총 12개로[세종=뉴시스] 우리은행(우리WON뱅킹)과 하나은행(하나원큐) 앱에서의 국민비서 서비스 신청 방법. (자료= 행정안전부 제공) 2022.11.24.[세종=뉴시스] 변해정 기자 = 우리·하나 금융사의 모바일 애플리케이션(앱)으로도 국민비서 알림서비스를 이용할 수 있게 된다. 행정안전부는 오는 25일 우리은행, 우리카드, 하나은행, 하나카드 등 4개 금융기관과 '국민비서 서비스 제공 및 이용 활성화를 위한 업무협약(MOU)'을 체결한다고 24일 밝혔다.국민비서 구삐는 국민들이 자주 이용하는 민간 앱으로 각종 행정 정보를 때맞춰 제공해주는 알림서비스다. 현재 세금·고지·미환급금 안내, 주민등록 조회, 내 정보조회 내역 확인, 백신접종 예약 등 34종을 안내하고 있다.지난해 3월 서비스를 시작했으며 올해 10월13일에 가입자 1500만명을 돌파했다. 국민 10명 중 약 3명이 이용하는 셈이다.  이번 MOU에 따라 서비스 채널이 기존 카카오톡·네이버·토스·페이코·KB국민은행·KB국민카드·신한은행·신한카드 8개 앱에서 12개 앱으로 늘어나게 된다. 해당 앱은 우리은행의 '우리WON뱅킹', 우리카드의 '우리WON카드', 하나은행의 '하나원큐', 하나카드의 '1QPay'이다. 앱에 접속한 후 국민비서 메뉴를 선택해 신청하면 된다. 행안부는 이용자의 서비스 선택 폭을 넓히기 위해 민간 기관들과의 연계를 계속 모색해 나갈 계획이다.한창섭 행안부 차관은 "국민비서는 정부와 민간이 서로 협력해 공공서비스를 제공하는 디지털플랫폼정부의 대표적인 사례"라며 "앞으로도 국민이 자주 사용하는 앱을 통해 보다 편리하게 공공서비스를 이용할 수 있도록 민간과 지속 협력해 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.11.22.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>자영업자 대출 1000조 시대…'사장님 금융' 인기</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004931644?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜이 지난 10월 출시한 '네이버페이 사업자 대출비교' 서비스 관련 이미지. 네이버파이낸셜 제공[파이낸셜뉴스]   #.일시적으로 3000만원의 사입 자금이 필요한 온라인 판매업자 A씨는 1금융권에는 대출 한도가 이미 다 찼지만 금리 부담과 신용점수에 영향을 미칠까 두려워 2금융권 대출은 생각지도 않았다. 자금을 마련할 방안을 고민하던 중 '네이버페이 사업자 대출비교'를 통해 개인 신용점수에 영향을 미치지 않는 개인 사업자 신용대출이 있는 것을 확인하고 2금융권에서 대출을 받을 수 있었다.  기준금리가 3%에 달하면서 가계대출이 주춤하자 자영업자를 위한 사업자 금융 서비스가 기회 시장으로 떠오르고 있다. 인터넷은행들은 비금융 정보를 신용평가에 반영해 더 유리한 조건으로 대출이 가능한 사업자 신용대출을 잇따라 선보였고, 일부 금융사는 사업자 전용 대출 상품을 새로 개발했다. 올해 자영업자 대출 잔액이 1000조원을 넘을 것으로 예측되는 가운데, 대출이 필요한 자영업자들의 부담을 덜어주는 서비스가 주목받고 있다.    ■2금융권에서도 '사업자 전용' 대출 상품 개발 22일 금융권에 따르면 일부 2금융권의 금융사들은 지난 10월 네이버파이낸셜이 출시한 '네이버페이 사업자 대출비교'에 입점하기 위해 사업자 계정의 전용 신용대출 상품을 만들었다. 사업자 전용 대출 상품은 사업자 개인의 신용점수에 영향을 미치지 않는다.   수익성은 낮고 리스크는 높다는 인식 탓에 관심도가 낮았던 개인사업자 대출 시장에 2금융권도 활발히 참여하고 있는 것이다. 기존에는 2금융권 사업자대출은 개인대출 상품으로, 기업대출과 달리 개인 신용점수에 영향을 줬다.   현재 네이버파이낸셜 대출비교에 입점한 금융사는 1금융권은 우리은행·케이뱅크·토스뱅크·전북은행, 2금융권은 KB국민카드·롯데캐피탈·웰컴저축은행·한국투자저축은행·OK저축은행이다. 현대캐피탈도 연내 입점된다.   네이버파이낸셜 관계자는 "현재 시장에서 자영업자 대출은 사업자상품과 개인상품이 많이 섞여 있지만 사업자 전용의 대출 상품으로만 비교해보고 싶은 사업자들의 니즈에 맞췄다"며 "자영업자의 경우 가급적 사업자 계정의 전용 대출을 이용한다면 개인 신용점수 하락에 대한 걱정 없이 보다 안정적인 금융생활을 할 수 있다"고 말했다.   실제 한국은행에 따르면 지난 2·4분기 국내 자영업자의 대출잔액은 994조 2000억원 규모다. 코로나 이전인 2018년 말 기준의 대출 잔액 624조 3000억원, 2019년 말 684조 9000억원에서 가파르게 상승했다. 이 중 사업자 대출은 약 65%에 해당하는 648조 7000억원이며, 가계대출은 345조 4000억원이다. 전체 자영업자대출의 약 84%는 개인사업자대출과 가계대출을 동시에 보유한 차주의 대출이다.    ■금융권, 개인사업자 대출 시장 진입 활발 대출비교 플랫폼뿐 아니라 인터넷전문은행도 사업자 대출을 차례로 출시하며 새로운 격전지로 떠올랐다.   최근 카카오뱅크가 '개인사업자 뱅킹'을 내세우면서 올 상반기 자영업자 전용 대출을 시작한 토스뱅크와 케이뱅크에 이어 인터넷전문은행 3사 모두가 개인사업자 대출을 취급하게 됐다.   인터넷전문은행 모두 비금융데이터를 접목시킨 자체 신용평가 모형으로 대출을 심사해, 사업자들이 보다 유리하게 대출을 받을 수 있도록 하고 있다.   온라인 스토어 매출과 단골고객 비중 등의 데이터를 활용해, 자영업자 가운데서도 대출을 받기에 가장 불리한 온라인 사업자에게 대출을 제공한 네이버파이낸셜과 미래에셋캐피탈도 사업자대출 증가에 맞춰 서비스 개선을 위한 리뉴얼에 들어간다. 네이버 스마트스토어를 운영하는 사업자 뿐만 아니라 대상 사업자를 더 확대하기 위한 고도화에 들어간다는 것이다. 다만 '우리은행 스마트스토어 사업자 대출'은 지속 이용 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.11.23.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>이재용·최태원, 연말에 베트남·일본 등으로 출장</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000857148?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>이재용 삼성전자 회장과 최태원 SK그룹 회장이 연말 해외 출장을 통해 글로벌 광폭 행보에 나선다.23일 재계에 따르면 이 회장은 오는 연말 베트남과 일본, 인도 등 해외 출장에 나설 것으로 전망된다. 가장 유력한 해외 출장지로는 베트남이 거론된다. 이 회장은 다음달 베트남 삼성전자 연구개발(R&amp;D)센터 준공식에 참석 할 것으로 관측된다. 삼성전자는 2020년 3월부터 하노이 떠이호 신도시 부근에 2억2000만달러(당시 환율 약 2600억원)를 투자해 R&amp;D센터를 짓고 있다. 준공식에는 응우옌 쑤언 푹 베트남 총리도 참석할 것으로 전해졌다.이 회장은 2020년 10월에도 베트남을 방문했었다. 당시 R&amp;D센터 신축 현장을 둘러보고 공사 진행 상황 등을 점검한 이 회장은 응우옌 총리와 단독 면담을 하고 “신축 R&amp;D 센터가 삼성그룹의 연구·개발의 거점이 되도록 지원하겠다”고 약속한 바 있다.일본도 유력한 출장 후보지로 꼽힌다. 고 이건희 선대회장은 삼성그룹 내 중요한 의사결정을 할 때 일본에 장기간 체류했고, 이 회장도 일본 인맥이 두터운 것으로 알려졌다.이재용 삼성전자 회장(왼쪽)과 최태원 SK그룹 회장./각사 제공        재판 일정에 구애받지 않고 짧게 다녀올 수 있는 중국, 인도 등도 주요 예상 출장지로 꼽힌다. 인도에는 노이다와 첸나이 지역을 중심으로 스마트폰과 가전·TV 생산공장을 두고 있다. 이 회장은 현재 매주 목요일에는 삼성물산-제일모직 부당합병 혐의 재판에, 3주 간격으로 금요일에는 삼성바이오로직스 분식회계 의혹 재판에 출석하고 있다.재계 관계자는 “이 회장이 글로벌 화두를 파악하고 미래를 준비하기 위해 해외 출장을 많이 나갈 것으로 보인다”고 말했다.최태원 회장도 연말 프랑스, 일본, 미국 등을 잇달아 방문할 것으로 전해졌다. 오는 29일 프랑스 파리에서 열리는 제171차 국제박람회기구(BIE) 총회 3차 경쟁 프리젠테이션에 참석한다. 최 회장은 지난 6월에 열린 2차 총회에도 직접 참석했다.이어 다음달 1~2일 이틀간 일본 도쿄대에서 열리는 ‘도쿄포럼 2022′에 참석한다. 최 회장은 후지이 데루오 도쿄대학 총장과 함께 개회 인사를 한다. 포럼에는 반기문 전 유엔(UN) 사무총장, 폴 일리비사토스 시카고대학 총장 등이 기조 연설을 맡았다. 올해 4회를 맞은 ‘도쿄포럼’은 도쿄대학과 최종현학술원이 매년 공동 개최하는 국제 포럼이다. 최 회장은 선친인 최종현 선대회장의 이름을 딴 최종현학술원의 이사장을 맡고 있다.이어 5~7일에는 미국 워싱턴DC에서 열리는 ‘제2회 트랜스 퍼시픽 다이얼로그(TPD)’에도 참석할 것으로 전해졌다. 최 회장 주도로 지난해 출범한 TPD는 집단지성 플랫폼으로, 한·미·일 전현직 고위 관료들과 학자, 재계 인사 등이 참여해 각종 현안을 논의하는 자리다. 최 회장은 2021년 12월6일 미국 워싱턴D.C. 인근 샐러맨더리조트에서 ‘제1회 TDP’를 개최했다. 이번 미국 출장 때 테네시·켄터키주에 들어서는 SK온-포드 합작 배터리 공장인 ‘블루오벌SK’의 공사 현장을 방문할 가능성도 제기된다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
